--- a/results/regression_simulations.xlsx
+++ b/results/regression_simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arushi Jain\MIT Dropbox\Arushi Jain\FairAI\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E253467-DD0F-4FB0-B1F5-5B0BE0AF6F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D2DEBF-95F3-49AF-984B-55A735B4BC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,27 +546,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -879,14 +859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="H185" sqref="H185"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="40.08984375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -946,7 +923,7 @@
         <v>0.98629175867597219</v>
       </c>
       <c r="H2">
-        <v>1.0033486217182179</v>
+        <v>0.99413246603836902</v>
       </c>
       <c r="I2">
         <v>2.0202064195752971</v>
@@ -981,7 +958,7 @@
         <v>0.9861402798576866</v>
       </c>
       <c r="H3">
-        <v>0.99690887073759193</v>
+        <v>0.99325217600024451</v>
       </c>
       <c r="I3">
         <v>1.979873903021562</v>
@@ -1016,7 +993,7 @@
         <v>0.99980199352791899</v>
       </c>
       <c r="H4">
-        <v>0.99967301330084068</v>
+        <v>0.989054251185435</v>
       </c>
       <c r="I4">
         <v>2.0015142301736031</v>
@@ -1051,7 +1028,7 @@
         <v>0.99174771333024647</v>
       </c>
       <c r="H5">
-        <v>1.200321778387313</v>
+        <v>0.83322329433998188</v>
       </c>
       <c r="I5">
         <v>2.4640464681148448</v>
@@ -1156,7 +1133,7 @@
         <v>0.6160144393999295</v>
       </c>
       <c r="H8">
-        <v>0.99886240867130305</v>
+        <v>0.97808857731614407</v>
       </c>
       <c r="I8">
         <v>2.360937183529296</v>
@@ -1191,7 +1168,7 @@
         <v>0.81176399027521651</v>
       </c>
       <c r="H9">
-        <v>1.003693394780288</v>
+        <v>0.98844695433765872</v>
       </c>
       <c r="I9">
         <v>2.1156689972862708</v>
@@ -1226,7 +1203,7 @@
         <v>0.80225877007993829</v>
       </c>
       <c r="H10">
-        <v>1.0041822035425261</v>
+        <v>0.99239090482874948</v>
       </c>
       <c r="I10">
         <v>2.0840075002697058</v>
@@ -1296,7 +1273,7 @@
         <v>0.82136120982996619</v>
       </c>
       <c r="H12">
-        <v>1.0600167589820371</v>
+        <v>0.94406958050364786</v>
       </c>
       <c r="I12">
         <v>2.2521372041469712</v>
@@ -1331,7 +1308,7 @@
         <v>0.8713853997149531</v>
       </c>
       <c r="H13">
-        <v>1.0597405373889619</v>
+        <v>0.94395077485983359</v>
       </c>
       <c r="I13">
         <v>2.2365055078083351</v>
@@ -1366,7 +1343,7 @@
         <v>0.98687799882412086</v>
       </c>
       <c r="H14">
-        <v>1.002256486917982</v>
+        <v>0.99000639926634637</v>
       </c>
       <c r="I14">
         <v>2.020234340312455</v>
@@ -1401,7 +1378,7 @@
         <v>0.98605864771081886</v>
       </c>
       <c r="H15">
-        <v>0.99881000841875633</v>
+        <v>0.98855907310776125</v>
       </c>
       <c r="I15">
         <v>1.980007082337206</v>
@@ -1436,7 +1413,7 @@
         <v>0.99913485567833971</v>
       </c>
       <c r="H16">
-        <v>0.99903818973328085</v>
+        <v>0.98693476559459536</v>
       </c>
       <c r="I16">
         <v>2.0015310172164429</v>
@@ -1471,7 +1448,7 @@
         <v>0.99284627355771693</v>
       </c>
       <c r="H17">
-        <v>1.300676953360804</v>
+        <v>0.76892215260631536</v>
       </c>
       <c r="I17">
         <v>2.6972705752431221</v>
@@ -1576,7 +1553,7 @@
         <v>0.52932190335338847</v>
       </c>
       <c r="H20">
-        <v>0.98535928646464033</v>
+        <v>0.9411711895428071</v>
       </c>
       <c r="I20">
         <v>2.559347513349794</v>
@@ -1611,7 +1588,7 @@
         <v>0.76825767681136292</v>
       </c>
       <c r="H21">
-        <v>1.021162992884973</v>
+        <v>0.97064662025408632</v>
       </c>
       <c r="I21">
         <v>2.1353038352670248</v>
@@ -1646,7 +1623,7 @@
         <v>0.7586190454334597</v>
       </c>
       <c r="H22">
-        <v>1.0175898102240519</v>
+        <v>0.97604160404582041</v>
       </c>
       <c r="I22">
         <v>2.1079845762334508</v>
@@ -1716,7 +1693,7 @@
         <v>0.74455241562955587</v>
       </c>
       <c r="H24">
-        <v>1.0852527971369761</v>
+        <v>0.92452242272013263</v>
       </c>
       <c r="I24">
         <v>2.6181999791958979</v>
@@ -1751,7 +1728,7 @@
         <v>0.79364508361614949</v>
       </c>
       <c r="H25">
-        <v>1.0888011113826599</v>
+        <v>0.92053564190916815</v>
       </c>
       <c r="I25">
         <v>2.539670640256225</v>
@@ -1786,7 +1763,7 @@
         <v>0.99525020690052191</v>
       </c>
       <c r="H26">
-        <v>0.99667190104587922</v>
+        <v>0.99276239709755221</v>
       </c>
       <c r="I26">
         <v>1.500137901938561</v>
@@ -1821,7 +1798,7 @@
         <v>0.99119346129904973</v>
       </c>
       <c r="H27">
-        <v>1.009499398395858</v>
+        <v>0.98737544446726333</v>
       </c>
       <c r="I27">
         <v>1.5248826081915381</v>
@@ -1856,7 +1833,7 @@
         <v>0.99508407638048424</v>
       </c>
       <c r="H28">
-        <v>0.99130208438199641</v>
+        <v>0.98125080971792455</v>
       </c>
       <c r="I28">
         <v>3.906512918595197</v>
@@ -1891,7 +1868,7 @@
         <v>0.98902686662755812</v>
       </c>
       <c r="H29">
-        <v>1.293830882385604</v>
+        <v>0.77297367558340646</v>
       </c>
       <c r="I29">
         <v>2.0755383464951218</v>
@@ -1996,7 +1973,7 @@
         <v>0.53420230733632057</v>
       </c>
       <c r="H32">
-        <v>0.97209287205261219</v>
+        <v>0.94022405337248838</v>
       </c>
       <c r="I32">
         <v>2.1433882931843931</v>
@@ -2031,7 +2008,7 @@
         <v>0.69933726499014282</v>
       </c>
       <c r="H33">
-        <v>1.0353022883942471</v>
+        <v>0.96462104673374938</v>
       </c>
       <c r="I33">
         <v>1.5194536862568491</v>
@@ -2066,7 +2043,7 @@
         <v>0.8034660428215723</v>
       </c>
       <c r="H34">
-        <v>1.0155407077510969</v>
+        <v>0.97508524572161925</v>
       </c>
       <c r="I34">
         <v>4.1742702686586508</v>
@@ -2136,7 +2113,7 @@
         <v>0.67876893896333312</v>
       </c>
       <c r="H36">
-        <v>1.120918743363837</v>
+        <v>0.8939768856783612</v>
       </c>
       <c r="I36">
         <v>2.5185978571729</v>
@@ -2171,7 +2148,7 @@
         <v>0.79792290569333246</v>
       </c>
       <c r="H37">
-        <v>1.069496356155919</v>
+        <v>0.9352308850543497</v>
       </c>
       <c r="I37">
         <v>4.7492690252661598</v>
@@ -2206,7 +2183,7 @@
         <v>0.99630904070212567</v>
       </c>
       <c r="H38">
-        <v>1.0059793184832151</v>
+        <v>0.99090483263141305</v>
       </c>
       <c r="I38">
         <v>3.0230988248619211</v>
@@ -2241,7 +2218,7 @@
         <v>0.9999414477723968</v>
       </c>
       <c r="H39">
-        <v>0.99073965711458134</v>
+        <v>0.98379065191549264</v>
       </c>
       <c r="I39">
         <v>2.9840985005777658</v>
@@ -2276,7 +2253,7 @@
         <v>0.99952766306942498</v>
       </c>
       <c r="H40">
-        <v>1.0052088279972291</v>
+        <v>0.9861489493722807</v>
       </c>
       <c r="I40">
         <v>1.223540623676882</v>
@@ -2311,7 +2288,7 @@
         <v>0.99391567178720497</v>
       </c>
       <c r="H41">
-        <v>0.98799890191681572</v>
+        <v>0.98013478078823735</v>
       </c>
       <c r="I41">
         <v>18.723913515424162</v>
@@ -2346,7 +2323,7 @@
         <v>0.99429627125826292</v>
       </c>
       <c r="H42">
-        <v>1.2094310762113469</v>
+        <v>0.82717376777580953</v>
       </c>
       <c r="I42">
         <v>3.0465653488225581</v>
@@ -2486,7 +2463,7 @@
         <v>0.85200686471291232</v>
       </c>
       <c r="H46">
-        <v>1.010595152726997</v>
+        <v>0.97726803959859598</v>
       </c>
       <c r="I46">
         <v>3.099026804169438</v>
@@ -2521,7 +2498,7 @@
         <v>0.95881006696169613</v>
       </c>
       <c r="H47">
-        <v>0.9918845559256334</v>
+        <v>0.97399650233441082</v>
       </c>
       <c r="I47">
         <v>2.9360923055203632</v>
@@ -2556,7 +2533,7 @@
         <v>0.93726505468259314</v>
       </c>
       <c r="H48">
-        <v>1.002260985196556</v>
+        <v>0.98760943136310242</v>
       </c>
       <c r="I48">
         <v>1.2326240071756041</v>
@@ -2591,7 +2568,7 @@
         <v>0.93138850419548569</v>
       </c>
       <c r="H49">
-        <v>0.98987265215408338</v>
+        <v>0.97715874827274984</v>
       </c>
       <c r="I49">
         <v>19.458349615130199</v>
@@ -2661,7 +2638,7 @@
         <v>0.97248351373465725</v>
       </c>
       <c r="H51">
-        <v>1.072279820813965</v>
+        <v>0.93321592280098997</v>
       </c>
       <c r="I51">
         <v>3.0350426131435171</v>
@@ -2696,7 +2673,7 @@
         <v>0.95847643017646278</v>
       </c>
       <c r="H52">
-        <v>1.0947085248328681</v>
+        <v>0.91419502058196978</v>
       </c>
       <c r="I52">
         <v>1.226782053593575</v>
@@ -2731,7 +2708,7 @@
         <v>0.90849737273863096</v>
       </c>
       <c r="H53">
-        <v>1.264212123065958</v>
+        <v>0.79124505785548194</v>
       </c>
       <c r="I53">
         <v>24.77976625868277</v>
@@ -2766,7 +2743,7 @@
         <v>0.99500763077823673</v>
       </c>
       <c r="H54">
-        <v>1.343730016071101</v>
+        <v>0.74448549405023123</v>
       </c>
       <c r="I54">
         <v>3.2379855486344362</v>
@@ -2801,7 +2778,7 @@
         <v>0.99820118600519325</v>
       </c>
       <c r="H55">
-        <v>1.0214706804767539</v>
+        <v>0.97792739743569124</v>
       </c>
       <c r="I55">
         <v>3.0064405888259782</v>
@@ -2871,7 +2848,7 @@
         <v>0.99964438106685138</v>
       </c>
       <c r="H57">
-        <v>0.99849305095820107</v>
+        <v>0.97444121091201152</v>
       </c>
       <c r="I57">
         <v>18.69796519671549</v>
@@ -2906,7 +2883,7 @@
         <v>0.77509498977864699</v>
       </c>
       <c r="H58">
-        <v>1.003444063389364</v>
+        <v>0.96791361168419476</v>
       </c>
       <c r="I58">
         <v>3.205463220928781</v>
@@ -2941,7 +2918,7 @@
         <v>0.9831276599920139</v>
       </c>
       <c r="H59">
-        <v>0.97665769499791544</v>
+        <v>0.97345716666627269</v>
       </c>
       <c r="I59">
         <v>3.023605159714732</v>
@@ -2976,7 +2953,7 @@
         <v>0.78601056964838012</v>
       </c>
       <c r="H60">
-        <v>1.0187633820261719</v>
+        <v>0.97433194692686964</v>
       </c>
       <c r="I60">
         <v>1.2533107203362881</v>
@@ -3011,7 +2988,7 @@
         <v>0.99264090476352418</v>
       </c>
       <c r="H61">
-        <v>1.0187024459946881</v>
+        <v>0.96966288158852443</v>
       </c>
       <c r="I61">
         <v>19.12430841733087</v>
@@ -3081,7 +3058,7 @@
         <v>0.95159847923555785</v>
       </c>
       <c r="H63">
-        <v>0.95483230330415625</v>
+        <v>0.92877945078024293</v>
       </c>
       <c r="I63">
         <v>3.0246151678403752</v>
@@ -3116,7 +3093,7 @@
         <v>0.78704509550693713</v>
       </c>
       <c r="H64">
-        <v>1.361595360563832</v>
+        <v>0.73459497061225809</v>
       </c>
       <c r="I64">
         <v>18.410831881239311</v>
@@ -3151,7 +3128,7 @@
         <v>0.98342980544166558</v>
       </c>
       <c r="H65">
-        <v>0.96693348300396176</v>
+        <v>0.95126037772587246</v>
       </c>
       <c r="I65">
         <v>18.555953341781859</v>
@@ -3186,7 +3163,7 @@
         <v>0.991446463766958</v>
       </c>
       <c r="H66">
-        <v>1.16978404667276</v>
+        <v>0.85510443203709297</v>
       </c>
       <c r="I66">
         <v>3.009263616566487</v>
@@ -3291,7 +3268,7 @@
         <v>0.99704049150321128</v>
       </c>
       <c r="H69">
-        <v>1.345449887101958</v>
+        <v>0.74570683734576837</v>
       </c>
       <c r="I69">
         <v>19.66764816855563</v>
@@ -3326,7 +3303,7 @@
         <v>0.88086493564594159</v>
       </c>
       <c r="H70">
-        <v>0.99239182280514371</v>
+        <v>0.99050278977357209</v>
       </c>
       <c r="I70">
         <v>3.027912961698604</v>
@@ -3361,7 +3338,7 @@
         <v>0.94182867062670317</v>
       </c>
       <c r="H71">
-        <v>1.0001371745325121</v>
+        <v>0.9855851803692206</v>
       </c>
       <c r="I71">
         <v>3.0233365653453501</v>
@@ -3396,7 +3373,7 @@
         <v>0.8934450404995552</v>
       </c>
       <c r="H72">
-        <v>1.008857812431571</v>
+        <v>0.98992040752769317</v>
       </c>
       <c r="I72">
         <v>1.228267310083889</v>
@@ -3431,7 +3408,7 @@
         <v>0.87870920939496333</v>
       </c>
       <c r="H73">
-        <v>0.99003156473782494</v>
+        <v>0.95283106712399102</v>
       </c>
       <c r="I73">
         <v>19.377738536008671</v>
@@ -3501,7 +3478,7 @@
         <v>0.9069207257395997</v>
       </c>
       <c r="H75">
-        <v>1.0650985315257959</v>
+        <v>0.93954130271494796</v>
       </c>
       <c r="I75">
         <v>3.045313045625738</v>
@@ -3536,7 +3513,7 @@
         <v>0.84375031458265559</v>
       </c>
       <c r="H76">
-        <v>1.090966840641062</v>
+        <v>0.91715321005634576</v>
       </c>
       <c r="I76">
         <v>1.2245082690746201</v>
@@ -3571,7 +3548,7 @@
         <v>0.96758132273102215</v>
       </c>
       <c r="H77">
-        <v>1.2544923995862209</v>
+        <v>0.79813346672882068</v>
       </c>
       <c r="I77">
         <v>19.801541447825262</v>
@@ -3606,7 +3583,7 @@
         <v>0.99833647953425186</v>
       </c>
       <c r="H78">
-        <v>0.98081493266156428</v>
+        <v>0.97206872487059937</v>
       </c>
       <c r="I78">
         <v>3.0285029988732588</v>
@@ -3676,7 +3653,7 @@
         <v>0.99661650640018951</v>
       </c>
       <c r="H80">
-        <v>1.282082846401934</v>
+        <v>0.78020602281017892</v>
       </c>
       <c r="I80">
         <v>1.303559905189773</v>
@@ -3746,7 +3723,7 @@
         <v>0.9752113390101409</v>
       </c>
       <c r="H82">
-        <v>0.99638362137013203</v>
+        <v>0.985430965683466</v>
       </c>
       <c r="I82">
         <v>3.0208457674069931</v>
@@ -3781,7 +3758,7 @@
         <v>0.81540933837867957</v>
       </c>
       <c r="H83">
-        <v>1.0184965306563289</v>
+        <v>0.97238212638174071</v>
       </c>
       <c r="I83">
         <v>3.0391832897619691</v>
@@ -3816,7 +3793,7 @@
         <v>0.78277579847633794</v>
       </c>
       <c r="H84">
-        <v>0.99320163105368975</v>
+        <v>0.96903740885716194</v>
       </c>
       <c r="I84">
         <v>1.313364129974818</v>
@@ -3851,7 +3828,7 @@
         <v>0.92064361229621383</v>
       </c>
       <c r="H85">
-        <v>1.018702544005105</v>
+        <v>0.96849351010648177</v>
       </c>
       <c r="I85">
         <v>18.809283835390332</v>
@@ -3956,7 +3933,7 @@
         <v>0.99207357990959188</v>
       </c>
       <c r="H88">
-        <v>1.3244449207639239</v>
+        <v>0.75561445479919875</v>
       </c>
       <c r="I88">
         <v>1.4176490489004101</v>
@@ -3991,7 +3968,7 @@
         <v>0.94432966901788751</v>
       </c>
       <c r="H89">
-        <v>0.95182629868643809</v>
+        <v>0.94947212860360375</v>
       </c>
       <c r="I89">
         <v>18.966980461103031</v>
@@ -4096,7 +4073,7 @@
         <v>0.99718801081545305</v>
       </c>
       <c r="H92">
-        <v>1.2143055365087221</v>
+        <v>0.82365349106334806</v>
       </c>
       <c r="I92">
         <v>1.2848845323156119</v>
@@ -4166,7 +4143,7 @@
         <v>0.92348170359026094</v>
       </c>
       <c r="H94">
-        <v>1.005740453065572</v>
+        <v>0.98671705654930753</v>
       </c>
       <c r="I94">
         <v>2.9973617952040672</v>
@@ -4201,7 +4178,7 @@
         <v>0.92646523823706317</v>
       </c>
       <c r="H95">
-        <v>0.99432384124731021</v>
+        <v>0.97898958968076055</v>
       </c>
       <c r="I95">
         <v>3.011107357809756</v>
@@ -4236,7 +4213,7 @@
         <v>0.83230072266845756</v>
       </c>
       <c r="H96">
-        <v>0.99808420116086982</v>
+        <v>0.98433944748330882</v>
       </c>
       <c r="I96">
         <v>1.267028430108577</v>
@@ -4271,7 +4248,7 @@
         <v>0.91534889041231082</v>
       </c>
       <c r="H97">
-        <v>1.0248720375679521</v>
+        <v>0.96406682598775606</v>
       </c>
       <c r="I97">
         <v>19.04453936408358</v>
@@ -4306,7 +4283,7 @@
         <v>0.93766867934187759</v>
       </c>
       <c r="H98">
-        <v>1.13973647419084</v>
+        <v>0.87835215903552499</v>
       </c>
       <c r="I98">
         <v>3.086556595039962</v>
@@ -4341,7 +4318,7 @@
         <v>0.94031785910724675</v>
       </c>
       <c r="H99">
-        <v>1.143987196827569</v>
+        <v>0.87472161960074923</v>
       </c>
       <c r="I99">
         <v>3.0705524585281418</v>
@@ -4411,7 +4388,7 @@
         <v>0.89780182357008276</v>
       </c>
       <c r="H101">
-        <v>1.370607251658537</v>
+        <v>0.73063803162265339</v>
       </c>
       <c r="I101">
         <v>35.552656370037788</v>
@@ -4516,7 +4493,7 @@
         <v>0.99852903914324831</v>
       </c>
       <c r="H104">
-        <v>1.156346277992496</v>
+        <v>0.86505330361115162</v>
       </c>
       <c r="I104">
         <v>1.224957589411136</v>
@@ -4551,7 +4528,7 @@
         <v>0.99504481910788289</v>
       </c>
       <c r="H105">
-        <v>1.307481888135591</v>
+        <v>0.76562895074243587</v>
       </c>
       <c r="I105">
         <v>19.23662519620342</v>
@@ -4586,7 +4563,7 @@
         <v>0.91189925348012124</v>
       </c>
       <c r="H106">
-        <v>1.0077157260429459</v>
+        <v>0.98249236198876988</v>
       </c>
       <c r="I106">
         <v>3.0054415082595631</v>
@@ -4621,7 +4598,7 @@
         <v>0.90313836936611436</v>
       </c>
       <c r="H107">
-        <v>1.0055852405882479</v>
+        <v>0.97812835239088591</v>
       </c>
       <c r="I107">
         <v>3.0133774145503649</v>
@@ -4656,7 +4633,7 @@
         <v>0.88374263618819138</v>
       </c>
       <c r="H108">
-        <v>0.99344241257159205</v>
+        <v>0.99004445557201037</v>
       </c>
       <c r="I108">
         <v>1.2455663514066291</v>
@@ -4691,7 +4668,7 @@
         <v>0.89918911954357805</v>
       </c>
       <c r="H109">
-        <v>0.98888639150064095</v>
+        <v>0.95333791687269032</v>
       </c>
       <c r="I109">
         <v>18.71223180344694</v>
@@ -4726,7 +4703,7 @@
         <v>0.83732952564159047</v>
       </c>
       <c r="H110">
-        <v>1.1301866141146251</v>
+        <v>0.88593978540549301</v>
       </c>
       <c r="I110">
         <v>3.017956694749484</v>
@@ -4761,7 +4738,7 @@
         <v>0.83948005594467268</v>
       </c>
       <c r="H111">
-        <v>1.1356724211260389</v>
+        <v>0.88164133802214284</v>
       </c>
       <c r="I111">
         <v>2.985254648710352</v>
@@ -4831,7 +4808,7 @@
         <v>0.99493800642895291</v>
       </c>
       <c r="H113">
-        <v>1.3674201199471929</v>
+        <v>0.73306008729316285</v>
       </c>
       <c r="I113">
         <v>20.84880838762864</v>
@@ -4866,7 +4843,7 @@
         <v>0.99874251494382005</v>
       </c>
       <c r="H114">
-        <v>1.2567499646612861</v>
+        <v>0.7959197419325158</v>
       </c>
       <c r="I114">
         <v>3.0705043464807531</v>
@@ -4971,7 +4948,7 @@
         <v>0.99677522344205627</v>
       </c>
       <c r="H117">
-        <v>0.99331748720223512</v>
+        <v>0.9755239208850357</v>
       </c>
       <c r="I117">
         <v>19.491875251925268</v>
@@ -5006,7 +4983,7 @@
         <v>0.81503520124460882</v>
       </c>
       <c r="H118">
-        <v>0.99879886161996667</v>
+        <v>0.96939788424587581</v>
       </c>
       <c r="I118">
         <v>3.16454043144984</v>
@@ -5041,7 +5018,7 @@
         <v>0.84126311712167068</v>
       </c>
       <c r="H119">
-        <v>1.0056132362293131</v>
+        <v>0.97818846727603326</v>
       </c>
       <c r="I119">
         <v>3.042787312664891</v>
@@ -5076,7 +5053,7 @@
         <v>0.97647143144894111</v>
       </c>
       <c r="H120">
-        <v>0.99665018625678514</v>
+        <v>0.98726231803149311</v>
       </c>
       <c r="I120">
         <v>1.2066244183695061</v>
@@ -5111,7 +5088,7 @@
         <v>0.99729754043966012</v>
       </c>
       <c r="H121">
-        <v>1.023070878009698</v>
+        <v>0.96311133083958478</v>
       </c>
       <c r="I121">
         <v>19.10782360975233</v>
@@ -5181,7 +5158,7 @@
         <v>0.8243309687210536</v>
       </c>
       <c r="H123">
-        <v>1.317223094733398</v>
+        <v>0.75950135801475782</v>
       </c>
       <c r="I123">
         <v>7.5724832590493438</v>
@@ -5216,7 +5193,7 @@
         <v>0.98853382619622288</v>
       </c>
       <c r="H124">
-        <v>1.006963502382809</v>
+        <v>0.94812030379086654</v>
       </c>
       <c r="I124">
         <v>1.2164122795645369</v>
@@ -5251,7 +5228,7 @@
         <v>0.9921331702570001</v>
       </c>
       <c r="H125">
-        <v>1.0183803340504669</v>
+        <v>0.9610368094627727</v>
       </c>
       <c r="I125">
         <v>18.940903410917478</v>
@@ -5286,7 +5263,7 @@
         <v>0.99573915934482915</v>
       </c>
       <c r="H126">
-        <v>1.060932945724991</v>
+        <v>0.94281787073042889</v>
       </c>
       <c r="I126">
         <v>2.985008122294043</v>
@@ -5321,7 +5298,7 @@
         <v>0.99872288729348857</v>
       </c>
       <c r="H127">
-        <v>1.318791878833153</v>
+        <v>0.75848934450542882</v>
       </c>
       <c r="I127">
         <v>3.222436691669528</v>
@@ -5426,7 +5403,7 @@
         <v>0.95424304362643519</v>
       </c>
       <c r="H130">
-        <v>0.99474964867264526</v>
+        <v>0.98094575557781238</v>
       </c>
       <c r="I130">
         <v>3.0238262390803219</v>
@@ -5461,7 +5438,7 @@
         <v>0.7952900961715339</v>
       </c>
       <c r="H131">
-        <v>0.99744368246439719</v>
+        <v>0.97390177566149705</v>
       </c>
       <c r="I131">
         <v>3.1457577344415668</v>
@@ -5496,7 +5473,7 @@
         <v>0.80224151515612918</v>
       </c>
       <c r="H132">
-        <v>1.003933597445287</v>
+        <v>0.9776478144887597</v>
       </c>
       <c r="I132">
         <v>1.2497346065666819</v>
@@ -5531,7 +5508,7 @@
         <v>0.95396104838091822</v>
       </c>
       <c r="H133">
-        <v>1.0190970066675289</v>
+        <v>0.96650737553780031</v>
       </c>
       <c r="I133">
         <v>18.774978491411382</v>
@@ -5601,7 +5578,7 @@
         <v>0.94860608455695583</v>
       </c>
       <c r="H135">
-        <v>1.292085384767977</v>
+        <v>0.77529022696523098</v>
       </c>
       <c r="I135">
         <v>3.4607801109779541</v>
@@ -5636,7 +5613,7 @@
         <v>0.79788108576574235</v>
       </c>
       <c r="H136">
-        <v>1.0061246648983071</v>
+        <v>0.9792797740178244</v>
       </c>
       <c r="I136">
         <v>1.2392506840529061</v>
@@ -5671,7 +5648,7 @@
         <v>0.94026521117858164</v>
       </c>
       <c r="H137">
-        <v>1.0261311551372929</v>
+        <v>0.95927310343319894</v>
       </c>
       <c r="I137">
         <v>18.644249110165209</v>
@@ -5706,7 +5683,7 @@
         <v>0.99630904070212567</v>
       </c>
       <c r="H138">
-        <v>0.99737906733337722</v>
+        <v>0.98965282744931526</v>
       </c>
       <c r="I138">
         <v>3.023067400054932</v>
@@ -5741,7 +5718,7 @@
         <v>0.9999414477723968</v>
       </c>
       <c r="H139">
-        <v>0.99457427415156796</v>
+        <v>0.98227084864501335</v>
       </c>
       <c r="I139">
         <v>2.98406739111992</v>
@@ -5776,7 +5753,7 @@
         <v>0.99952766306942498</v>
       </c>
       <c r="H140">
-        <v>1.0090403307378599</v>
+        <v>0.98241313155915266</v>
       </c>
       <c r="I140">
         <v>1.2235440314607251</v>
@@ -5811,7 +5788,7 @@
         <v>0.99391567178720497</v>
       </c>
       <c r="H141">
-        <v>0.98762284217371366</v>
+        <v>0.97891130889329236</v>
       </c>
       <c r="I141">
         <v>18.723866166688001</v>
@@ -5846,7 +5823,7 @@
         <v>0.99429627125826292</v>
       </c>
       <c r="H142">
-        <v>1.2086001005998681</v>
+        <v>0.82814804372234929</v>
       </c>
       <c r="I142">
         <v>3.0292194894373838</v>
@@ -5986,7 +5963,7 @@
         <v>0.85200686471291232</v>
       </c>
       <c r="H146">
-        <v>1.015762687741943</v>
+        <v>0.97115011656842987</v>
       </c>
       <c r="I146">
         <v>3.084864286168044</v>
@@ -6021,7 +5998,7 @@
         <v>0.95881006696169613</v>
       </c>
       <c r="H147">
-        <v>0.99260957699601848</v>
+        <v>0.96855729967485538</v>
       </c>
       <c r="I147">
         <v>2.9352518890450461</v>
@@ -6056,7 +6033,7 @@
         <v>0.93726505468259314</v>
       </c>
       <c r="H148">
-        <v>1.00083236498024</v>
+        <v>0.98438589348872763</v>
       </c>
       <c r="I148">
         <v>1.232108618364276</v>
@@ -6091,7 +6068,7 @@
         <v>0.93138850419548569</v>
       </c>
       <c r="H149">
-        <v>0.97862906851495579</v>
+        <v>0.96894542614270063</v>
       </c>
       <c r="I149">
         <v>19.457415188294661</v>
@@ -6161,7 +6138,7 @@
         <v>0.97248351373465725</v>
       </c>
       <c r="H151">
-        <v>1.069263233041069</v>
+        <v>0.93573724548604509</v>
       </c>
       <c r="I151">
         <v>3.0317136961096942</v>
@@ -6196,7 +6173,7 @@
         <v>0.95847643017646278</v>
       </c>
       <c r="H152">
-        <v>1.0972539006234561</v>
+        <v>0.91246841252189592</v>
       </c>
       <c r="I152">
         <v>1.222840738085718</v>
@@ -6231,7 +6208,7 @@
         <v>0.90849737273863096</v>
       </c>
       <c r="H153">
-        <v>1.264333787891474</v>
+        <v>0.79188525336785265</v>
       </c>
       <c r="I153">
         <v>23.967054892051191</v>
@@ -6266,7 +6243,7 @@
         <v>0.99500763077823673</v>
       </c>
       <c r="H154">
-        <v>1.3541148777208569</v>
+        <v>0.73895002074140681</v>
       </c>
       <c r="I154">
         <v>3.200282412547625</v>
@@ -6301,7 +6278,7 @@
         <v>0.99820118600519325</v>
       </c>
       <c r="H155">
-        <v>1.0258483230459989</v>
+        <v>0.97414948619544073</v>
       </c>
       <c r="I155">
         <v>3.006446612258598</v>
@@ -6371,7 +6348,7 @@
         <v>0.99964438106685138</v>
       </c>
       <c r="H157">
-        <v>0.99181562685637925</v>
+        <v>0.9636233267493246</v>
       </c>
       <c r="I157">
         <v>18.698056301109279</v>
@@ -6406,7 +6383,7 @@
         <v>0.77509498977864699</v>
       </c>
       <c r="H158">
-        <v>1.0086551654138891</v>
+        <v>0.96355987644498675</v>
       </c>
       <c r="I158">
         <v>3.1590380975904728</v>
@@ -6441,7 +6418,7 @@
         <v>0.9831276599920139</v>
       </c>
       <c r="H159">
-        <v>0.97064847537176047</v>
+        <v>0.96431604821418271</v>
       </c>
       <c r="I159">
         <v>3.023646405733408</v>
@@ -6476,7 +6453,7 @@
         <v>0.78601056964838012</v>
       </c>
       <c r="H160">
-        <v>1.0203357263023041</v>
+        <v>0.97292236832699686</v>
       </c>
       <c r="I160">
         <v>1.2451552671320849</v>
@@ -6511,7 +6488,7 @@
         <v>0.99264090476352418</v>
       </c>
       <c r="H161">
-        <v>1.017051846996851</v>
+        <v>0.96364288519060792</v>
       </c>
       <c r="I161">
         <v>19.123175918239539</v>
@@ -6581,7 +6558,7 @@
         <v>0.95159847923555785</v>
       </c>
       <c r="H163">
-        <v>0.95853826361954619</v>
+        <v>0.93205613033464274</v>
       </c>
       <c r="I163">
         <v>3.019225881483433</v>
@@ -6616,7 +6593,7 @@
         <v>0.78704509550693713</v>
       </c>
       <c r="H164">
-        <v>1.3569771751057751</v>
+        <v>0.73723039635113119</v>
       </c>
       <c r="I164">
         <v>16.272901853405191</v>
@@ -6651,7 +6628,7 @@
         <v>0.98342980544166558</v>
       </c>
       <c r="H165">
-        <v>0.96835024894550226</v>
+        <v>0.935647870597345</v>
       </c>
       <c r="I165">
         <v>18.554682942842639</v>
@@ -6686,7 +6663,7 @@
         <v>0.991446463766958</v>
       </c>
       <c r="H166">
-        <v>1.1646382377996689</v>
+        <v>0.85905786435960085</v>
       </c>
       <c r="I166">
         <v>2.9954553733678648</v>
@@ -6791,7 +6768,7 @@
         <v>0.99704049150321128</v>
       </c>
       <c r="H169">
-        <v>1.3480497211893021</v>
+        <v>0.74585728051577438</v>
       </c>
       <c r="I169">
         <v>19.553647133600379</v>
@@ -6826,7 +6803,7 @@
         <v>0.88086493564594159</v>
       </c>
       <c r="H170">
-        <v>0.99143240690154366</v>
+        <v>0.98703587263231318</v>
       </c>
       <c r="I170">
         <v>3.019058358778504</v>
@@ -6861,7 +6838,7 @@
         <v>0.94182867062670317</v>
       </c>
       <c r="H171">
-        <v>0.99048421993040059</v>
+        <v>0.98403551208778717</v>
       </c>
       <c r="I171">
         <v>3.0228384137396782</v>
@@ -6896,7 +6873,7 @@
         <v>0.8934450404995552</v>
       </c>
       <c r="H172">
-        <v>1.017297157759107</v>
+        <v>0.98310615549453551</v>
       </c>
       <c r="I172">
         <v>1.225857928572704</v>
@@ -6931,7 +6908,7 @@
         <v>0.87870920939496333</v>
       </c>
       <c r="H173">
-        <v>0.99027081145101892</v>
+        <v>0.95693661140558228</v>
       </c>
       <c r="I173">
         <v>19.221917781885359</v>
@@ -7001,7 +6978,7 @@
         <v>0.9069207257395997</v>
       </c>
       <c r="H175">
-        <v>1.071639323009639</v>
+        <v>0.93425226742618483</v>
       </c>
       <c r="I175">
         <v>3.0443879749759648</v>
@@ -7036,7 +7013,7 @@
         <v>0.84375031458265559</v>
       </c>
       <c r="H176">
-        <v>1.0865017147829039</v>
+        <v>0.92098924148307926</v>
       </c>
       <c r="I176">
         <v>1.223824091496823</v>
@@ -7071,7 +7048,7 @@
         <v>0.96758132273102215</v>
       </c>
       <c r="H177">
-        <v>1.2557280977506451</v>
+        <v>0.79770726730184749</v>
       </c>
       <c r="I177">
         <v>19.521858873187671</v>
@@ -7106,7 +7083,7 @@
         <v>0.99833647953425186</v>
       </c>
       <c r="H178">
-        <v>0.98482654353368804</v>
+        <v>0.97009039861687518</v>
       </c>
       <c r="I178">
         <v>3.0284678882039642</v>
@@ -7176,7 +7153,7 @@
         <v>0.99661650640018951</v>
       </c>
       <c r="H180">
-        <v>1.2843090051810071</v>
+        <v>0.77893791467101614</v>
       </c>
       <c r="I180">
         <v>1.2848397320090481</v>
@@ -7246,7 +7223,7 @@
         <v>0.9752113390101409</v>
       </c>
       <c r="H182">
-        <v>0.99215284268210768</v>
+        <v>0.97869997528883734</v>
       </c>
       <c r="I182">
         <v>3.020859205754638</v>
@@ -7281,7 +7258,7 @@
         <v>0.81540933837867957</v>
       </c>
       <c r="H183">
-        <v>1.017326390420831</v>
+        <v>0.97226752141550243</v>
       </c>
       <c r="I183">
         <v>3.028440473342735</v>
@@ -7316,7 +7293,7 @@
         <v>0.78277579847633794</v>
       </c>
       <c r="H184">
-        <v>0.99723756676909525</v>
+        <v>0.96853633579899345</v>
       </c>
       <c r="I184">
         <v>1.2928525248050859</v>
@@ -7351,7 +7328,7 @@
         <v>0.92064361229621383</v>
       </c>
       <c r="H185">
-        <v>1.0202634773612429</v>
+        <v>0.97165796474781641</v>
       </c>
       <c r="I185">
         <v>18.80720260465624</v>
@@ -7456,7 +7433,7 @@
         <v>0.99207357990959188</v>
       </c>
       <c r="H188">
-        <v>1.3238098296192029</v>
+        <v>0.75602042955105353</v>
       </c>
       <c r="I188">
         <v>1.3697551812153621</v>
@@ -7491,7 +7468,7 @@
         <v>0.94432966901788751</v>
       </c>
       <c r="H189">
-        <v>0.93862163430623258</v>
+        <v>0.93310019857395987</v>
       </c>
       <c r="I189">
         <v>18.960008123534109</v>
@@ -7596,7 +7573,7 @@
         <v>0.99718801081545305</v>
       </c>
       <c r="H192">
-        <v>1.219750766450669</v>
+        <v>0.82018786039271852</v>
       </c>
       <c r="I192">
         <v>1.2753635993923791</v>
@@ -7666,7 +7643,7 @@
         <v>0.92348170359026094</v>
       </c>
       <c r="H194">
-        <v>1.007295761894228</v>
+        <v>0.98050782872325171</v>
       </c>
       <c r="I194">
         <v>2.9957986513823158</v>
@@ -7701,7 +7678,7 @@
         <v>0.92646523823706317</v>
       </c>
       <c r="H195">
-        <v>0.9901334781225376</v>
+        <v>0.97852120583973035</v>
       </c>
       <c r="I195">
         <v>3.0090713013269639</v>
@@ -7736,7 +7713,7 @@
         <v>0.83230072266845756</v>
       </c>
       <c r="H196">
-        <v>0.99968238272298182</v>
+        <v>0.97549774447207549</v>
       </c>
       <c r="I196">
         <v>1.2567868482945941</v>
@@ -7771,7 +7748,7 @@
         <v>0.91534889041231082</v>
       </c>
       <c r="H197">
-        <v>1.0301462749651229</v>
+        <v>0.96454079079741761</v>
       </c>
       <c r="I197">
         <v>19.057785678003398</v>
@@ -7806,7 +7783,7 @@
         <v>0.93766867934187759</v>
       </c>
       <c r="H198">
-        <v>1.1356485417581701</v>
+        <v>0.88183787816088766</v>
       </c>
       <c r="I198">
         <v>3.062085179980262</v>
@@ -7841,7 +7818,7 @@
         <v>0.94031785910724675</v>
       </c>
       <c r="H199">
-        <v>1.148566061107136</v>
+        <v>0.87122390474126254</v>
       </c>
       <c r="I199">
         <v>3.0547406064678682</v>
@@ -7911,7 +7888,7 @@
         <v>0.89780182357008276</v>
       </c>
       <c r="H201">
-        <v>1.3780517660121421</v>
+        <v>0.72673083984007036</v>
       </c>
       <c r="I201">
         <v>34.398149339212743</v>
@@ -8016,7 +7993,7 @@
         <v>0.99852903914324831</v>
       </c>
       <c r="H204">
-        <v>1.159725943366144</v>
+        <v>0.86286812911507882</v>
       </c>
       <c r="I204">
         <v>1.221069518427174</v>
@@ -8051,7 +8028,7 @@
         <v>0.99504481910788289</v>
       </c>
       <c r="H205">
-        <v>1.316570109154453</v>
+        <v>0.76092297510679774</v>
       </c>
       <c r="I205">
         <v>19.132569234538181</v>
@@ -8086,7 +8063,7 @@
         <v>0.91189925348012124</v>
       </c>
       <c r="H206">
-        <v>1.0061367534550549</v>
+        <v>0.97741859793592334</v>
       </c>
       <c r="I206">
         <v>3.0028344265368609</v>
@@ -8121,7 +8098,7 @@
         <v>0.90313836936611436</v>
       </c>
       <c r="H207">
-        <v>1.007924014252553</v>
+        <v>0.97606966074075008</v>
       </c>
       <c r="I207">
         <v>3.010112599771587</v>
@@ -8156,7 +8133,7 @@
         <v>0.88374263618819138</v>
       </c>
       <c r="H208">
-        <v>0.99452368305456074</v>
+        <v>0.98843704460825266</v>
       </c>
       <c r="I208">
         <v>1.2417713286121559</v>
@@ -8191,7 +8168,7 @@
         <v>0.89918911954357805</v>
       </c>
       <c r="H209">
-        <v>0.97861150414349596</v>
+        <v>0.95165060590895156</v>
       </c>
       <c r="I209">
         <v>18.586087645672588</v>
@@ -8226,7 +8203,7 @@
         <v>0.83732952564159047</v>
       </c>
       <c r="H210">
-        <v>1.129031450267912</v>
+        <v>0.88673387453829833</v>
       </c>
       <c r="I210">
         <v>3.0159073800883882</v>
@@ -8261,7 +8238,7 @@
         <v>0.83948005594467268</v>
       </c>
       <c r="H211">
-        <v>1.143119239934739</v>
+        <v>0.87601939106845716</v>
       </c>
       <c r="I211">
         <v>2.983152365880835</v>
@@ -8331,7 +8308,7 @@
         <v>0.99493800642895291</v>
       </c>
       <c r="H213">
-        <v>1.3588132105561741</v>
+        <v>0.73855541976582939</v>
       </c>
       <c r="I213">
         <v>20.576041069964049</v>
@@ -8366,7 +8343,7 @@
         <v>0.99874251494382005</v>
       </c>
       <c r="H214">
-        <v>1.255816761945691</v>
+        <v>0.79663142311494761</v>
       </c>
       <c r="I214">
         <v>3.0420305928783562</v>
@@ -8436,7 +8413,7 @@
         <v>0.99970620588590642</v>
       </c>
       <c r="H216">
-        <v>0.98208007385661911</v>
+        <v>0.98150012509769058</v>
       </c>
       <c r="I216">
         <v>1.2163443251617461</v>
@@ -8471,7 +8448,7 @@
         <v>0.99677522344205627</v>
       </c>
       <c r="H217">
-        <v>0.99397608736427079</v>
+        <v>0.96476056605686944</v>
       </c>
       <c r="I217">
         <v>19.491945233649979</v>
@@ -8506,7 +8483,7 @@
         <v>0.81503520124460882</v>
       </c>
       <c r="H218">
-        <v>0.99108411971169508</v>
+        <v>0.96432323978365297</v>
       </c>
       <c r="I218">
         <v>3.124166612067675</v>
@@ -8541,7 +8518,7 @@
         <v>0.84126311712167068</v>
       </c>
       <c r="H219">
-        <v>1.0087418612547641</v>
+        <v>0.97827621264683906</v>
       </c>
       <c r="I219">
         <v>3.0345166572852289</v>
@@ -8576,7 +8553,7 @@
         <v>0.97647143144894111</v>
       </c>
       <c r="H220">
-        <v>1.003304351658256</v>
+        <v>0.97951717157099261</v>
       </c>
       <c r="I220">
         <v>1.206327935405457</v>
@@ -8611,7 +8588,7 @@
         <v>0.99729754043966012</v>
       </c>
       <c r="H221">
-        <v>1.0107885724922041</v>
+        <v>0.96196661900848379</v>
       </c>
       <c r="I221">
         <v>19.107509426568239</v>
@@ -8681,7 +8658,7 @@
         <v>0.8243309687210536</v>
       </c>
       <c r="H223">
-        <v>1.3164136816786951</v>
+        <v>0.76010173051295971</v>
       </c>
       <c r="I223">
         <v>6.8101267211654619</v>
@@ -8716,7 +8693,7 @@
         <v>0.98853382619622288</v>
       </c>
       <c r="H224">
-        <v>1.005932423954244</v>
+        <v>0.94973139692113817</v>
       </c>
       <c r="I224">
         <v>1.2161929333449659</v>
@@ -8751,7 +8728,7 @@
         <v>0.9921331702570001</v>
       </c>
       <c r="H225">
-        <v>1.0257031245274211</v>
+        <v>0.95665019417167729</v>
       </c>
       <c r="I225">
         <v>18.940347495881081</v>
@@ -8786,7 +8763,7 @@
         <v>0.99573915934482915</v>
       </c>
       <c r="H226">
-        <v>1.0598524991099261</v>
+        <v>0.94399086195390225</v>
       </c>
       <c r="I226">
         <v>2.9839717302059401</v>
@@ -8821,7 +8798,7 @@
         <v>0.99872288729348857</v>
       </c>
       <c r="H227">
-        <v>1.322561193423289</v>
+        <v>0.75636942600212342</v>
       </c>
       <c r="I227">
         <v>3.1795194347818199</v>
@@ -8926,7 +8903,7 @@
         <v>0.95424304362643519</v>
       </c>
       <c r="H230">
-        <v>0.99481681807181332</v>
+        <v>0.97776082576296552</v>
       </c>
       <c r="I230">
         <v>3.0229226875320201</v>
@@ -8961,7 +8938,7 @@
         <v>0.7952900961715339</v>
       </c>
       <c r="H231">
-        <v>1.0006730980569121</v>
+        <v>0.96848262364153781</v>
       </c>
       <c r="I231">
         <v>3.110198031514317</v>
@@ -8996,7 +8973,7 @@
         <v>0.80224151515612918</v>
       </c>
       <c r="H232">
-        <v>1.0023396730668399</v>
+        <v>0.97352395687667626</v>
       </c>
       <c r="I232">
         <v>1.243217658058392</v>
@@ -9031,7 +9008,7 @@
         <v>0.95396104838091822</v>
       </c>
       <c r="H233">
-        <v>1.01663349529169</v>
+        <v>0.95560813736681072</v>
       </c>
       <c r="I233">
         <v>18.771803582543608</v>
@@ -9101,7 +9078,7 @@
         <v>0.94860608455695583</v>
       </c>
       <c r="H235">
-        <v>1.289796243692789</v>
+        <v>0.7768270901662464</v>
       </c>
       <c r="I235">
         <v>3.3501902601408329</v>
@@ -9136,7 +9113,7 @@
         <v>0.79788108576574235</v>
       </c>
       <c r="H236">
-        <v>1.002810986230487</v>
+        <v>0.9760486007390089</v>
       </c>
       <c r="I236">
         <v>1.2330764575852711</v>
@@ -9171,7 +9148,7 @@
         <v>0.94026521117858164</v>
       </c>
       <c r="H237">
-        <v>1.033820041218124</v>
+        <v>0.94962104372959533</v>
       </c>
       <c r="I237">
         <v>18.640124366915451</v>
@@ -9185,10 +9162,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>1.25</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>

--- a/results/regression_simulations.xlsx
+++ b/results/regression_simulations.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arushi Jain\MIT Dropbox\Arushi Jain\FairAI\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D2DEBF-95F3-49AF-984B-55A735B4BC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -484,8 +478,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,34 +540,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -611,7 +586,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -645,7 +620,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -680,10 +654,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -856,16 +829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -917,25 +888,25 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="G2">
-        <v>0.98629175867597219</v>
+        <v>0.987854548498403</v>
       </c>
       <c r="H2">
-        <v>0.99413246603836902</v>
+        <v>0.9934013285209378</v>
       </c>
       <c r="I2">
-        <v>2.0202064195752971</v>
+        <v>2.025822267661887</v>
       </c>
       <c r="J2">
-        <v>1.0000435873583591</v>
+        <v>1.000122561880596</v>
       </c>
       <c r="K2">
-        <v>1.000047451177396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000288176347299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -955,22 +926,22 @@
         <v>2014</v>
       </c>
       <c r="G3">
-        <v>0.9861402798576866</v>
+        <v>0.9790595395254855</v>
       </c>
       <c r="H3">
-        <v>0.99325217600024451</v>
+        <v>0.9921114573648782</v>
       </c>
       <c r="I3">
-        <v>1.979873903021562</v>
+        <v>1.979658121757388</v>
       </c>
       <c r="J3">
-        <v>1.0000841171077279</v>
+        <v>1.000141175602089</v>
       </c>
       <c r="K3">
-        <v>1.0000007122943739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000538657291159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -987,25 +958,25 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="G4">
-        <v>0.99980199352791899</v>
+        <v>0.9911458915826731</v>
       </c>
       <c r="H4">
-        <v>0.989054251185435</v>
+        <v>0.9899375589322749</v>
       </c>
       <c r="I4">
-        <v>2.0015142301736031</v>
+        <v>1.995664955634381</v>
       </c>
       <c r="J4">
-        <v>0.99998795040280342</v>
+        <v>1.000001049715429</v>
       </c>
       <c r="K4">
-        <v>0.99998120928176837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000040279317831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1022,25 +993,25 @@
         <v>1.2</v>
       </c>
       <c r="F5">
-        <v>1984</v>
+        <v>2008</v>
       </c>
       <c r="G5">
-        <v>0.99174771333024647</v>
+        <v>0.977677787951268</v>
       </c>
       <c r="H5">
-        <v>0.83322329433998188</v>
+        <v>0.8327838132733871</v>
       </c>
       <c r="I5">
-        <v>2.4640464681148448</v>
+        <v>2.461790904994502</v>
       </c>
       <c r="J5">
-        <v>7.021068931043696</v>
+        <v>5.848563536901582</v>
       </c>
       <c r="K5">
-        <v>3.4769923893452042</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.978079980506877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1057,25 +1028,25 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>2007</v>
+        <v>1972</v>
       </c>
       <c r="G6">
-        <v>0.9872104905694582</v>
+        <v>0.9946805468138888</v>
       </c>
       <c r="H6">
-        <v>0.9112037603218629</v>
+        <v>0.9108993753314317</v>
       </c>
       <c r="I6">
-        <v>2.0829840814305518</v>
+        <v>2.124763752211794</v>
       </c>
       <c r="J6">
-        <v>1.194790116171135</v>
+        <v>1.188692303419782</v>
       </c>
       <c r="K6">
-        <v>1.142819283270184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.146521003918465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1092,25 +1063,25 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="G7">
-        <v>0.97898723034360235</v>
+        <v>0.9829981345879105</v>
       </c>
       <c r="H7">
-        <v>0.90796019880223666</v>
+        <v>0.9061080153696031</v>
       </c>
       <c r="I7">
-        <v>2.049273540472182</v>
+        <v>2.065235298711375</v>
       </c>
       <c r="J7">
-        <v>1.2075449808006671</v>
+        <v>1.208329961407923</v>
       </c>
       <c r="K7">
-        <v>1.1761226141758929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.154532778639508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1127,25 +1098,25 @@
         <v>1.2</v>
       </c>
       <c r="F8">
-        <v>2028</v>
+        <v>1897</v>
       </c>
       <c r="G8">
-        <v>0.6160144393999295</v>
+        <v>0.6296132339949072</v>
       </c>
       <c r="H8">
-        <v>0.97808857731614407</v>
+        <v>0.9756961627390009</v>
       </c>
       <c r="I8">
-        <v>2.360937183529296</v>
+        <v>2.556505717191647</v>
       </c>
       <c r="J8">
-        <v>1.003781109793112</v>
+        <v>1.003925877437868</v>
       </c>
       <c r="K8">
-        <v>1.1167174185728861</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.100866162025061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1162,25 +1133,25 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1971</v>
+        <v>2101</v>
       </c>
       <c r="G9">
-        <v>0.81176399027521651</v>
+        <v>0.8093033454330945</v>
       </c>
       <c r="H9">
-        <v>0.98844695433765872</v>
+        <v>0.9852547928752013</v>
       </c>
       <c r="I9">
-        <v>2.1156689972862708</v>
+        <v>1.924536716043038</v>
       </c>
       <c r="J9">
-        <v>1.0015285294735909</v>
+        <v>1.001655911555287</v>
       </c>
       <c r="K9">
-        <v>1.0281196705179241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.027571372280898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1197,25 +1168,25 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G10">
-        <v>0.80225877007993829</v>
+        <v>0.8276740749216274</v>
       </c>
       <c r="H10">
-        <v>0.99239090482874948</v>
+        <v>0.9910085475399409</v>
       </c>
       <c r="I10">
-        <v>2.0840075002697058</v>
+        <v>2.061858580627496</v>
       </c>
       <c r="J10">
-        <v>1.0005017422939011</v>
+        <v>1.000449171188114</v>
       </c>
       <c r="K10">
-        <v>1.0257870279810799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.018272425673624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1232,25 +1203,25 @@
         <v>0.75</v>
       </c>
       <c r="F11">
-        <v>2042</v>
+        <v>1929</v>
       </c>
       <c r="G11">
-        <v>0.69500696267922191</v>
+        <v>0.6790907298075437</v>
       </c>
       <c r="H11">
-        <v>0.87650556255261813</v>
+        <v>0.8770568294037099</v>
       </c>
       <c r="I11">
-        <v>3.0671756837620818</v>
+        <v>3.35097813246756</v>
       </c>
       <c r="J11">
-        <v>1.3262840985640241</v>
+        <v>1.279292020737191</v>
       </c>
       <c r="K11">
-        <v>1.0422056766893699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.027261318620779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1267,25 +1238,25 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1999</v>
+        <v>2081</v>
       </c>
       <c r="G12">
-        <v>0.82136120982996619</v>
+        <v>0.8296183454086413</v>
       </c>
       <c r="H12">
-        <v>0.94406958050364786</v>
+        <v>0.9403161592653934</v>
       </c>
       <c r="I12">
-        <v>2.2521372041469712</v>
+        <v>2.123694441164688</v>
       </c>
       <c r="J12">
-        <v>1.0593590781536211</v>
+        <v>1.075287039506533</v>
       </c>
       <c r="K12">
-        <v>1.005483349640516</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.012099848440849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1302,25 +1273,25 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1959</v>
+        <v>1990</v>
       </c>
       <c r="G13">
-        <v>0.8713853997149531</v>
+        <v>0.8538988672054999</v>
       </c>
       <c r="H13">
-        <v>0.94395077485983359</v>
+        <v>0.9556600683852332</v>
       </c>
       <c r="I13">
-        <v>2.2365055078083351</v>
+        <v>2.162115330119608</v>
       </c>
       <c r="J13">
-        <v>1.069418132172403</v>
+        <v>1.03438699756339</v>
       </c>
       <c r="K13">
-        <v>1.0155539482889779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.003584021336665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1337,25 +1308,25 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="G14">
-        <v>0.98687799882412086</v>
+        <v>0.9851464319622935</v>
       </c>
       <c r="H14">
-        <v>0.99000639926634637</v>
+        <v>0.9887600007037027</v>
       </c>
       <c r="I14">
-        <v>2.020234340312455</v>
+        <v>2.025981015905135</v>
       </c>
       <c r="J14">
-        <v>1.000038992926561</v>
+        <v>1.000070057287952</v>
       </c>
       <c r="K14">
-        <v>1.0000063880826899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000266000431248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1375,22 +1346,22 @@
         <v>2014</v>
       </c>
       <c r="G15">
-        <v>0.98605864771081886</v>
+        <v>0.9802063437529318</v>
       </c>
       <c r="H15">
-        <v>0.98855907310776125</v>
+        <v>0.9876546599682975</v>
       </c>
       <c r="I15">
-        <v>1.980007082337206</v>
+        <v>1.979604306430783</v>
       </c>
       <c r="J15">
-        <v>1.0001504767341849</v>
+        <v>1.00011961729519</v>
       </c>
       <c r="K15">
-        <v>1.000002417710057</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000472385468476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1407,25 +1378,25 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="G16">
-        <v>0.99913485567833971</v>
+        <v>0.9949955523939659</v>
       </c>
       <c r="H16">
-        <v>0.98693476559459536</v>
+        <v>0.9909024074990297</v>
       </c>
       <c r="I16">
-        <v>2.0015310172164429</v>
+        <v>1.995536095203277</v>
       </c>
       <c r="J16">
-        <v>1.000031667633396</v>
+        <v>1.000010179443862</v>
       </c>
       <c r="K16">
-        <v>1.00001737152804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000033405348833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1442,25 +1413,25 @@
         <v>1.3</v>
       </c>
       <c r="F17">
-        <v>1984</v>
+        <v>2008</v>
       </c>
       <c r="G17">
-        <v>0.99284627355771693</v>
+        <v>0.9786705846926453</v>
       </c>
       <c r="H17">
-        <v>0.76892215260631536</v>
+        <v>0.771060201774138</v>
       </c>
       <c r="I17">
-        <v>2.6972705752431221</v>
+        <v>2.707842364539334</v>
       </c>
       <c r="J17">
-        <v>29.720369301596349</v>
+        <v>26.2188459516492</v>
       </c>
       <c r="K17">
-        <v>9.2784220047118211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>8.003917133712086</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1477,25 +1448,25 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>2007</v>
+        <v>1972</v>
       </c>
       <c r="G18">
-        <v>0.98958199384991918</v>
+        <v>0.9936844705330605</v>
       </c>
       <c r="H18">
-        <v>0.8716248678000208</v>
+        <v>0.8722040085998902</v>
       </c>
       <c r="I18">
-        <v>2.1036914675302629</v>
+        <v>2.151544622329742</v>
       </c>
       <c r="J18">
-        <v>1.2617260082059261</v>
+        <v>1.27259433146058</v>
       </c>
       <c r="K18">
-        <v>1.208433037037173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.226032039063256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1512,25 +1483,25 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="G19">
-        <v>0.98245326424899349</v>
+        <v>0.9849795566079038</v>
       </c>
       <c r="H19">
-        <v>0.86852899378037185</v>
+        <v>0.8688154674228373</v>
       </c>
       <c r="I19">
-        <v>2.0734307245985399</v>
+        <v>2.087822592898157</v>
       </c>
       <c r="J19">
-        <v>1.2838192520544101</v>
+        <v>1.285954668107165</v>
       </c>
       <c r="K19">
-        <v>1.252603474640744</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.228417111117495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1547,25 +1518,25 @@
         <v>1.3</v>
       </c>
       <c r="F20">
-        <v>2028</v>
+        <v>1897</v>
       </c>
       <c r="G20">
-        <v>0.52932190335338847</v>
+        <v>0.5363754837656445</v>
       </c>
       <c r="H20">
-        <v>0.9411711895428071</v>
+        <v>0.9390978553534683</v>
       </c>
       <c r="I20">
-        <v>2.559347513349794</v>
+        <v>2.792739525792539</v>
       </c>
       <c r="J20">
-        <v>1.029780747105735</v>
+        <v>1.027009426886627</v>
       </c>
       <c r="K20">
-        <v>1.3914848895908221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.338993618624236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1582,25 +1553,25 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1971</v>
+        <v>2101</v>
       </c>
       <c r="G21">
-        <v>0.76825767681136292</v>
+        <v>0.764268148550401</v>
       </c>
       <c r="H21">
-        <v>0.97064662025408632</v>
+        <v>0.9671115389332769</v>
       </c>
       <c r="I21">
-        <v>2.1353038352670248</v>
+        <v>1.945540399584289</v>
       </c>
       <c r="J21">
-        <v>1.0072401835478859</v>
+        <v>1.007427050455272</v>
       </c>
       <c r="K21">
-        <v>1.060989009184153</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.059646747170636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1617,25 +1588,25 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="G22">
-        <v>0.7586190454334597</v>
+        <v>0.7812906838820107</v>
       </c>
       <c r="H22">
-        <v>0.97604160404582041</v>
+        <v>0.9806205322865127</v>
       </c>
       <c r="I22">
-        <v>2.1079845762334508</v>
+        <v>2.08843733962915</v>
       </c>
       <c r="J22">
-        <v>1.003859974007058</v>
+        <v>1.003247734643688</v>
       </c>
       <c r="K22">
-        <v>1.0552801921111961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.042338657734452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1652,25 +1623,25 @@
         <v>0.6</v>
       </c>
       <c r="F23">
-        <v>2042</v>
+        <v>1929</v>
       </c>
       <c r="G23">
-        <v>0.54166125788807118</v>
+        <v>0.5294755110608012</v>
       </c>
       <c r="H23">
-        <v>0.79263220781586186</v>
+        <v>0.7993268630770217</v>
       </c>
       <c r="I23">
-        <v>6.5332195972963616</v>
+        <v>6.844427496637604</v>
       </c>
       <c r="J23">
-        <v>1.811755997590428</v>
+        <v>1.637904653254912</v>
       </c>
       <c r="K23">
-        <v>1.0359519513209881</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.010778648056358</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1687,25 +1658,25 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1999</v>
+        <v>2081</v>
       </c>
       <c r="G24">
-        <v>0.74455241562955587</v>
+        <v>0.7552555417013084</v>
       </c>
       <c r="H24">
-        <v>0.92452242272013263</v>
+        <v>0.9232974373981602</v>
       </c>
       <c r="I24">
-        <v>2.6181999791958979</v>
+        <v>2.438096526944026</v>
       </c>
       <c r="J24">
-        <v>1.0900519214183879</v>
+        <v>1.10380537693667</v>
       </c>
       <c r="K24">
-        <v>1.001838123082492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.006074199741261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1722,25 +1693,25 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1959</v>
+        <v>1990</v>
       </c>
       <c r="G25">
-        <v>0.79364508361614949</v>
+        <v>0.7806546857821002</v>
       </c>
       <c r="H25">
-        <v>0.92053564190916815</v>
+        <v>0.9367896061138845</v>
       </c>
       <c r="I25">
-        <v>2.539670640256225</v>
+        <v>2.393244750878752</v>
       </c>
       <c r="J25">
-        <v>1.1140242726067111</v>
+        <v>1.054751687222057</v>
       </c>
       <c r="K25">
-        <v>1.0116772240021541</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.00128669843713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1760,22 +1731,22 @@
         <v>2400</v>
       </c>
       <c r="G26">
-        <v>0.99525020690052191</v>
+        <v>0.9952502069005219</v>
       </c>
       <c r="H26">
-        <v>0.99276239709755221</v>
+        <v>0.9927623970975522</v>
       </c>
       <c r="I26">
         <v>1.500137901938561</v>
       </c>
       <c r="J26">
-        <v>1.0000719804994289</v>
+        <v>1.000071980499429</v>
       </c>
       <c r="K26">
-        <v>1.0000178058115781</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000017805811578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1795,22 +1766,22 @@
         <v>2377</v>
       </c>
       <c r="G27">
-        <v>0.99119346129904973</v>
+        <v>0.9911934612990497</v>
       </c>
       <c r="H27">
-        <v>0.98737544446726333</v>
+        <v>0.9873754444672633</v>
       </c>
       <c r="I27">
-        <v>1.5248826081915381</v>
+        <v>1.524882608191538</v>
       </c>
       <c r="J27">
-        <v>1.0005069440887131</v>
+        <v>1.000506944088713</v>
       </c>
       <c r="K27">
-        <v>1.0001837734468479</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000183773446848</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1830,22 +1801,22 @@
         <v>1223</v>
       </c>
       <c r="G28">
-        <v>0.99508407638048424</v>
+        <v>0.9950840763804842</v>
       </c>
       <c r="H28">
-        <v>0.98125080971792455</v>
+        <v>0.9812508097179246</v>
       </c>
       <c r="I28">
         <v>3.906512918595197</v>
       </c>
       <c r="J28">
-        <v>1.0002033835272131</v>
+        <v>1.000203383527213</v>
       </c>
       <c r="K28">
-        <v>1.0000938770878689</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000093877087869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1865,22 +1836,22 @@
         <v>2383</v>
       </c>
       <c r="G29">
-        <v>0.98902686662755812</v>
+        <v>0.9890268666275581</v>
       </c>
       <c r="H29">
-        <v>0.77297367558340646</v>
+        <v>0.7729736755834065</v>
       </c>
       <c r="I29">
-        <v>2.0755383464951218</v>
+        <v>2.075538346495122</v>
       </c>
       <c r="J29">
-        <v>25.975201338966912</v>
+        <v>25.97520133896691</v>
       </c>
       <c r="K29">
-        <v>8.3503477977304446</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>8.350347797730445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1900,10 +1871,10 @@
         <v>2417</v>
       </c>
       <c r="G30">
-        <v>0.98881495724333845</v>
+        <v>0.9888149572433385</v>
       </c>
       <c r="H30">
-        <v>0.83529329534184227</v>
+        <v>0.8352932953418423</v>
       </c>
       <c r="I30">
         <v>1.635892525060707</v>
@@ -1912,10 +1883,10 @@
         <v>1.652745591568491</v>
       </c>
       <c r="K30">
-        <v>1.5617176759442319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.561717675944232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1935,22 +1906,22 @@
         <v>1200</v>
       </c>
       <c r="G31">
-        <v>0.99970843098225426</v>
+        <v>0.9997084309822543</v>
       </c>
       <c r="H31">
-        <v>0.87528379710459847</v>
+        <v>0.8752837971045985</v>
       </c>
       <c r="I31">
-        <v>4.1094907521361392</v>
+        <v>4.109490752136139</v>
       </c>
       <c r="J31">
         <v>1.169872043690183</v>
       </c>
       <c r="K31">
-        <v>1.1376246525632061</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.137624652563206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1970,22 +1941,22 @@
         <v>2309</v>
       </c>
       <c r="G32">
-        <v>0.53420230733632057</v>
+        <v>0.5342023073363206</v>
       </c>
       <c r="H32">
-        <v>0.94022405337248838</v>
+        <v>0.9402240533724884</v>
       </c>
       <c r="I32">
-        <v>2.1433882931843931</v>
+        <v>2.143388293184393</v>
       </c>
       <c r="J32">
-        <v>1.0364685615899649</v>
+        <v>1.036468561589965</v>
       </c>
       <c r="K32">
-        <v>1.4301401202475681</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.430140120247568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2005,13 +1976,13 @@
         <v>2499</v>
       </c>
       <c r="G33">
-        <v>0.69933726499014282</v>
+        <v>0.6993372649901428</v>
       </c>
       <c r="H33">
-        <v>0.96462104673374938</v>
+        <v>0.9646210467337494</v>
       </c>
       <c r="I33">
-        <v>1.5194536862568491</v>
+        <v>1.519453686256849</v>
       </c>
       <c r="J33">
         <v>1.015063396300611</v>
@@ -2020,7 +1991,7 @@
         <v>1.111411176187677</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2043,19 +2014,19 @@
         <v>0.8034660428215723</v>
       </c>
       <c r="H34">
-        <v>0.97508524572161925</v>
+        <v>0.9750852457216193</v>
       </c>
       <c r="I34">
-        <v>4.1742702686586508</v>
+        <v>4.174270268658651</v>
       </c>
       <c r="J34">
-        <v>1.0023760931226371</v>
+        <v>1.002376093122637</v>
       </c>
       <c r="K34">
         <v>1.033589656754244</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2075,7 +2046,7 @@
         <v>2344</v>
       </c>
       <c r="G35">
-        <v>0.51133631002527347</v>
+        <v>0.5113363100252735</v>
       </c>
       <c r="H35">
         <v>0.8001362402258102</v>
@@ -2090,7 +2061,7 @@
         <v>1.015034805086283</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2110,7 +2081,7 @@
         <v>2479</v>
       </c>
       <c r="G36">
-        <v>0.67876893896333312</v>
+        <v>0.6787689389633331</v>
       </c>
       <c r="H36">
         <v>0.8939768856783612</v>
@@ -2125,7 +2096,7 @@
         <v>1.01692447947894</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2145,22 +2116,22 @@
         <v>1177</v>
       </c>
       <c r="G37">
-        <v>0.79792290569333246</v>
+        <v>0.7979229056933325</v>
       </c>
       <c r="H37">
         <v>0.9352308850543497</v>
       </c>
       <c r="I37">
-        <v>4.7492690252661598</v>
+        <v>4.74926902526616</v>
       </c>
       <c r="J37">
-        <v>1.0350133048594881</v>
+        <v>1.035013304859488</v>
       </c>
       <c r="K37">
         <v>1.000227952780784</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -2180,22 +2151,22 @@
         <v>14914</v>
       </c>
       <c r="G38">
-        <v>0.99630904070212567</v>
+        <v>0.9963090407021257</v>
       </c>
       <c r="H38">
-        <v>0.99090483263141305</v>
+        <v>0.990904832631413</v>
       </c>
       <c r="I38">
-        <v>3.0230988248619211</v>
+        <v>3.023098824861921</v>
       </c>
       <c r="J38">
         <v>1.000065698803422</v>
       </c>
       <c r="K38">
-        <v>1.0000732151118821</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000073215111882</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2218,19 +2189,19 @@
         <v>0.9999414477723968</v>
       </c>
       <c r="H39">
-        <v>0.98379065191549264</v>
+        <v>0.9837906519154926</v>
       </c>
       <c r="I39">
-        <v>2.9840985005777658</v>
+        <v>2.984098500577766</v>
       </c>
       <c r="J39">
-        <v>1.0000208745633259</v>
+        <v>1.000020874563326</v>
       </c>
       <c r="K39">
         <v>1.000009562018479</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -2250,7 +2221,7 @@
         <v>26984</v>
       </c>
       <c r="G40">
-        <v>0.99952766306942498</v>
+        <v>0.999527663069425</v>
       </c>
       <c r="H40">
         <v>0.9861489493722807</v>
@@ -2259,13 +2230,13 @@
         <v>1.223540623676882</v>
       </c>
       <c r="J40">
-        <v>1.0000025734548881</v>
+        <v>1.000002573454888</v>
       </c>
       <c r="K40">
         <v>1.000002364737907</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -2285,22 +2256,22 @@
         <v>3042</v>
       </c>
       <c r="G41">
-        <v>0.99391567178720497</v>
+        <v>0.993915671787205</v>
       </c>
       <c r="H41">
-        <v>0.98013478078823735</v>
+        <v>0.9801347807882373</v>
       </c>
       <c r="I41">
-        <v>18.723913515424162</v>
+        <v>18.72391351542416</v>
       </c>
       <c r="J41">
         <v>1.000010063825449</v>
       </c>
       <c r="K41">
-        <v>1.0000466314474381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000046631447438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2320,13 +2291,13 @@
         <v>15086</v>
       </c>
       <c r="G42">
-        <v>0.99429627125826292</v>
+        <v>0.9942962712582629</v>
       </c>
       <c r="H42">
-        <v>0.82717376777580953</v>
+        <v>0.8271737677758095</v>
       </c>
       <c r="I42">
-        <v>3.0465653488225581</v>
+        <v>3.046565348822558</v>
       </c>
       <c r="J42">
         <v>1.052379499980808</v>
@@ -2335,7 +2306,7 @@
         <v>1.010047926170818</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -2355,22 +2326,22 @@
         <v>15091</v>
       </c>
       <c r="G43">
-        <v>0.99468643970895942</v>
+        <v>0.9946864397089594</v>
       </c>
       <c r="H43">
-        <v>0.94394750431482388</v>
+        <v>0.9439475043148239</v>
       </c>
       <c r="I43">
-        <v>2.9797539348947431</v>
+        <v>2.979753934894743</v>
       </c>
       <c r="J43">
-        <v>1.0018655068936311</v>
+        <v>1.001865506893631</v>
       </c>
       <c r="K43">
-        <v>1.0006143725535941</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000614372553594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -2390,22 +2361,22 @@
         <v>26836</v>
       </c>
       <c r="G44">
-        <v>0.99995572260618115</v>
+        <v>0.9999557226061812</v>
       </c>
       <c r="H44">
-        <v>0.93443955529918199</v>
+        <v>0.934439555299182</v>
       </c>
       <c r="I44">
         <v>1.238655177872958</v>
       </c>
       <c r="J44">
-        <v>1.0040863908177551</v>
+        <v>1.004086390817755</v>
       </c>
       <c r="K44">
-        <v>1.0019568675402979</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.001956867540298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -2425,22 +2396,22 @@
         <v>2987</v>
       </c>
       <c r="G45">
-        <v>0.99912168394296297</v>
+        <v>0.999121683942963</v>
       </c>
       <c r="H45">
-        <v>0.79142891801223181</v>
+        <v>0.7914289180122318</v>
       </c>
       <c r="I45">
         <v>19.0747778441199</v>
       </c>
       <c r="J45">
-        <v>1.0004368582401979</v>
+        <v>1.000436858240198</v>
       </c>
       <c r="K45">
-        <v>1.0020125390208601</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.00201253902086</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -2460,22 +2431,22 @@
         <v>14896</v>
       </c>
       <c r="G46">
-        <v>0.85200686471291232</v>
+        <v>0.8520068647129123</v>
       </c>
       <c r="H46">
-        <v>0.97726803959859598</v>
+        <v>0.977268039598596</v>
       </c>
       <c r="I46">
         <v>3.099026804169438</v>
       </c>
       <c r="J46">
-        <v>1.0000204923276139</v>
+        <v>1.000020492327614</v>
       </c>
       <c r="K46">
-        <v>1.0231459046551989</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.023145904655199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2495,22 +2466,22 @@
         <v>15257</v>
       </c>
       <c r="G47">
-        <v>0.95881006696169613</v>
+        <v>0.9588100669616961</v>
       </c>
       <c r="H47">
-        <v>0.97399650233441082</v>
+        <v>0.9739965023344108</v>
       </c>
       <c r="I47">
-        <v>2.9360923055203632</v>
+        <v>2.936092305520363</v>
       </c>
       <c r="J47">
-        <v>1.0000290084772001</v>
+        <v>1.0000290084772</v>
       </c>
       <c r="K47">
         <v>1.001112640107739</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2530,22 +2501,22 @@
         <v>26913</v>
       </c>
       <c r="G48">
-        <v>0.93726505468259314</v>
+        <v>0.9372650546825931</v>
       </c>
       <c r="H48">
-        <v>0.98760943136310242</v>
+        <v>0.9876094313631024</v>
       </c>
       <c r="I48">
-        <v>1.2326240071756041</v>
+        <v>1.232624007175604</v>
       </c>
       <c r="J48">
-        <v>1.0000046344977409</v>
+        <v>1.000004634497741</v>
       </c>
       <c r="K48">
         <v>1.004079955231058</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2565,22 +2536,22 @@
         <v>2934</v>
       </c>
       <c r="G49">
-        <v>0.93138850419548569</v>
+        <v>0.9313885041954857</v>
       </c>
       <c r="H49">
-        <v>0.97715874827274984</v>
+        <v>0.9771587482727498</v>
       </c>
       <c r="I49">
-        <v>19.458349615130199</v>
+        <v>19.4583496151302</v>
       </c>
       <c r="J49">
-        <v>1.0000794258672681</v>
+        <v>1.000079425867268</v>
       </c>
       <c r="K49">
-        <v>1.0050057562765291</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.005005756276529</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2600,22 +2571,22 @@
         <v>14975</v>
       </c>
       <c r="G50">
-        <v>0.87871849435496507</v>
+        <v>0.8787184943549651</v>
       </c>
       <c r="H50">
-        <v>0.75557996283515527</v>
+        <v>0.7555799628351553</v>
       </c>
       <c r="I50">
-        <v>3.1333144376128681</v>
+        <v>3.133314437612868</v>
       </c>
       <c r="J50">
-        <v>1.0330529714843319</v>
+        <v>1.033052971484332</v>
       </c>
       <c r="K50">
-        <v>0.99819086496017362</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9981908649601736</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>14</v>
       </c>
@@ -2635,22 +2606,22 @@
         <v>14912</v>
       </c>
       <c r="G51">
-        <v>0.97248351373465725</v>
+        <v>0.9724835137346572</v>
       </c>
       <c r="H51">
-        <v>0.93321592280098997</v>
+        <v>0.93321592280099</v>
       </c>
       <c r="I51">
-        <v>3.0350426131435171</v>
+        <v>3.035042613143517</v>
       </c>
       <c r="J51">
-        <v>1.0023336284578681</v>
+        <v>1.002333628457868</v>
       </c>
       <c r="K51">
         <v>1.000024336460043</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>14</v>
       </c>
@@ -2670,10 +2641,10 @@
         <v>27117</v>
       </c>
       <c r="G52">
-        <v>0.95847643017646278</v>
+        <v>0.9584764301764628</v>
       </c>
       <c r="H52">
-        <v>0.91419502058196978</v>
+        <v>0.9141950205819698</v>
       </c>
       <c r="I52">
         <v>1.226782053593575</v>
@@ -2682,10 +2653,10 @@
         <v>1.00732826609751</v>
       </c>
       <c r="K52">
-        <v>1.0000810462280301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.00008104622803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -2705,10 +2676,10 @@
         <v>2996</v>
       </c>
       <c r="G53">
-        <v>0.90849737273863096</v>
+        <v>0.908497372738631</v>
       </c>
       <c r="H53">
-        <v>0.79124505785548194</v>
+        <v>0.7912450578554819</v>
       </c>
       <c r="I53">
         <v>24.77976625868277</v>
@@ -2717,10 +2688,10 @@
         <v>1.0689133821395</v>
       </c>
       <c r="K53">
-        <v>0.99964863475114429</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9996486347511443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -2740,22 +2711,22 @@
         <v>14945</v>
       </c>
       <c r="G54">
-        <v>0.99500763077823673</v>
+        <v>0.9950076307782367</v>
       </c>
       <c r="H54">
-        <v>0.74448549405023123</v>
+        <v>0.7444854940502312</v>
       </c>
       <c r="I54">
-        <v>3.2379855486344362</v>
+        <v>3.237985548634436</v>
       </c>
       <c r="J54">
-        <v>1.3952228891188021</v>
+        <v>1.395222889118802</v>
       </c>
       <c r="K54">
         <v>1.034286281640221</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -2775,13 +2746,13 @@
         <v>14977</v>
       </c>
       <c r="G55">
-        <v>0.99820118600519325</v>
+        <v>0.9982011860051933</v>
       </c>
       <c r="H55">
-        <v>0.97792739743569124</v>
+        <v>0.9779273974356912</v>
       </c>
       <c r="I55">
-        <v>3.0064405888259782</v>
+        <v>3.006440588825978</v>
       </c>
       <c r="J55">
         <v>1.00024262309073</v>
@@ -2790,7 +2761,7 @@
         <v>1.000132713384104</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2810,22 +2781,22 @@
         <v>27032</v>
       </c>
       <c r="G56">
-        <v>0.99393889010473269</v>
+        <v>0.9939388901047327</v>
       </c>
       <c r="H56">
-        <v>0.77156254947357017</v>
+        <v>0.7715625494735702</v>
       </c>
       <c r="I56">
         <v>1.253456030647573</v>
       </c>
       <c r="J56">
-        <v>1.0619935295272129</v>
+        <v>1.061993529527213</v>
       </c>
       <c r="K56">
         <v>1.042036334964292</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2845,10 +2816,10 @@
         <v>3046</v>
       </c>
       <c r="G57">
-        <v>0.99964438106685138</v>
+        <v>0.9996443810668514</v>
       </c>
       <c r="H57">
-        <v>0.97444121091201152</v>
+        <v>0.9744412109120115</v>
       </c>
       <c r="I57">
         <v>18.69796519671549</v>
@@ -2857,10 +2828,10 @@
         <v>1.000000656270509</v>
       </c>
       <c r="K57">
-        <v>1.0000005957562079</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000000595756208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2880,10 +2851,10 @@
         <v>15087</v>
       </c>
       <c r="G58">
-        <v>0.77509498977864699</v>
+        <v>0.775094989778647</v>
       </c>
       <c r="H58">
-        <v>0.96791361168419476</v>
+        <v>0.9679136116841948</v>
       </c>
       <c r="I58">
         <v>3.205463220928781</v>
@@ -2895,7 +2866,7 @@
         <v>1.08642661935536</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -2918,19 +2889,19 @@
         <v>0.9831276599920139</v>
       </c>
       <c r="H59">
-        <v>0.97345716666627269</v>
+        <v>0.9734571666662727</v>
       </c>
       <c r="I59">
         <v>3.023605159714732</v>
       </c>
       <c r="J59">
-        <v>1.0002773572874659</v>
+        <v>1.000277357287466</v>
       </c>
       <c r="K59">
-        <v>1.0007339783752549</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000733978375255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>14</v>
       </c>
@@ -2950,22 +2921,22 @@
         <v>27019</v>
       </c>
       <c r="G60">
-        <v>0.78601056964838012</v>
+        <v>0.7860105696483801</v>
       </c>
       <c r="H60">
-        <v>0.97433194692686964</v>
+        <v>0.9743319469268696</v>
       </c>
       <c r="I60">
-        <v>1.2533107203362881</v>
+        <v>1.253310720336288</v>
       </c>
       <c r="J60">
         <v>1.000248561047749</v>
       </c>
       <c r="K60">
-        <v>1.0563498601351999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.0563498601352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>14</v>
       </c>
@@ -2985,10 +2956,10 @@
         <v>2982</v>
       </c>
       <c r="G61">
-        <v>0.99264090476352418</v>
+        <v>0.9926409047635242</v>
       </c>
       <c r="H61">
-        <v>0.96966288158852443</v>
+        <v>0.9696628815885244</v>
       </c>
       <c r="I61">
         <v>19.12430841733087</v>
@@ -2997,10 +2968,10 @@
         <v>1.000100794280699</v>
       </c>
       <c r="K61">
-        <v>0.99999876284297284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9999987628429728</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -3020,22 +2991,22 @@
         <v>14926</v>
       </c>
       <c r="G62">
-        <v>0.81180526001688291</v>
+        <v>0.8118052600168829</v>
       </c>
       <c r="H62">
-        <v>0.68012993122192944</v>
+        <v>0.6801299312219294</v>
       </c>
       <c r="I62">
         <v>3.328127255952928</v>
       </c>
       <c r="J62">
-        <v>1.0822025268747619</v>
+        <v>1.082202526874762</v>
       </c>
       <c r="K62">
-        <v>0.99572656106285917</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9957265610628592</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>14</v>
       </c>
@@ -3055,22 +3026,22 @@
         <v>14976</v>
       </c>
       <c r="G63">
-        <v>0.95159847923555785</v>
+        <v>0.9515984792355578</v>
       </c>
       <c r="H63">
-        <v>0.92877945078024293</v>
+        <v>0.9287794507802429</v>
       </c>
       <c r="I63">
-        <v>3.0246151678403752</v>
+        <v>3.024615167840375</v>
       </c>
       <c r="J63">
         <v>1.003299222768786</v>
       </c>
       <c r="K63">
-        <v>1.0000508316993739</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000050831699374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -3090,22 +3061,22 @@
         <v>27029</v>
       </c>
       <c r="G64">
-        <v>0.78704509550693713</v>
+        <v>0.7870450955069371</v>
       </c>
       <c r="H64">
-        <v>0.73459497061225809</v>
+        <v>0.7345949706122581</v>
       </c>
       <c r="I64">
-        <v>18.410831881239311</v>
+        <v>18.41083188123931</v>
       </c>
       <c r="J64">
-        <v>3.3772242226201001</v>
+        <v>3.3772242226201</v>
       </c>
       <c r="K64">
-        <v>0.99937303886895601</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.999373038868956</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3125,22 +3096,22 @@
         <v>3069</v>
       </c>
       <c r="G65">
-        <v>0.98342980544166558</v>
+        <v>0.9834298054416656</v>
       </c>
       <c r="H65">
-        <v>0.95126037772587246</v>
+        <v>0.9512603777258725</v>
       </c>
       <c r="I65">
-        <v>18.555953341781859</v>
+        <v>18.55595334178186</v>
       </c>
       <c r="J65">
-        <v>1.0001450222009809</v>
+        <v>1.000145022200981</v>
       </c>
       <c r="K65">
-        <v>1.0000373795139219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000037379513922</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3163,19 +3134,19 @@
         <v>0.991446463766958</v>
       </c>
       <c r="H66">
-        <v>0.85510443203709297</v>
+        <v>0.855104432037093</v>
       </c>
       <c r="I66">
         <v>3.009263616566487</v>
       </c>
       <c r="J66">
-        <v>1.0290149515664351</v>
+        <v>1.029014951566435</v>
       </c>
       <c r="K66">
         <v>1.005998464081129</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -3195,22 +3166,22 @@
         <v>15109</v>
       </c>
       <c r="G67">
-        <v>0.99748704490159223</v>
+        <v>0.9974870449015922</v>
       </c>
       <c r="H67">
-        <v>0.91352088111194929</v>
+        <v>0.9135208811119493</v>
       </c>
       <c r="I67">
-        <v>2.9768703530303289</v>
+        <v>2.976870353030329</v>
       </c>
       <c r="J67">
-        <v>1.0037162348978019</v>
+        <v>1.003716234897802</v>
       </c>
       <c r="K67">
-        <v>1.0021146642256971</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.002114664225697</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>14</v>
       </c>
@@ -3230,22 +3201,22 @@
         <v>26764</v>
       </c>
       <c r="G68">
-        <v>0.99162760751595103</v>
+        <v>0.991627607515951</v>
       </c>
       <c r="H68">
-        <v>0.88471012329305387</v>
+        <v>0.8847101232930539</v>
       </c>
       <c r="I68">
         <v>1.252023680758046</v>
       </c>
       <c r="J68">
-        <v>1.0128544316353021</v>
+        <v>1.012854431635302</v>
       </c>
       <c r="K68">
         <v>1.005168625950345</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>14</v>
       </c>
@@ -3265,10 +3236,10 @@
         <v>2990</v>
       </c>
       <c r="G69">
-        <v>0.99704049150321128</v>
+        <v>0.9970404915032113</v>
       </c>
       <c r="H69">
-        <v>0.74570683734576837</v>
+        <v>0.7457068373457684</v>
       </c>
       <c r="I69">
         <v>19.66764816855563</v>
@@ -3277,10 +3248,10 @@
         <v>1.142305043158333</v>
       </c>
       <c r="K69">
-        <v>1.0066958080852191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.006695808085219</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>14</v>
       </c>
@@ -3300,10 +3271,10 @@
         <v>15020</v>
       </c>
       <c r="G70">
-        <v>0.88086493564594159</v>
+        <v>0.8808649356459416</v>
       </c>
       <c r="H70">
-        <v>0.99050278977357209</v>
+        <v>0.9905027897735721</v>
       </c>
       <c r="I70">
         <v>3.027912961698604</v>
@@ -3315,7 +3286,7 @@
         <v>1.016422502015182</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -3335,22 +3306,22 @@
         <v>14934</v>
       </c>
       <c r="G71">
-        <v>0.94182867062670317</v>
+        <v>0.9418286706267032</v>
       </c>
       <c r="H71">
         <v>0.9855851803692206</v>
       </c>
       <c r="I71">
-        <v>3.0233365653453501</v>
+        <v>3.02333656534535</v>
       </c>
       <c r="J71">
         <v>1.000011000586795</v>
       </c>
       <c r="K71">
-        <v>1.0023503558860121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.002350355886012</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3373,7 +3344,7 @@
         <v>0.8934450404995552</v>
       </c>
       <c r="H72">
-        <v>0.98992040752769317</v>
+        <v>0.9899204075276932</v>
       </c>
       <c r="I72">
         <v>1.228267310083889</v>
@@ -3385,7 +3356,7 @@
         <v>1.013309164231629</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -3405,22 +3376,22 @@
         <v>3029</v>
       </c>
       <c r="G73">
-        <v>0.87870920939496333</v>
+        <v>0.8787092093949633</v>
       </c>
       <c r="H73">
-        <v>0.95283106712399102</v>
+        <v>0.952831067123991</v>
       </c>
       <c r="I73">
-        <v>19.377738536008671</v>
+        <v>19.37773853600867</v>
       </c>
       <c r="J73">
-        <v>1.0000733766567611</v>
+        <v>1.000073376656761</v>
       </c>
       <c r="K73">
         <v>1.035436194225934</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -3434,28 +3405,28 @@
         <v>1.4</v>
       </c>
       <c r="E74">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F74">
         <v>15073</v>
       </c>
       <c r="G74">
-        <v>0.74459319918254185</v>
+        <v>0.7445931991825419</v>
       </c>
       <c r="H74">
-        <v>0.76313092760971324</v>
+        <v>0.7631309276097132</v>
       </c>
       <c r="I74">
-        <v>2.9859859190300768</v>
+        <v>2.985985919030077</v>
       </c>
       <c r="J74">
-        <v>1.0553809024770759</v>
+        <v>1.055380902477076</v>
       </c>
       <c r="K74">
-        <v>4.0679014526107791</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4.067901452610779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>14</v>
       </c>
@@ -3478,19 +3449,19 @@
         <v>0.9069207257395997</v>
       </c>
       <c r="H75">
-        <v>0.93954130271494796</v>
+        <v>0.939541302714948</v>
       </c>
       <c r="I75">
         <v>3.045313045625738</v>
       </c>
       <c r="J75">
-        <v>1.0050284517492061</v>
+        <v>1.005028451749206</v>
       </c>
       <c r="K75">
         <v>1.015193093169914</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -3510,13 +3481,13 @@
         <v>27032</v>
       </c>
       <c r="G76">
-        <v>0.84375031458265559</v>
+        <v>0.8437503145826556</v>
       </c>
       <c r="H76">
-        <v>0.91715321005634576</v>
+        <v>0.9171532100563458</v>
       </c>
       <c r="I76">
-        <v>1.2245082690746201</v>
+        <v>1.22450826907462</v>
       </c>
       <c r="J76">
         <v>1.011756631754799</v>
@@ -3525,7 +3496,7 @@
         <v>1.048434639459481</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>14</v>
       </c>
@@ -3545,22 +3516,22 @@
         <v>3056</v>
       </c>
       <c r="G77">
-        <v>0.96758132273102215</v>
+        <v>0.9675813227310222</v>
       </c>
       <c r="H77">
-        <v>0.79813346672882068</v>
+        <v>0.7981334667288207</v>
       </c>
       <c r="I77">
-        <v>19.801541447825262</v>
+        <v>19.80154144782526</v>
       </c>
       <c r="J77">
-        <v>1.0773945423339299</v>
+        <v>1.07739454233393</v>
       </c>
       <c r="K77">
-        <v>1.0029271206326731</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.002927120632673</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -3580,22 +3551,22 @@
         <v>14894</v>
       </c>
       <c r="G78">
-        <v>0.99833647953425186</v>
+        <v>0.9983364795342519</v>
       </c>
       <c r="H78">
-        <v>0.97206872487059937</v>
+        <v>0.9720687248705994</v>
       </c>
       <c r="I78">
-        <v>3.0285029988732588</v>
+        <v>3.028502998873259</v>
       </c>
       <c r="J78">
-        <v>1.0000406196838989</v>
+        <v>1.000040619683899</v>
       </c>
       <c r="K78">
         <v>1.000033854763825</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -3615,22 +3586,22 @@
         <v>15035</v>
       </c>
       <c r="G79">
-        <v>0.99986795125165862</v>
+        <v>0.9998679512516586</v>
       </c>
       <c r="H79">
         <v>0.7598616291162319</v>
       </c>
       <c r="I79">
-        <v>3.0406324259225759</v>
+        <v>3.040632425922576</v>
       </c>
       <c r="J79">
         <v>1.037924567861285</v>
       </c>
       <c r="K79">
-        <v>1.0260211843266991</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.026021184326699</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -3650,22 +3621,22 @@
         <v>26965</v>
       </c>
       <c r="G80">
-        <v>0.99661650640018951</v>
+        <v>0.9966165064001895</v>
       </c>
       <c r="H80">
-        <v>0.78020602281017892</v>
+        <v>0.7802060228101789</v>
       </c>
       <c r="I80">
         <v>1.303559905189773</v>
       </c>
       <c r="J80">
-        <v>1.2137233081402099</v>
+        <v>1.21372330814021</v>
       </c>
       <c r="K80">
-        <v>1.0353816664395561</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.035381666439556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>14</v>
       </c>
@@ -3685,13 +3656,13 @@
         <v>3106</v>
       </c>
       <c r="G81">
-        <v>0.99590521104243424</v>
+        <v>0.9959052110424342</v>
       </c>
       <c r="H81">
         <v>0.7930823594975821</v>
       </c>
       <c r="I81">
-        <v>18.337005554927121</v>
+        <v>18.33700555492712</v>
       </c>
       <c r="J81">
         <v>1.003388855493158</v>
@@ -3700,7 +3671,7 @@
         <v>1.004506254236879</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>14</v>
       </c>
@@ -3726,16 +3697,16 @@
         <v>0.985430965683466</v>
       </c>
       <c r="I82">
-        <v>3.0208457674069931</v>
+        <v>3.020845767406993</v>
       </c>
       <c r="J82">
         <v>1.000006595669154</v>
       </c>
       <c r="K82">
-        <v>1.0004123206312689</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000412320631269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>14</v>
       </c>
@@ -3755,22 +3726,22 @@
         <v>15028</v>
       </c>
       <c r="G83">
-        <v>0.81540933837867957</v>
+        <v>0.8154093383786796</v>
       </c>
       <c r="H83">
-        <v>0.97238212638174071</v>
+        <v>0.9723821263817407</v>
       </c>
       <c r="I83">
-        <v>3.0391832897619691</v>
+        <v>3.039183289761969</v>
       </c>
       <c r="J83">
-        <v>1.0000334700299971</v>
+        <v>1.000033470029997</v>
       </c>
       <c r="K83">
-        <v>1.0370141971924349</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.037014197192435</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -3790,22 +3761,22 @@
         <v>27015</v>
       </c>
       <c r="G84">
-        <v>0.78277579847633794</v>
+        <v>0.7827757984763379</v>
       </c>
       <c r="H84">
-        <v>0.96903740885716194</v>
+        <v>0.9690374088571619</v>
       </c>
       <c r="I84">
         <v>1.313364129974818</v>
       </c>
       <c r="J84">
-        <v>1.0001511470363169</v>
+        <v>1.000151147036317</v>
       </c>
       <c r="K84">
         <v>1.103797461195738</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -3825,22 +3796,22 @@
         <v>3030</v>
       </c>
       <c r="G85">
-        <v>0.92064361229621383</v>
+        <v>0.9206436122962138</v>
       </c>
       <c r="H85">
-        <v>0.96849351010648177</v>
+        <v>0.9684935101064818</v>
       </c>
       <c r="I85">
-        <v>18.809283835390332</v>
+        <v>18.80928383539033</v>
       </c>
       <c r="J85">
-        <v>1.0000098030470139</v>
+        <v>1.000009803047014</v>
       </c>
       <c r="K85">
-        <v>1.0094891258921841</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.009489125892184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -3854,28 +3825,28 @@
         <v>1.4</v>
       </c>
       <c r="E86">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F86">
         <v>14954</v>
       </c>
       <c r="G86">
-        <v>0.82034515769927552</v>
+        <v>0.8203451576992755</v>
       </c>
       <c r="H86">
-        <v>0.69709497348405081</v>
+        <v>0.6970949734840508</v>
       </c>
       <c r="I86">
-        <v>3.0222313089322839</v>
+        <v>3.022231308932284</v>
       </c>
       <c r="J86">
         <v>1.099717482015766</v>
       </c>
       <c r="K86">
-        <v>2.5653216616410091</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.565321661641009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>14</v>
       </c>
@@ -3895,22 +3866,22 @@
         <v>15109</v>
       </c>
       <c r="G87">
-        <v>0.83984835187712004</v>
+        <v>0.83984835187712</v>
       </c>
       <c r="H87">
-        <v>0.95840338579320394</v>
+        <v>0.9584033857932039</v>
       </c>
       <c r="I87">
-        <v>3.0183809248797222</v>
+        <v>3.018380924879722</v>
       </c>
       <c r="J87">
         <v>1.000474925532381</v>
       </c>
       <c r="K87">
-        <v>1.0225544645829789</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.022554464582979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>14</v>
       </c>
@@ -3930,22 +3901,22 @@
         <v>26933</v>
       </c>
       <c r="G88">
-        <v>0.99207357990959188</v>
+        <v>0.9920735799095919</v>
       </c>
       <c r="H88">
-        <v>0.75561445479919875</v>
+        <v>0.7556144547991988</v>
       </c>
       <c r="I88">
-        <v>1.4176490489004101</v>
+        <v>1.41764904890041</v>
       </c>
       <c r="J88">
-        <v>1.8358158806876539</v>
+        <v>1.835815880687654</v>
       </c>
       <c r="K88">
-        <v>1.0570170784931701</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.05701707849317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -3965,22 +3936,22 @@
         <v>3004</v>
       </c>
       <c r="G89">
-        <v>0.94432966901788751</v>
+        <v>0.9443296690178875</v>
       </c>
       <c r="H89">
-        <v>0.94947212860360375</v>
+        <v>0.9494721286036037</v>
       </c>
       <c r="I89">
-        <v>18.966980461103031</v>
+        <v>18.96698046110303</v>
       </c>
       <c r="J89">
-        <v>1.0000184479676371</v>
+        <v>1.000018447967637</v>
       </c>
       <c r="K89">
         <v>1.00400149908932</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -4000,22 +3971,22 @@
         <v>15077</v>
       </c>
       <c r="G90">
-        <v>0.99938423837595991</v>
+        <v>0.9993842383759599</v>
       </c>
       <c r="H90">
-        <v>0.90341839134398561</v>
+        <v>0.9034183913439856</v>
       </c>
       <c r="I90">
-        <v>2.9880610190022141</v>
+        <v>2.988061019002214</v>
       </c>
       <c r="J90">
         <v>1.005103163619365</v>
       </c>
       <c r="K90">
-        <v>1.0025868474648549</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.002586847464855</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -4035,22 +4006,22 @@
         <v>15168</v>
       </c>
       <c r="G91">
-        <v>0.99819146875844222</v>
+        <v>0.9981914687584422</v>
       </c>
       <c r="H91">
-        <v>0.89982849318611235</v>
+        <v>0.8998284931861124</v>
       </c>
       <c r="I91">
         <v>2.964389046172887</v>
       </c>
       <c r="J91">
-        <v>1.0050140648443711</v>
+        <v>1.005014064844371</v>
       </c>
       <c r="K91">
         <v>1.002325326879913</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -4070,13 +4041,13 @@
         <v>26796</v>
       </c>
       <c r="G92">
-        <v>0.99718801081545305</v>
+        <v>0.9971880108154531</v>
       </c>
       <c r="H92">
-        <v>0.82365349106334806</v>
+        <v>0.8236534910633481</v>
       </c>
       <c r="I92">
-        <v>1.2848845323156119</v>
+        <v>1.284884532315612</v>
       </c>
       <c r="J92">
         <v>1.085676605860707</v>
@@ -4085,7 +4056,7 @@
         <v>1.019028343863128</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>14</v>
       </c>
@@ -4105,22 +4076,22 @@
         <v>2959</v>
       </c>
       <c r="G93">
-        <v>0.99840738247945005</v>
+        <v>0.99840738247945</v>
       </c>
       <c r="H93">
-        <v>0.78348727924145967</v>
+        <v>0.7834872792414597</v>
       </c>
       <c r="I93">
-        <v>19.270008550530449</v>
+        <v>19.27000855053045</v>
       </c>
       <c r="J93">
         <v>1.002700026780196</v>
       </c>
       <c r="K93">
-        <v>1.0038245264324139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.003824526432414</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -4140,22 +4111,22 @@
         <v>15039</v>
       </c>
       <c r="G94">
-        <v>0.92348170359026094</v>
+        <v>0.9234817035902609</v>
       </c>
       <c r="H94">
-        <v>0.98671705654930753</v>
+        <v>0.9867170565493075</v>
       </c>
       <c r="I94">
-        <v>2.9973617952040672</v>
+        <v>2.997361795204067</v>
       </c>
       <c r="J94">
-        <v>1.0000309247755019</v>
+        <v>1.000030924775502</v>
       </c>
       <c r="K94">
         <v>1.005079090809095</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>14</v>
       </c>
@@ -4175,10 +4146,10 @@
         <v>14991</v>
       </c>
       <c r="G95">
-        <v>0.92646523823706317</v>
+        <v>0.9264652382370632</v>
       </c>
       <c r="H95">
-        <v>0.97898958968076055</v>
+        <v>0.9789895896807606</v>
       </c>
       <c r="I95">
         <v>3.011107357809756</v>
@@ -4190,7 +4161,7 @@
         <v>1.004085196254789</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -4210,22 +4181,22 @@
         <v>26978</v>
       </c>
       <c r="G96">
-        <v>0.83230072266845756</v>
+        <v>0.8323007226684576</v>
       </c>
       <c r="H96">
-        <v>0.98433944748330882</v>
+        <v>0.9843394474833088</v>
       </c>
       <c r="I96">
         <v>1.267028430108577</v>
       </c>
       <c r="J96">
-        <v>1.0000643224576631</v>
+        <v>1.000064322457663</v>
       </c>
       <c r="K96">
-        <v>1.0476688780368251</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.047668878036825</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -4245,22 +4216,22 @@
         <v>2992</v>
       </c>
       <c r="G97">
-        <v>0.91534889041231082</v>
+        <v>0.9153488904123108</v>
       </c>
       <c r="H97">
-        <v>0.96406682598775606</v>
+        <v>0.9640668259877561</v>
       </c>
       <c r="I97">
         <v>19.04453936408358</v>
       </c>
       <c r="J97">
-        <v>1.0001575468818891</v>
+        <v>1.000157546881889</v>
       </c>
       <c r="K97">
         <v>1.011681384821691</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -4280,22 +4251,22 @@
         <v>14957</v>
       </c>
       <c r="G98">
-        <v>0.93766867934187759</v>
+        <v>0.9376686793418776</v>
       </c>
       <c r="H98">
-        <v>0.87835215903552499</v>
+        <v>0.878352159035525</v>
       </c>
       <c r="I98">
         <v>3.086556595039962</v>
       </c>
       <c r="J98">
-        <v>1.0130927658135249</v>
+        <v>1.013092765813525</v>
       </c>
       <c r="K98">
         <v>1.000018982332475</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -4315,22 +4286,22 @@
         <v>15033</v>
       </c>
       <c r="G99">
-        <v>0.94031785910724675</v>
+        <v>0.9403178591072467</v>
       </c>
       <c r="H99">
-        <v>0.87472161960074923</v>
+        <v>0.8747216196007492</v>
       </c>
       <c r="I99">
-        <v>3.0705524585281418</v>
+        <v>3.070552458528142</v>
       </c>
       <c r="J99">
         <v>1.016124278830602</v>
       </c>
       <c r="K99">
-        <v>1.0002093268392289</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000209326839229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>14</v>
       </c>
@@ -4353,19 +4324,19 @@
         <v>0.8493065555296968</v>
       </c>
       <c r="H100">
-        <v>0.75118253473290697</v>
+        <v>0.751182534732907</v>
       </c>
       <c r="I100">
         <v>1.341265575747312</v>
       </c>
       <c r="J100">
-        <v>1.0761629664146579</v>
+        <v>1.076162966414658</v>
       </c>
       <c r="K100">
-        <v>0.99957561321580712</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9995756132158071</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -4385,22 +4356,22 @@
         <v>2966</v>
       </c>
       <c r="G101">
-        <v>0.89780182357008276</v>
+        <v>0.8978018235700828</v>
       </c>
       <c r="H101">
-        <v>0.73063803162265339</v>
+        <v>0.7306380316226534</v>
       </c>
       <c r="I101">
-        <v>35.552656370037788</v>
+        <v>35.55265637003779</v>
       </c>
       <c r="J101">
         <v>1.231178230155819</v>
       </c>
       <c r="K101">
-        <v>1.0000516111267781</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000051611126778</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -4420,22 +4391,22 @@
         <v>15017</v>
       </c>
       <c r="G102">
-        <v>0.99627612450254988</v>
+        <v>0.9962761245025499</v>
       </c>
       <c r="H102">
-        <v>0.86712373941231879</v>
+        <v>0.8671237394123188</v>
       </c>
       <c r="I102">
-        <v>3.0131198141837512</v>
+        <v>3.013119814183751</v>
       </c>
       <c r="J102">
-        <v>1.0102764265602071</v>
+        <v>1.010276426560207</v>
       </c>
       <c r="K102">
-        <v>1.0049837187642929</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.004983718764293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -4455,22 +4426,22 @@
         <v>14712</v>
       </c>
       <c r="G103">
-        <v>0.99951845030702502</v>
+        <v>0.999518450307025</v>
       </c>
       <c r="H103">
-        <v>0.86960536922533715</v>
+        <v>0.8696053692253372</v>
       </c>
       <c r="I103">
-        <v>3.0921132930990041</v>
+        <v>3.092113293099004</v>
       </c>
       <c r="J103">
-        <v>1.0081743223013679</v>
+        <v>1.008174322301368</v>
       </c>
       <c r="K103">
-        <v>1.0043552070184629</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.004355207018463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -4490,22 +4461,22 @@
         <v>27224</v>
       </c>
       <c r="G104">
-        <v>0.99852903914324831</v>
+        <v>0.9985290391432483</v>
       </c>
       <c r="H104">
-        <v>0.86505330361115162</v>
+        <v>0.8650533036111516</v>
       </c>
       <c r="I104">
         <v>1.224957589411136</v>
       </c>
       <c r="J104">
-        <v>1.0354262141205399</v>
+        <v>1.03542621412054</v>
       </c>
       <c r="K104">
         <v>1.010124063362426</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>14</v>
       </c>
@@ -4525,10 +4496,10 @@
         <v>3047</v>
       </c>
       <c r="G105">
-        <v>0.99504481910788289</v>
+        <v>0.9950448191078829</v>
       </c>
       <c r="H105">
-        <v>0.76562895074243587</v>
+        <v>0.7656289507424359</v>
       </c>
       <c r="I105">
         <v>19.23662519620342</v>
@@ -4537,10 +4508,10 @@
         <v>1.099389774037316</v>
       </c>
       <c r="K105">
-        <v>1.0052740197217911</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.005274019721791</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" t="s">
         <v>14</v>
       </c>
@@ -4560,22 +4531,22 @@
         <v>15014</v>
       </c>
       <c r="G106">
-        <v>0.91189925348012124</v>
+        <v>0.9118992534801212</v>
       </c>
       <c r="H106">
-        <v>0.98249236198876988</v>
+        <v>0.9824923619887699</v>
       </c>
       <c r="I106">
-        <v>3.0054415082595631</v>
+        <v>3.005441508259563</v>
       </c>
       <c r="J106">
         <v>1.000106143910253</v>
       </c>
       <c r="K106">
-        <v>1.0071126638720891</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.007112663872089</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" t="s">
         <v>14</v>
       </c>
@@ -4595,13 +4566,13 @@
         <v>14998</v>
       </c>
       <c r="G107">
-        <v>0.90313836936611436</v>
+        <v>0.9031383693661144</v>
       </c>
       <c r="H107">
-        <v>0.97812835239088591</v>
+        <v>0.9781283523908859</v>
       </c>
       <c r="I107">
-        <v>3.0133774145503649</v>
+        <v>3.013377414550365</v>
       </c>
       <c r="J107">
         <v>1.000017532589571</v>
@@ -4610,7 +4581,7 @@
         <v>1.008144345932084</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -4630,22 +4601,22 @@
         <v>26897</v>
       </c>
       <c r="G108">
-        <v>0.88374263618819138</v>
+        <v>0.8837426361881914</v>
       </c>
       <c r="H108">
-        <v>0.99004445557201037</v>
+        <v>0.9900444555720104</v>
       </c>
       <c r="I108">
-        <v>1.2455663514066291</v>
+        <v>1.245566351406629</v>
       </c>
       <c r="J108">
-        <v>1.0001546077981951</v>
+        <v>1.000154607798195</v>
       </c>
       <c r="K108">
-        <v>1.0206380025412629</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.020638002541263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -4665,10 +4636,10 @@
         <v>3091</v>
       </c>
       <c r="G109">
-        <v>0.89918911954357805</v>
+        <v>0.8991891195435781</v>
       </c>
       <c r="H109">
-        <v>0.95333791687269032</v>
+        <v>0.9533379168726903</v>
       </c>
       <c r="I109">
         <v>18.71223180344694</v>
@@ -4677,10 +4648,10 @@
         <v>1.000077457861541</v>
       </c>
       <c r="K109">
-        <v>1.0187196242897509</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.018719624289751</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -4700,10 +4671,10 @@
         <v>14963</v>
       </c>
       <c r="G110">
-        <v>0.83732952564159047</v>
+        <v>0.8373295256415905</v>
       </c>
       <c r="H110">
-        <v>0.88593978540549301</v>
+        <v>0.885939785405493</v>
       </c>
       <c r="I110">
         <v>3.017956694749484</v>
@@ -4715,7 +4686,7 @@
         <v>1.052713475107089</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11">
       <c r="A111" t="s">
         <v>14</v>
       </c>
@@ -4735,10 +4706,10 @@
         <v>15080</v>
       </c>
       <c r="G111">
-        <v>0.83948005594467268</v>
+        <v>0.8394800559446727</v>
       </c>
       <c r="H111">
-        <v>0.88164133802214284</v>
+        <v>0.8816413380221428</v>
       </c>
       <c r="I111">
         <v>2.985254648710352</v>
@@ -4750,7 +4721,7 @@
         <v>1.051126087962492</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -4764,28 +4735,28 @@
         <v>1.4</v>
       </c>
       <c r="E112">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F112">
         <v>27048</v>
       </c>
       <c r="G112">
-        <v>0.72079815135509406</v>
+        <v>0.7207981513550941</v>
       </c>
       <c r="H112">
-        <v>0.75333768323099159</v>
+        <v>0.7533376832309916</v>
       </c>
       <c r="I112">
-        <v>1.2217300032710541</v>
+        <v>1.221730003271054</v>
       </c>
       <c r="J112">
-        <v>1.1249316661880251</v>
+        <v>1.124931666188025</v>
       </c>
       <c r="K112">
         <v>16.54091744681114</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -4805,10 +4776,10 @@
         <v>2909</v>
       </c>
       <c r="G113">
-        <v>0.99493800642895291</v>
+        <v>0.9949380064289529</v>
       </c>
       <c r="H113">
-        <v>0.73306008729316285</v>
+        <v>0.7330600872931629</v>
       </c>
       <c r="I113">
         <v>20.84880838762864</v>
@@ -4820,7 +4791,7 @@
         <v>1.009913682729316</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:11">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -4840,13 +4811,13 @@
         <v>15123</v>
       </c>
       <c r="G114">
-        <v>0.99874251494382005</v>
+        <v>0.99874251494382</v>
       </c>
       <c r="H114">
         <v>0.7959197419325158</v>
       </c>
       <c r="I114">
-        <v>3.0705043464807531</v>
+        <v>3.070504346480753</v>
       </c>
       <c r="J114">
         <v>1.1068381347262</v>
@@ -4855,7 +4826,7 @@
         <v>1.017425592315357</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -4875,22 +4846,22 @@
         <v>14876</v>
       </c>
       <c r="G115">
-        <v>0.99999399363464625</v>
+        <v>0.9999939936346462</v>
       </c>
       <c r="H115">
-        <v>0.79631745429375511</v>
+        <v>0.7963174542937551</v>
       </c>
       <c r="I115">
-        <v>3.0693619555575129</v>
+        <v>3.069361955557513</v>
       </c>
       <c r="J115">
-        <v>1.0248848826974299</v>
+        <v>1.02488488269743</v>
       </c>
       <c r="K115">
-        <v>1.0158240145117341</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.015824014511734</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -4910,22 +4881,22 @@
         <v>27073</v>
       </c>
       <c r="G116">
-        <v>0.99970620588590642</v>
+        <v>0.9997062058859064</v>
       </c>
       <c r="H116">
-        <v>0.97969285820152996</v>
+        <v>0.97969285820153</v>
       </c>
       <c r="I116">
-        <v>1.2164560096794279</v>
+        <v>1.216456009679428</v>
       </c>
       <c r="J116">
         <v>1.000312181368143</v>
       </c>
       <c r="K116">
-        <v>1.0001304961576281</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000130496157628</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -4945,22 +4916,22 @@
         <v>2928</v>
       </c>
       <c r="G117">
-        <v>0.99677522344205627</v>
+        <v>0.9967752234420563</v>
       </c>
       <c r="H117">
         <v>0.9755239208850357</v>
       </c>
       <c r="I117">
-        <v>19.491875251925268</v>
+        <v>19.49187525192527</v>
       </c>
       <c r="J117">
-        <v>1.0000284431454141</v>
+        <v>1.000028443145414</v>
       </c>
       <c r="K117">
         <v>1.000043216198077</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:11">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -4980,10 +4951,10 @@
         <v>14846</v>
       </c>
       <c r="G118">
-        <v>0.81503520124460882</v>
+        <v>0.8150352012446088</v>
       </c>
       <c r="H118">
-        <v>0.96939788424587581</v>
+        <v>0.9693978842458758</v>
       </c>
       <c r="I118">
         <v>3.16454043144984</v>
@@ -4995,7 +4966,7 @@
         <v>1.046759095102789</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:11">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -5015,22 +4986,22 @@
         <v>14971</v>
       </c>
       <c r="G119">
-        <v>0.84126311712167068</v>
+        <v>0.8412631171216707</v>
       </c>
       <c r="H119">
-        <v>0.97818846727603326</v>
+        <v>0.9781884672760333</v>
       </c>
       <c r="I119">
         <v>3.042787312664891</v>
       </c>
       <c r="J119">
-        <v>1.0000002117116249</v>
+        <v>1.000000211711625</v>
       </c>
       <c r="K119">
-        <v>1.0236764783517751</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.023676478351775</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -5050,22 +5021,22 @@
         <v>27199</v>
       </c>
       <c r="G120">
-        <v>0.97647143144894111</v>
+        <v>0.9764714314489411</v>
       </c>
       <c r="H120">
-        <v>0.98726231803149311</v>
+        <v>0.9872623180314931</v>
       </c>
       <c r="I120">
-        <v>1.2066244183695061</v>
+        <v>1.206624418369506</v>
       </c>
       <c r="J120">
-        <v>1.0000158622513291</v>
+        <v>1.000015862251329</v>
       </c>
       <c r="K120">
-        <v>1.0004538150757241</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000453815075724</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -5085,22 +5056,22 @@
         <v>2984</v>
       </c>
       <c r="G121">
-        <v>0.99729754043966012</v>
+        <v>0.9972975404396601</v>
       </c>
       <c r="H121">
-        <v>0.96311133083958478</v>
+        <v>0.9631113308395848</v>
       </c>
       <c r="I121">
         <v>19.10782360975233</v>
       </c>
       <c r="J121">
-        <v>1.0000051069175231</v>
+        <v>1.000005106917523</v>
       </c>
       <c r="K121">
-        <v>0.99998850721880028</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9999885072188003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -5120,22 +5091,22 @@
         <v>15027</v>
       </c>
       <c r="G122">
-        <v>0.84203507791637611</v>
+        <v>0.8420350779163761</v>
       </c>
       <c r="H122">
-        <v>0.72235524735301815</v>
+        <v>0.7223552473530181</v>
       </c>
       <c r="I122">
         <v>3.204963868362344</v>
       </c>
       <c r="J122">
-        <v>1.0549894512600231</v>
+        <v>1.054989451260023</v>
       </c>
       <c r="K122">
-        <v>0.99695981643963294</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9969598164396329</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -5158,19 +5129,19 @@
         <v>0.8243309687210536</v>
       </c>
       <c r="H123">
-        <v>0.75950135801475782</v>
+        <v>0.7595013580147578</v>
       </c>
       <c r="I123">
-        <v>7.5724832590493438</v>
+        <v>7.572483259049344</v>
       </c>
       <c r="J123">
         <v>1.36660496758838</v>
       </c>
       <c r="K123">
-        <v>0.99967181603908684</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9996718160390868</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" t="s">
         <v>14</v>
       </c>
@@ -5190,13 +5161,13 @@
         <v>27083</v>
       </c>
       <c r="G124">
-        <v>0.98853382619622288</v>
+        <v>0.9885338261962229</v>
       </c>
       <c r="H124">
-        <v>0.94812030379086654</v>
+        <v>0.9481203037908665</v>
       </c>
       <c r="I124">
-        <v>1.2164122795645369</v>
+        <v>1.216412279564537</v>
       </c>
       <c r="J124">
         <v>1.000619815942251</v>
@@ -5205,7 +5176,7 @@
         <v>1.000022277042971</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:11">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -5231,16 +5202,16 @@
         <v>0.9610368094627727</v>
       </c>
       <c r="I125">
-        <v>18.940903410917478</v>
+        <v>18.94090341091748</v>
       </c>
       <c r="J125">
-        <v>1.0000026295443409</v>
+        <v>1.000002629544341</v>
       </c>
       <c r="K125">
-        <v>1.0000703929049219</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000070392904922</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -5260,22 +5231,22 @@
         <v>15075</v>
       </c>
       <c r="G126">
-        <v>0.99573915934482915</v>
+        <v>0.9957391593448292</v>
       </c>
       <c r="H126">
-        <v>0.94281787073042889</v>
+        <v>0.9428178707304289</v>
       </c>
       <c r="I126">
         <v>2.985008122294043</v>
       </c>
       <c r="J126">
-        <v>1.0025722958056531</v>
+        <v>1.002572295805653</v>
       </c>
       <c r="K126">
         <v>1.00073073721229</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:11">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -5295,22 +5266,22 @@
         <v>14906</v>
       </c>
       <c r="G127">
-        <v>0.99872288729348857</v>
+        <v>0.9987228872934886</v>
       </c>
       <c r="H127">
-        <v>0.75848934450542882</v>
+        <v>0.7584893445054288</v>
       </c>
       <c r="I127">
         <v>3.222436691669528</v>
       </c>
       <c r="J127">
-        <v>1.2624121418171399</v>
+        <v>1.26241214181714</v>
       </c>
       <c r="K127">
-        <v>1.0261252246785719</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.026125224678572</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -5330,10 +5301,10 @@
         <v>27041</v>
       </c>
       <c r="G128">
-        <v>0.99365336110268276</v>
+        <v>0.9936533611026828</v>
       </c>
       <c r="H128">
-        <v>0.78140130124724427</v>
+        <v>0.7814013012472443</v>
       </c>
       <c r="I128">
         <v>1.252803438509327</v>
@@ -5342,10 +5313,10 @@
         <v>1.053745131094203</v>
       </c>
       <c r="K128">
-        <v>1.0297280431547671</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.029728043154767</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -5365,22 +5336,22 @@
         <v>2978</v>
       </c>
       <c r="G129">
-        <v>0.99651019825401566</v>
+        <v>0.9965101982540157</v>
       </c>
       <c r="H129">
-        <v>0.86589388671039269</v>
+        <v>0.8658938867103927</v>
       </c>
       <c r="I129">
-        <v>19.152232505979409</v>
+        <v>19.15223250597941</v>
       </c>
       <c r="J129">
         <v>1.001233132350688</v>
       </c>
       <c r="K129">
-        <v>1.0011440174558961</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.001144017455896</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -5400,22 +5371,22 @@
         <v>14923</v>
       </c>
       <c r="G130">
-        <v>0.95424304362643519</v>
+        <v>0.9542430436264352</v>
       </c>
       <c r="H130">
-        <v>0.98094575557781238</v>
+        <v>0.9809457555778124</v>
       </c>
       <c r="I130">
-        <v>3.0238262390803219</v>
+        <v>3.023826239080322</v>
       </c>
       <c r="J130">
-        <v>1.0000398003558859</v>
+        <v>1.000039800355886</v>
       </c>
       <c r="K130">
-        <v>1.0022393761795141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.002239376179514</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -5438,19 +5409,19 @@
         <v>0.7952900961715339</v>
       </c>
       <c r="H131">
-        <v>0.97390177566149705</v>
+        <v>0.973901775661497</v>
       </c>
       <c r="I131">
-        <v>3.1457577344415668</v>
+        <v>3.145757734441567</v>
       </c>
       <c r="J131">
-        <v>1.0001218141128181</v>
+        <v>1.000121814112818</v>
       </c>
       <c r="K131">
-        <v>1.0677066207817461</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.067706620781746</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -5470,22 +5441,22 @@
         <v>27012</v>
       </c>
       <c r="G132">
-        <v>0.80224151515612918</v>
+        <v>0.8022415151561292</v>
       </c>
       <c r="H132">
         <v>0.9776478144887597</v>
       </c>
       <c r="I132">
-        <v>1.2497346065666819</v>
+        <v>1.249734606566682</v>
       </c>
       <c r="J132">
-        <v>1.0001342329120451</v>
+        <v>1.000134232912045</v>
       </c>
       <c r="K132">
-        <v>1.0461253559000649</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.046125355900065</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" t="s">
         <v>14</v>
       </c>
@@ -5505,22 +5476,22 @@
         <v>3036</v>
       </c>
       <c r="G133">
-        <v>0.95396104838091822</v>
+        <v>0.9539610483809182</v>
       </c>
       <c r="H133">
-        <v>0.96650737553780031</v>
+        <v>0.9665073755378003</v>
       </c>
       <c r="I133">
-        <v>18.774978491411382</v>
+        <v>18.77497849141138</v>
       </c>
       <c r="J133">
-        <v>1.0000434679539689</v>
+        <v>1.000043467953969</v>
       </c>
       <c r="K133">
         <v>1.002102938347849</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:11">
       <c r="A134" t="s">
         <v>14</v>
       </c>
@@ -5534,28 +5505,28 @@
         <v>1.4</v>
       </c>
       <c r="E134">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F134">
         <v>14963</v>
       </c>
       <c r="G134">
-        <v>0.78844166303075713</v>
+        <v>0.7884416630307571</v>
       </c>
       <c r="H134">
-        <v>0.72272901024728753</v>
+        <v>0.7227290102472875</v>
       </c>
       <c r="I134">
-        <v>3.0118166752605879</v>
+        <v>3.011816675260588</v>
       </c>
       <c r="J134">
         <v>1.084062256301787</v>
       </c>
       <c r="K134">
-        <v>3.3466015847072912</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.346601584707291</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -5575,22 +5546,22 @@
         <v>14874</v>
       </c>
       <c r="G135">
-        <v>0.94860608455695583</v>
+        <v>0.9486060845569558</v>
       </c>
       <c r="H135">
-        <v>0.77529022696523098</v>
+        <v>0.775290226965231</v>
       </c>
       <c r="I135">
-        <v>3.4607801109779541</v>
+        <v>3.460780110977954</v>
       </c>
       <c r="J135">
         <v>1.25967596599847</v>
       </c>
       <c r="K135">
-        <v>1.0147460754626749</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.014746075462675</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -5610,13 +5581,13 @@
         <v>27106</v>
       </c>
       <c r="G136">
-        <v>0.79788108576574235</v>
+        <v>0.7978810857657423</v>
       </c>
       <c r="H136">
         <v>0.9792797740178244</v>
       </c>
       <c r="I136">
-        <v>1.2392506840529061</v>
+        <v>1.239250684052906</v>
       </c>
       <c r="J136">
         <v>1.00092592240921</v>
@@ -5625,7 +5596,7 @@
         <v>1.053463838457166</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -5645,22 +5616,22 @@
         <v>3057</v>
       </c>
       <c r="G137">
-        <v>0.94026521117858164</v>
+        <v>0.9402652111785816</v>
       </c>
       <c r="H137">
-        <v>0.95927310343319894</v>
+        <v>0.9592731034331989</v>
       </c>
       <c r="I137">
-        <v>18.644249110165209</v>
+        <v>18.64424911016521</v>
       </c>
       <c r="J137">
-        <v>1.0002626722942149</v>
+        <v>1.000262672294215</v>
       </c>
       <c r="K137">
         <v>1.005677856170323</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -5680,10 +5651,10 @@
         <v>14914</v>
       </c>
       <c r="G138">
-        <v>0.99630904070212567</v>
+        <v>0.9963090407021257</v>
       </c>
       <c r="H138">
-        <v>0.98965282744931526</v>
+        <v>0.9896528274493153</v>
       </c>
       <c r="I138">
         <v>3.023067400054932</v>
@@ -5692,10 +5663,10 @@
         <v>1.000000133921864</v>
       </c>
       <c r="K138">
-        <v>1.0000182852307811</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000018285230781</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -5718,7 +5689,7 @@
         <v>0.9999414477723968</v>
       </c>
       <c r="H139">
-        <v>0.98227084864501335</v>
+        <v>0.9822708486450134</v>
       </c>
       <c r="I139">
         <v>2.98406739111992</v>
@@ -5730,7 +5701,7 @@
         <v>1.000000750625434</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -5750,22 +5721,22 @@
         <v>26984</v>
       </c>
       <c r="G140">
-        <v>0.99952766306942498</v>
+        <v>0.999527663069425</v>
       </c>
       <c r="H140">
-        <v>0.98241313155915266</v>
+        <v>0.9824131315591527</v>
       </c>
       <c r="I140">
-        <v>1.2235440314607251</v>
+        <v>1.223544031460725</v>
       </c>
       <c r="J140">
-        <v>1.0000031583250371</v>
+        <v>1.000003158325037</v>
       </c>
       <c r="K140">
-        <v>1.0000001654814741</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000000165481474</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -5785,13 +5756,13 @@
         <v>3042</v>
       </c>
       <c r="G141">
-        <v>0.99391567178720497</v>
+        <v>0.993915671787205</v>
       </c>
       <c r="H141">
-        <v>0.97891130889329236</v>
+        <v>0.9789113088932924</v>
       </c>
       <c r="I141">
-        <v>18.723866166688001</v>
+        <v>18.723866166688</v>
       </c>
       <c r="J141">
         <v>1.000009787905114</v>
@@ -5800,7 +5771,7 @@
         <v>1.000048663206051</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -5820,22 +5791,22 @@
         <v>15086</v>
       </c>
       <c r="G142">
-        <v>0.99429627125826292</v>
+        <v>0.9942962712582629</v>
       </c>
       <c r="H142">
-        <v>0.82814804372234929</v>
+        <v>0.8281480437223493</v>
       </c>
       <c r="I142">
-        <v>3.0292194894373838</v>
+        <v>3.029219489437384</v>
       </c>
       <c r="J142">
         <v>1.02926559442972</v>
       </c>
       <c r="K142">
-        <v>1.0043219884725869</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.004321988472587</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -5855,22 +5826,22 @@
         <v>15091</v>
       </c>
       <c r="G143">
-        <v>0.99468643970895942</v>
+        <v>0.9946864397089594</v>
       </c>
       <c r="H143">
         <v>0.9436652692256744</v>
       </c>
       <c r="I143">
-        <v>2.9787259891497002</v>
+        <v>2.9787259891497</v>
       </c>
       <c r="J143">
-        <v>1.0011572939144919</v>
+        <v>1.001157293914492</v>
       </c>
       <c r="K143">
         <v>1.000214485737386</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -5890,22 +5861,22 @@
         <v>26836</v>
       </c>
       <c r="G144">
-        <v>0.99995572260618115</v>
+        <v>0.9999557226061812</v>
       </c>
       <c r="H144">
-        <v>0.93579110481485184</v>
+        <v>0.9357911048148518</v>
       </c>
       <c r="I144">
-        <v>1.2380714571801359</v>
+        <v>1.238071457180136</v>
       </c>
       <c r="J144">
-        <v>1.0027375669744021</v>
+        <v>1.002737566974402</v>
       </c>
       <c r="K144">
-        <v>1.0009765751984809</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000976575198481</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -5925,10 +5896,10 @@
         <v>2987</v>
       </c>
       <c r="G145">
-        <v>0.99912168394296297</v>
+        <v>0.999121683942963</v>
       </c>
       <c r="H145">
-        <v>0.78934576459070327</v>
+        <v>0.7893457645907033</v>
       </c>
       <c r="I145">
         <v>19.07939982685204</v>
@@ -5937,10 +5908,10 @@
         <v>1.000495649276026</v>
       </c>
       <c r="K145">
-        <v>1.0006075108346371</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000607510834637</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -5960,10 +5931,10 @@
         <v>14896</v>
       </c>
       <c r="G146">
-        <v>0.85200686471291232</v>
+        <v>0.8520068647129123</v>
       </c>
       <c r="H146">
-        <v>0.97115011656842987</v>
+        <v>0.9711501165684299</v>
       </c>
       <c r="I146">
         <v>3.084864286168044</v>
@@ -5975,7 +5946,7 @@
         <v>1.028903214350597</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -5995,13 +5966,13 @@
         <v>15257</v>
       </c>
       <c r="G147">
-        <v>0.95881006696169613</v>
+        <v>0.9588100669616961</v>
       </c>
       <c r="H147">
-        <v>0.96855729967485538</v>
+        <v>0.9685572996748554</v>
       </c>
       <c r="I147">
-        <v>2.9352518890450461</v>
+        <v>2.935251889045046</v>
       </c>
       <c r="J147">
         <v>1.000015694514123</v>
@@ -6010,7 +5981,7 @@
         <v>1.001406273949947</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -6030,10 +6001,10 @@
         <v>26913</v>
       </c>
       <c r="G148">
-        <v>0.93726505468259314</v>
+        <v>0.9372650546825931</v>
       </c>
       <c r="H148">
-        <v>0.98438589348872763</v>
+        <v>0.9843858934887276</v>
       </c>
       <c r="I148">
         <v>1.232108618364276</v>
@@ -6045,7 +6016,7 @@
         <v>1.004481404672716</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -6065,22 +6036,22 @@
         <v>2934</v>
       </c>
       <c r="G149">
-        <v>0.93138850419548569</v>
+        <v>0.9313885041954857</v>
       </c>
       <c r="H149">
-        <v>0.96894542614270063</v>
+        <v>0.9689454261427006</v>
       </c>
       <c r="I149">
-        <v>19.457415188294661</v>
+        <v>19.45741518829466</v>
       </c>
       <c r="J149">
-        <v>1.0000893334837899</v>
+        <v>1.00008933348379</v>
       </c>
       <c r="K149">
         <v>1.004323013184234</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -6100,10 +6071,10 @@
         <v>14975</v>
       </c>
       <c r="G150">
-        <v>0.87871849435496507</v>
+        <v>0.8787184943549651</v>
       </c>
       <c r="H150">
-        <v>0.75492580926262887</v>
+        <v>0.7549258092626289</v>
       </c>
       <c r="I150">
         <v>3.10432161160701</v>
@@ -6112,10 +6083,10 @@
         <v>1.021288193189374</v>
       </c>
       <c r="K150">
-        <v>1.0022894120877319</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.002289412087732</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -6135,13 +6106,13 @@
         <v>14912</v>
       </c>
       <c r="G151">
-        <v>0.97248351373465725</v>
+        <v>0.9724835137346572</v>
       </c>
       <c r="H151">
-        <v>0.93573724548604509</v>
+        <v>0.9357372454860451</v>
       </c>
       <c r="I151">
-        <v>3.0317136961096942</v>
+        <v>3.031713696109694</v>
       </c>
       <c r="J151">
         <v>1.00134957905943</v>
@@ -6150,7 +6121,7 @@
         <v>1.000042754904424</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -6170,10 +6141,10 @@
         <v>27117</v>
       </c>
       <c r="G152">
-        <v>0.95847643017646278</v>
+        <v>0.9584764301764628</v>
       </c>
       <c r="H152">
-        <v>0.91246841252189592</v>
+        <v>0.9124684125218959</v>
       </c>
       <c r="I152">
         <v>1.222840738085718</v>
@@ -6182,10 +6153,10 @@
         <v>1.004272303746121</v>
       </c>
       <c r="K152">
-        <v>1.0001429253441001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.0001429253441</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -6205,13 +6176,13 @@
         <v>2996</v>
       </c>
       <c r="G153">
-        <v>0.90849737273863096</v>
+        <v>0.908497372738631</v>
       </c>
       <c r="H153">
-        <v>0.79188525336785265</v>
+        <v>0.7918852533678526</v>
       </c>
       <c r="I153">
-        <v>23.967054892051191</v>
+        <v>23.96705489205119</v>
       </c>
       <c r="J153">
         <v>1.034135881816115</v>
@@ -6220,7 +6191,7 @@
         <v>1.001265381001496</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:11">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -6240,10 +6211,10 @@
         <v>14945</v>
       </c>
       <c r="G154">
-        <v>0.99500763077823673</v>
+        <v>0.9950076307782367</v>
       </c>
       <c r="H154">
-        <v>0.73895002074140681</v>
+        <v>0.7389500207414068</v>
       </c>
       <c r="I154">
         <v>3.200282412547625</v>
@@ -6252,10 +6223,10 @@
         <v>1.2043832972843</v>
       </c>
       <c r="K154">
-        <v>1.0152650920989621</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.015265092098962</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -6275,22 +6246,22 @@
         <v>14977</v>
       </c>
       <c r="G155">
-        <v>0.99820118600519325</v>
+        <v>0.9982011860051933</v>
       </c>
       <c r="H155">
-        <v>0.97414948619544073</v>
+        <v>0.9741494861954407</v>
       </c>
       <c r="I155">
         <v>3.006446612258598</v>
       </c>
       <c r="J155">
-        <v>1.0001939382249529</v>
+        <v>1.000193938224953</v>
       </c>
       <c r="K155">
         <v>1.000088905118437</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:11">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -6310,10 +6281,10 @@
         <v>27032</v>
       </c>
       <c r="G156">
-        <v>0.99393889010473269</v>
+        <v>0.9939388901047327</v>
       </c>
       <c r="H156">
-        <v>0.76477047902892115</v>
+        <v>0.7647704790289211</v>
       </c>
       <c r="I156">
         <v>1.246682754027908</v>
@@ -6322,10 +6293,10 @@
         <v>1.039631813255407</v>
       </c>
       <c r="K156">
-        <v>1.0197627281774979</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.019762728177498</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -6345,22 +6316,22 @@
         <v>3046</v>
       </c>
       <c r="G157">
-        <v>0.99964438106685138</v>
+        <v>0.9996443810668514</v>
       </c>
       <c r="H157">
         <v>0.9636233267493246</v>
       </c>
       <c r="I157">
-        <v>18.698056301109279</v>
+        <v>18.69805630110928</v>
       </c>
       <c r="J157">
-        <v>1.0000004551574291</v>
+        <v>1.000000455157429</v>
       </c>
       <c r="K157">
-        <v>0.99999494235033393</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9999949423503339</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -6380,22 +6351,22 @@
         <v>15087</v>
       </c>
       <c r="G158">
-        <v>0.77509498977864699</v>
+        <v>0.775094989778647</v>
       </c>
       <c r="H158">
-        <v>0.96355987644498675</v>
+        <v>0.9635598764449868</v>
       </c>
       <c r="I158">
-        <v>3.1590380975904728</v>
+        <v>3.159038097590473</v>
       </c>
       <c r="J158">
-        <v>0.99999892329350859</v>
+        <v>0.9999989232935086</v>
       </c>
       <c r="K158">
-        <v>1.1203060236417921</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.120306023641792</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -6418,19 +6389,19 @@
         <v>0.9831276599920139</v>
       </c>
       <c r="H159">
-        <v>0.96431604821418271</v>
+        <v>0.9643160482141827</v>
       </c>
       <c r="I159">
         <v>3.023646405733408</v>
       </c>
       <c r="J159">
-        <v>1.0003157593245151</v>
+        <v>1.000315759324515</v>
       </c>
       <c r="K159">
-        <v>1.0007728113355181</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000772811335518</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -6450,22 +6421,22 @@
         <v>27019</v>
       </c>
       <c r="G160">
-        <v>0.78601056964838012</v>
+        <v>0.7860105696483801</v>
       </c>
       <c r="H160">
-        <v>0.97292236832699686</v>
+        <v>0.9729223683269969</v>
       </c>
       <c r="I160">
-        <v>1.2451552671320849</v>
+        <v>1.245155267132085</v>
       </c>
       <c r="J160">
-        <v>1.0001979549519671</v>
+        <v>1.000197954951967</v>
       </c>
       <c r="K160">
-        <v>1.0624338018192401</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.06243380181924</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -6485,13 +6456,13 @@
         <v>2982</v>
       </c>
       <c r="G161">
-        <v>0.99264090476352418</v>
+        <v>0.9926409047635242</v>
       </c>
       <c r="H161">
-        <v>0.96364288519060792</v>
+        <v>0.9636428851906079</v>
       </c>
       <c r="I161">
-        <v>19.123175918239539</v>
+        <v>19.12317591823954</v>
       </c>
       <c r="J161">
         <v>1.000055434386824</v>
@@ -6500,7 +6471,7 @@
         <v>1.000006479088922</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:11">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -6520,22 +6491,22 @@
         <v>14926</v>
       </c>
       <c r="G162">
-        <v>0.81180526001688291</v>
+        <v>0.8118052600168829</v>
       </c>
       <c r="H162">
-        <v>0.67910659944313334</v>
+        <v>0.6791065994431333</v>
       </c>
       <c r="I162">
-        <v>3.2589618773821472</v>
+        <v>3.258961877382147</v>
       </c>
       <c r="J162">
-        <v>1.0535571422590679</v>
+        <v>1.053557142259068</v>
       </c>
       <c r="K162">
-        <v>1.0129559454608079</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.012955945460808</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -6555,10 +6526,10 @@
         <v>14976</v>
       </c>
       <c r="G163">
-        <v>0.95159847923555785</v>
+        <v>0.9515984792355578</v>
       </c>
       <c r="H163">
-        <v>0.93205613033464274</v>
+        <v>0.9320561303346427</v>
       </c>
       <c r="I163">
         <v>3.019225881483433</v>
@@ -6567,10 +6538,10 @@
         <v>1.001863232977465</v>
       </c>
       <c r="K163">
-        <v>1.0005914528162381</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000591452816238</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -6590,22 +6561,22 @@
         <v>27029</v>
       </c>
       <c r="G164">
-        <v>0.78704509550693713</v>
+        <v>0.7870450955069371</v>
       </c>
       <c r="H164">
-        <v>0.73723039635113119</v>
+        <v>0.7372303963511312</v>
       </c>
       <c r="I164">
-        <v>16.272901853405191</v>
+        <v>16.27290185340519</v>
       </c>
       <c r="J164">
         <v>1.658330571390273</v>
       </c>
       <c r="K164">
-        <v>1.0132840875247811</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.013284087524781</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -6625,13 +6596,13 @@
         <v>3069</v>
       </c>
       <c r="G165">
-        <v>0.98342980544166558</v>
+        <v>0.9834298054416656</v>
       </c>
       <c r="H165">
         <v>0.935647870597345</v>
       </c>
       <c r="I165">
-        <v>18.554682942842639</v>
+        <v>18.55468294284264</v>
       </c>
       <c r="J165">
         <v>1.000100608413903</v>
@@ -6640,7 +6611,7 @@
         <v>1.000090202613392</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:11">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -6663,19 +6634,19 @@
         <v>0.991446463766958</v>
       </c>
       <c r="H166">
-        <v>0.85905786435960085</v>
+        <v>0.8590578643596009</v>
       </c>
       <c r="I166">
-        <v>2.9954553733678648</v>
+        <v>2.995455373367865</v>
       </c>
       <c r="J166">
-        <v>1.0153640993063471</v>
+        <v>1.015364099306347</v>
       </c>
       <c r="K166">
-        <v>1.0023054990828519</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.002305499082852</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -6695,22 +6666,22 @@
         <v>15109</v>
       </c>
       <c r="G167">
-        <v>0.99748704490159223</v>
+        <v>0.9974870449015922</v>
       </c>
       <c r="H167">
-        <v>0.91348176010486615</v>
+        <v>0.9134817601048661</v>
       </c>
       <c r="I167">
-        <v>2.9754311401131579</v>
+        <v>2.975431140113158</v>
       </c>
       <c r="J167">
-        <v>1.0023438563820271</v>
+        <v>1.002343856382027</v>
       </c>
       <c r="K167">
-        <v>1.0010379510065739</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.001037951006574</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -6730,22 +6701,22 @@
         <v>26764</v>
       </c>
       <c r="G168">
-        <v>0.99162760751595103</v>
+        <v>0.991627607515951</v>
       </c>
       <c r="H168">
-        <v>0.88781510317087797</v>
+        <v>0.887815103170878</v>
       </c>
       <c r="I168">
-        <v>1.2494372251914529</v>
+        <v>1.249437225191453</v>
       </c>
       <c r="J168">
         <v>1.008023370129052</v>
       </c>
       <c r="K168">
-        <v>1.0020420268272889</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.002042026827289</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -6765,13 +6736,13 @@
         <v>2990</v>
       </c>
       <c r="G169">
-        <v>0.99704049150321128</v>
+        <v>0.9970404915032113</v>
       </c>
       <c r="H169">
-        <v>0.74585728051577438</v>
+        <v>0.7458572805157744</v>
       </c>
       <c r="I169">
-        <v>19.553647133600379</v>
+        <v>19.55364713360038</v>
       </c>
       <c r="J169">
         <v>1.07658606856766</v>
@@ -6780,7 +6751,7 @@
         <v>1.002740737231105</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:11">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -6800,22 +6771,22 @@
         <v>15020</v>
       </c>
       <c r="G170">
-        <v>0.88086493564594159</v>
+        <v>0.8808649356459416</v>
       </c>
       <c r="H170">
-        <v>0.98703587263231318</v>
+        <v>0.9870358726323132</v>
       </c>
       <c r="I170">
         <v>3.019058358778504</v>
       </c>
       <c r="J170">
-        <v>1.0000552499625259</v>
+        <v>1.000055249962526</v>
       </c>
       <c r="K170">
-        <v>1.0198944290219629</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.019894429021963</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" t="s">
         <v>15</v>
       </c>
@@ -6835,13 +6806,13 @@
         <v>14934</v>
       </c>
       <c r="G171">
-        <v>0.94182867062670317</v>
+        <v>0.9418286706267032</v>
       </c>
       <c r="H171">
-        <v>0.98403551208778717</v>
+        <v>0.9840355120877872</v>
       </c>
       <c r="I171">
-        <v>3.0228384137396782</v>
+        <v>3.022838413739678</v>
       </c>
       <c r="J171">
         <v>1.000053125890719</v>
@@ -6850,7 +6821,7 @@
         <v>1.002558687526222</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:11">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -6873,7 +6844,7 @@
         <v>0.8934450404995552</v>
       </c>
       <c r="H172">
-        <v>0.98310615549453551</v>
+        <v>0.9831061554945355</v>
       </c>
       <c r="I172">
         <v>1.225857928572704</v>
@@ -6885,7 +6856,7 @@
         <v>1.01528133431836</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:11">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -6905,13 +6876,13 @@
         <v>3029</v>
       </c>
       <c r="G173">
-        <v>0.87870920939496333</v>
+        <v>0.8787092093949633</v>
       </c>
       <c r="H173">
-        <v>0.95693661140558228</v>
+        <v>0.9569366114055823</v>
       </c>
       <c r="I173">
-        <v>19.221917781885359</v>
+        <v>19.22191778188536</v>
       </c>
       <c r="J173">
         <v>1.000032144058407</v>
@@ -6920,7 +6891,7 @@
         <v>1.054044529570429</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:11">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -6934,16 +6905,16 @@
         <v>1.4</v>
       </c>
       <c r="E174">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F174">
         <v>15073</v>
       </c>
       <c r="G174">
-        <v>0.74459319918254185</v>
+        <v>0.7445931991825419</v>
       </c>
       <c r="H174">
-        <v>0.76313874959730543</v>
+        <v>0.7631387495973054</v>
       </c>
       <c r="I174">
         <v>2.984807749944272</v>
@@ -6952,10 +6923,10 @@
         <v>1.032314027336463</v>
       </c>
       <c r="K174">
-        <v>3.6943509824236531</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
+        <v>3.694350982423653</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -6978,19 +6949,19 @@
         <v>0.9069207257395997</v>
       </c>
       <c r="H175">
-        <v>0.93425226742618483</v>
+        <v>0.9342522674261848</v>
       </c>
       <c r="I175">
-        <v>3.0443879749759648</v>
+        <v>3.044387974975965</v>
       </c>
       <c r="J175">
-        <v>1.0038783706933501</v>
+        <v>1.00387837069335</v>
       </c>
       <c r="K175">
-        <v>1.0142876726487851</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.014287672648785</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -7010,22 +6981,22 @@
         <v>27032</v>
       </c>
       <c r="G176">
-        <v>0.84375031458265559</v>
+        <v>0.8437503145826556</v>
       </c>
       <c r="H176">
-        <v>0.92098924148307926</v>
+        <v>0.9209892414830793</v>
       </c>
       <c r="I176">
         <v>1.223824091496823</v>
       </c>
       <c r="J176">
-        <v>1.0062814045186459</v>
+        <v>1.006281404518646</v>
       </c>
       <c r="K176">
         <v>1.043805119042803</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:11">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -7045,22 +7016,22 @@
         <v>3056</v>
       </c>
       <c r="G177">
-        <v>0.96758132273102215</v>
+        <v>0.9675813227310222</v>
       </c>
       <c r="H177">
-        <v>0.79770726730184749</v>
+        <v>0.7977072673018475</v>
       </c>
       <c r="I177">
-        <v>19.521858873187671</v>
+        <v>19.52185887318767</v>
       </c>
       <c r="J177">
-        <v>1.0365547534985979</v>
+        <v>1.036554753498598</v>
       </c>
       <c r="K177">
-        <v>1.0004704485747491</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000470448574749</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -7080,22 +7051,22 @@
         <v>14894</v>
       </c>
       <c r="G178">
-        <v>0.99833647953425186</v>
+        <v>0.9983364795342519</v>
       </c>
       <c r="H178">
-        <v>0.97009039861687518</v>
+        <v>0.9700903986168752</v>
       </c>
       <c r="I178">
-        <v>3.0284678882039642</v>
+        <v>3.028467888203964</v>
       </c>
       <c r="J178">
-        <v>1.0000012702901611</v>
+        <v>1.000001270290161</v>
       </c>
       <c r="K178">
-        <v>1.0000050799065689</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000005079906569</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" t="s">
         <v>15</v>
       </c>
@@ -7115,22 +7086,22 @@
         <v>15035</v>
       </c>
       <c r="G179">
-        <v>0.99986795125165862</v>
+        <v>0.9998679512516586</v>
       </c>
       <c r="H179">
-        <v>0.75427490691212951</v>
+        <v>0.7542749069121295</v>
       </c>
       <c r="I179">
-        <v>3.0331727466778511</v>
+        <v>3.033172746677851</v>
       </c>
       <c r="J179">
         <v>1.026008015536763</v>
       </c>
       <c r="K179">
-        <v>1.0117909548533359</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.011790954853336</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -7150,22 +7121,22 @@
         <v>26965</v>
       </c>
       <c r="G180">
-        <v>0.99661650640018951</v>
+        <v>0.9966165064001895</v>
       </c>
       <c r="H180">
-        <v>0.77893791467101614</v>
+        <v>0.7789379146710161</v>
       </c>
       <c r="I180">
-        <v>1.2848397320090481</v>
+        <v>1.284839732009048</v>
       </c>
       <c r="J180">
-        <v>1.1097419142314759</v>
+        <v>1.109741914231476</v>
       </c>
       <c r="K180">
         <v>1.015797598198767</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:11">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -7185,10 +7156,10 @@
         <v>3106</v>
       </c>
       <c r="G181">
-        <v>0.99590521104243424</v>
+        <v>0.9959052110424342</v>
       </c>
       <c r="H181">
-        <v>0.79388570756566479</v>
+        <v>0.7938857075656648</v>
       </c>
       <c r="I181">
         <v>18.33862381588591</v>
@@ -7200,7 +7171,7 @@
         <v>1.001703483099357</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:11">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -7223,7 +7194,7 @@
         <v>0.9752113390101409</v>
       </c>
       <c r="H182">
-        <v>0.97869997528883734</v>
+        <v>0.9786999752888373</v>
       </c>
       <c r="I182">
         <v>3.020859205754638</v>
@@ -7235,7 +7206,7 @@
         <v>1.000426256903689</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:11">
       <c r="A183" t="s">
         <v>15</v>
       </c>
@@ -7255,22 +7226,22 @@
         <v>15028</v>
       </c>
       <c r="G183">
-        <v>0.81540933837867957</v>
+        <v>0.8154093383786796</v>
       </c>
       <c r="H183">
-        <v>0.97226752141550243</v>
+        <v>0.9722675214155024</v>
       </c>
       <c r="I183">
         <v>3.028440473342735</v>
       </c>
       <c r="J183">
-        <v>1.0000299403558179</v>
+        <v>1.000029940355818</v>
       </c>
       <c r="K183">
         <v>1.039754891615351</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:11">
       <c r="A184" t="s">
         <v>15</v>
       </c>
@@ -7290,22 +7261,22 @@
         <v>27015</v>
       </c>
       <c r="G184">
-        <v>0.78277579847633794</v>
+        <v>0.7827757984763379</v>
       </c>
       <c r="H184">
-        <v>0.96853633579899345</v>
+        <v>0.9685363357989935</v>
       </c>
       <c r="I184">
-        <v>1.2928525248050859</v>
+        <v>1.292852524805086</v>
       </c>
       <c r="J184">
         <v>1.00003782198905</v>
       </c>
       <c r="K184">
-        <v>1.1337039322219169</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.133703932221917</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" t="s">
         <v>15</v>
       </c>
@@ -7325,10 +7296,10 @@
         <v>3030</v>
       </c>
       <c r="G185">
-        <v>0.92064361229621383</v>
+        <v>0.9206436122962138</v>
       </c>
       <c r="H185">
-        <v>0.97165796474781641</v>
+        <v>0.9716579647478164</v>
       </c>
       <c r="I185">
         <v>18.80720260465624</v>
@@ -7337,10 +7308,10 @@
         <v>1.000038819618968</v>
       </c>
       <c r="K185">
-        <v>1.0084001561133329</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.008400156113333</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" t="s">
         <v>15</v>
       </c>
@@ -7354,28 +7325,28 @@
         <v>1.4</v>
       </c>
       <c r="E186">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F186">
         <v>14954</v>
       </c>
       <c r="G186">
-        <v>0.82034515769927552</v>
+        <v>0.8203451576992755</v>
       </c>
       <c r="H186">
-        <v>0.69838800704957449</v>
+        <v>0.6983880070495745</v>
       </c>
       <c r="I186">
-        <v>3.0202061528353168</v>
+        <v>3.020206152835317</v>
       </c>
       <c r="J186">
-        <v>1.0550035799086801</v>
+        <v>1.05500357990868</v>
       </c>
       <c r="K186">
         <v>1.808197025940524</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:11">
       <c r="A187" t="s">
         <v>15</v>
       </c>
@@ -7395,22 +7366,22 @@
         <v>15109</v>
       </c>
       <c r="G187">
-        <v>0.83984835187712004</v>
+        <v>0.83984835187712</v>
       </c>
       <c r="H187">
-        <v>0.96032552650144498</v>
+        <v>0.960325526501445</v>
       </c>
       <c r="I187">
-        <v>3.0062151975336029</v>
+        <v>3.006215197533603</v>
       </c>
       <c r="J187">
-        <v>1.0002012561084641</v>
+        <v>1.000201256108464</v>
       </c>
       <c r="K187">
-        <v>1.0259480483325889</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.025948048332589</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -7430,13 +7401,13 @@
         <v>26933</v>
       </c>
       <c r="G188">
-        <v>0.99207357990959188</v>
+        <v>0.9920735799095919</v>
       </c>
       <c r="H188">
-        <v>0.75602042955105353</v>
+        <v>0.7560204295510535</v>
       </c>
       <c r="I188">
-        <v>1.3697551812153621</v>
+        <v>1.369755181215362</v>
       </c>
       <c r="J188">
         <v>1.323849224889672</v>
@@ -7445,7 +7416,7 @@
         <v>1.021822483176728</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:11">
       <c r="A189" t="s">
         <v>15</v>
       </c>
@@ -7465,22 +7436,22 @@
         <v>3004</v>
       </c>
       <c r="G189">
-        <v>0.94432966901788751</v>
+        <v>0.9443296690178875</v>
       </c>
       <c r="H189">
-        <v>0.93310019857395987</v>
+        <v>0.9331001985739599</v>
       </c>
       <c r="I189">
-        <v>18.960008123534109</v>
+        <v>18.96000812353411</v>
       </c>
       <c r="J189">
-        <v>0.99997933041343889</v>
+        <v>0.9999793304134389</v>
       </c>
       <c r="K189">
-        <v>1.0039478419054411</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.003947841905441</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -7500,7 +7471,7 @@
         <v>15077</v>
       </c>
       <c r="G190">
-        <v>0.99938423837595991</v>
+        <v>0.9993842383759599</v>
       </c>
       <c r="H190">
         <v>0.8996250792121685</v>
@@ -7512,10 +7483,10 @@
         <v>1.003355153510983</v>
       </c>
       <c r="K190">
-        <v>1.0012408948658009</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.001240894865801</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -7535,13 +7506,13 @@
         <v>15168</v>
       </c>
       <c r="G191">
-        <v>0.99819146875844222</v>
+        <v>0.9981914687584422</v>
       </c>
       <c r="H191">
-        <v>0.89788700997319293</v>
+        <v>0.8978870099731929</v>
       </c>
       <c r="I191">
-        <v>2.9631174658734669</v>
+        <v>2.963117465873467</v>
       </c>
       <c r="J191">
         <v>1.003624249201696</v>
@@ -7550,7 +7521,7 @@
         <v>1.001174355464058</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:11">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -7570,22 +7541,22 @@
         <v>26796</v>
       </c>
       <c r="G192">
-        <v>0.99718801081545305</v>
+        <v>0.9971880108154531</v>
       </c>
       <c r="H192">
-        <v>0.82018786039271852</v>
+        <v>0.8201878603927185</v>
       </c>
       <c r="I192">
-        <v>1.2753635993923791</v>
+        <v>1.275363599392379</v>
       </c>
       <c r="J192">
-        <v>1.0512095559154799</v>
+        <v>1.05120955591548</v>
       </c>
       <c r="K192">
-        <v>1.0088181487876089</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.008818148787609</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -7605,13 +7576,13 @@
         <v>2959</v>
       </c>
       <c r="G193">
-        <v>0.99840738247945005</v>
+        <v>0.99840738247945</v>
       </c>
       <c r="H193">
-        <v>0.78447040390231937</v>
+        <v>0.7844704039023194</v>
       </c>
       <c r="I193">
-        <v>19.275110517579449</v>
+        <v>19.27511051757945</v>
       </c>
       <c r="J193">
         <v>1.001486115748855</v>
@@ -7620,7 +7591,7 @@
         <v>1.000909057288156</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:11">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -7640,22 +7611,22 @@
         <v>15039</v>
       </c>
       <c r="G194">
-        <v>0.92348170359026094</v>
+        <v>0.9234817035902609</v>
       </c>
       <c r="H194">
-        <v>0.98050782872325171</v>
+        <v>0.9805078287232517</v>
       </c>
       <c r="I194">
-        <v>2.9957986513823158</v>
+        <v>2.995798651382316</v>
       </c>
       <c r="J194">
-        <v>1.0000108446291911</v>
+        <v>1.000010844629191</v>
       </c>
       <c r="K194">
         <v>1.005521168441939</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -7675,22 +7646,22 @@
         <v>14991</v>
       </c>
       <c r="G195">
-        <v>0.92646523823706317</v>
+        <v>0.9264652382370632</v>
       </c>
       <c r="H195">
-        <v>0.97852120583973035</v>
+        <v>0.9785212058397303</v>
       </c>
       <c r="I195">
-        <v>3.0090713013269639</v>
+        <v>3.009071301326964</v>
       </c>
       <c r="J195">
         <v>1.000005729518991</v>
       </c>
       <c r="K195">
-        <v>1.0047800543657019</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.004780054365702</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -7710,22 +7681,22 @@
         <v>26978</v>
       </c>
       <c r="G196">
-        <v>0.83230072266845756</v>
+        <v>0.8323007226684576</v>
       </c>
       <c r="H196">
-        <v>0.97549774447207549</v>
+        <v>0.9754977444720755</v>
       </c>
       <c r="I196">
-        <v>1.2567868482945941</v>
+        <v>1.256786848294594</v>
       </c>
       <c r="J196">
         <v>1.000022751094358</v>
       </c>
       <c r="K196">
-        <v>1.0581867839065231</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.058186783906523</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -7745,13 +7716,13 @@
         <v>2992</v>
       </c>
       <c r="G197">
-        <v>0.91534889041231082</v>
+        <v>0.9153488904123108</v>
       </c>
       <c r="H197">
-        <v>0.96454079079741761</v>
+        <v>0.9645407907974176</v>
       </c>
       <c r="I197">
-        <v>19.057785678003398</v>
+        <v>19.0577856780034</v>
       </c>
       <c r="J197">
         <v>1.000149650479554</v>
@@ -7760,7 +7731,7 @@
         <v>1.009890573765859</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:11">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -7780,10 +7751,10 @@
         <v>14957</v>
       </c>
       <c r="G198">
-        <v>0.93766867934187759</v>
+        <v>0.9376686793418776</v>
       </c>
       <c r="H198">
-        <v>0.88183787816088766</v>
+        <v>0.8818378781608877</v>
       </c>
       <c r="I198">
         <v>3.062085179980262</v>
@@ -7792,10 +7763,10 @@
         <v>1.006721394800197</v>
       </c>
       <c r="K198">
-        <v>1.0004506854112349</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000450685411235</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -7815,22 +7786,22 @@
         <v>15033</v>
       </c>
       <c r="G199">
-        <v>0.94031785910724675</v>
+        <v>0.9403178591072467</v>
       </c>
       <c r="H199">
-        <v>0.87122390474126254</v>
+        <v>0.8712239047412625</v>
       </c>
       <c r="I199">
-        <v>3.0547406064678682</v>
+        <v>3.054740606467868</v>
       </c>
       <c r="J199">
-        <v>1.0106641120692621</v>
+        <v>1.010664112069262</v>
       </c>
       <c r="K199">
         <v>1.000065325413227</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -7853,19 +7824,19 @@
         <v>0.8493065555296968</v>
       </c>
       <c r="H200">
-        <v>0.75016787400100926</v>
+        <v>0.7501678740010093</v>
       </c>
       <c r="I200">
         <v>1.310542722678556</v>
       </c>
       <c r="J200">
-        <v>1.0470503610997099</v>
+        <v>1.04705036109971</v>
       </c>
       <c r="K200">
-        <v>1.0023546520030009</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.002354652003001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -7885,22 +7856,22 @@
         <v>2966</v>
       </c>
       <c r="G201">
-        <v>0.89780182357008276</v>
+        <v>0.8978018235700828</v>
       </c>
       <c r="H201">
-        <v>0.72673083984007036</v>
+        <v>0.7267308398400704</v>
       </c>
       <c r="I201">
-        <v>34.398149339212743</v>
+        <v>34.39814933921274</v>
       </c>
       <c r="J201">
-        <v>1.0988872751980161</v>
+        <v>1.098887275198016</v>
       </c>
       <c r="K201">
-        <v>1.0001607022415431</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000160702241543</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -7920,22 +7891,22 @@
         <v>15017</v>
       </c>
       <c r="G202">
-        <v>0.99627612450254988</v>
+        <v>0.9962761245025499</v>
       </c>
       <c r="H202">
-        <v>0.86534560319143272</v>
+        <v>0.8653456031914327</v>
       </c>
       <c r="I202">
         <v>3.009825330053181</v>
       </c>
       <c r="J202">
-        <v>1.0070038607435929</v>
+        <v>1.007003860743593</v>
       </c>
       <c r="K202">
         <v>1.002284582851912</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -7955,13 +7926,13 @@
         <v>14712</v>
       </c>
       <c r="G203">
-        <v>0.99951845030702502</v>
+        <v>0.999518450307025</v>
       </c>
       <c r="H203">
-        <v>0.86590757445277911</v>
+        <v>0.8659075744527791</v>
       </c>
       <c r="I203">
-        <v>3.0894526625728829</v>
+        <v>3.089452662572883</v>
       </c>
       <c r="J203">
         <v>1.005594917680068</v>
@@ -7970,7 +7941,7 @@
         <v>1.00213544222075</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11">
       <c r="A204" t="s">
         <v>15</v>
       </c>
@@ -7990,22 +7961,22 @@
         <v>27224</v>
       </c>
       <c r="G204">
-        <v>0.99852903914324831</v>
+        <v>0.9985290391432483</v>
       </c>
       <c r="H204">
-        <v>0.86286812911507882</v>
+        <v>0.8628681291150788</v>
       </c>
       <c r="I204">
         <v>1.221069518427174</v>
       </c>
       <c r="J204">
-        <v>1.0229932693079249</v>
+        <v>1.022993269307925</v>
       </c>
       <c r="K204">
         <v>1.004999417599854</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -8025,22 +7996,22 @@
         <v>3047</v>
       </c>
       <c r="G205">
-        <v>0.99504481910788289</v>
+        <v>0.9950448191078829</v>
       </c>
       <c r="H205">
-        <v>0.76092297510679774</v>
+        <v>0.7609229751067977</v>
       </c>
       <c r="I205">
-        <v>19.132569234538181</v>
+        <v>19.13256923453818</v>
       </c>
       <c r="J205">
         <v>1.050363173705652</v>
       </c>
       <c r="K205">
-        <v>1.0017347608042511</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.001734760804251</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -8060,13 +8031,13 @@
         <v>15014</v>
       </c>
       <c r="G206">
-        <v>0.91189925348012124</v>
+        <v>0.9118992534801212</v>
       </c>
       <c r="H206">
-        <v>0.97741859793592334</v>
+        <v>0.9774185979359233</v>
       </c>
       <c r="I206">
-        <v>3.0028344265368609</v>
+        <v>3.002834426536861</v>
       </c>
       <c r="J206">
         <v>1.000105121601645</v>
@@ -8075,7 +8046,7 @@
         <v>1.007862504012814</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11">
       <c r="A207" t="s">
         <v>15</v>
       </c>
@@ -8095,22 +8066,22 @@
         <v>14998</v>
       </c>
       <c r="G207">
-        <v>0.90313836936611436</v>
+        <v>0.9031383693661144</v>
       </c>
       <c r="H207">
-        <v>0.97606966074075008</v>
+        <v>0.9760696607407501</v>
       </c>
       <c r="I207">
         <v>3.010112599771587</v>
       </c>
       <c r="J207">
-        <v>1.0000167460335361</v>
+        <v>1.000016746033536</v>
       </c>
       <c r="K207">
-        <v>1.0090754908826061</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.009075490882606</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -8130,22 +8101,22 @@
         <v>26897</v>
       </c>
       <c r="G208">
-        <v>0.88374263618819138</v>
+        <v>0.8837426361881914</v>
       </c>
       <c r="H208">
-        <v>0.98843704460825266</v>
+        <v>0.9884370446082527</v>
       </c>
       <c r="I208">
-        <v>1.2417713286121559</v>
+        <v>1.241771328612156</v>
       </c>
       <c r="J208">
-        <v>1.0001078114959641</v>
+        <v>1.000107811495964</v>
       </c>
       <c r="K208">
         <v>1.024149659776886</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:11">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -8165,22 +8136,22 @@
         <v>3091</v>
       </c>
       <c r="G209">
-        <v>0.89918911954357805</v>
+        <v>0.8991891195435781</v>
       </c>
       <c r="H209">
-        <v>0.95165060590895156</v>
+        <v>0.9516506059089516</v>
       </c>
       <c r="I209">
-        <v>18.586087645672588</v>
+        <v>18.58608764567259</v>
       </c>
       <c r="J209">
-        <v>1.0000742224045851</v>
+        <v>1.000074222404585</v>
       </c>
       <c r="K209">
         <v>1.028020124472234</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:11">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -8200,22 +8171,22 @@
         <v>14963</v>
       </c>
       <c r="G210">
-        <v>0.83732952564159047</v>
+        <v>0.8373295256415905</v>
       </c>
       <c r="H210">
-        <v>0.88673387453829833</v>
+        <v>0.8867338745382983</v>
       </c>
       <c r="I210">
-        <v>3.0159073800883882</v>
+        <v>3.015907380088388</v>
       </c>
       <c r="J210">
-        <v>1.0125928185521429</v>
+        <v>1.012592818552143</v>
       </c>
       <c r="K210">
         <v>1.045321390381672</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:11">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -8235,10 +8206,10 @@
         <v>15080</v>
       </c>
       <c r="G211">
-        <v>0.83948005594467268</v>
+        <v>0.8394800559446727</v>
       </c>
       <c r="H211">
-        <v>0.87601939106845716</v>
+        <v>0.8760193910684572</v>
       </c>
       <c r="I211">
         <v>2.983152365880835</v>
@@ -8247,10 +8218,10 @@
         <v>1.014858064660543</v>
       </c>
       <c r="K211">
-        <v>1.0450953432411449</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.045095343241145</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -8264,28 +8235,28 @@
         <v>1.4</v>
       </c>
       <c r="E212">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F212">
         <v>27048</v>
       </c>
       <c r="G212">
-        <v>0.72079815135509406</v>
+        <v>0.7207981513550941</v>
       </c>
       <c r="H212">
-        <v>0.75098981003514909</v>
+        <v>0.7509898100351491</v>
       </c>
       <c r="I212">
-        <v>1.2205572109045659</v>
+        <v>1.220557210904566</v>
       </c>
       <c r="J212">
-        <v>1.0729747081566989</v>
+        <v>1.072974708156699</v>
       </c>
       <c r="K212">
-        <v>12.793068946426921</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
+        <v>12.79306894642692</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" t="s">
         <v>15</v>
       </c>
@@ -8305,22 +8276,22 @@
         <v>2909</v>
       </c>
       <c r="G213">
-        <v>0.99493800642895291</v>
+        <v>0.9949380064289529</v>
       </c>
       <c r="H213">
-        <v>0.73855541976582939</v>
+        <v>0.7385554197658294</v>
       </c>
       <c r="I213">
-        <v>20.576041069964049</v>
+        <v>20.57604106996405</v>
       </c>
       <c r="J213">
-        <v>1.1272952636991169</v>
+        <v>1.127295263699117</v>
       </c>
       <c r="K213">
-        <v>1.0040604602664771</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.004060460266477</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -8340,22 +8311,22 @@
         <v>15123</v>
       </c>
       <c r="G214">
-        <v>0.99874251494382005</v>
+        <v>0.99874251494382</v>
       </c>
       <c r="H214">
-        <v>0.79663142311494761</v>
+        <v>0.7966314231149476</v>
       </c>
       <c r="I214">
-        <v>3.0420305928783562</v>
+        <v>3.042030592878356</v>
       </c>
       <c r="J214">
-        <v>1.0530992919126549</v>
+        <v>1.053099291912655</v>
       </c>
       <c r="K214">
         <v>1.007378613846259</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:11">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -8375,13 +8346,13 @@
         <v>14876</v>
       </c>
       <c r="G215">
-        <v>0.99999399363464625</v>
+        <v>0.9999939936346462</v>
       </c>
       <c r="H215">
-        <v>0.79416404253769246</v>
+        <v>0.7941640425376925</v>
       </c>
       <c r="I215">
-        <v>3.0611017573904462</v>
+        <v>3.061101757390446</v>
       </c>
       <c r="J215">
         <v>1.015685225570679</v>
@@ -8390,7 +8361,7 @@
         <v>1.006817446014048</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:11">
       <c r="A216" t="s">
         <v>15</v>
       </c>
@@ -8410,13 +8381,13 @@
         <v>27073</v>
       </c>
       <c r="G216">
-        <v>0.99970620588590642</v>
+        <v>0.9997062058859064</v>
       </c>
       <c r="H216">
-        <v>0.98150012509769058</v>
+        <v>0.9815001250976906</v>
       </c>
       <c r="I216">
-        <v>1.2163443251617461</v>
+        <v>1.216344325161746</v>
       </c>
       <c r="J216">
         <v>1.000132514284916</v>
@@ -8425,7 +8396,7 @@
         <v>1.00003962712863</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:11">
       <c r="A217" t="s">
         <v>15</v>
       </c>
@@ -8445,22 +8416,22 @@
         <v>2928</v>
       </c>
       <c r="G217">
-        <v>0.99677522344205627</v>
+        <v>0.9967752234420563</v>
       </c>
       <c r="H217">
-        <v>0.96476056605686944</v>
+        <v>0.9647605660568694</v>
       </c>
       <c r="I217">
-        <v>19.491945233649979</v>
+        <v>19.49194523364998</v>
       </c>
       <c r="J217">
         <v>0.9999889184446491</v>
       </c>
       <c r="K217">
-        <v>1.0000035833093599</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.00000358330936</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" t="s">
         <v>15</v>
       </c>
@@ -8480,10 +8451,10 @@
         <v>14846</v>
       </c>
       <c r="G218">
-        <v>0.81503520124460882</v>
+        <v>0.8150352012446088</v>
       </c>
       <c r="H218">
-        <v>0.96432323978365297</v>
+        <v>0.964323239783653</v>
       </c>
       <c r="I218">
         <v>3.124166612067675</v>
@@ -8492,10 +8463,10 @@
         <v>1.000062477417887</v>
       </c>
       <c r="K218">
-        <v>1.0646139382778019</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.064613938277802</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -8515,22 +8486,22 @@
         <v>14971</v>
       </c>
       <c r="G219">
-        <v>0.84126311712167068</v>
+        <v>0.8412631171216707</v>
       </c>
       <c r="H219">
-        <v>0.97827621264683906</v>
+        <v>0.9782762126468391</v>
       </c>
       <c r="I219">
-        <v>3.0345166572852289</v>
+        <v>3.034516657285229</v>
       </c>
       <c r="J219">
-        <v>1.0000125398278099</v>
+        <v>1.00001253982781</v>
       </c>
       <c r="K219">
         <v>1.026146159749957</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:11">
       <c r="A220" t="s">
         <v>15</v>
       </c>
@@ -8550,22 +8521,22 @@
         <v>27199</v>
       </c>
       <c r="G220">
-        <v>0.97647143144894111</v>
+        <v>0.9764714314489411</v>
       </c>
       <c r="H220">
-        <v>0.97951717157099261</v>
+        <v>0.9795171715709926</v>
       </c>
       <c r="I220">
         <v>1.206327935405457</v>
       </c>
       <c r="J220">
-        <v>1.0000002769233329</v>
+        <v>1.000000276923333</v>
       </c>
       <c r="K220">
         <v>1.000687802502672</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:11">
       <c r="A221" t="s">
         <v>15</v>
       </c>
@@ -8585,22 +8556,22 @@
         <v>2984</v>
       </c>
       <c r="G221">
-        <v>0.99729754043966012</v>
+        <v>0.9972975404396601</v>
       </c>
       <c r="H221">
-        <v>0.96196661900848379</v>
+        <v>0.9619666190084838</v>
       </c>
       <c r="I221">
-        <v>19.107509426568239</v>
+        <v>19.10750942656824</v>
       </c>
       <c r="J221">
-        <v>1.0000076179235571</v>
+        <v>1.000007617923557</v>
       </c>
       <c r="K221">
-        <v>1.0000007392858929</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000000739285893</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" t="s">
         <v>15</v>
       </c>
@@ -8620,22 +8591,22 @@
         <v>15027</v>
       </c>
       <c r="G222">
-        <v>0.84203507791637611</v>
+        <v>0.8420350779163761</v>
       </c>
       <c r="H222">
-        <v>0.72228842677581007</v>
+        <v>0.7222884267758101</v>
       </c>
       <c r="I222">
-        <v>3.1566503626136821</v>
+        <v>3.156650362613682</v>
       </c>
       <c r="J222">
-        <v>1.0355427431636279</v>
+        <v>1.035542743163628</v>
       </c>
       <c r="K222">
-        <v>1.0065140110859281</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.006514011085928</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -8658,10 +8629,10 @@
         <v>0.8243309687210536</v>
       </c>
       <c r="H223">
-        <v>0.76010173051295971</v>
+        <v>0.7601017305129597</v>
       </c>
       <c r="I223">
-        <v>6.8101267211654619</v>
+        <v>6.810126721165462</v>
       </c>
       <c r="J223">
         <v>1.152252318775467</v>
@@ -8670,7 +8641,7 @@
         <v>1.005401686290923</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:11">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -8690,22 +8661,22 @@
         <v>27083</v>
       </c>
       <c r="G224">
-        <v>0.98853382619622288</v>
+        <v>0.9885338261962229</v>
       </c>
       <c r="H224">
-        <v>0.94973139692113817</v>
+        <v>0.9497313969211382</v>
       </c>
       <c r="I224">
-        <v>1.2161929333449659</v>
+        <v>1.216192933344966</v>
       </c>
       <c r="J224">
-        <v>1.0004117201103251</v>
+        <v>1.000411720110325</v>
       </c>
       <c r="K224">
-        <v>0.99999599665543226</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.9999959966554323</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -8728,19 +8699,19 @@
         <v>0.9921331702570001</v>
       </c>
       <c r="H225">
-        <v>0.95665019417167729</v>
+        <v>0.9566501941716773</v>
       </c>
       <c r="I225">
-        <v>18.940347495881081</v>
+        <v>18.94034749588108</v>
       </c>
       <c r="J225">
-        <v>1.0000229704545121</v>
+        <v>1.000022970454512</v>
       </c>
       <c r="K225">
-        <v>1.0001069512134859</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000106951213486</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" t="s">
         <v>15</v>
       </c>
@@ -8760,22 +8731,22 @@
         <v>15075</v>
       </c>
       <c r="G226">
-        <v>0.99573915934482915</v>
+        <v>0.9957391593448292</v>
       </c>
       <c r="H226">
-        <v>0.94399086195390225</v>
+        <v>0.9439908619539022</v>
       </c>
       <c r="I226">
-        <v>2.9839717302059401</v>
+        <v>2.98397173020594</v>
       </c>
       <c r="J226">
         <v>1.001666405224513</v>
       </c>
       <c r="K226">
-        <v>1.0003132552497871</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.000313255249787</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -8795,22 +8766,22 @@
         <v>14906</v>
       </c>
       <c r="G227">
-        <v>0.99872288729348857</v>
+        <v>0.9987228872934886</v>
       </c>
       <c r="H227">
-        <v>0.75636942600212342</v>
+        <v>0.7563694260021234</v>
       </c>
       <c r="I227">
-        <v>3.1795194347818199</v>
+        <v>3.17951943478182</v>
       </c>
       <c r="J227">
-        <v>1.1298459068551521</v>
+        <v>1.129845906855152</v>
       </c>
       <c r="K227">
         <v>1.011000963229489</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:11">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -8830,22 +8801,22 @@
         <v>27041</v>
       </c>
       <c r="G228">
-        <v>0.99365336110268276</v>
+        <v>0.9936533611026828</v>
       </c>
       <c r="H228">
-        <v>0.78171293957602006</v>
+        <v>0.7817129395760201</v>
       </c>
       <c r="I228">
-        <v>1.2449680044861711</v>
+        <v>1.244968004486171</v>
       </c>
       <c r="J228">
-        <v>1.0332373027069801</v>
+        <v>1.03323730270698</v>
       </c>
       <c r="K228">
         <v>1.012395659466943</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:11">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -8865,13 +8836,13 @@
         <v>2978</v>
       </c>
       <c r="G229">
-        <v>0.99651019825401566</v>
+        <v>0.9965101982540157</v>
       </c>
       <c r="H229">
-        <v>0.85622540003127601</v>
+        <v>0.856225400031276</v>
       </c>
       <c r="I229">
-        <v>19.152009400291679</v>
+        <v>19.15200940029168</v>
       </c>
       <c r="J229">
         <v>1.000834872442707</v>
@@ -8880,7 +8851,7 @@
         <v>1.000398196573473</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:11">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -8900,22 +8871,22 @@
         <v>14923</v>
       </c>
       <c r="G230">
-        <v>0.95424304362643519</v>
+        <v>0.9542430436264352</v>
       </c>
       <c r="H230">
-        <v>0.97776082576296552</v>
+        <v>0.9777608257629655</v>
       </c>
       <c r="I230">
-        <v>3.0229226875320201</v>
+        <v>3.02292268753202</v>
       </c>
       <c r="J230">
         <v>1.000033591364837</v>
       </c>
       <c r="K230">
-        <v>1.0025672874340159</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.002567287434016</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" t="s">
         <v>15</v>
       </c>
@@ -8938,19 +8909,19 @@
         <v>0.7952900961715339</v>
       </c>
       <c r="H231">
-        <v>0.96848262364153781</v>
+        <v>0.9684826236415378</v>
       </c>
       <c r="I231">
         <v>3.110198031514317</v>
       </c>
       <c r="J231">
-        <v>1.0000416099705951</v>
+        <v>1.000041609970595</v>
       </c>
       <c r="K231">
         <v>1.089714341785567</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:11">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -8970,10 +8941,10 @@
         <v>27012</v>
       </c>
       <c r="G232">
-        <v>0.80224151515612918</v>
+        <v>0.8022415151561292</v>
       </c>
       <c r="H232">
-        <v>0.97352395687667626</v>
+        <v>0.9735239568766763</v>
       </c>
       <c r="I232">
         <v>1.243217658058392</v>
@@ -8985,7 +8956,7 @@
         <v>1.050981450186163</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:11">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -9005,13 +8976,13 @@
         <v>3036</v>
       </c>
       <c r="G233">
-        <v>0.95396104838091822</v>
+        <v>0.9539610483809182</v>
       </c>
       <c r="H233">
-        <v>0.95560813736681072</v>
+        <v>0.9556081373668107</v>
       </c>
       <c r="I233">
-        <v>18.771803582543608</v>
+        <v>18.77180358254361</v>
       </c>
       <c r="J233">
         <v>1.000026037807676</v>
@@ -9020,7 +8991,7 @@
         <v>1.002061547979759</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:11">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -9034,28 +9005,28 @@
         <v>1.4</v>
       </c>
       <c r="E234">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F234">
         <v>14963</v>
       </c>
       <c r="G234">
-        <v>0.78844166303075713</v>
+        <v>0.7884416630307571</v>
       </c>
       <c r="H234">
         <v>0.7253299790077431</v>
       </c>
       <c r="I234">
-        <v>3.0113559844154798</v>
+        <v>3.01135598441548</v>
       </c>
       <c r="J234">
         <v>1.047130420129277</v>
       </c>
       <c r="K234">
-        <v>2.4629720937855439</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2.462972093785544</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -9075,13 +9046,13 @@
         <v>14874</v>
       </c>
       <c r="G235">
-        <v>0.94860608455695583</v>
+        <v>0.9486060845569558</v>
       </c>
       <c r="H235">
         <v>0.7768270901662464</v>
       </c>
       <c r="I235">
-        <v>3.3501902601408329</v>
+        <v>3.350190260140833</v>
       </c>
       <c r="J235">
         <v>1.114653053224834</v>
@@ -9090,7 +9061,7 @@
         <v>1.00343160969302</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:11">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -9110,13 +9081,13 @@
         <v>27106</v>
       </c>
       <c r="G236">
-        <v>0.79788108576574235</v>
+        <v>0.7978810857657423</v>
       </c>
       <c r="H236">
         <v>0.9760486007390089</v>
       </c>
       <c r="I236">
-        <v>1.2330764575852711</v>
+        <v>1.233076457585271</v>
       </c>
       <c r="J236">
         <v>1.000595729693897</v>
@@ -9125,7 +9096,7 @@
         <v>1.05747070237533</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:11">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -9145,13 +9116,13 @@
         <v>3057</v>
       </c>
       <c r="G237">
-        <v>0.94026521117858164</v>
+        <v>0.9402652111785816</v>
       </c>
       <c r="H237">
-        <v>0.94962104372959533</v>
+        <v>0.9496210437295953</v>
       </c>
       <c r="I237">
-        <v>18.640124366915451</v>
+        <v>18.64012436691545</v>
       </c>
       <c r="J237">
         <v>1.000286383251354</v>
@@ -9161,11 +9132,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0.8</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/regression_simulations.xlsx
+++ b/results/regression_simulations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="154">
   <si>
     <t>simulation_type</t>
   </si>
@@ -40,13 +40,7 @@
     <t>FairAI_pred</t>
   </si>
   <si>
-    <t>independence</t>
-  </si>
-  <si>
-    <t>separation</t>
-  </si>
-  <si>
-    <t>sufficiency</t>
+    <t>global_bias_direction</t>
   </si>
   <si>
     <t>low_bias_single_cat_equal_distribution</t>
@@ -473,6 +467,15 @@
   </si>
   <si>
     <t>btbp_mm_s_4</t>
+  </si>
+  <si>
+    <t>no bias</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>negative</t>
   </si>
 </sst>
 </file>
@@ -830,13 +833,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K237"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,22 +867,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -896,25 +893,19 @@
       <c r="H2">
         <v>0.9934013285209378</v>
       </c>
-      <c r="I2">
-        <v>2.025822267661887</v>
-      </c>
-      <c r="J2">
-        <v>1.000122561880596</v>
-      </c>
-      <c r="K2">
-        <v>1.000288176347299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="I2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -931,25 +922,19 @@
       <c r="H3">
         <v>0.9921114573648782</v>
       </c>
-      <c r="I3">
-        <v>1.979658121757388</v>
-      </c>
-      <c r="J3">
-        <v>1.000141175602089</v>
-      </c>
-      <c r="K3">
-        <v>1.000538657291159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -966,25 +951,19 @@
       <c r="H4">
         <v>0.9899375589322749</v>
       </c>
-      <c r="I4">
-        <v>1.995664955634381</v>
-      </c>
-      <c r="J4">
-        <v>1.000001049715429</v>
-      </c>
-      <c r="K4">
-        <v>1.000040279317831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1001,25 +980,19 @@
       <c r="H5">
         <v>0.8327838132733871</v>
       </c>
-      <c r="I5">
-        <v>2.461790904994502</v>
-      </c>
-      <c r="J5">
-        <v>5.848563536901582</v>
-      </c>
-      <c r="K5">
-        <v>2.978079980506877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1036,25 +1009,19 @@
       <c r="H6">
         <v>0.9108993753314317</v>
       </c>
-      <c r="I6">
-        <v>2.124763752211794</v>
-      </c>
-      <c r="J6">
-        <v>1.188692303419782</v>
-      </c>
-      <c r="K6">
-        <v>1.146521003918465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1071,25 +1038,19 @@
       <c r="H7">
         <v>0.9061080153696031</v>
       </c>
-      <c r="I7">
-        <v>2.065235298711375</v>
-      </c>
-      <c r="J7">
-        <v>1.208329961407923</v>
-      </c>
-      <c r="K7">
-        <v>1.154532778639508</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>1.2</v>
@@ -1106,25 +1067,19 @@
       <c r="H8">
         <v>0.9756961627390009</v>
       </c>
-      <c r="I8">
-        <v>2.556505717191647</v>
-      </c>
-      <c r="J8">
-        <v>1.003925877437868</v>
-      </c>
-      <c r="K8">
-        <v>1.100866162025061</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1141,25 +1096,19 @@
       <c r="H9">
         <v>0.9852547928752013</v>
       </c>
-      <c r="I9">
-        <v>1.924536716043038</v>
-      </c>
-      <c r="J9">
-        <v>1.001655911555287</v>
-      </c>
-      <c r="K9">
-        <v>1.027571372280898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1176,25 +1125,19 @@
       <c r="H10">
         <v>0.9910085475399409</v>
       </c>
-      <c r="I10">
-        <v>2.061858580627496</v>
-      </c>
-      <c r="J10">
-        <v>1.000449171188114</v>
-      </c>
-      <c r="K10">
-        <v>1.018272425673624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>0.85</v>
@@ -1211,25 +1154,19 @@
       <c r="H11">
         <v>0.8770568294037099</v>
       </c>
-      <c r="I11">
-        <v>3.35097813246756</v>
-      </c>
-      <c r="J11">
-        <v>1.279292020737191</v>
-      </c>
-      <c r="K11">
-        <v>1.027261318620779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1246,25 +1183,19 @@
       <c r="H12">
         <v>0.9403161592653934</v>
       </c>
-      <c r="I12">
-        <v>2.123694441164688</v>
-      </c>
-      <c r="J12">
-        <v>1.075287039506533</v>
-      </c>
-      <c r="K12">
-        <v>1.012099848440849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1281,25 +1212,19 @@
       <c r="H13">
         <v>0.9556600683852332</v>
       </c>
-      <c r="I13">
-        <v>2.162115330119608</v>
-      </c>
-      <c r="J13">
-        <v>1.03438699756339</v>
-      </c>
-      <c r="K13">
-        <v>1.003584021336665</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="I13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1316,25 +1241,19 @@
       <c r="H14">
         <v>0.9887600007037027</v>
       </c>
-      <c r="I14">
-        <v>2.025981015905135</v>
-      </c>
-      <c r="J14">
-        <v>1.000070057287952</v>
-      </c>
-      <c r="K14">
-        <v>1.000266000431248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1351,25 +1270,19 @@
       <c r="H15">
         <v>0.9876546599682975</v>
       </c>
-      <c r="I15">
-        <v>1.979604306430783</v>
-      </c>
-      <c r="J15">
-        <v>1.00011961729519</v>
-      </c>
-      <c r="K15">
-        <v>1.000472385468476</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1386,25 +1299,19 @@
       <c r="H16">
         <v>0.9909024074990297</v>
       </c>
-      <c r="I16">
-        <v>1.995536095203277</v>
-      </c>
-      <c r="J16">
-        <v>1.000010179443862</v>
-      </c>
-      <c r="K16">
-        <v>1.000033405348833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1421,25 +1328,19 @@
       <c r="H17">
         <v>0.771060201774138</v>
       </c>
-      <c r="I17">
-        <v>2.707842364539334</v>
-      </c>
-      <c r="J17">
-        <v>26.2188459516492</v>
-      </c>
-      <c r="K17">
-        <v>8.003917133712086</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1456,25 +1357,19 @@
       <c r="H18">
         <v>0.8722040085998902</v>
       </c>
-      <c r="I18">
-        <v>2.151544622329742</v>
-      </c>
-      <c r="J18">
-        <v>1.27259433146058</v>
-      </c>
-      <c r="K18">
-        <v>1.226032039063256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1491,25 +1386,19 @@
       <c r="H19">
         <v>0.8688154674228373</v>
       </c>
-      <c r="I19">
-        <v>2.087822592898157</v>
-      </c>
-      <c r="J19">
-        <v>1.285954668107165</v>
-      </c>
-      <c r="K19">
-        <v>1.228417111117495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>1.3</v>
@@ -1526,25 +1415,19 @@
       <c r="H20">
         <v>0.9390978553534683</v>
       </c>
-      <c r="I20">
-        <v>2.792739525792539</v>
-      </c>
-      <c r="J20">
-        <v>1.027009426886627</v>
-      </c>
-      <c r="K20">
-        <v>1.338993618624236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1561,25 +1444,19 @@
       <c r="H21">
         <v>0.9671115389332769</v>
       </c>
-      <c r="I21">
-        <v>1.945540399584289</v>
-      </c>
-      <c r="J21">
-        <v>1.007427050455272</v>
-      </c>
-      <c r="K21">
-        <v>1.059646747170636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1596,25 +1473,19 @@
       <c r="H22">
         <v>0.9806205322865127</v>
       </c>
-      <c r="I22">
-        <v>2.08843733962915</v>
-      </c>
-      <c r="J22">
-        <v>1.003247734643688</v>
-      </c>
-      <c r="K22">
-        <v>1.042338657734452</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="I22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23">
         <v>0.75</v>
@@ -1631,25 +1502,19 @@
       <c r="H23">
         <v>0.7993268630770217</v>
       </c>
-      <c r="I23">
-        <v>6.844427496637604</v>
-      </c>
-      <c r="J23">
-        <v>1.637904653254912</v>
-      </c>
-      <c r="K23">
-        <v>1.010778648056358</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="I23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1666,25 +1531,19 @@
       <c r="H24">
         <v>0.9232974373981602</v>
       </c>
-      <c r="I24">
-        <v>2.438096526944026</v>
-      </c>
-      <c r="J24">
-        <v>1.10380537693667</v>
-      </c>
-      <c r="K24">
-        <v>1.006074199741261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="I24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1701,25 +1560,19 @@
       <c r="H25">
         <v>0.9367896061138845</v>
       </c>
-      <c r="I25">
-        <v>2.393244750878752</v>
-      </c>
-      <c r="J25">
-        <v>1.054751687222057</v>
-      </c>
-      <c r="K25">
-        <v>1.00128669843713</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="I25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1736,25 +1589,19 @@
       <c r="H26">
         <v>0.9927623970975522</v>
       </c>
-      <c r="I26">
-        <v>1.500137901938561</v>
-      </c>
-      <c r="J26">
-        <v>1.000071980499429</v>
-      </c>
-      <c r="K26">
-        <v>1.000017805811578</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="I26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1771,25 +1618,19 @@
       <c r="H27">
         <v>0.9873754444672633</v>
       </c>
-      <c r="I27">
-        <v>1.524882608191538</v>
-      </c>
-      <c r="J27">
-        <v>1.000506944088713</v>
-      </c>
-      <c r="K27">
-        <v>1.000183773446848</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="I27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1806,25 +1647,19 @@
       <c r="H28">
         <v>0.9812508097179246</v>
       </c>
-      <c r="I28">
-        <v>3.906512918595197</v>
-      </c>
-      <c r="J28">
-        <v>1.000203383527213</v>
-      </c>
-      <c r="K28">
-        <v>1.000093877087869</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="I28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1841,25 +1676,19 @@
       <c r="H29">
         <v>0.7729736755834065</v>
       </c>
-      <c r="I29">
-        <v>2.075538346495122</v>
-      </c>
-      <c r="J29">
-        <v>25.97520133896691</v>
-      </c>
-      <c r="K29">
-        <v>8.350347797730445</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="I29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1876,25 +1705,19 @@
       <c r="H30">
         <v>0.8352932953418423</v>
       </c>
-      <c r="I30">
-        <v>1.635892525060707</v>
-      </c>
-      <c r="J30">
-        <v>1.652745591568491</v>
-      </c>
-      <c r="K30">
-        <v>1.561717675944232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="I30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1911,25 +1734,19 @@
       <c r="H31">
         <v>0.8752837971045985</v>
       </c>
-      <c r="I31">
-        <v>4.109490752136139</v>
-      </c>
-      <c r="J31">
-        <v>1.169872043690183</v>
-      </c>
-      <c r="K31">
-        <v>1.137624652563206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="I31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>1.3</v>
@@ -1946,25 +1763,19 @@
       <c r="H32">
         <v>0.9402240533724884</v>
       </c>
-      <c r="I32">
-        <v>2.143388293184393</v>
-      </c>
-      <c r="J32">
-        <v>1.036468561589965</v>
-      </c>
-      <c r="K32">
-        <v>1.430140120247568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="I32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1981,25 +1792,19 @@
       <c r="H33">
         <v>0.9646210467337494</v>
       </c>
-      <c r="I33">
-        <v>1.519453686256849</v>
-      </c>
-      <c r="J33">
-        <v>1.015063396300611</v>
-      </c>
-      <c r="K33">
-        <v>1.111411176187677</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="I33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2016,25 +1821,19 @@
       <c r="H34">
         <v>0.9750852457216193</v>
       </c>
-      <c r="I34">
-        <v>4.174270268658651</v>
-      </c>
-      <c r="J34">
-        <v>1.002376093122637</v>
-      </c>
-      <c r="K34">
-        <v>1.033589656754244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="I34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35">
         <v>0.75</v>
@@ -2051,25 +1850,19 @@
       <c r="H35">
         <v>0.8001362402258102</v>
       </c>
-      <c r="I35">
-        <v>5.505551237391459</v>
-      </c>
-      <c r="J35">
-        <v>1.753910767215147</v>
-      </c>
-      <c r="K35">
-        <v>1.015034805086283</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="I35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2086,25 +1879,19 @@
       <c r="H36">
         <v>0.8939768856783612</v>
       </c>
-      <c r="I36">
-        <v>2.5185978571729</v>
-      </c>
-      <c r="J36">
-        <v>1.264346342760196</v>
-      </c>
-      <c r="K36">
-        <v>1.01692447947894</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="I36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2121,25 +1908,19 @@
       <c r="H37">
         <v>0.9352308850543497</v>
       </c>
-      <c r="I37">
-        <v>4.74926902526616</v>
-      </c>
-      <c r="J37">
-        <v>1.035013304859488</v>
-      </c>
-      <c r="K37">
-        <v>1.000227952780784</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="I37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
         <v>14</v>
       </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2156,25 +1937,19 @@
       <c r="H38">
         <v>0.990904832631413</v>
       </c>
-      <c r="I38">
-        <v>3.023098824861921</v>
-      </c>
-      <c r="J38">
-        <v>1.000065698803422</v>
-      </c>
-      <c r="K38">
-        <v>1.000073215111882</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="I38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2191,25 +1966,19 @@
       <c r="H39">
         <v>0.9837906519154926</v>
       </c>
-      <c r="I39">
-        <v>2.984098500577766</v>
-      </c>
-      <c r="J39">
-        <v>1.000020874563326</v>
-      </c>
-      <c r="K39">
-        <v>1.000009562018479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="I39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2226,25 +1995,19 @@
       <c r="H40">
         <v>0.9861489493722807</v>
       </c>
-      <c r="I40">
-        <v>1.223540623676882</v>
-      </c>
-      <c r="J40">
-        <v>1.000002573454888</v>
-      </c>
-      <c r="K40">
-        <v>1.000002364737907</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="I40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2261,25 +2024,19 @@
       <c r="H41">
         <v>0.9801347807882373</v>
       </c>
-      <c r="I41">
-        <v>18.72391351542416</v>
-      </c>
-      <c r="J41">
-        <v>1.000010063825449</v>
-      </c>
-      <c r="K41">
-        <v>1.000046631447438</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="I41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2296,25 +2053,19 @@
       <c r="H42">
         <v>0.8271737677758095</v>
       </c>
-      <c r="I42">
-        <v>3.046565348822558</v>
-      </c>
-      <c r="J42">
-        <v>1.052379499980808</v>
-      </c>
-      <c r="K42">
-        <v>1.010047926170818</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="I42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2331,25 +2082,19 @@
       <c r="H43">
         <v>0.9439475043148239</v>
       </c>
-      <c r="I43">
-        <v>2.979753934894743</v>
-      </c>
-      <c r="J43">
-        <v>1.001865506893631</v>
-      </c>
-      <c r="K43">
-        <v>1.000614372553594</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="I43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2366,25 +2111,19 @@
       <c r="H44">
         <v>0.934439555299182</v>
       </c>
-      <c r="I44">
-        <v>1.238655177872958</v>
-      </c>
-      <c r="J44">
-        <v>1.004086390817755</v>
-      </c>
-      <c r="K44">
-        <v>1.001956867540298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="I44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2401,25 +2140,19 @@
       <c r="H45">
         <v>0.7914289180122318</v>
       </c>
-      <c r="I45">
-        <v>19.0747778441199</v>
-      </c>
-      <c r="J45">
-        <v>1.000436858240198</v>
-      </c>
-      <c r="K45">
-        <v>1.00201253902086</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="I45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <v>1.2</v>
@@ -2436,25 +2169,19 @@
       <c r="H46">
         <v>0.977268039598596</v>
       </c>
-      <c r="I46">
-        <v>3.099026804169438</v>
-      </c>
-      <c r="J46">
-        <v>1.000020492327614</v>
-      </c>
-      <c r="K46">
-        <v>1.023145904655199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="I46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2471,25 +2198,19 @@
       <c r="H47">
         <v>0.9739965023344108</v>
       </c>
-      <c r="I47">
-        <v>2.936092305520363</v>
-      </c>
-      <c r="J47">
-        <v>1.0000290084772</v>
-      </c>
-      <c r="K47">
-        <v>1.001112640107739</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="I47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2506,25 +2227,19 @@
       <c r="H48">
         <v>0.9876094313631024</v>
       </c>
-      <c r="I48">
-        <v>1.232624007175604</v>
-      </c>
-      <c r="J48">
-        <v>1.000004634497741</v>
-      </c>
-      <c r="K48">
-        <v>1.004079955231058</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="I48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D49">
         <v>0.85</v>
@@ -2541,25 +2256,19 @@
       <c r="H49">
         <v>0.9771587482727498</v>
       </c>
-      <c r="I49">
-        <v>19.4583496151302</v>
-      </c>
-      <c r="J49">
-        <v>1.000079425867268</v>
-      </c>
-      <c r="K49">
-        <v>1.005005756276529</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="I49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50">
         <v>0.85</v>
@@ -2576,25 +2285,19 @@
       <c r="H50">
         <v>0.7555799628351553</v>
       </c>
-      <c r="I50">
-        <v>3.133314437612868</v>
-      </c>
-      <c r="J50">
-        <v>1.033052971484332</v>
-      </c>
-      <c r="K50">
-        <v>0.9981908649601736</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="I50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2611,25 +2314,19 @@
       <c r="H51">
         <v>0.93321592280099</v>
       </c>
-      <c r="I51">
-        <v>3.035042613143517</v>
-      </c>
-      <c r="J51">
-        <v>1.002333628457868</v>
-      </c>
-      <c r="K51">
-        <v>1.000024336460043</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="I51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2646,25 +2343,19 @@
       <c r="H52">
         <v>0.9141950205819698</v>
       </c>
-      <c r="I52">
-        <v>1.226782053593575</v>
-      </c>
-      <c r="J52">
-        <v>1.00732826609751</v>
-      </c>
-      <c r="K52">
-        <v>1.00008104622803</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="I52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D53">
         <v>1.2</v>
@@ -2681,25 +2372,19 @@
       <c r="H53">
         <v>0.7912450578554819</v>
       </c>
-      <c r="I53">
-        <v>24.77976625868277</v>
-      </c>
-      <c r="J53">
-        <v>1.0689133821395</v>
-      </c>
-      <c r="K53">
-        <v>0.9996486347511443</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="I53" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2716,25 +2401,19 @@
       <c r="H54">
         <v>0.7444854940502312</v>
       </c>
-      <c r="I54">
-        <v>3.237985548634436</v>
-      </c>
-      <c r="J54">
-        <v>1.395222889118802</v>
-      </c>
-      <c r="K54">
-        <v>1.034286281640221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="I54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2751,25 +2430,19 @@
       <c r="H55">
         <v>0.9779273974356912</v>
       </c>
-      <c r="I55">
-        <v>3.006440588825978</v>
-      </c>
-      <c r="J55">
-        <v>1.00024262309073</v>
-      </c>
-      <c r="K55">
-        <v>1.000132713384104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="I55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2786,25 +2459,19 @@
       <c r="H56">
         <v>0.7715625494735702</v>
       </c>
-      <c r="I56">
-        <v>1.253456030647573</v>
-      </c>
-      <c r="J56">
-        <v>1.061993529527213</v>
-      </c>
-      <c r="K56">
-        <v>1.042036334964292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="I56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2821,25 +2488,19 @@
       <c r="H57">
         <v>0.9744412109120115</v>
       </c>
-      <c r="I57">
-        <v>18.69796519671549</v>
-      </c>
-      <c r="J57">
-        <v>1.000000656270509</v>
-      </c>
-      <c r="K57">
-        <v>1.000000595756208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="I57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D58">
         <v>1.2</v>
@@ -2856,25 +2517,19 @@
       <c r="H58">
         <v>0.9679136116841948</v>
       </c>
-      <c r="I58">
-        <v>3.205463220928781</v>
-      </c>
-      <c r="J58">
-        <v>1.000019343383215</v>
-      </c>
-      <c r="K58">
-        <v>1.08642661935536</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="I58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2891,25 +2546,19 @@
       <c r="H59">
         <v>0.9734571666662727</v>
       </c>
-      <c r="I59">
-        <v>3.023605159714732</v>
-      </c>
-      <c r="J59">
-        <v>1.000277357287466</v>
-      </c>
-      <c r="K59">
-        <v>1.000733978375255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="I59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D60">
         <v>0.85</v>
@@ -2926,25 +2575,19 @@
       <c r="H60">
         <v>0.9743319469268696</v>
       </c>
-      <c r="I60">
-        <v>1.253310720336288</v>
-      </c>
-      <c r="J60">
-        <v>1.000248561047749</v>
-      </c>
-      <c r="K60">
-        <v>1.0563498601352</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="I60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2961,25 +2604,19 @@
       <c r="H61">
         <v>0.9696628815885244</v>
       </c>
-      <c r="I61">
-        <v>19.12430841733087</v>
-      </c>
-      <c r="J61">
-        <v>1.000100794280699</v>
-      </c>
-      <c r="K61">
-        <v>0.9999987628429728</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="I61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D62">
         <v>0.85</v>
@@ -2996,25 +2633,19 @@
       <c r="H62">
         <v>0.6801299312219294</v>
       </c>
-      <c r="I62">
-        <v>3.328127255952928</v>
-      </c>
-      <c r="J62">
-        <v>1.082202526874762</v>
-      </c>
-      <c r="K62">
-        <v>0.9957265610628592</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="I62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3031,25 +2662,19 @@
       <c r="H63">
         <v>0.9287794507802429</v>
       </c>
-      <c r="I63">
-        <v>3.024615167840375</v>
-      </c>
-      <c r="J63">
-        <v>1.003299222768786</v>
-      </c>
-      <c r="K63">
-        <v>1.000050831699374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="I63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D64">
         <v>1.2</v>
@@ -3066,25 +2691,19 @@
       <c r="H64">
         <v>0.7345949706122581</v>
       </c>
-      <c r="I64">
-        <v>18.41083188123931</v>
-      </c>
-      <c r="J64">
-        <v>3.3772242226201</v>
-      </c>
-      <c r="K64">
-        <v>0.999373038868956</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="I64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3101,25 +2720,19 @@
       <c r="H65">
         <v>0.9512603777258725</v>
       </c>
-      <c r="I65">
-        <v>18.55595334178186</v>
-      </c>
-      <c r="J65">
-        <v>1.000145022200981</v>
-      </c>
-      <c r="K65">
-        <v>1.000037379513922</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="I65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3136,25 +2749,19 @@
       <c r="H66">
         <v>0.855104432037093</v>
       </c>
-      <c r="I66">
-        <v>3.009263616566487</v>
-      </c>
-      <c r="J66">
-        <v>1.029014951566435</v>
-      </c>
-      <c r="K66">
-        <v>1.005998464081129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="I66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3171,25 +2778,19 @@
       <c r="H67">
         <v>0.9135208811119493</v>
       </c>
-      <c r="I67">
-        <v>2.976870353030329</v>
-      </c>
-      <c r="J67">
-        <v>1.003716234897802</v>
-      </c>
-      <c r="K67">
-        <v>1.002114664225697</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="I67" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3206,25 +2807,19 @@
       <c r="H68">
         <v>0.8847101232930539</v>
       </c>
-      <c r="I68">
-        <v>1.252023680758046</v>
-      </c>
-      <c r="J68">
-        <v>1.012854431635302</v>
-      </c>
-      <c r="K68">
-        <v>1.005168625950345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="I68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3241,25 +2836,19 @@
       <c r="H69">
         <v>0.7457068373457684</v>
       </c>
-      <c r="I69">
-        <v>19.66764816855563</v>
-      </c>
-      <c r="J69">
-        <v>1.142305043158333</v>
-      </c>
-      <c r="K69">
-        <v>1.006695808085219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="I69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D70">
         <v>1.2</v>
@@ -3276,25 +2865,19 @@
       <c r="H70">
         <v>0.9905027897735721</v>
       </c>
-      <c r="I70">
-        <v>3.027912961698604</v>
-      </c>
-      <c r="J70">
-        <v>1.000076520941761</v>
-      </c>
-      <c r="K70">
-        <v>1.016422502015182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="I70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3311,25 +2894,19 @@
       <c r="H71">
         <v>0.9855851803692206</v>
       </c>
-      <c r="I71">
-        <v>3.02333656534535</v>
-      </c>
-      <c r="J71">
-        <v>1.000011000586795</v>
-      </c>
-      <c r="K71">
-        <v>1.002350355886012</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="I71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -3346,25 +2923,19 @@
       <c r="H72">
         <v>0.9899204075276932</v>
       </c>
-      <c r="I72">
-        <v>1.228267310083889</v>
-      </c>
-      <c r="J72">
-        <v>1.000200083953767</v>
-      </c>
-      <c r="K72">
-        <v>1.013309164231629</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="I72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D73">
         <v>1.4</v>
@@ -3381,25 +2952,19 @@
       <c r="H73">
         <v>0.952831067123991</v>
       </c>
-      <c r="I73">
-        <v>19.37773853600867</v>
-      </c>
-      <c r="J73">
-        <v>1.000073376656761</v>
-      </c>
-      <c r="K73">
-        <v>1.035436194225934</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="I73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D74">
         <v>1.4</v>
@@ -3416,25 +2981,19 @@
       <c r="H74">
         <v>0.7631309276097132</v>
       </c>
-      <c r="I74">
-        <v>2.985985919030077</v>
-      </c>
-      <c r="J74">
-        <v>1.055380902477076</v>
-      </c>
-      <c r="K74">
-        <v>4.067901452610779</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="I74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3451,25 +3010,19 @@
       <c r="H75">
         <v>0.939541302714948</v>
       </c>
-      <c r="I75">
-        <v>3.045313045625738</v>
-      </c>
-      <c r="J75">
-        <v>1.005028451749206</v>
-      </c>
-      <c r="K75">
-        <v>1.015193093169914</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="I75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3486,25 +3039,19 @@
       <c r="H76">
         <v>0.9171532100563458</v>
       </c>
-      <c r="I76">
-        <v>1.22450826907462</v>
-      </c>
-      <c r="J76">
-        <v>1.011756631754799</v>
-      </c>
-      <c r="K76">
-        <v>1.048434639459481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="I76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D77">
         <v>1.2</v>
@@ -3521,25 +3068,19 @@
       <c r="H77">
         <v>0.7981334667288207</v>
       </c>
-      <c r="I77">
-        <v>19.80154144782526</v>
-      </c>
-      <c r="J77">
-        <v>1.07739454233393</v>
-      </c>
-      <c r="K77">
-        <v>1.002927120632673</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="I77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3556,25 +3097,19 @@
       <c r="H78">
         <v>0.9720687248705994</v>
       </c>
-      <c r="I78">
-        <v>3.028502998873259</v>
-      </c>
-      <c r="J78">
-        <v>1.000040619683899</v>
-      </c>
-      <c r="K78">
-        <v>1.000033854763825</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="I78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3591,25 +3126,19 @@
       <c r="H79">
         <v>0.7598616291162319</v>
       </c>
-      <c r="I79">
-        <v>3.040632425922576</v>
-      </c>
-      <c r="J79">
-        <v>1.037924567861285</v>
-      </c>
-      <c r="K79">
-        <v>1.026021184326699</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="I79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3626,25 +3155,19 @@
       <c r="H80">
         <v>0.7802060228101789</v>
       </c>
-      <c r="I80">
-        <v>1.303559905189773</v>
-      </c>
-      <c r="J80">
-        <v>1.21372330814021</v>
-      </c>
-      <c r="K80">
-        <v>1.035381666439556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="I80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3661,25 +3184,19 @@
       <c r="H81">
         <v>0.7930823594975821</v>
       </c>
-      <c r="I81">
-        <v>18.33700555492712</v>
-      </c>
-      <c r="J81">
-        <v>1.003388855493158</v>
-      </c>
-      <c r="K81">
-        <v>1.004506254236879</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="I81" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D82">
         <v>1.2</v>
@@ -3696,25 +3213,19 @@
       <c r="H82">
         <v>0.985430965683466</v>
       </c>
-      <c r="I82">
-        <v>3.020845767406993</v>
-      </c>
-      <c r="J82">
-        <v>1.000006595669154</v>
-      </c>
-      <c r="K82">
-        <v>1.000412320631269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="I82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3731,25 +3242,19 @@
       <c r="H83">
         <v>0.9723821263817407</v>
       </c>
-      <c r="I83">
-        <v>3.039183289761969</v>
-      </c>
-      <c r="J83">
-        <v>1.000033470029997</v>
-      </c>
-      <c r="K83">
-        <v>1.037014197192435</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="I83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D84">
         <v>1.4</v>
@@ -3766,25 +3271,19 @@
       <c r="H84">
         <v>0.9690374088571619</v>
       </c>
-      <c r="I84">
-        <v>1.313364129974818</v>
-      </c>
-      <c r="J84">
-        <v>1.000151147036317</v>
-      </c>
-      <c r="K84">
-        <v>1.103797461195738</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="I84" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -3801,25 +3300,19 @@
       <c r="H85">
         <v>0.9684935101064818</v>
       </c>
-      <c r="I85">
-        <v>18.80928383539033</v>
-      </c>
-      <c r="J85">
-        <v>1.000009803047014</v>
-      </c>
-      <c r="K85">
-        <v>1.009489125892184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="I85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D86">
         <v>1.4</v>
@@ -3836,25 +3329,19 @@
       <c r="H86">
         <v>0.6970949734840508</v>
       </c>
-      <c r="I86">
-        <v>3.022231308932284</v>
-      </c>
-      <c r="J86">
-        <v>1.099717482015766</v>
-      </c>
-      <c r="K86">
-        <v>2.565321661641009</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="I86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -3871,25 +3358,19 @@
       <c r="H87">
         <v>0.9584033857932039</v>
       </c>
-      <c r="I87">
-        <v>3.018380924879722</v>
-      </c>
-      <c r="J87">
-        <v>1.000474925532381</v>
-      </c>
-      <c r="K87">
-        <v>1.022554464582979</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="I87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D88">
         <v>1.2</v>
@@ -3906,25 +3387,19 @@
       <c r="H88">
         <v>0.7556144547991988</v>
       </c>
-      <c r="I88">
-        <v>1.41764904890041</v>
-      </c>
-      <c r="J88">
-        <v>1.835815880687654</v>
-      </c>
-      <c r="K88">
-        <v>1.05701707849317</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="I88" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3941,25 +3416,19 @@
       <c r="H89">
         <v>0.9494721286036037</v>
       </c>
-      <c r="I89">
-        <v>18.96698046110303</v>
-      </c>
-      <c r="J89">
-        <v>1.000018447967637</v>
-      </c>
-      <c r="K89">
-        <v>1.00400149908932</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="I89" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3976,25 +3445,19 @@
       <c r="H90">
         <v>0.9034183913439856</v>
       </c>
-      <c r="I90">
-        <v>2.988061019002214</v>
-      </c>
-      <c r="J90">
-        <v>1.005103163619365</v>
-      </c>
-      <c r="K90">
-        <v>1.002586847464855</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="I90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -4011,25 +3474,19 @@
       <c r="H91">
         <v>0.8998284931861124</v>
       </c>
-      <c r="I91">
-        <v>2.964389046172887</v>
-      </c>
-      <c r="J91">
-        <v>1.005014064844371</v>
-      </c>
-      <c r="K91">
-        <v>1.002325326879913</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="I91" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -4046,25 +3503,19 @@
       <c r="H92">
         <v>0.8236534910633481</v>
       </c>
-      <c r="I92">
-        <v>1.284884532315612</v>
-      </c>
-      <c r="J92">
-        <v>1.085676605860707</v>
-      </c>
-      <c r="K92">
-        <v>1.019028343863128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="I92" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -4081,25 +3532,19 @@
       <c r="H93">
         <v>0.7834872792414597</v>
       </c>
-      <c r="I93">
-        <v>19.27000855053045</v>
-      </c>
-      <c r="J93">
-        <v>1.002700026780196</v>
-      </c>
-      <c r="K93">
-        <v>1.003824526432414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="I93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -4116,25 +3561,19 @@
       <c r="H94">
         <v>0.9867170565493075</v>
       </c>
-      <c r="I94">
-        <v>2.997361795204067</v>
-      </c>
-      <c r="J94">
-        <v>1.000030924775502</v>
-      </c>
-      <c r="K94">
-        <v>1.005079090809095</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="I94" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -4151,25 +3590,19 @@
       <c r="H95">
         <v>0.9789895896807606</v>
       </c>
-      <c r="I95">
-        <v>3.011107357809756</v>
-      </c>
-      <c r="J95">
-        <v>1.000008209253316</v>
-      </c>
-      <c r="K95">
-        <v>1.004085196254789</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="I95" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D96">
         <v>1.2</v>
@@ -4186,25 +3619,19 @@
       <c r="H96">
         <v>0.9843394474833088</v>
       </c>
-      <c r="I96">
-        <v>1.267028430108577</v>
-      </c>
-      <c r="J96">
-        <v>1.000064322457663</v>
-      </c>
-      <c r="K96">
-        <v>1.047668878036825</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="I96" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D97">
         <v>0.85</v>
@@ -4221,25 +3648,19 @@
       <c r="H97">
         <v>0.9640668259877561</v>
       </c>
-      <c r="I97">
-        <v>19.04453936408358</v>
-      </c>
-      <c r="J97">
-        <v>1.000157546881889</v>
-      </c>
-      <c r="K97">
-        <v>1.011681384821691</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="I97" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -4256,25 +3677,19 @@
       <c r="H98">
         <v>0.878352159035525</v>
       </c>
-      <c r="I98">
-        <v>3.086556595039962</v>
-      </c>
-      <c r="J98">
-        <v>1.013092765813525</v>
-      </c>
-      <c r="K98">
-        <v>1.000018982332475</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="I98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -4291,25 +3706,19 @@
       <c r="H99">
         <v>0.8747216196007492</v>
       </c>
-      <c r="I99">
-        <v>3.070552458528142</v>
-      </c>
-      <c r="J99">
-        <v>1.016124278830602</v>
-      </c>
-      <c r="K99">
-        <v>1.000209326839229</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="I99" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D100">
         <v>0.85</v>
@@ -4326,25 +3735,19 @@
       <c r="H100">
         <v>0.751182534732907</v>
       </c>
-      <c r="I100">
-        <v>1.341265575747312</v>
-      </c>
-      <c r="J100">
-        <v>1.076162966414658</v>
-      </c>
-      <c r="K100">
-        <v>0.9995756132158071</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="I100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D101">
         <v>1.2</v>
@@ -4361,25 +3764,19 @@
       <c r="H101">
         <v>0.7306380316226534</v>
       </c>
-      <c r="I101">
-        <v>35.55265637003779</v>
-      </c>
-      <c r="J101">
-        <v>1.231178230155819</v>
-      </c>
-      <c r="K101">
-        <v>1.000051611126778</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="I101" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -4396,25 +3793,19 @@
       <c r="H102">
         <v>0.8671237394123188</v>
       </c>
-      <c r="I102">
-        <v>3.013119814183751</v>
-      </c>
-      <c r="J102">
-        <v>1.010276426560207</v>
-      </c>
-      <c r="K102">
-        <v>1.004983718764293</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="I102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -4431,25 +3822,19 @@
       <c r="H103">
         <v>0.8696053692253372</v>
       </c>
-      <c r="I103">
-        <v>3.092113293099004</v>
-      </c>
-      <c r="J103">
-        <v>1.008174322301368</v>
-      </c>
-      <c r="K103">
-        <v>1.004355207018463</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="I103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -4466,25 +3851,19 @@
       <c r="H104">
         <v>0.8650533036111516</v>
       </c>
-      <c r="I104">
-        <v>1.224957589411136</v>
-      </c>
-      <c r="J104">
-        <v>1.03542621412054</v>
-      </c>
-      <c r="K104">
-        <v>1.010124063362426</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="I104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -4501,25 +3880,19 @@
       <c r="H105">
         <v>0.7656289507424359</v>
       </c>
-      <c r="I105">
-        <v>19.23662519620342</v>
-      </c>
-      <c r="J105">
-        <v>1.099389774037316</v>
-      </c>
-      <c r="K105">
-        <v>1.005274019721791</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="I105" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C106" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -4536,25 +3909,19 @@
       <c r="H106">
         <v>0.9824923619887699</v>
       </c>
-      <c r="I106">
-        <v>3.005441508259563</v>
-      </c>
-      <c r="J106">
-        <v>1.000106143910253</v>
-      </c>
-      <c r="K106">
-        <v>1.007112663872089</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="I106" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -4571,25 +3938,19 @@
       <c r="H107">
         <v>0.9781283523908859</v>
       </c>
-      <c r="I107">
-        <v>3.013377414550365</v>
-      </c>
-      <c r="J107">
-        <v>1.000017532589571</v>
-      </c>
-      <c r="K107">
-        <v>1.008144345932084</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="I107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D108">
         <v>1.2</v>
@@ -4606,25 +3967,19 @@
       <c r="H108">
         <v>0.9900444555720104</v>
       </c>
-      <c r="I108">
-        <v>1.245566351406629</v>
-      </c>
-      <c r="J108">
-        <v>1.000154607798195</v>
-      </c>
-      <c r="K108">
-        <v>1.020638002541263</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="I108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D109">
         <v>1.4</v>
@@ -4641,25 +3996,19 @@
       <c r="H109">
         <v>0.9533379168726903</v>
       </c>
-      <c r="I109">
-        <v>18.71223180344694</v>
-      </c>
-      <c r="J109">
-        <v>1.000077457861541</v>
-      </c>
-      <c r="K109">
-        <v>1.018719624289751</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="I109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C110" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -4676,25 +4025,19 @@
       <c r="H110">
         <v>0.885939785405493</v>
       </c>
-      <c r="I110">
-        <v>3.017956694749484</v>
-      </c>
-      <c r="J110">
-        <v>1.021519804720445</v>
-      </c>
-      <c r="K110">
-        <v>1.052713475107089</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="I110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C111" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -4711,25 +4054,19 @@
       <c r="H111">
         <v>0.8816413380221428</v>
       </c>
-      <c r="I111">
-        <v>2.985254648710352</v>
-      </c>
-      <c r="J111">
-        <v>1.022314320407417</v>
-      </c>
-      <c r="K111">
-        <v>1.051126087962492</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="I111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C112" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D112">
         <v>1.4</v>
@@ -4746,25 +4083,19 @@
       <c r="H112">
         <v>0.7533376832309916</v>
       </c>
-      <c r="I112">
-        <v>1.221730003271054</v>
-      </c>
-      <c r="J112">
-        <v>1.124931666188025</v>
-      </c>
-      <c r="K112">
-        <v>16.54091744681114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="I112" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D113">
         <v>1.2</v>
@@ -4781,25 +4112,19 @@
       <c r="H113">
         <v>0.7330600872931629</v>
       </c>
-      <c r="I113">
-        <v>20.84880838762864</v>
-      </c>
-      <c r="J113">
-        <v>1.258148300820376</v>
-      </c>
-      <c r="K113">
-        <v>1.009913682729316</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="I113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -4816,25 +4141,19 @@
       <c r="H114">
         <v>0.7959197419325158</v>
       </c>
-      <c r="I114">
-        <v>3.070504346480753</v>
-      </c>
-      <c r="J114">
-        <v>1.1068381347262</v>
-      </c>
-      <c r="K114">
-        <v>1.017425592315357</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="I114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -4851,25 +4170,19 @@
       <c r="H115">
         <v>0.7963174542937551</v>
       </c>
-      <c r="I115">
-        <v>3.069361955557513</v>
-      </c>
-      <c r="J115">
-        <v>1.02488488269743</v>
-      </c>
-      <c r="K115">
-        <v>1.015824014511734</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="I115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C116" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -4886,25 +4199,19 @@
       <c r="H116">
         <v>0.97969285820153</v>
       </c>
-      <c r="I116">
-        <v>1.216456009679428</v>
-      </c>
-      <c r="J116">
-        <v>1.000312181368143</v>
-      </c>
-      <c r="K116">
-        <v>1.000130496157628</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="I116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -4921,25 +4228,19 @@
       <c r="H117">
         <v>0.9755239208850357</v>
       </c>
-      <c r="I117">
-        <v>19.49187525192527</v>
-      </c>
-      <c r="J117">
-        <v>1.000028443145414</v>
-      </c>
-      <c r="K117">
-        <v>1.000043216198077</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="I117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D118">
         <v>1.2</v>
@@ -4956,25 +4257,19 @@
       <c r="H118">
         <v>0.9693978842458758</v>
       </c>
-      <c r="I118">
-        <v>3.16454043144984</v>
-      </c>
-      <c r="J118">
-        <v>1.000016214168852</v>
-      </c>
-      <c r="K118">
-        <v>1.046759095102789</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="I118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C119" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D119">
         <v>0.85</v>
@@ -4991,25 +4286,19 @@
       <c r="H119">
         <v>0.9781884672760333</v>
       </c>
-      <c r="I119">
-        <v>3.042787312664891</v>
-      </c>
-      <c r="J119">
-        <v>1.000000211711625</v>
-      </c>
-      <c r="K119">
-        <v>1.023676478351775</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="I119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5026,25 +4315,19 @@
       <c r="H120">
         <v>0.9872623180314931</v>
       </c>
-      <c r="I120">
-        <v>1.206624418369506</v>
-      </c>
-      <c r="J120">
-        <v>1.000015862251329</v>
-      </c>
-      <c r="K120">
-        <v>1.000453815075724</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="I120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5061,25 +4344,19 @@
       <c r="H121">
         <v>0.9631113308395848</v>
       </c>
-      <c r="I121">
-        <v>19.10782360975233</v>
-      </c>
-      <c r="J121">
-        <v>1.000005106917523</v>
-      </c>
-      <c r="K121">
-        <v>0.9999885072188003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C122" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D122">
         <v>0.85</v>
@@ -5096,25 +4373,19 @@
       <c r="H122">
         <v>0.7223552473530181</v>
       </c>
-      <c r="I122">
-        <v>3.204963868362344</v>
-      </c>
-      <c r="J122">
-        <v>1.054989451260023</v>
-      </c>
-      <c r="K122">
-        <v>0.9969598164396329</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="I122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C123" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D123">
         <v>1.2</v>
@@ -5131,25 +4402,19 @@
       <c r="H123">
         <v>0.7595013580147578</v>
       </c>
-      <c r="I123">
-        <v>7.572483259049344</v>
-      </c>
-      <c r="J123">
-        <v>1.36660496758838</v>
-      </c>
-      <c r="K123">
-        <v>0.9996718160390868</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="I123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C124" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -5166,25 +4431,19 @@
       <c r="H124">
         <v>0.9481203037908665</v>
       </c>
-      <c r="I124">
-        <v>1.216412279564537</v>
-      </c>
-      <c r="J124">
-        <v>1.000619815942251</v>
-      </c>
-      <c r="K124">
-        <v>1.000022277042971</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="I124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C125" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -5201,25 +4460,19 @@
       <c r="H125">
         <v>0.9610368094627727</v>
       </c>
-      <c r="I125">
-        <v>18.94090341091748</v>
-      </c>
-      <c r="J125">
-        <v>1.000002629544341</v>
-      </c>
-      <c r="K125">
-        <v>1.000070392904922</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="I125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C126" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5236,25 +4489,19 @@
       <c r="H126">
         <v>0.9428178707304289</v>
       </c>
-      <c r="I126">
-        <v>2.985008122294043</v>
-      </c>
-      <c r="J126">
-        <v>1.002572295805653</v>
-      </c>
-      <c r="K126">
-        <v>1.00073073721229</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="I126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C127" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -5271,25 +4518,19 @@
       <c r="H127">
         <v>0.7584893445054288</v>
       </c>
-      <c r="I127">
-        <v>3.222436691669528</v>
-      </c>
-      <c r="J127">
-        <v>1.26241214181714</v>
-      </c>
-      <c r="K127">
-        <v>1.026125224678572</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="I127" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C128" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -5306,25 +4547,19 @@
       <c r="H128">
         <v>0.7814013012472443</v>
       </c>
-      <c r="I128">
-        <v>1.252803438509327</v>
-      </c>
-      <c r="J128">
-        <v>1.053745131094203</v>
-      </c>
-      <c r="K128">
-        <v>1.029728043154767</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="I128" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C129" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -5341,25 +4576,19 @@
       <c r="H129">
         <v>0.8658938867103927</v>
       </c>
-      <c r="I129">
-        <v>19.15223250597941</v>
-      </c>
-      <c r="J129">
-        <v>1.001233132350688</v>
-      </c>
-      <c r="K129">
-        <v>1.001144017455896</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="I129" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C130" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D130">
         <v>1.2</v>
@@ -5376,25 +4605,19 @@
       <c r="H130">
         <v>0.9809457555778124</v>
       </c>
-      <c r="I130">
-        <v>3.023826239080322</v>
-      </c>
-      <c r="J130">
-        <v>1.000039800355886</v>
-      </c>
-      <c r="K130">
-        <v>1.002239376179514</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="I130" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C131" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D131">
         <v>1.4</v>
@@ -5411,25 +4634,19 @@
       <c r="H131">
         <v>0.973901775661497</v>
       </c>
-      <c r="I131">
-        <v>3.145757734441567</v>
-      </c>
-      <c r="J131">
-        <v>1.000121814112818</v>
-      </c>
-      <c r="K131">
-        <v>1.067706620781746</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="I131" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C132" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -5446,25 +4663,19 @@
       <c r="H132">
         <v>0.9776478144887597</v>
       </c>
-      <c r="I132">
-        <v>1.249734606566682</v>
-      </c>
-      <c r="J132">
-        <v>1.000134232912045</v>
-      </c>
-      <c r="K132">
-        <v>1.046125355900065</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="I132" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C133" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -5481,25 +4692,19 @@
       <c r="H133">
         <v>0.9665073755378003</v>
       </c>
-      <c r="I133">
-        <v>18.77497849141138</v>
-      </c>
-      <c r="J133">
-        <v>1.000043467953969</v>
-      </c>
-      <c r="K133">
-        <v>1.002102938347849</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="I133" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D134">
         <v>1.4</v>
@@ -5516,25 +4721,19 @@
       <c r="H134">
         <v>0.7227290102472875</v>
       </c>
-      <c r="I134">
-        <v>3.011816675260588</v>
-      </c>
-      <c r="J134">
-        <v>1.084062256301787</v>
-      </c>
-      <c r="K134">
-        <v>3.346601584707291</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="I134" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C135" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D135">
         <v>1.2</v>
@@ -5551,25 +4750,19 @@
       <c r="H135">
         <v>0.775290226965231</v>
       </c>
-      <c r="I135">
-        <v>3.460780110977954</v>
-      </c>
-      <c r="J135">
-        <v>1.25967596599847</v>
-      </c>
-      <c r="K135">
-        <v>1.014746075462675</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="I135" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C136" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -5586,25 +4779,19 @@
       <c r="H136">
         <v>0.9792797740178244</v>
       </c>
-      <c r="I136">
-        <v>1.239250684052906</v>
-      </c>
-      <c r="J136">
-        <v>1.00092592240921</v>
-      </c>
-      <c r="K136">
-        <v>1.053463838457166</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="I136" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C137" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -5621,25 +4808,19 @@
       <c r="H137">
         <v>0.9592731034331989</v>
       </c>
-      <c r="I137">
-        <v>18.64424911016521</v>
-      </c>
-      <c r="J137">
-        <v>1.000262672294215</v>
-      </c>
-      <c r="K137">
-        <v>1.005677856170323</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="I137" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -5656,25 +4837,19 @@
       <c r="H138">
         <v>0.9896528274493153</v>
       </c>
-      <c r="I138">
-        <v>3.023067400054932</v>
-      </c>
-      <c r="J138">
-        <v>1.000000133921864</v>
-      </c>
-      <c r="K138">
-        <v>1.000018285230781</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="I138" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -5691,25 +4866,19 @@
       <c r="H139">
         <v>0.9822708486450134</v>
       </c>
-      <c r="I139">
-        <v>2.98406739111992</v>
-      </c>
-      <c r="J139">
-        <v>1.000001962101519</v>
-      </c>
-      <c r="K139">
-        <v>1.000000750625434</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="I139" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -5726,25 +4895,19 @@
       <c r="H140">
         <v>0.9824131315591527</v>
       </c>
-      <c r="I140">
-        <v>1.223544031460725</v>
-      </c>
-      <c r="J140">
-        <v>1.000003158325037</v>
-      </c>
-      <c r="K140">
-        <v>1.000000165481474</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="I140" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -5761,25 +4924,19 @@
       <c r="H141">
         <v>0.9789113088932924</v>
       </c>
-      <c r="I141">
-        <v>18.723866166688</v>
-      </c>
-      <c r="J141">
-        <v>1.000009787905114</v>
-      </c>
-      <c r="K141">
-        <v>1.000048663206051</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="I141" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C142" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -5796,25 +4953,19 @@
       <c r="H142">
         <v>0.8281480437223493</v>
       </c>
-      <c r="I142">
-        <v>3.029219489437384</v>
-      </c>
-      <c r="J142">
-        <v>1.02926559442972</v>
-      </c>
-      <c r="K142">
-        <v>1.004321988472587</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="I142" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C143" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -5831,25 +4982,19 @@
       <c r="H143">
         <v>0.9436652692256744</v>
       </c>
-      <c r="I143">
-        <v>2.9787259891497</v>
-      </c>
-      <c r="J143">
-        <v>1.001157293914492</v>
-      </c>
-      <c r="K143">
-        <v>1.000214485737386</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="I143" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C144" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -5866,25 +5011,19 @@
       <c r="H144">
         <v>0.9357911048148518</v>
       </c>
-      <c r="I144">
-        <v>1.238071457180136</v>
-      </c>
-      <c r="J144">
-        <v>1.002737566974402</v>
-      </c>
-      <c r="K144">
-        <v>1.000976575198481</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="I144" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -5901,25 +5040,19 @@
       <c r="H145">
         <v>0.7893457645907033</v>
       </c>
-      <c r="I145">
-        <v>19.07939982685204</v>
-      </c>
-      <c r="J145">
-        <v>1.000495649276026</v>
-      </c>
-      <c r="K145">
-        <v>1.000607510834637</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="I145" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C146" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D146">
         <v>1.2</v>
@@ -5936,25 +5069,19 @@
       <c r="H146">
         <v>0.9711501165684299</v>
       </c>
-      <c r="I146">
-        <v>3.084864286168044</v>
-      </c>
-      <c r="J146">
-        <v>1.000052881919659</v>
-      </c>
-      <c r="K146">
-        <v>1.028903214350597</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="I146" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -5971,25 +5098,19 @@
       <c r="H147">
         <v>0.9685572996748554</v>
       </c>
-      <c r="I147">
-        <v>2.935251889045046</v>
-      </c>
-      <c r="J147">
-        <v>1.000015694514123</v>
-      </c>
-      <c r="K147">
-        <v>1.001406273949947</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="I147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6006,25 +5127,19 @@
       <c r="H148">
         <v>0.9843858934887276</v>
       </c>
-      <c r="I148">
-        <v>1.232108618364276</v>
-      </c>
-      <c r="J148">
-        <v>1.000001753381585</v>
-      </c>
-      <c r="K148">
-        <v>1.004481404672716</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="I148" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D149">
         <v>0.85</v>
@@ -6041,25 +5156,19 @@
       <c r="H149">
         <v>0.9689454261427006</v>
       </c>
-      <c r="I149">
-        <v>19.45741518829466</v>
-      </c>
-      <c r="J149">
-        <v>1.00008933348379</v>
-      </c>
-      <c r="K149">
-        <v>1.004323013184234</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="I149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C150" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D150">
         <v>0.85</v>
@@ -6076,25 +5185,19 @@
       <c r="H150">
         <v>0.7549258092626289</v>
       </c>
-      <c r="I150">
-        <v>3.10432161160701</v>
-      </c>
-      <c r="J150">
-        <v>1.021288193189374</v>
-      </c>
-      <c r="K150">
-        <v>1.002289412087732</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="I150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B151" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C151" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -6111,25 +5214,19 @@
       <c r="H151">
         <v>0.9357372454860451</v>
       </c>
-      <c r="I151">
-        <v>3.031713696109694</v>
-      </c>
-      <c r="J151">
-        <v>1.00134957905943</v>
-      </c>
-      <c r="K151">
-        <v>1.000042754904424</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="I151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C152" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -6146,25 +5243,19 @@
       <c r="H152">
         <v>0.9124684125218959</v>
       </c>
-      <c r="I152">
-        <v>1.222840738085718</v>
-      </c>
-      <c r="J152">
-        <v>1.004272303746121</v>
-      </c>
-      <c r="K152">
-        <v>1.0001429253441</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="I152" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D153">
         <v>1.2</v>
@@ -6181,25 +5272,19 @@
       <c r="H153">
         <v>0.7918852533678526</v>
       </c>
-      <c r="I153">
-        <v>23.96705489205119</v>
-      </c>
-      <c r="J153">
-        <v>1.034135881816115</v>
-      </c>
-      <c r="K153">
-        <v>1.001265381001496</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="I153" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C154" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -6216,25 +5301,19 @@
       <c r="H154">
         <v>0.7389500207414068</v>
       </c>
-      <c r="I154">
-        <v>3.200282412547625</v>
-      </c>
-      <c r="J154">
-        <v>1.2043832972843</v>
-      </c>
-      <c r="K154">
-        <v>1.015265092098962</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="I154" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C155" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -6251,25 +5330,19 @@
       <c r="H155">
         <v>0.9741494861954407</v>
       </c>
-      <c r="I155">
-        <v>3.006446612258598</v>
-      </c>
-      <c r="J155">
-        <v>1.000193938224953</v>
-      </c>
-      <c r="K155">
-        <v>1.000088905118437</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="I155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B156" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C156" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -6286,25 +5359,19 @@
       <c r="H156">
         <v>0.7647704790289211</v>
       </c>
-      <c r="I156">
-        <v>1.246682754027908</v>
-      </c>
-      <c r="J156">
-        <v>1.039631813255407</v>
-      </c>
-      <c r="K156">
-        <v>1.019762728177498</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="I156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C157" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -6321,25 +5388,19 @@
       <c r="H157">
         <v>0.9636233267493246</v>
       </c>
-      <c r="I157">
-        <v>18.69805630110928</v>
-      </c>
-      <c r="J157">
-        <v>1.000000455157429</v>
-      </c>
-      <c r="K157">
-        <v>0.9999949423503339</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="I157" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C158" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D158">
         <v>1.2</v>
@@ -6356,25 +5417,19 @@
       <c r="H158">
         <v>0.9635598764449868</v>
       </c>
-      <c r="I158">
-        <v>3.159038097590473</v>
-      </c>
-      <c r="J158">
-        <v>0.9999989232935086</v>
-      </c>
-      <c r="K158">
-        <v>1.120306023641792</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="I158" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B159" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -6391,25 +5446,19 @@
       <c r="H159">
         <v>0.9643160482141827</v>
       </c>
-      <c r="I159">
-        <v>3.023646405733408</v>
-      </c>
-      <c r="J159">
-        <v>1.000315759324515</v>
-      </c>
-      <c r="K159">
-        <v>1.000772811335518</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="I159" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C160" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D160">
         <v>0.85</v>
@@ -6426,25 +5475,19 @@
       <c r="H160">
         <v>0.9729223683269969</v>
       </c>
-      <c r="I160">
-        <v>1.245155267132085</v>
-      </c>
-      <c r="J160">
-        <v>1.000197954951967</v>
-      </c>
-      <c r="K160">
-        <v>1.06243380181924</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="I160" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C161" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -6461,25 +5504,19 @@
       <c r="H161">
         <v>0.9636428851906079</v>
       </c>
-      <c r="I161">
-        <v>19.12317591823954</v>
-      </c>
-      <c r="J161">
-        <v>1.000055434386824</v>
-      </c>
-      <c r="K161">
-        <v>1.000006479088922</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="I161" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C162" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D162">
         <v>0.85</v>
@@ -6496,25 +5533,19 @@
       <c r="H162">
         <v>0.6791065994431333</v>
       </c>
-      <c r="I162">
-        <v>3.258961877382147</v>
-      </c>
-      <c r="J162">
-        <v>1.053557142259068</v>
-      </c>
-      <c r="K162">
-        <v>1.012955945460808</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="I162" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C163" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -6531,25 +5562,19 @@
       <c r="H163">
         <v>0.9320561303346427</v>
       </c>
-      <c r="I163">
-        <v>3.019225881483433</v>
-      </c>
-      <c r="J163">
-        <v>1.001863232977465</v>
-      </c>
-      <c r="K163">
-        <v>1.000591452816238</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="I163" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B164" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C164" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D164">
         <v>1.2</v>
@@ -6566,25 +5591,19 @@
       <c r="H164">
         <v>0.7372303963511312</v>
       </c>
-      <c r="I164">
-        <v>16.27290185340519</v>
-      </c>
-      <c r="J164">
-        <v>1.658330571390273</v>
-      </c>
-      <c r="K164">
-        <v>1.013284087524781</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="I164" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B165" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C165" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -6601,25 +5620,19 @@
       <c r="H165">
         <v>0.935647870597345</v>
       </c>
-      <c r="I165">
-        <v>18.55468294284264</v>
-      </c>
-      <c r="J165">
-        <v>1.000100608413903</v>
-      </c>
-      <c r="K165">
-        <v>1.000090202613392</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="I165" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B166" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C166" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -6636,25 +5649,19 @@
       <c r="H166">
         <v>0.8590578643596009</v>
       </c>
-      <c r="I166">
-        <v>2.995455373367865</v>
-      </c>
-      <c r="J166">
-        <v>1.015364099306347</v>
-      </c>
-      <c r="K166">
-        <v>1.002305499082852</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="I166" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B167" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C167" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -6671,25 +5678,19 @@
       <c r="H167">
         <v>0.9134817601048661</v>
       </c>
-      <c r="I167">
-        <v>2.975431140113158</v>
-      </c>
-      <c r="J167">
-        <v>1.002343856382027</v>
-      </c>
-      <c r="K167">
-        <v>1.001037951006574</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="I167" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C168" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -6706,25 +5707,19 @@
       <c r="H168">
         <v>0.887815103170878</v>
       </c>
-      <c r="I168">
-        <v>1.249437225191453</v>
-      </c>
-      <c r="J168">
-        <v>1.008023370129052</v>
-      </c>
-      <c r="K168">
-        <v>1.002042026827289</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="I168" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B169" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C169" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -6741,25 +5736,19 @@
       <c r="H169">
         <v>0.7458572805157744</v>
       </c>
-      <c r="I169">
-        <v>19.55364713360038</v>
-      </c>
-      <c r="J169">
-        <v>1.07658606856766</v>
-      </c>
-      <c r="K169">
-        <v>1.002740737231105</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="I169" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B170" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C170" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D170">
         <v>1.2</v>
@@ -6776,25 +5765,19 @@
       <c r="H170">
         <v>0.9870358726323132</v>
       </c>
-      <c r="I170">
-        <v>3.019058358778504</v>
-      </c>
-      <c r="J170">
-        <v>1.000055249962526</v>
-      </c>
-      <c r="K170">
-        <v>1.019894429021963</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="I170" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C171" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -6811,25 +5794,19 @@
       <c r="H171">
         <v>0.9840355120877872</v>
       </c>
-      <c r="I171">
-        <v>3.022838413739678</v>
-      </c>
-      <c r="J171">
-        <v>1.000053125890719</v>
-      </c>
-      <c r="K171">
-        <v>1.002558687526222</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="I171" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C172" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -6846,25 +5823,19 @@
       <c r="H172">
         <v>0.9831061554945355</v>
       </c>
-      <c r="I172">
-        <v>1.225857928572704</v>
-      </c>
-      <c r="J172">
-        <v>1.000277759757493</v>
-      </c>
-      <c r="K172">
-        <v>1.01528133431836</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="I172" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B173" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C173" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D173">
         <v>1.4</v>
@@ -6881,25 +5852,19 @@
       <c r="H173">
         <v>0.9569366114055823</v>
       </c>
-      <c r="I173">
-        <v>19.22191778188536</v>
-      </c>
-      <c r="J173">
-        <v>1.000032144058407</v>
-      </c>
-      <c r="K173">
-        <v>1.054044529570429</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="I173" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C174" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D174">
         <v>1.4</v>
@@ -6916,25 +5881,19 @@
       <c r="H174">
         <v>0.7631387495973054</v>
       </c>
-      <c r="I174">
-        <v>2.984807749944272</v>
-      </c>
-      <c r="J174">
-        <v>1.032314027336463</v>
-      </c>
-      <c r="K174">
-        <v>3.694350982423653</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="I174" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B175" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C175" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -6951,25 +5910,19 @@
       <c r="H175">
         <v>0.9342522674261848</v>
       </c>
-      <c r="I175">
-        <v>3.044387974975965</v>
-      </c>
-      <c r="J175">
-        <v>1.00387837069335</v>
-      </c>
-      <c r="K175">
-        <v>1.014287672648785</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="I175" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C176" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -6986,25 +5939,19 @@
       <c r="H176">
         <v>0.9209892414830793</v>
       </c>
-      <c r="I176">
-        <v>1.223824091496823</v>
-      </c>
-      <c r="J176">
-        <v>1.006281404518646</v>
-      </c>
-      <c r="K176">
-        <v>1.043805119042803</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="I176" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C177" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D177">
         <v>1.2</v>
@@ -7021,25 +5968,19 @@
       <c r="H177">
         <v>0.7977072673018475</v>
       </c>
-      <c r="I177">
-        <v>19.52185887318767</v>
-      </c>
-      <c r="J177">
-        <v>1.036554753498598</v>
-      </c>
-      <c r="K177">
-        <v>1.000470448574749</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="I177" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C178" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -7056,25 +5997,19 @@
       <c r="H178">
         <v>0.9700903986168752</v>
       </c>
-      <c r="I178">
-        <v>3.028467888203964</v>
-      </c>
-      <c r="J178">
-        <v>1.000001270290161</v>
-      </c>
-      <c r="K178">
-        <v>1.000005079906569</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="I178" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C179" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -7091,25 +6026,19 @@
       <c r="H179">
         <v>0.7542749069121295</v>
       </c>
-      <c r="I179">
-        <v>3.033172746677851</v>
-      </c>
-      <c r="J179">
-        <v>1.026008015536763</v>
-      </c>
-      <c r="K179">
-        <v>1.011790954853336</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="I179" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C180" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -7126,25 +6055,19 @@
       <c r="H180">
         <v>0.7789379146710161</v>
       </c>
-      <c r="I180">
-        <v>1.284839732009048</v>
-      </c>
-      <c r="J180">
-        <v>1.109741914231476</v>
-      </c>
-      <c r="K180">
-        <v>1.015797598198767</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="I180" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C181" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -7161,25 +6084,19 @@
       <c r="H181">
         <v>0.7938857075656648</v>
       </c>
-      <c r="I181">
-        <v>18.33862381588591</v>
-      </c>
-      <c r="J181">
-        <v>1.002796793213754</v>
-      </c>
-      <c r="K181">
-        <v>1.001703483099357</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="I181" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C182" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D182">
         <v>1.2</v>
@@ -7196,25 +6113,19 @@
       <c r="H182">
         <v>0.9786999752888373</v>
       </c>
-      <c r="I182">
-        <v>3.020859205754638</v>
-      </c>
-      <c r="J182">
-        <v>1.000030927732233</v>
-      </c>
-      <c r="K182">
-        <v>1.000426256903689</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="I182" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C183" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -7231,25 +6142,19 @@
       <c r="H183">
         <v>0.9722675214155024</v>
       </c>
-      <c r="I183">
-        <v>3.028440473342735</v>
-      </c>
-      <c r="J183">
-        <v>1.000029940355818</v>
-      </c>
-      <c r="K183">
-        <v>1.039754891615351</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="I183" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C184" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D184">
         <v>1.4</v>
@@ -7266,25 +6171,19 @@
       <c r="H184">
         <v>0.9685363357989935</v>
       </c>
-      <c r="I184">
-        <v>1.292852524805086</v>
-      </c>
-      <c r="J184">
-        <v>1.00003782198905</v>
-      </c>
-      <c r="K184">
-        <v>1.133703932221917</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="I184" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C185" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -7301,25 +6200,19 @@
       <c r="H185">
         <v>0.9716579647478164</v>
       </c>
-      <c r="I185">
-        <v>18.80720260465624</v>
-      </c>
-      <c r="J185">
-        <v>1.000038819618968</v>
-      </c>
-      <c r="K185">
-        <v>1.008400156113333</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="I185" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C186" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D186">
         <v>1.4</v>
@@ -7336,25 +6229,19 @@
       <c r="H186">
         <v>0.6983880070495745</v>
       </c>
-      <c r="I186">
-        <v>3.020206152835317</v>
-      </c>
-      <c r="J186">
-        <v>1.05500357990868</v>
-      </c>
-      <c r="K186">
-        <v>1.808197025940524</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="I186" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C187" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -7371,25 +6258,19 @@
       <c r="H187">
         <v>0.960325526501445</v>
       </c>
-      <c r="I187">
-        <v>3.006215197533603</v>
-      </c>
-      <c r="J187">
-        <v>1.000201256108464</v>
-      </c>
-      <c r="K187">
-        <v>1.025948048332589</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="I187" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C188" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D188">
         <v>1.2</v>
@@ -7406,25 +6287,19 @@
       <c r="H188">
         <v>0.7560204295510535</v>
       </c>
-      <c r="I188">
-        <v>1.369755181215362</v>
-      </c>
-      <c r="J188">
-        <v>1.323849224889672</v>
-      </c>
-      <c r="K188">
-        <v>1.021822483176728</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="I188" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C189" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -7441,25 +6316,19 @@
       <c r="H189">
         <v>0.9331001985739599</v>
       </c>
-      <c r="I189">
-        <v>18.96000812353411</v>
-      </c>
-      <c r="J189">
-        <v>0.9999793304134389</v>
-      </c>
-      <c r="K189">
-        <v>1.003947841905441</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="I189" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C190" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7476,25 +6345,19 @@
       <c r="H190">
         <v>0.8996250792121685</v>
       </c>
-      <c r="I190">
-        <v>2.98614374649341</v>
-      </c>
-      <c r="J190">
-        <v>1.003355153510983</v>
-      </c>
-      <c r="K190">
-        <v>1.001240894865801</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="I190" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C191" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7511,25 +6374,19 @@
       <c r="H191">
         <v>0.8978870099731929</v>
       </c>
-      <c r="I191">
-        <v>2.963117465873467</v>
-      </c>
-      <c r="J191">
-        <v>1.003624249201696</v>
-      </c>
-      <c r="K191">
-        <v>1.001174355464058</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="I191" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C192" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -7546,25 +6403,19 @@
       <c r="H192">
         <v>0.8201878603927185</v>
       </c>
-      <c r="I192">
-        <v>1.275363599392379</v>
-      </c>
-      <c r="J192">
-        <v>1.05120955591548</v>
-      </c>
-      <c r="K192">
-        <v>1.008818148787609</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="I192" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C193" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -7581,25 +6432,19 @@
       <c r="H193">
         <v>0.7844704039023194</v>
       </c>
-      <c r="I193">
-        <v>19.27511051757945</v>
-      </c>
-      <c r="J193">
-        <v>1.001486115748855</v>
-      </c>
-      <c r="K193">
-        <v>1.000909057288156</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="I193" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C194" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -7616,25 +6461,19 @@
       <c r="H194">
         <v>0.9805078287232517</v>
       </c>
-      <c r="I194">
-        <v>2.995798651382316</v>
-      </c>
-      <c r="J194">
-        <v>1.000010844629191</v>
-      </c>
-      <c r="K194">
-        <v>1.005521168441939</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="I194" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B195" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C195" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -7651,25 +6490,19 @@
       <c r="H195">
         <v>0.9785212058397303</v>
       </c>
-      <c r="I195">
-        <v>3.009071301326964</v>
-      </c>
-      <c r="J195">
-        <v>1.000005729518991</v>
-      </c>
-      <c r="K195">
-        <v>1.004780054365702</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="I195" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B196" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C196" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D196">
         <v>1.2</v>
@@ -7686,25 +6519,19 @@
       <c r="H196">
         <v>0.9754977444720755</v>
       </c>
-      <c r="I196">
-        <v>1.256786848294594</v>
-      </c>
-      <c r="J196">
-        <v>1.000022751094358</v>
-      </c>
-      <c r="K196">
-        <v>1.058186783906523</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="I196" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C197" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D197">
         <v>0.85</v>
@@ -7721,25 +6548,19 @@
       <c r="H197">
         <v>0.9645407907974176</v>
       </c>
-      <c r="I197">
-        <v>19.0577856780034</v>
-      </c>
-      <c r="J197">
-        <v>1.000149650479554</v>
-      </c>
-      <c r="K197">
-        <v>1.009890573765859</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="I197" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C198" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -7756,25 +6577,19 @@
       <c r="H198">
         <v>0.8818378781608877</v>
       </c>
-      <c r="I198">
-        <v>3.062085179980262</v>
-      </c>
-      <c r="J198">
-        <v>1.006721394800197</v>
-      </c>
-      <c r="K198">
-        <v>1.000450685411235</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="I198" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C199" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -7791,25 +6606,19 @@
       <c r="H199">
         <v>0.8712239047412625</v>
       </c>
-      <c r="I199">
-        <v>3.054740606467868</v>
-      </c>
-      <c r="J199">
-        <v>1.010664112069262</v>
-      </c>
-      <c r="K199">
-        <v>1.000065325413227</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="I199" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C200" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D200">
         <v>0.85</v>
@@ -7826,25 +6635,19 @@
       <c r="H200">
         <v>0.7501678740010093</v>
       </c>
-      <c r="I200">
-        <v>1.310542722678556</v>
-      </c>
-      <c r="J200">
-        <v>1.04705036109971</v>
-      </c>
-      <c r="K200">
-        <v>1.002354652003001</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="I200" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C201" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D201">
         <v>1.2</v>
@@ -7861,25 +6664,19 @@
       <c r="H201">
         <v>0.7267308398400704</v>
       </c>
-      <c r="I201">
-        <v>34.39814933921274</v>
-      </c>
-      <c r="J201">
-        <v>1.098887275198016</v>
-      </c>
-      <c r="K201">
-        <v>1.000160702241543</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="I201" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C202" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -7896,25 +6693,19 @@
       <c r="H202">
         <v>0.8653456031914327</v>
       </c>
-      <c r="I202">
-        <v>3.009825330053181</v>
-      </c>
-      <c r="J202">
-        <v>1.007003860743593</v>
-      </c>
-      <c r="K202">
-        <v>1.002284582851912</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="I202" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C203" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -7931,25 +6722,19 @@
       <c r="H203">
         <v>0.8659075744527791</v>
       </c>
-      <c r="I203">
-        <v>3.089452662572883</v>
-      </c>
-      <c r="J203">
-        <v>1.005594917680068</v>
-      </c>
-      <c r="K203">
-        <v>1.00213544222075</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="I203" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C204" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7966,25 +6751,19 @@
       <c r="H204">
         <v>0.8628681291150788</v>
       </c>
-      <c r="I204">
-        <v>1.221069518427174</v>
-      </c>
-      <c r="J204">
-        <v>1.022993269307925</v>
-      </c>
-      <c r="K204">
-        <v>1.004999417599854</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="I204" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C205" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -8001,25 +6780,19 @@
       <c r="H205">
         <v>0.7609229751067977</v>
       </c>
-      <c r="I205">
-        <v>19.13256923453818</v>
-      </c>
-      <c r="J205">
-        <v>1.050363173705652</v>
-      </c>
-      <c r="K205">
-        <v>1.001734760804251</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="I205" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C206" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -8036,25 +6809,19 @@
       <c r="H206">
         <v>0.9774185979359233</v>
       </c>
-      <c r="I206">
-        <v>3.002834426536861</v>
-      </c>
-      <c r="J206">
-        <v>1.000105121601645</v>
-      </c>
-      <c r="K206">
-        <v>1.007862504012814</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="I206" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C207" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -8071,25 +6838,19 @@
       <c r="H207">
         <v>0.9760696607407501</v>
       </c>
-      <c r="I207">
-        <v>3.010112599771587</v>
-      </c>
-      <c r="J207">
-        <v>1.000016746033536</v>
-      </c>
-      <c r="K207">
-        <v>1.009075490882606</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="I207" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C208" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D208">
         <v>1.2</v>
@@ -8106,25 +6867,19 @@
       <c r="H208">
         <v>0.9884370446082527</v>
       </c>
-      <c r="I208">
-        <v>1.241771328612156</v>
-      </c>
-      <c r="J208">
-        <v>1.000107811495964</v>
-      </c>
-      <c r="K208">
-        <v>1.024149659776886</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="I208" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C209" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D209">
         <v>1.4</v>
@@ -8141,25 +6896,19 @@
       <c r="H209">
         <v>0.9516506059089516</v>
       </c>
-      <c r="I209">
-        <v>18.58608764567259</v>
-      </c>
-      <c r="J209">
-        <v>1.000074222404585</v>
-      </c>
-      <c r="K209">
-        <v>1.028020124472234</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="I209" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C210" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -8176,25 +6925,19 @@
       <c r="H210">
         <v>0.8867338745382983</v>
       </c>
-      <c r="I210">
-        <v>3.015907380088388</v>
-      </c>
-      <c r="J210">
-        <v>1.012592818552143</v>
-      </c>
-      <c r="K210">
-        <v>1.045321390381672</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="I210" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C211" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -8211,25 +6954,19 @@
       <c r="H211">
         <v>0.8760193910684572</v>
       </c>
-      <c r="I211">
-        <v>2.983152365880835</v>
-      </c>
-      <c r="J211">
-        <v>1.014858064660543</v>
-      </c>
-      <c r="K211">
-        <v>1.045095343241145</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="I211" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B212" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C212" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D212">
         <v>1.4</v>
@@ -8246,25 +6983,19 @@
       <c r="H212">
         <v>0.7509898100351491</v>
       </c>
-      <c r="I212">
-        <v>1.220557210904566</v>
-      </c>
-      <c r="J212">
-        <v>1.072974708156699</v>
-      </c>
-      <c r="K212">
-        <v>12.79306894642692</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="I212" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B213" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C213" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D213">
         <v>1.2</v>
@@ -8281,25 +7012,19 @@
       <c r="H213">
         <v>0.7385554197658294</v>
       </c>
-      <c r="I213">
-        <v>20.57604106996405</v>
-      </c>
-      <c r="J213">
-        <v>1.127295263699117</v>
-      </c>
-      <c r="K213">
-        <v>1.004060460266477</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11">
+      <c r="I213" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B214" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C214" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -8316,25 +7041,19 @@
       <c r="H214">
         <v>0.7966314231149476</v>
       </c>
-      <c r="I214">
-        <v>3.042030592878356</v>
-      </c>
-      <c r="J214">
-        <v>1.053099291912655</v>
-      </c>
-      <c r="K214">
-        <v>1.007378613846259</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11">
+      <c r="I214" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C215" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -8351,25 +7070,19 @@
       <c r="H215">
         <v>0.7941640425376925</v>
       </c>
-      <c r="I215">
-        <v>3.061101757390446</v>
-      </c>
-      <c r="J215">
-        <v>1.015685225570679</v>
-      </c>
-      <c r="K215">
-        <v>1.006817446014048</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="I215" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C216" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -8386,25 +7099,19 @@
       <c r="H216">
         <v>0.9815001250976906</v>
       </c>
-      <c r="I216">
-        <v>1.216344325161746</v>
-      </c>
-      <c r="J216">
-        <v>1.000132514284916</v>
-      </c>
-      <c r="K216">
-        <v>1.00003962712863</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="I216" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B217" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C217" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -8421,25 +7128,19 @@
       <c r="H217">
         <v>0.9647605660568694</v>
       </c>
-      <c r="I217">
-        <v>19.49194523364998</v>
-      </c>
-      <c r="J217">
-        <v>0.9999889184446491</v>
-      </c>
-      <c r="K217">
-        <v>1.00000358330936</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="I217" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C218" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D218">
         <v>1.2</v>
@@ -8456,25 +7157,19 @@
       <c r="H218">
         <v>0.964323239783653</v>
       </c>
-      <c r="I218">
-        <v>3.124166612067675</v>
-      </c>
-      <c r="J218">
-        <v>1.000062477417887</v>
-      </c>
-      <c r="K218">
-        <v>1.064613938277802</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11">
+      <c r="I218" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C219" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D219">
         <v>0.85</v>
@@ -8491,25 +7186,19 @@
       <c r="H219">
         <v>0.9782762126468391</v>
       </c>
-      <c r="I219">
-        <v>3.034516657285229</v>
-      </c>
-      <c r="J219">
-        <v>1.00001253982781</v>
-      </c>
-      <c r="K219">
-        <v>1.026146159749957</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11">
+      <c r="I219" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C220" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -8526,25 +7215,19 @@
       <c r="H220">
         <v>0.9795171715709926</v>
       </c>
-      <c r="I220">
-        <v>1.206327935405457</v>
-      </c>
-      <c r="J220">
-        <v>1.000000276923333</v>
-      </c>
-      <c r="K220">
-        <v>1.000687802502672</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="I220" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C221" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -8561,25 +7244,19 @@
       <c r="H221">
         <v>0.9619666190084838</v>
       </c>
-      <c r="I221">
-        <v>19.10750942656824</v>
-      </c>
-      <c r="J221">
-        <v>1.000007617923557</v>
-      </c>
-      <c r="K221">
-        <v>1.000000739285893</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11">
+      <c r="I221" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B222" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D222">
         <v>0.85</v>
@@ -8596,25 +7273,19 @@
       <c r="H222">
         <v>0.7222884267758101</v>
       </c>
-      <c r="I222">
-        <v>3.156650362613682</v>
-      </c>
-      <c r="J222">
-        <v>1.035542743163628</v>
-      </c>
-      <c r="K222">
-        <v>1.006514011085928</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11">
+      <c r="I222" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D223">
         <v>1.2</v>
@@ -8631,25 +7302,19 @@
       <c r="H223">
         <v>0.7601017305129597</v>
       </c>
-      <c r="I223">
-        <v>6.810126721165462</v>
-      </c>
-      <c r="J223">
-        <v>1.152252318775467</v>
-      </c>
-      <c r="K223">
-        <v>1.005401686290923</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11">
+      <c r="I223" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B224" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -8666,25 +7331,19 @@
       <c r="H224">
         <v>0.9497313969211382</v>
       </c>
-      <c r="I224">
-        <v>1.216192933344966</v>
-      </c>
-      <c r="J224">
-        <v>1.000411720110325</v>
-      </c>
-      <c r="K224">
-        <v>0.9999959966554323</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11">
+      <c r="I224" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -8701,25 +7360,19 @@
       <c r="H225">
         <v>0.9566501941716773</v>
       </c>
-      <c r="I225">
-        <v>18.94034749588108</v>
-      </c>
-      <c r="J225">
-        <v>1.000022970454512</v>
-      </c>
-      <c r="K225">
-        <v>1.000106951213486</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
+      <c r="I225" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B226" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C226" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -8736,25 +7389,19 @@
       <c r="H226">
         <v>0.9439908619539022</v>
       </c>
-      <c r="I226">
-        <v>2.98397173020594</v>
-      </c>
-      <c r="J226">
-        <v>1.001666405224513</v>
-      </c>
-      <c r="K226">
-        <v>1.000313255249787</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="I226" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B227" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C227" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -8771,25 +7418,19 @@
       <c r="H227">
         <v>0.7563694260021234</v>
       </c>
-      <c r="I227">
-        <v>3.17951943478182</v>
-      </c>
-      <c r="J227">
-        <v>1.129845906855152</v>
-      </c>
-      <c r="K227">
-        <v>1.011000963229489</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11">
+      <c r="I227" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B228" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C228" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -8806,25 +7447,19 @@
       <c r="H228">
         <v>0.7817129395760201</v>
       </c>
-      <c r="I228">
-        <v>1.244968004486171</v>
-      </c>
-      <c r="J228">
-        <v>1.03323730270698</v>
-      </c>
-      <c r="K228">
-        <v>1.012395659466943</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11">
+      <c r="I228" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B229" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C229" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -8841,25 +7476,19 @@
       <c r="H229">
         <v>0.856225400031276</v>
       </c>
-      <c r="I229">
-        <v>19.15200940029168</v>
-      </c>
-      <c r="J229">
-        <v>1.000834872442707</v>
-      </c>
-      <c r="K229">
-        <v>1.000398196573473</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11">
+      <c r="I229" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B230" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C230" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D230">
         <v>1.2</v>
@@ -8876,25 +7505,19 @@
       <c r="H230">
         <v>0.9777608257629655</v>
       </c>
-      <c r="I230">
-        <v>3.02292268753202</v>
-      </c>
-      <c r="J230">
-        <v>1.000033591364837</v>
-      </c>
-      <c r="K230">
-        <v>1.002567287434016</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
+      <c r="I230" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B231" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C231" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D231">
         <v>1.4</v>
@@ -8911,25 +7534,19 @@
       <c r="H231">
         <v>0.9684826236415378</v>
       </c>
-      <c r="I231">
-        <v>3.110198031514317</v>
-      </c>
-      <c r="J231">
-        <v>1.000041609970595</v>
-      </c>
-      <c r="K231">
-        <v>1.089714341785567</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11">
+      <c r="I231" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B232" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C232" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -8946,25 +7563,19 @@
       <c r="H232">
         <v>0.9735239568766763</v>
       </c>
-      <c r="I232">
-        <v>1.243217658058392</v>
-      </c>
-      <c r="J232">
-        <v>1.000064241094389</v>
-      </c>
-      <c r="K232">
-        <v>1.050981450186163</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="I232" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B233" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C233" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -8981,25 +7592,19 @@
       <c r="H233">
         <v>0.9556081373668107</v>
       </c>
-      <c r="I233">
-        <v>18.77180358254361</v>
-      </c>
-      <c r="J233">
-        <v>1.000026037807676</v>
-      </c>
-      <c r="K233">
-        <v>1.002061547979759</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11">
+      <c r="I233" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B234" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C234" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D234">
         <v>1.4</v>
@@ -9016,25 +7621,19 @@
       <c r="H234">
         <v>0.7253299790077431</v>
       </c>
-      <c r="I234">
-        <v>3.01135598441548</v>
-      </c>
-      <c r="J234">
-        <v>1.047130420129277</v>
-      </c>
-      <c r="K234">
-        <v>2.462972093785544</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="I234" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B235" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C235" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D235">
         <v>1.2</v>
@@ -9051,25 +7650,19 @@
       <c r="H235">
         <v>0.7768270901662464</v>
       </c>
-      <c r="I235">
-        <v>3.350190260140833</v>
-      </c>
-      <c r="J235">
-        <v>1.114653053224834</v>
-      </c>
-      <c r="K235">
-        <v>1.00343160969302</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11">
+      <c r="I235" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B236" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C236" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -9086,25 +7679,19 @@
       <c r="H236">
         <v>0.9760486007390089</v>
       </c>
-      <c r="I236">
-        <v>1.233076457585271</v>
-      </c>
-      <c r="J236">
-        <v>1.000595729693897</v>
-      </c>
-      <c r="K236">
-        <v>1.05747070237533</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11">
+      <c r="I236" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B237" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C237" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -9121,14 +7708,8 @@
       <c r="H237">
         <v>0.9496210437295953</v>
       </c>
-      <c r="I237">
-        <v>18.64012436691545</v>
-      </c>
-      <c r="J237">
-        <v>1.000286383251354</v>
-      </c>
-      <c r="K237">
-        <v>1.00526754368777</v>
+      <c r="I237" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/results/regression_simulations.xlsx
+++ b/results/regression_simulations.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arushi Jain\MIT Dropbox\Arushi Jain\FairAI\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7377885C-8DE2-4D1D-AE8E-16C6F0EF3460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="155">
   <si>
     <t>simulation_type</t>
   </si>
@@ -38,6 +44,9 @@
   </si>
   <si>
     <t>FairAI_pred</t>
+  </si>
+  <si>
+    <t>dalex_pred</t>
   </si>
   <si>
     <t>global_bias_direction</t>
@@ -481,8 +490,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,15 +552,54 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -589,7 +637,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -623,6 +671,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -657,9 +706,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -832,14 +882,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,16 +922,19 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -888,24 +946,27 @@
         <v>1983</v>
       </c>
       <c r="G2">
-        <v>0.987854548498403</v>
+        <v>0.98785454849840304</v>
       </c>
       <c r="H2">
-        <v>0.9934013285209378</v>
-      </c>
-      <c r="I2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.99340132852093777</v>
+      </c>
+      <c r="I2">
+        <v>1.000122561880596</v>
+      </c>
+      <c r="J2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -917,24 +978,27 @@
         <v>2014</v>
       </c>
       <c r="G3">
-        <v>0.9790595395254855</v>
+        <v>0.97905953952548552</v>
       </c>
       <c r="H3">
-        <v>0.9921114573648782</v>
-      </c>
-      <c r="I3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.99211145736487816</v>
+      </c>
+      <c r="I3">
+        <v>1.000141175602089</v>
+      </c>
+      <c r="J3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -946,24 +1010,27 @@
         <v>2003</v>
       </c>
       <c r="G4">
-        <v>0.9911458915826731</v>
+        <v>0.99114589158267308</v>
       </c>
       <c r="H4">
-        <v>0.9899375589322749</v>
-      </c>
-      <c r="I4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.98993755893227486</v>
+      </c>
+      <c r="I4">
+        <v>1.000001049715429</v>
+      </c>
+      <c r="J4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -975,24 +1042,27 @@
         <v>2008</v>
       </c>
       <c r="G5">
-        <v>0.977677787951268</v>
+        <v>0.97767778795126803</v>
       </c>
       <c r="H5">
-        <v>0.8327838132733871</v>
-      </c>
-      <c r="I5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.83278381327338713</v>
+      </c>
+      <c r="I5">
+        <v>5.8485635369015823</v>
+      </c>
+      <c r="J5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1004,24 +1074,27 @@
         <v>1972</v>
       </c>
       <c r="G6">
-        <v>0.9946805468138888</v>
+        <v>0.99468054681388884</v>
       </c>
       <c r="H6">
-        <v>0.9108993753314317</v>
-      </c>
-      <c r="I6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.91089937533143173</v>
+      </c>
+      <c r="I6">
+        <v>1.188692303419782</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1033,24 +1106,27 @@
         <v>2020</v>
       </c>
       <c r="G7">
-        <v>0.9829981345879105</v>
+        <v>0.98299813458791052</v>
       </c>
       <c r="H7">
-        <v>0.9061080153696031</v>
-      </c>
-      <c r="I7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.90610801536960306</v>
+      </c>
+      <c r="I7">
+        <v>1.208329961407923</v>
+      </c>
+      <c r="J7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>1.2</v>
@@ -1062,24 +1138,27 @@
         <v>1897</v>
       </c>
       <c r="G8">
-        <v>0.6296132339949072</v>
+        <v>0.62961323399490721</v>
       </c>
       <c r="H8">
-        <v>0.9756961627390009</v>
-      </c>
-      <c r="I8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.97569616273900095</v>
+      </c>
+      <c r="I8">
+        <v>1.0039258774378681</v>
+      </c>
+      <c r="J8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1091,24 +1170,27 @@
         <v>2101</v>
       </c>
       <c r="G9">
-        <v>0.8093033454330945</v>
+        <v>0.80930334543309446</v>
       </c>
       <c r="H9">
-        <v>0.9852547928752013</v>
-      </c>
-      <c r="I9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.98525479287520135</v>
+      </c>
+      <c r="I9">
+        <v>1.001655911555287</v>
+      </c>
+      <c r="J9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1120,24 +1202,27 @@
         <v>2002</v>
       </c>
       <c r="G10">
-        <v>0.8276740749216274</v>
+        <v>0.82767407492162737</v>
       </c>
       <c r="H10">
-        <v>0.9910085475399409</v>
-      </c>
-      <c r="I10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.99100854753994094</v>
+      </c>
+      <c r="I10">
+        <v>1.0004491711881141</v>
+      </c>
+      <c r="J10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>0.85</v>
@@ -1152,21 +1237,24 @@
         <v>0.6790907298075437</v>
       </c>
       <c r="H11">
-        <v>0.8770568294037099</v>
-      </c>
-      <c r="I11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.87705682940370988</v>
+      </c>
+      <c r="I11">
+        <v>1.2792920207371909</v>
+      </c>
+      <c r="J11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1178,24 +1266,27 @@
         <v>2081</v>
       </c>
       <c r="G12">
-        <v>0.8296183454086413</v>
+        <v>0.82961834540864132</v>
       </c>
       <c r="H12">
-        <v>0.9403161592653934</v>
-      </c>
-      <c r="I12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.94031615926539336</v>
+      </c>
+      <c r="I12">
+        <v>1.075287039506533</v>
+      </c>
+      <c r="J12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1210,21 +1301,24 @@
         <v>0.8538988672054999</v>
       </c>
       <c r="H13">
-        <v>0.9556600683852332</v>
-      </c>
-      <c r="I13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.95566006838523321</v>
+      </c>
+      <c r="I13">
+        <v>1.0343869975633899</v>
+      </c>
+      <c r="J13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1236,24 +1330,27 @@
         <v>1983</v>
       </c>
       <c r="G14">
-        <v>0.9851464319622935</v>
+        <v>0.98514643196229346</v>
       </c>
       <c r="H14">
-        <v>0.9887600007037027</v>
-      </c>
-      <c r="I14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.98876000070370273</v>
+      </c>
+      <c r="I14">
+        <v>1.000070057287952</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1265,24 +1362,27 @@
         <v>2014</v>
       </c>
       <c r="G15">
-        <v>0.9802063437529318</v>
+        <v>0.98020634375293181</v>
       </c>
       <c r="H15">
-        <v>0.9876546599682975</v>
-      </c>
-      <c r="I15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.98765465996829749</v>
+      </c>
+      <c r="I15">
+        <v>1.0001196172951901</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1294,24 +1394,27 @@
         <v>2003</v>
       </c>
       <c r="G16">
-        <v>0.9949955523939659</v>
+        <v>0.99499555239396587</v>
       </c>
       <c r="H16">
-        <v>0.9909024074990297</v>
-      </c>
-      <c r="I16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.99090240749902969</v>
+      </c>
+      <c r="I16">
+        <v>1.0000101794438621</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1323,24 +1426,27 @@
         <v>2008</v>
       </c>
       <c r="G17">
-        <v>0.9786705846926453</v>
+        <v>0.97867058469264534</v>
       </c>
       <c r="H17">
-        <v>0.771060201774138</v>
-      </c>
-      <c r="I17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.77106020177413803</v>
+      </c>
+      <c r="I17">
+        <v>26.2188459516492</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1352,24 +1458,27 @@
         <v>1972</v>
       </c>
       <c r="G18">
-        <v>0.9936844705330605</v>
+        <v>0.99368447053306053</v>
       </c>
       <c r="H18">
-        <v>0.8722040085998902</v>
-      </c>
-      <c r="I18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.87220400859989022</v>
+      </c>
+      <c r="I18">
+        <v>1.2725943314605801</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1381,24 +1490,27 @@
         <v>2020</v>
       </c>
       <c r="G19">
-        <v>0.9849795566079038</v>
+        <v>0.98497955660790382</v>
       </c>
       <c r="H19">
-        <v>0.8688154674228373</v>
-      </c>
-      <c r="I19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.86881546742283733</v>
+      </c>
+      <c r="I19">
+        <v>1.285954668107165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>1.3</v>
@@ -1410,24 +1522,27 @@
         <v>1897</v>
       </c>
       <c r="G20">
-        <v>0.5363754837656445</v>
+        <v>0.53637548376564448</v>
       </c>
       <c r="H20">
-        <v>0.9390978553534683</v>
-      </c>
-      <c r="I20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.93909785535346835</v>
+      </c>
+      <c r="I20">
+        <v>1.027009426886627</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1439,24 +1554,27 @@
         <v>2101</v>
       </c>
       <c r="G21">
-        <v>0.764268148550401</v>
+        <v>0.76426814855040104</v>
       </c>
       <c r="H21">
-        <v>0.9671115389332769</v>
-      </c>
-      <c r="I21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.96711153893327695</v>
+      </c>
+      <c r="I21">
+        <v>1.007427050455272</v>
+      </c>
+      <c r="J21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1468,24 +1586,27 @@
         <v>2002</v>
       </c>
       <c r="G22">
-        <v>0.7812906838820107</v>
+        <v>0.78129068388201073</v>
       </c>
       <c r="H22">
-        <v>0.9806205322865127</v>
-      </c>
-      <c r="I22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.98062053228651269</v>
+      </c>
+      <c r="I22">
+        <v>1.0032477346436881</v>
+      </c>
+      <c r="J22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>0.75</v>
@@ -1497,24 +1618,27 @@
         <v>1929</v>
       </c>
       <c r="G23">
-        <v>0.5294755110608012</v>
+        <v>0.52947551106080115</v>
       </c>
       <c r="H23">
-        <v>0.7993268630770217</v>
-      </c>
-      <c r="I23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.79932686307702172</v>
+      </c>
+      <c r="I23">
+        <v>1.637904653254912</v>
+      </c>
+      <c r="J23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1526,24 +1650,27 @@
         <v>2081</v>
       </c>
       <c r="G24">
-        <v>0.7552555417013084</v>
+        <v>0.75525554170130837</v>
       </c>
       <c r="H24">
-        <v>0.9232974373981602</v>
-      </c>
-      <c r="I24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.92329743739816017</v>
+      </c>
+      <c r="I24">
+        <v>1.10380537693667</v>
+      </c>
+      <c r="J24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1555,24 +1682,27 @@
         <v>1990</v>
       </c>
       <c r="G25">
-        <v>0.7806546857821002</v>
+        <v>0.78065468578210018</v>
       </c>
       <c r="H25">
-        <v>0.9367896061138845</v>
-      </c>
-      <c r="I25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.93678960611388451</v>
+      </c>
+      <c r="I25">
+        <v>1.054751687222057</v>
+      </c>
+      <c r="J25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1584,24 +1714,27 @@
         <v>2400</v>
       </c>
       <c r="G26">
-        <v>0.9952502069005219</v>
+        <v>0.99525020690052191</v>
       </c>
       <c r="H26">
-        <v>0.9927623970975522</v>
-      </c>
-      <c r="I26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.99276239709755221</v>
+      </c>
+      <c r="I26">
+        <v>1.0000719804994289</v>
+      </c>
+      <c r="J26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1613,24 +1746,27 @@
         <v>2377</v>
       </c>
       <c r="G27">
-        <v>0.9911934612990497</v>
+        <v>0.99119346129904973</v>
       </c>
       <c r="H27">
-        <v>0.9873754444672633</v>
-      </c>
-      <c r="I27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.98737544446726333</v>
+      </c>
+      <c r="I27">
+        <v>1.0005069440887131</v>
+      </c>
+      <c r="J27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1642,24 +1778,27 @@
         <v>1223</v>
       </c>
       <c r="G28">
-        <v>0.9950840763804842</v>
+        <v>0.99508407638048424</v>
       </c>
       <c r="H28">
-        <v>0.9812508097179246</v>
-      </c>
-      <c r="I28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.98125080971792455</v>
+      </c>
+      <c r="I28">
+        <v>1.0002033835272131</v>
+      </c>
+      <c r="J28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1671,24 +1810,27 @@
         <v>2383</v>
       </c>
       <c r="G29">
-        <v>0.9890268666275581</v>
+        <v>0.98902686662755812</v>
       </c>
       <c r="H29">
-        <v>0.7729736755834065</v>
-      </c>
-      <c r="I29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.77297367558340646</v>
+      </c>
+      <c r="I29">
+        <v>25.975201338966912</v>
+      </c>
+      <c r="J29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1700,24 +1842,27 @@
         <v>2417</v>
       </c>
       <c r="G30">
-        <v>0.9888149572433385</v>
+        <v>0.98881495724333845</v>
       </c>
       <c r="H30">
-        <v>0.8352932953418423</v>
-      </c>
-      <c r="I30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.83529329534184227</v>
+      </c>
+      <c r="I30">
+        <v>1.652745591568491</v>
+      </c>
+      <c r="J30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1729,24 +1874,27 @@
         <v>1200</v>
       </c>
       <c r="G31">
-        <v>0.9997084309822543</v>
+        <v>0.99970843098225426</v>
       </c>
       <c r="H31">
-        <v>0.8752837971045985</v>
-      </c>
-      <c r="I31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.87528379710459847</v>
+      </c>
+      <c r="I31">
+        <v>1.169872043690183</v>
+      </c>
+      <c r="J31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32">
         <v>1.3</v>
@@ -1758,24 +1906,27 @@
         <v>2309</v>
       </c>
       <c r="G32">
-        <v>0.5342023073363206</v>
+        <v>0.53420230733632057</v>
       </c>
       <c r="H32">
-        <v>0.9402240533724884</v>
-      </c>
-      <c r="I32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.94022405337248838</v>
+      </c>
+      <c r="I32">
+        <v>1.0364685615899649</v>
+      </c>
+      <c r="J32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1787,24 +1938,27 @@
         <v>2499</v>
       </c>
       <c r="G33">
-        <v>0.6993372649901428</v>
+        <v>0.69933726499014282</v>
       </c>
       <c r="H33">
-        <v>0.9646210467337494</v>
-      </c>
-      <c r="I33" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.96462104673374938</v>
+      </c>
+      <c r="I33">
+        <v>1.015063396300611</v>
+      </c>
+      <c r="J33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1819,21 +1973,24 @@
         <v>0.8034660428215723</v>
       </c>
       <c r="H34">
-        <v>0.9750852457216193</v>
-      </c>
-      <c r="I34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.97508524572161925</v>
+      </c>
+      <c r="I34">
+        <v>1.0023760931226371</v>
+      </c>
+      <c r="J34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35">
         <v>0.75</v>
@@ -1845,24 +2002,27 @@
         <v>2344</v>
       </c>
       <c r="G35">
-        <v>0.5113363100252735</v>
+        <v>0.51133631002527347</v>
       </c>
       <c r="H35">
         <v>0.8001362402258102</v>
       </c>
-      <c r="I35" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="I35">
+        <v>1.753910767215147</v>
+      </c>
+      <c r="J35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1874,24 +2034,27 @@
         <v>2479</v>
       </c>
       <c r="G36">
-        <v>0.6787689389633331</v>
+        <v>0.67876893896333312</v>
       </c>
       <c r="H36">
         <v>0.8939768856783612</v>
       </c>
-      <c r="I36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="I36">
+        <v>1.264346342760196</v>
+      </c>
+      <c r="J36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1903,24 +2066,27 @@
         <v>1177</v>
       </c>
       <c r="G37">
-        <v>0.7979229056933325</v>
+        <v>0.79792290569333246</v>
       </c>
       <c r="H37">
         <v>0.9352308850543497</v>
       </c>
-      <c r="I37" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37">
+        <v>1.0350133048594881</v>
+      </c>
+      <c r="J37" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1932,24 +2098,27 @@
         <v>14914</v>
       </c>
       <c r="G38">
-        <v>0.9963090407021257</v>
+        <v>0.99630904070212567</v>
       </c>
       <c r="H38">
-        <v>0.990904832631413</v>
-      </c>
-      <c r="I38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.99090483263141305</v>
+      </c>
+      <c r="I38">
+        <v>1.000065698803422</v>
+      </c>
+      <c r="J38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1964,21 +2133,24 @@
         <v>0.9999414477723968</v>
       </c>
       <c r="H39">
-        <v>0.9837906519154926</v>
-      </c>
-      <c r="I39" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.98379065191549264</v>
+      </c>
+      <c r="I39">
+        <v>1.0000208745633259</v>
+      </c>
+      <c r="J39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1990,24 +2162,27 @@
         <v>26984</v>
       </c>
       <c r="G40">
-        <v>0.999527663069425</v>
+        <v>0.99952766306942498</v>
       </c>
       <c r="H40">
         <v>0.9861489493722807</v>
       </c>
-      <c r="I40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40">
+        <v>1.0000025734548881</v>
+      </c>
+      <c r="J40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2019,24 +2194,27 @@
         <v>3042</v>
       </c>
       <c r="G41">
-        <v>0.993915671787205</v>
+        <v>0.99391567178720497</v>
       </c>
       <c r="H41">
-        <v>0.9801347807882373</v>
-      </c>
-      <c r="I41" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.98013478078823735</v>
+      </c>
+      <c r="I41">
+        <v>1.000010063825449</v>
+      </c>
+      <c r="J41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2048,24 +2226,27 @@
         <v>15086</v>
       </c>
       <c r="G42">
-        <v>0.9942962712582629</v>
+        <v>0.99429627125826292</v>
       </c>
       <c r="H42">
-        <v>0.8271737677758095</v>
-      </c>
-      <c r="I42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.82717376777580953</v>
+      </c>
+      <c r="I42">
+        <v>1.052379499980808</v>
+      </c>
+      <c r="J42" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2077,24 +2258,27 @@
         <v>15091</v>
       </c>
       <c r="G43">
-        <v>0.9946864397089594</v>
+        <v>0.99468643970895942</v>
       </c>
       <c r="H43">
-        <v>0.9439475043148239</v>
-      </c>
-      <c r="I43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.94394750431482388</v>
+      </c>
+      <c r="I43">
+        <v>1.0018655068936311</v>
+      </c>
+      <c r="J43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2106,24 +2290,27 @@
         <v>26836</v>
       </c>
       <c r="G44">
-        <v>0.9999557226061812</v>
+        <v>0.99995572260618115</v>
       </c>
       <c r="H44">
-        <v>0.934439555299182</v>
-      </c>
-      <c r="I44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.93443955529918199</v>
+      </c>
+      <c r="I44">
+        <v>1.0040863908177551</v>
+      </c>
+      <c r="J44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -2135,24 +2322,27 @@
         <v>2987</v>
       </c>
       <c r="G45">
-        <v>0.999121683942963</v>
+        <v>0.99912168394296297</v>
       </c>
       <c r="H45">
-        <v>0.7914289180122318</v>
-      </c>
-      <c r="I45" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.79142891801223181</v>
+      </c>
+      <c r="I45">
+        <v>1.0004368582401979</v>
+      </c>
+      <c r="J45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>1.2</v>
@@ -2164,24 +2354,27 @@
         <v>14896</v>
       </c>
       <c r="G46">
-        <v>0.8520068647129123</v>
+        <v>0.85200686471291232</v>
       </c>
       <c r="H46">
-        <v>0.977268039598596</v>
-      </c>
-      <c r="I46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.97726803959859598</v>
+      </c>
+      <c r="I46">
+        <v>1.0000204923276139</v>
+      </c>
+      <c r="J46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2193,24 +2386,27 @@
         <v>15257</v>
       </c>
       <c r="G47">
-        <v>0.9588100669616961</v>
+        <v>0.95881006696169613</v>
       </c>
       <c r="H47">
-        <v>0.9739965023344108</v>
-      </c>
-      <c r="I47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.97399650233441082</v>
+      </c>
+      <c r="I47">
+        <v>1.0000290084772001</v>
+      </c>
+      <c r="J47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -2222,24 +2418,27 @@
         <v>26913</v>
       </c>
       <c r="G48">
-        <v>0.9372650546825931</v>
+        <v>0.93726505468259314</v>
       </c>
       <c r="H48">
-        <v>0.9876094313631024</v>
-      </c>
-      <c r="I48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.98760943136310242</v>
+      </c>
+      <c r="I48">
+        <v>1.0000046344977409</v>
+      </c>
+      <c r="J48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49">
         <v>0.85</v>
@@ -2251,24 +2450,27 @@
         <v>2934</v>
       </c>
       <c r="G49">
-        <v>0.9313885041954857</v>
+        <v>0.93138850419548569</v>
       </c>
       <c r="H49">
-        <v>0.9771587482727498</v>
-      </c>
-      <c r="I49" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.97715874827274984</v>
+      </c>
+      <c r="I49">
+        <v>1.0000794258672681</v>
+      </c>
+      <c r="J49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50">
         <v>0.85</v>
@@ -2280,24 +2482,27 @@
         <v>14975</v>
       </c>
       <c r="G50">
-        <v>0.8787184943549651</v>
+        <v>0.87871849435496507</v>
       </c>
       <c r="H50">
-        <v>0.7555799628351553</v>
-      </c>
-      <c r="I50" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.75557996283515527</v>
+      </c>
+      <c r="I50">
+        <v>1.0330529714843319</v>
+      </c>
+      <c r="J50" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2309,24 +2514,27 @@
         <v>14912</v>
       </c>
       <c r="G51">
-        <v>0.9724835137346572</v>
+        <v>0.97248351373465725</v>
       </c>
       <c r="H51">
-        <v>0.93321592280099</v>
-      </c>
-      <c r="I51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.93321592280098997</v>
+      </c>
+      <c r="I51">
+        <v>1.0023336284578681</v>
+      </c>
+      <c r="J51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2338,24 +2546,27 @@
         <v>27117</v>
       </c>
       <c r="G52">
-        <v>0.9584764301764628</v>
+        <v>0.95847643017646278</v>
       </c>
       <c r="H52">
-        <v>0.9141950205819698</v>
-      </c>
-      <c r="I52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.91419502058196978</v>
+      </c>
+      <c r="I52">
+        <v>1.00732826609751</v>
+      </c>
+      <c r="J52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53">
         <v>1.2</v>
@@ -2367,24 +2578,27 @@
         <v>2996</v>
       </c>
       <c r="G53">
-        <v>0.908497372738631</v>
+        <v>0.90849737273863096</v>
       </c>
       <c r="H53">
-        <v>0.7912450578554819</v>
-      </c>
-      <c r="I53" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.79124505785548194</v>
+      </c>
+      <c r="I53">
+        <v>1.0689133821395</v>
+      </c>
+      <c r="J53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2396,24 +2610,27 @@
         <v>14945</v>
       </c>
       <c r="G54">
-        <v>0.9950076307782367</v>
+        <v>0.99500763077823673</v>
       </c>
       <c r="H54">
-        <v>0.7444854940502312</v>
-      </c>
-      <c r="I54" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.74448549405023123</v>
+      </c>
+      <c r="I54">
+        <v>1.3952228891188021</v>
+      </c>
+      <c r="J54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2425,24 +2642,27 @@
         <v>14977</v>
       </c>
       <c r="G55">
-        <v>0.9982011860051933</v>
+        <v>0.99820118600519325</v>
       </c>
       <c r="H55">
-        <v>0.9779273974356912</v>
-      </c>
-      <c r="I55" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.97792739743569124</v>
+      </c>
+      <c r="I55">
+        <v>1.00024262309073</v>
+      </c>
+      <c r="J55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2454,24 +2674,27 @@
         <v>27032</v>
       </c>
       <c r="G56">
-        <v>0.9939388901047327</v>
+        <v>0.99393889010473269</v>
       </c>
       <c r="H56">
-        <v>0.7715625494735702</v>
-      </c>
-      <c r="I56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.77156254947357017</v>
+      </c>
+      <c r="I56">
+        <v>1.0619935295272129</v>
+      </c>
+      <c r="J56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2483,24 +2706,27 @@
         <v>3046</v>
       </c>
       <c r="G57">
-        <v>0.9996443810668514</v>
+        <v>0.99964438106685138</v>
       </c>
       <c r="H57">
-        <v>0.9744412109120115</v>
-      </c>
-      <c r="I57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.97444121091201152</v>
+      </c>
+      <c r="I57">
+        <v>1.000000656270509</v>
+      </c>
+      <c r="J57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D58">
         <v>1.2</v>
@@ -2512,24 +2738,27 @@
         <v>15087</v>
       </c>
       <c r="G58">
-        <v>0.775094989778647</v>
+        <v>0.77509498977864699</v>
       </c>
       <c r="H58">
-        <v>0.9679136116841948</v>
-      </c>
-      <c r="I58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.96791361168419476</v>
+      </c>
+      <c r="I58">
+        <v>1.000019343383215</v>
+      </c>
+      <c r="J58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -2544,21 +2773,24 @@
         <v>0.9831276599920139</v>
       </c>
       <c r="H59">
-        <v>0.9734571666662727</v>
-      </c>
-      <c r="I59" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.97345716666627269</v>
+      </c>
+      <c r="I59">
+        <v>1.0002773572874659</v>
+      </c>
+      <c r="J59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D60">
         <v>0.85</v>
@@ -2570,24 +2802,27 @@
         <v>27019</v>
       </c>
       <c r="G60">
-        <v>0.7860105696483801</v>
+        <v>0.78601056964838012</v>
       </c>
       <c r="H60">
-        <v>0.9743319469268696</v>
-      </c>
-      <c r="I60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.97433194692686964</v>
+      </c>
+      <c r="I60">
+        <v>1.000248561047749</v>
+      </c>
+      <c r="J60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2599,24 +2834,27 @@
         <v>2982</v>
       </c>
       <c r="G61">
-        <v>0.9926409047635242</v>
+        <v>0.99264090476352418</v>
       </c>
       <c r="H61">
-        <v>0.9696628815885244</v>
-      </c>
-      <c r="I61" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.96966288158852443</v>
+      </c>
+      <c r="I61">
+        <v>1.000100794280699</v>
+      </c>
+      <c r="J61" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D62">
         <v>0.85</v>
@@ -2628,24 +2866,27 @@
         <v>14926</v>
       </c>
       <c r="G62">
-        <v>0.8118052600168829</v>
+        <v>0.81180526001688291</v>
       </c>
       <c r="H62">
-        <v>0.6801299312219294</v>
-      </c>
-      <c r="I62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.68012993122192944</v>
+      </c>
+      <c r="I62">
+        <v>1.0822025268747619</v>
+      </c>
+      <c r="J62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -2657,24 +2898,27 @@
         <v>14976</v>
       </c>
       <c r="G63">
-        <v>0.9515984792355578</v>
+        <v>0.95159847923555785</v>
       </c>
       <c r="H63">
-        <v>0.9287794507802429</v>
-      </c>
-      <c r="I63" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.92877945078024293</v>
+      </c>
+      <c r="I63">
+        <v>1.003299222768786</v>
+      </c>
+      <c r="J63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64">
         <v>1.2</v>
@@ -2686,24 +2930,27 @@
         <v>27029</v>
       </c>
       <c r="G64">
-        <v>0.7870450955069371</v>
+        <v>0.78704509550693713</v>
       </c>
       <c r="H64">
-        <v>0.7345949706122581</v>
-      </c>
-      <c r="I64" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.73459497061225809</v>
+      </c>
+      <c r="I64">
+        <v>3.3772242226201001</v>
+      </c>
+      <c r="J64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2715,24 +2962,27 @@
         <v>3069</v>
       </c>
       <c r="G65">
-        <v>0.9834298054416656</v>
+        <v>0.98342980544166558</v>
       </c>
       <c r="H65">
-        <v>0.9512603777258725</v>
-      </c>
-      <c r="I65" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.95126037772587246</v>
+      </c>
+      <c r="I65">
+        <v>1.0001450222009809</v>
+      </c>
+      <c r="J65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2747,21 +2997,24 @@
         <v>0.991446463766958</v>
       </c>
       <c r="H66">
-        <v>0.855104432037093</v>
-      </c>
-      <c r="I66" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.85510443203709297</v>
+      </c>
+      <c r="I66">
+        <v>1.0290149515664351</v>
+      </c>
+      <c r="J66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2773,24 +3026,27 @@
         <v>15109</v>
       </c>
       <c r="G67">
-        <v>0.9974870449015922</v>
+        <v>0.99748704490159223</v>
       </c>
       <c r="H67">
-        <v>0.9135208811119493</v>
-      </c>
-      <c r="I67" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.91352088111194929</v>
+      </c>
+      <c r="I67">
+        <v>1.0037162348978019</v>
+      </c>
+      <c r="J67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2802,24 +3058,27 @@
         <v>26764</v>
       </c>
       <c r="G68">
-        <v>0.991627607515951</v>
+        <v>0.99162760751595103</v>
       </c>
       <c r="H68">
-        <v>0.8847101232930539</v>
-      </c>
-      <c r="I68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.88471012329305387</v>
+      </c>
+      <c r="I68">
+        <v>1.0128544316353021</v>
+      </c>
+      <c r="J68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2831,24 +3090,27 @@
         <v>2990</v>
       </c>
       <c r="G69">
-        <v>0.9970404915032113</v>
+        <v>0.99704049150321128</v>
       </c>
       <c r="H69">
-        <v>0.7457068373457684</v>
-      </c>
-      <c r="I69" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.74570683734576837</v>
+      </c>
+      <c r="I69">
+        <v>1.142305043158333</v>
+      </c>
+      <c r="J69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D70">
         <v>1.2</v>
@@ -2860,24 +3122,27 @@
         <v>15020</v>
       </c>
       <c r="G70">
-        <v>0.8808649356459416</v>
+        <v>0.88086493564594159</v>
       </c>
       <c r="H70">
-        <v>0.9905027897735721</v>
-      </c>
-      <c r="I70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.99050278977357209</v>
+      </c>
+      <c r="I70">
+        <v>1.000076520941761</v>
+      </c>
+      <c r="J70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2889,24 +3154,27 @@
         <v>14934</v>
       </c>
       <c r="G71">
-        <v>0.9418286706267032</v>
+        <v>0.94182867062670317</v>
       </c>
       <c r="H71">
         <v>0.9855851803692206</v>
       </c>
-      <c r="I71" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="I71">
+        <v>1.000011000586795</v>
+      </c>
+      <c r="J71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -2921,21 +3189,24 @@
         <v>0.8934450404995552</v>
       </c>
       <c r="H72">
-        <v>0.9899204075276932</v>
-      </c>
-      <c r="I72" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.98992040752769317</v>
+      </c>
+      <c r="I72">
+        <v>1.000200083953767</v>
+      </c>
+      <c r="J72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D73">
         <v>1.4</v>
@@ -2947,53 +3218,59 @@
         <v>3029</v>
       </c>
       <c r="G73">
-        <v>0.8787092093949633</v>
+        <v>0.87870920939496333</v>
       </c>
       <c r="H73">
-        <v>0.952831067123991</v>
-      </c>
-      <c r="I73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.95283106712399102</v>
+      </c>
+      <c r="I73">
+        <v>1.0000733766567611</v>
+      </c>
+      <c r="J73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D74">
         <v>1.4</v>
       </c>
       <c r="E74">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F74">
         <v>15073</v>
       </c>
       <c r="G74">
-        <v>0.7445931991825419</v>
+        <v>0.74459319918254185</v>
       </c>
       <c r="H74">
-        <v>0.7631309276097132</v>
-      </c>
-      <c r="I74" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.76313092760971324</v>
+      </c>
+      <c r="I74">
+        <v>1.0553809024770759</v>
+      </c>
+      <c r="J74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3008,21 +3285,24 @@
         <v>0.9069207257395997</v>
       </c>
       <c r="H75">
-        <v>0.939541302714948</v>
-      </c>
-      <c r="I75" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.93954130271494796</v>
+      </c>
+      <c r="I75">
+        <v>1.0050284517492061</v>
+      </c>
+      <c r="J75" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -3034,24 +3314,27 @@
         <v>27032</v>
       </c>
       <c r="G76">
-        <v>0.8437503145826556</v>
+        <v>0.84375031458265559</v>
       </c>
       <c r="H76">
-        <v>0.9171532100563458</v>
-      </c>
-      <c r="I76" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.91715321005634576</v>
+      </c>
+      <c r="I76">
+        <v>1.011756631754799</v>
+      </c>
+      <c r="J76" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D77">
         <v>1.2</v>
@@ -3063,24 +3346,27 @@
         <v>3056</v>
       </c>
       <c r="G77">
-        <v>0.9675813227310222</v>
+        <v>0.96758132273102215</v>
       </c>
       <c r="H77">
-        <v>0.7981334667288207</v>
-      </c>
-      <c r="I77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.79813346672882068</v>
+      </c>
+      <c r="I77">
+        <v>1.0773945423339299</v>
+      </c>
+      <c r="J77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -3092,24 +3378,27 @@
         <v>14894</v>
       </c>
       <c r="G78">
-        <v>0.9983364795342519</v>
+        <v>0.99833647953425186</v>
       </c>
       <c r="H78">
-        <v>0.9720687248705994</v>
-      </c>
-      <c r="I78" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.97206872487059937</v>
+      </c>
+      <c r="I78">
+        <v>1.0000406196838989</v>
+      </c>
+      <c r="J78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -3121,24 +3410,27 @@
         <v>15035</v>
       </c>
       <c r="G79">
-        <v>0.9998679512516586</v>
+        <v>0.99986795125165862</v>
       </c>
       <c r="H79">
         <v>0.7598616291162319</v>
       </c>
-      <c r="I79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="I79">
+        <v>1.037924567861285</v>
+      </c>
+      <c r="J79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -3150,24 +3442,27 @@
         <v>26965</v>
       </c>
       <c r="G80">
-        <v>0.9966165064001895</v>
+        <v>0.99661650640018951</v>
       </c>
       <c r="H80">
-        <v>0.7802060228101789</v>
-      </c>
-      <c r="I80" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.78020602281017892</v>
+      </c>
+      <c r="I80">
+        <v>1.2137233081402099</v>
+      </c>
+      <c r="J80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -3179,24 +3474,27 @@
         <v>3106</v>
       </c>
       <c r="G81">
-        <v>0.9959052110424342</v>
+        <v>0.99590521104243424</v>
       </c>
       <c r="H81">
         <v>0.7930823594975821</v>
       </c>
-      <c r="I81" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="I81">
+        <v>1.003388855493158</v>
+      </c>
+      <c r="J81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D82">
         <v>1.2</v>
@@ -3213,19 +3511,22 @@
       <c r="H82">
         <v>0.985430965683466</v>
       </c>
-      <c r="I82" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="I82">
+        <v>1.000006595669154</v>
+      </c>
+      <c r="J82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -3237,24 +3538,27 @@
         <v>15028</v>
       </c>
       <c r="G83">
-        <v>0.8154093383786796</v>
+        <v>0.81540933837867957</v>
       </c>
       <c r="H83">
-        <v>0.9723821263817407</v>
-      </c>
-      <c r="I83" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.97238212638174071</v>
+      </c>
+      <c r="I83">
+        <v>1.0000334700299971</v>
+      </c>
+      <c r="J83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D84">
         <v>1.4</v>
@@ -3266,24 +3570,27 @@
         <v>27015</v>
       </c>
       <c r="G84">
-        <v>0.7827757984763379</v>
+        <v>0.78277579847633794</v>
       </c>
       <c r="H84">
-        <v>0.9690374088571619</v>
-      </c>
-      <c r="I84" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.96903740885716194</v>
+      </c>
+      <c r="I84">
+        <v>1.0001511470363169</v>
+      </c>
+      <c r="J84" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -3295,53 +3602,59 @@
         <v>3030</v>
       </c>
       <c r="G85">
-        <v>0.9206436122962138</v>
+        <v>0.92064361229621383</v>
       </c>
       <c r="H85">
-        <v>0.9684935101064818</v>
-      </c>
-      <c r="I85" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.96849351010648177</v>
+      </c>
+      <c r="I85">
+        <v>1.0000098030470139</v>
+      </c>
+      <c r="J85" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D86">
         <v>1.4</v>
       </c>
       <c r="E86">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F86">
         <v>14954</v>
       </c>
       <c r="G86">
-        <v>0.8203451576992755</v>
+        <v>0.82034515769927552</v>
       </c>
       <c r="H86">
-        <v>0.6970949734840508</v>
-      </c>
-      <c r="I86" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.69709497348405081</v>
+      </c>
+      <c r="I86">
+        <v>1.099717482015766</v>
+      </c>
+      <c r="J86" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -3353,24 +3666,27 @@
         <v>15109</v>
       </c>
       <c r="G87">
-        <v>0.83984835187712</v>
+        <v>0.83984835187712004</v>
       </c>
       <c r="H87">
-        <v>0.9584033857932039</v>
-      </c>
-      <c r="I87" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.95840338579320394</v>
+      </c>
+      <c r="I87">
+        <v>1.000474925532381</v>
+      </c>
+      <c r="J87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D88">
         <v>1.2</v>
@@ -3382,24 +3698,27 @@
         <v>26933</v>
       </c>
       <c r="G88">
-        <v>0.9920735799095919</v>
+        <v>0.99207357990959188</v>
       </c>
       <c r="H88">
-        <v>0.7556144547991988</v>
-      </c>
-      <c r="I88" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.75561445479919875</v>
+      </c>
+      <c r="I88">
+        <v>1.8358158806876539</v>
+      </c>
+      <c r="J88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -3411,24 +3730,27 @@
         <v>3004</v>
       </c>
       <c r="G89">
-        <v>0.9443296690178875</v>
+        <v>0.94432966901788751</v>
       </c>
       <c r="H89">
-        <v>0.9494721286036037</v>
-      </c>
-      <c r="I89" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.94947212860360375</v>
+      </c>
+      <c r="I89">
+        <v>1.0000184479676371</v>
+      </c>
+      <c r="J89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -3440,24 +3762,27 @@
         <v>15077</v>
       </c>
       <c r="G90">
-        <v>0.9993842383759599</v>
+        <v>0.99938423837595991</v>
       </c>
       <c r="H90">
-        <v>0.9034183913439856</v>
-      </c>
-      <c r="I90" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.90341839134398561</v>
+      </c>
+      <c r="I90">
+        <v>1.005103163619365</v>
+      </c>
+      <c r="J90" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -3469,24 +3794,27 @@
         <v>15168</v>
       </c>
       <c r="G91">
-        <v>0.9981914687584422</v>
+        <v>0.99819146875844222</v>
       </c>
       <c r="H91">
-        <v>0.8998284931861124</v>
-      </c>
-      <c r="I91" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.89982849318611235</v>
+      </c>
+      <c r="I91">
+        <v>1.0050140648443711</v>
+      </c>
+      <c r="J91" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -3498,24 +3826,27 @@
         <v>26796</v>
       </c>
       <c r="G92">
-        <v>0.9971880108154531</v>
+        <v>0.99718801081545305</v>
       </c>
       <c r="H92">
-        <v>0.8236534910633481</v>
-      </c>
-      <c r="I92" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.82365349106334806</v>
+      </c>
+      <c r="I92">
+        <v>1.085676605860707</v>
+      </c>
+      <c r="J92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3527,24 +3858,27 @@
         <v>2959</v>
       </c>
       <c r="G93">
-        <v>0.99840738247945</v>
+        <v>0.99840738247945005</v>
       </c>
       <c r="H93">
-        <v>0.7834872792414597</v>
-      </c>
-      <c r="I93" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.78348727924145967</v>
+      </c>
+      <c r="I93">
+        <v>1.002700026780196</v>
+      </c>
+      <c r="J93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -3556,24 +3890,27 @@
         <v>15039</v>
       </c>
       <c r="G94">
-        <v>0.9234817035902609</v>
+        <v>0.92348170359026094</v>
       </c>
       <c r="H94">
-        <v>0.9867170565493075</v>
-      </c>
-      <c r="I94" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.98671705654930753</v>
+      </c>
+      <c r="I94">
+        <v>1.0000309247755019</v>
+      </c>
+      <c r="J94" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -3585,24 +3922,27 @@
         <v>14991</v>
       </c>
       <c r="G95">
-        <v>0.9264652382370632</v>
+        <v>0.92646523823706317</v>
       </c>
       <c r="H95">
-        <v>0.9789895896807606</v>
-      </c>
-      <c r="I95" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.97898958968076055</v>
+      </c>
+      <c r="I95">
+        <v>1.000008209253316</v>
+      </c>
+      <c r="J95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D96">
         <v>1.2</v>
@@ -3614,24 +3954,27 @@
         <v>26978</v>
       </c>
       <c r="G96">
-        <v>0.8323007226684576</v>
+        <v>0.83230072266845756</v>
       </c>
       <c r="H96">
-        <v>0.9843394474833088</v>
-      </c>
-      <c r="I96" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.98433944748330882</v>
+      </c>
+      <c r="I96">
+        <v>1.0000643224576631</v>
+      </c>
+      <c r="J96" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D97">
         <v>0.85</v>
@@ -3643,24 +3986,27 @@
         <v>2992</v>
       </c>
       <c r="G97">
-        <v>0.9153488904123108</v>
+        <v>0.91534889041231082</v>
       </c>
       <c r="H97">
-        <v>0.9640668259877561</v>
-      </c>
-      <c r="I97" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.96406682598775606</v>
+      </c>
+      <c r="I97">
+        <v>1.0001575468818891</v>
+      </c>
+      <c r="J97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -3672,24 +4018,27 @@
         <v>14957</v>
       </c>
       <c r="G98">
-        <v>0.9376686793418776</v>
+        <v>0.93766867934187759</v>
       </c>
       <c r="H98">
-        <v>0.878352159035525</v>
-      </c>
-      <c r="I98" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.87835215903552499</v>
+      </c>
+      <c r="I98">
+        <v>1.0130927658135249</v>
+      </c>
+      <c r="J98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -3701,24 +4050,27 @@
         <v>15033</v>
       </c>
       <c r="G99">
-        <v>0.9403178591072467</v>
+        <v>0.94031785910724675</v>
       </c>
       <c r="H99">
-        <v>0.8747216196007492</v>
-      </c>
-      <c r="I99" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.87472161960074923</v>
+      </c>
+      <c r="I99">
+        <v>1.016124278830602</v>
+      </c>
+      <c r="J99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D100">
         <v>0.85</v>
@@ -3733,21 +4085,24 @@
         <v>0.8493065555296968</v>
       </c>
       <c r="H100">
-        <v>0.751182534732907</v>
-      </c>
-      <c r="I100" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.75118253473290697</v>
+      </c>
+      <c r="I100">
+        <v>1.0761629664146579</v>
+      </c>
+      <c r="J100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D101">
         <v>1.2</v>
@@ -3759,24 +4114,27 @@
         <v>2966</v>
       </c>
       <c r="G101">
-        <v>0.8978018235700828</v>
+        <v>0.89780182357008276</v>
       </c>
       <c r="H101">
-        <v>0.7306380316226534</v>
-      </c>
-      <c r="I101" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.73063803162265339</v>
+      </c>
+      <c r="I101">
+        <v>1.231178230155819</v>
+      </c>
+      <c r="J101" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -3788,24 +4146,27 @@
         <v>15017</v>
       </c>
       <c r="G102">
-        <v>0.9962761245025499</v>
+        <v>0.99627612450254988</v>
       </c>
       <c r="H102">
-        <v>0.8671237394123188</v>
-      </c>
-      <c r="I102" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.86712373941231879</v>
+      </c>
+      <c r="I102">
+        <v>1.0102764265602071</v>
+      </c>
+      <c r="J102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -3817,24 +4178,27 @@
         <v>14712</v>
       </c>
       <c r="G103">
-        <v>0.999518450307025</v>
+        <v>0.99951845030702502</v>
       </c>
       <c r="H103">
-        <v>0.8696053692253372</v>
-      </c>
-      <c r="I103" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.86960536922533715</v>
+      </c>
+      <c r="I103">
+        <v>1.0081743223013679</v>
+      </c>
+      <c r="J103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -3846,24 +4210,27 @@
         <v>27224</v>
       </c>
       <c r="G104">
-        <v>0.9985290391432483</v>
+        <v>0.99852903914324831</v>
       </c>
       <c r="H104">
-        <v>0.8650533036111516</v>
-      </c>
-      <c r="I104" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.86505330361115162</v>
+      </c>
+      <c r="I104">
+        <v>1.0354262141205399</v>
+      </c>
+      <c r="J104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -3875,24 +4242,27 @@
         <v>3047</v>
       </c>
       <c r="G105">
-        <v>0.9950448191078829</v>
+        <v>0.99504481910788289</v>
       </c>
       <c r="H105">
-        <v>0.7656289507424359</v>
-      </c>
-      <c r="I105" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.76562895074243587</v>
+      </c>
+      <c r="I105">
+        <v>1.099389774037316</v>
+      </c>
+      <c r="J105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -3904,24 +4274,27 @@
         <v>15014</v>
       </c>
       <c r="G106">
-        <v>0.9118992534801212</v>
+        <v>0.91189925348012124</v>
       </c>
       <c r="H106">
-        <v>0.9824923619887699</v>
-      </c>
-      <c r="I106" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.98249236198876988</v>
+      </c>
+      <c r="I106">
+        <v>1.000106143910253</v>
+      </c>
+      <c r="J106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -3933,24 +4306,27 @@
         <v>14998</v>
       </c>
       <c r="G107">
-        <v>0.9031383693661144</v>
+        <v>0.90313836936611436</v>
       </c>
       <c r="H107">
-        <v>0.9781283523908859</v>
-      </c>
-      <c r="I107" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.97812835239088591</v>
+      </c>
+      <c r="I107">
+        <v>1.000017532589571</v>
+      </c>
+      <c r="J107" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D108">
         <v>1.2</v>
@@ -3962,24 +4338,27 @@
         <v>26897</v>
       </c>
       <c r="G108">
-        <v>0.8837426361881914</v>
+        <v>0.88374263618819138</v>
       </c>
       <c r="H108">
-        <v>0.9900444555720104</v>
-      </c>
-      <c r="I108" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.99004445557201037</v>
+      </c>
+      <c r="I108">
+        <v>1.0001546077981951</v>
+      </c>
+      <c r="J108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D109">
         <v>1.4</v>
@@ -3991,24 +4370,27 @@
         <v>3091</v>
       </c>
       <c r="G109">
-        <v>0.8991891195435781</v>
+        <v>0.89918911954357805</v>
       </c>
       <c r="H109">
-        <v>0.9533379168726903</v>
-      </c>
-      <c r="I109" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.95333791687269032</v>
+      </c>
+      <c r="I109">
+        <v>1.000077457861541</v>
+      </c>
+      <c r="J109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -4020,24 +4402,27 @@
         <v>14963</v>
       </c>
       <c r="G110">
-        <v>0.8373295256415905</v>
+        <v>0.83732952564159047</v>
       </c>
       <c r="H110">
-        <v>0.885939785405493</v>
-      </c>
-      <c r="I110" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.88593978540549301</v>
+      </c>
+      <c r="I110">
+        <v>1.021519804720445</v>
+      </c>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -4049,53 +4434,59 @@
         <v>15080</v>
       </c>
       <c r="G111">
-        <v>0.8394800559446727</v>
+        <v>0.83948005594467268</v>
       </c>
       <c r="H111">
-        <v>0.8816413380221428</v>
-      </c>
-      <c r="I111" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.88164133802214284</v>
+      </c>
+      <c r="I111">
+        <v>1.022314320407417</v>
+      </c>
+      <c r="J111" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D112">
         <v>1.4</v>
       </c>
       <c r="E112">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F112">
         <v>27048</v>
       </c>
       <c r="G112">
-        <v>0.7207981513550941</v>
+        <v>0.72079815135509406</v>
       </c>
       <c r="H112">
-        <v>0.7533376832309916</v>
-      </c>
-      <c r="I112" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.75333768323099159</v>
+      </c>
+      <c r="I112">
+        <v>1.1249316661880251</v>
+      </c>
+      <c r="J112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D113">
         <v>1.2</v>
@@ -4107,24 +4498,27 @@
         <v>2909</v>
       </c>
       <c r="G113">
-        <v>0.9949380064289529</v>
+        <v>0.99493800642895291</v>
       </c>
       <c r="H113">
-        <v>0.7330600872931629</v>
-      </c>
-      <c r="I113" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.73306008729316285</v>
+      </c>
+      <c r="I113">
+        <v>1.258148300820376</v>
+      </c>
+      <c r="J113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -4136,24 +4530,27 @@
         <v>15123</v>
       </c>
       <c r="G114">
-        <v>0.99874251494382</v>
+        <v>0.99874251494382005</v>
       </c>
       <c r="H114">
         <v>0.7959197419325158</v>
       </c>
-      <c r="I114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+      <c r="I114">
+        <v>1.1068381347262</v>
+      </c>
+      <c r="J114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -4165,24 +4562,27 @@
         <v>14876</v>
       </c>
       <c r="G115">
-        <v>0.9999939936346462</v>
+        <v>0.99999399363464625</v>
       </c>
       <c r="H115">
-        <v>0.7963174542937551</v>
-      </c>
-      <c r="I115" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.79631745429375511</v>
+      </c>
+      <c r="I115">
+        <v>1.0248848826974299</v>
+      </c>
+      <c r="J115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C116" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -4194,24 +4594,27 @@
         <v>27073</v>
       </c>
       <c r="G116">
-        <v>0.9997062058859064</v>
+        <v>0.99970620588590642</v>
       </c>
       <c r="H116">
-        <v>0.97969285820153</v>
-      </c>
-      <c r="I116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.97969285820152996</v>
+      </c>
+      <c r="I116">
+        <v>1.000312181368143</v>
+      </c>
+      <c r="J116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C117" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -4223,24 +4626,27 @@
         <v>2928</v>
       </c>
       <c r="G117">
-        <v>0.9967752234420563</v>
+        <v>0.99677522344205627</v>
       </c>
       <c r="H117">
         <v>0.9755239208850357</v>
       </c>
-      <c r="I117" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="I117">
+        <v>1.0000284431454141</v>
+      </c>
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C118" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D118">
         <v>1.2</v>
@@ -4252,24 +4658,27 @@
         <v>14846</v>
       </c>
       <c r="G118">
-        <v>0.8150352012446088</v>
+        <v>0.81503520124460882</v>
       </c>
       <c r="H118">
-        <v>0.9693978842458758</v>
-      </c>
-      <c r="I118" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.96939788424587581</v>
+      </c>
+      <c r="I118">
+        <v>1.000016214168852</v>
+      </c>
+      <c r="J118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D119">
         <v>0.85</v>
@@ -4281,24 +4690,27 @@
         <v>14971</v>
       </c>
       <c r="G119">
-        <v>0.8412631171216707</v>
+        <v>0.84126311712167068</v>
       </c>
       <c r="H119">
-        <v>0.9781884672760333</v>
-      </c>
-      <c r="I119" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.97818846727603326</v>
+      </c>
+      <c r="I119">
+        <v>1.0000002117116249</v>
+      </c>
+      <c r="J119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C120" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -4310,24 +4722,27 @@
         <v>27199</v>
       </c>
       <c r="G120">
-        <v>0.9764714314489411</v>
+        <v>0.97647143144894111</v>
       </c>
       <c r="H120">
-        <v>0.9872623180314931</v>
-      </c>
-      <c r="I120" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.98726231803149311</v>
+      </c>
+      <c r="I120">
+        <v>1.0000158622513291</v>
+      </c>
+      <c r="J120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C121" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -4339,24 +4754,27 @@
         <v>2984</v>
       </c>
       <c r="G121">
-        <v>0.9972975404396601</v>
+        <v>0.99729754043966012</v>
       </c>
       <c r="H121">
-        <v>0.9631113308395848</v>
-      </c>
-      <c r="I121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.96311133083958478</v>
+      </c>
+      <c r="I121">
+        <v>1.0000051069175231</v>
+      </c>
+      <c r="J121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D122">
         <v>0.85</v>
@@ -4368,24 +4786,27 @@
         <v>15027</v>
       </c>
       <c r="G122">
-        <v>0.8420350779163761</v>
+        <v>0.84203507791637611</v>
       </c>
       <c r="H122">
-        <v>0.7223552473530181</v>
-      </c>
-      <c r="I122" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.72235524735301815</v>
+      </c>
+      <c r="I122">
+        <v>1.0549894512600231</v>
+      </c>
+      <c r="J122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C123" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D123">
         <v>1.2</v>
@@ -4400,21 +4821,24 @@
         <v>0.8243309687210536</v>
       </c>
       <c r="H123">
-        <v>0.7595013580147578</v>
-      </c>
-      <c r="I123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.75950135801475782</v>
+      </c>
+      <c r="I123">
+        <v>1.36660496758838</v>
+      </c>
+      <c r="J123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -4426,24 +4850,27 @@
         <v>27083</v>
       </c>
       <c r="G124">
-        <v>0.9885338261962229</v>
+        <v>0.98853382619622288</v>
       </c>
       <c r="H124">
-        <v>0.9481203037908665</v>
-      </c>
-      <c r="I124" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.94812030379086654</v>
+      </c>
+      <c r="I124">
+        <v>1.000619815942251</v>
+      </c>
+      <c r="J124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -4460,19 +4887,22 @@
       <c r="H125">
         <v>0.9610368094627727</v>
       </c>
-      <c r="I125" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+      <c r="I125">
+        <v>1.0000026295443409</v>
+      </c>
+      <c r="J125" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C126" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -4484,24 +4914,27 @@
         <v>15075</v>
       </c>
       <c r="G126">
-        <v>0.9957391593448292</v>
+        <v>0.99573915934482915</v>
       </c>
       <c r="H126">
-        <v>0.9428178707304289</v>
-      </c>
-      <c r="I126" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.94281787073042889</v>
+      </c>
+      <c r="I126">
+        <v>1.0025722958056531</v>
+      </c>
+      <c r="J126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -4513,24 +4946,27 @@
         <v>14906</v>
       </c>
       <c r="G127">
-        <v>0.9987228872934886</v>
+        <v>0.99872288729348857</v>
       </c>
       <c r="H127">
-        <v>0.7584893445054288</v>
-      </c>
-      <c r="I127" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.75848934450542882</v>
+      </c>
+      <c r="I127">
+        <v>1.2624121418171399</v>
+      </c>
+      <c r="J127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -4542,24 +4978,27 @@
         <v>27041</v>
       </c>
       <c r="G128">
-        <v>0.9936533611026828</v>
+        <v>0.99365336110268276</v>
       </c>
       <c r="H128">
-        <v>0.7814013012472443</v>
-      </c>
-      <c r="I128" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.78140130124724427</v>
+      </c>
+      <c r="I128">
+        <v>1.053745131094203</v>
+      </c>
+      <c r="J128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C129" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -4571,24 +5010,27 @@
         <v>2978</v>
       </c>
       <c r="G129">
-        <v>0.9965101982540157</v>
+        <v>0.99651019825401566</v>
       </c>
       <c r="H129">
-        <v>0.8658938867103927</v>
-      </c>
-      <c r="I129" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.86589388671039269</v>
+      </c>
+      <c r="I129">
+        <v>1.001233132350688</v>
+      </c>
+      <c r="J129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D130">
         <v>1.2</v>
@@ -4600,24 +5042,27 @@
         <v>14923</v>
       </c>
       <c r="G130">
-        <v>0.9542430436264352</v>
+        <v>0.95424304362643519</v>
       </c>
       <c r="H130">
-        <v>0.9809457555778124</v>
-      </c>
-      <c r="I130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.98094575557781238</v>
+      </c>
+      <c r="I130">
+        <v>1.0000398003558859</v>
+      </c>
+      <c r="J130" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D131">
         <v>1.4</v>
@@ -4632,21 +5077,24 @@
         <v>0.7952900961715339</v>
       </c>
       <c r="H131">
-        <v>0.973901775661497</v>
-      </c>
-      <c r="I131" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.97390177566149705</v>
+      </c>
+      <c r="I131">
+        <v>1.0001218141128181</v>
+      </c>
+      <c r="J131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C132" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -4658,24 +5106,27 @@
         <v>27012</v>
       </c>
       <c r="G132">
-        <v>0.8022415151561292</v>
+        <v>0.80224151515612918</v>
       </c>
       <c r="H132">
         <v>0.9776478144887597</v>
       </c>
-      <c r="I132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+      <c r="I132">
+        <v>1.0001342329120451</v>
+      </c>
+      <c r="J132" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C133" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -4687,53 +5138,59 @@
         <v>3036</v>
       </c>
       <c r="G133">
-        <v>0.9539610483809182</v>
+        <v>0.95396104838091822</v>
       </c>
       <c r="H133">
-        <v>0.9665073755378003</v>
-      </c>
-      <c r="I133" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.96650737553780031</v>
+      </c>
+      <c r="I133">
+        <v>1.0000434679539689</v>
+      </c>
+      <c r="J133" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C134" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D134">
         <v>1.4</v>
       </c>
       <c r="E134">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F134">
         <v>14963</v>
       </c>
       <c r="G134">
-        <v>0.7884416630307571</v>
+        <v>0.78844166303075713</v>
       </c>
       <c r="H134">
-        <v>0.7227290102472875</v>
-      </c>
-      <c r="I134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.72272901024728753</v>
+      </c>
+      <c r="I134">
+        <v>1.084062256301787</v>
+      </c>
+      <c r="J134" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C135" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D135">
         <v>1.2</v>
@@ -4745,24 +5202,27 @@
         <v>14874</v>
       </c>
       <c r="G135">
-        <v>0.9486060845569558</v>
+        <v>0.94860608455695583</v>
       </c>
       <c r="H135">
-        <v>0.775290226965231</v>
-      </c>
-      <c r="I135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.77529022696523098</v>
+      </c>
+      <c r="I135">
+        <v>1.25967596599847</v>
+      </c>
+      <c r="J135" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C136" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -4774,24 +5234,27 @@
         <v>27106</v>
       </c>
       <c r="G136">
-        <v>0.7978810857657423</v>
+        <v>0.79788108576574235</v>
       </c>
       <c r="H136">
         <v>0.9792797740178244</v>
       </c>
-      <c r="I136" t="s">
+      <c r="I136">
+        <v>1.00092592240921</v>
+      </c>
+      <c r="J136" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" t="s">
-        <v>12</v>
-      </c>
-      <c r="B137" t="s">
-        <v>41</v>
-      </c>
-      <c r="C137" t="s">
-        <v>150</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -4803,24 +5266,27 @@
         <v>3057</v>
       </c>
       <c r="G137">
-        <v>0.9402652111785816</v>
+        <v>0.94026521117858164</v>
       </c>
       <c r="H137">
-        <v>0.9592731034331989</v>
-      </c>
-      <c r="I137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.95927310343319894</v>
+      </c>
+      <c r="I137">
+        <v>1.0002626722942149</v>
+      </c>
+      <c r="J137" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -4832,24 +5298,27 @@
         <v>14914</v>
       </c>
       <c r="G138">
-        <v>0.9963090407021257</v>
+        <v>0.99630904070212567</v>
       </c>
       <c r="H138">
-        <v>0.9896528274493153</v>
-      </c>
-      <c r="I138" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.98965282744931526</v>
+      </c>
+      <c r="I138">
+        <v>1.000000133921864</v>
+      </c>
+      <c r="J138" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -4864,21 +5333,24 @@
         <v>0.9999414477723968</v>
       </c>
       <c r="H139">
-        <v>0.9822708486450134</v>
-      </c>
-      <c r="I139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.98227084864501335</v>
+      </c>
+      <c r="I139">
+        <v>1.000001962101519</v>
+      </c>
+      <c r="J139" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -4890,24 +5362,27 @@
         <v>26984</v>
       </c>
       <c r="G140">
-        <v>0.999527663069425</v>
+        <v>0.99952766306942498</v>
       </c>
       <c r="H140">
-        <v>0.9824131315591527</v>
-      </c>
-      <c r="I140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.98241313155915266</v>
+      </c>
+      <c r="I140">
+        <v>1.0000031583250371</v>
+      </c>
+      <c r="J140" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -4919,24 +5394,27 @@
         <v>3042</v>
       </c>
       <c r="G141">
-        <v>0.993915671787205</v>
+        <v>0.99391567178720497</v>
       </c>
       <c r="H141">
-        <v>0.9789113088932924</v>
-      </c>
-      <c r="I141" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.97891130889329236</v>
+      </c>
+      <c r="I141">
+        <v>1.000009787905114</v>
+      </c>
+      <c r="J141" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -4948,24 +5426,27 @@
         <v>15086</v>
       </c>
       <c r="G142">
-        <v>0.9942962712582629</v>
+        <v>0.99429627125826292</v>
       </c>
       <c r="H142">
-        <v>0.8281480437223493</v>
-      </c>
-      <c r="I142" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.82814804372234929</v>
+      </c>
+      <c r="I142">
+        <v>1.02926559442972</v>
+      </c>
+      <c r="J142" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -4977,24 +5458,27 @@
         <v>15091</v>
       </c>
       <c r="G143">
-        <v>0.9946864397089594</v>
+        <v>0.99468643970895942</v>
       </c>
       <c r="H143">
         <v>0.9436652692256744</v>
       </c>
-      <c r="I143" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+      <c r="I143">
+        <v>1.0011572939144919</v>
+      </c>
+      <c r="J143" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -5006,24 +5490,27 @@
         <v>26836</v>
       </c>
       <c r="G144">
-        <v>0.9999557226061812</v>
+        <v>0.99995572260618115</v>
       </c>
       <c r="H144">
-        <v>0.9357911048148518</v>
-      </c>
-      <c r="I144" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.93579110481485184</v>
+      </c>
+      <c r="I144">
+        <v>1.0027375669744021</v>
+      </c>
+      <c r="J144" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -5035,24 +5522,27 @@
         <v>2987</v>
       </c>
       <c r="G145">
-        <v>0.999121683942963</v>
+        <v>0.99912168394296297</v>
       </c>
       <c r="H145">
-        <v>0.7893457645907033</v>
-      </c>
-      <c r="I145" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.78934576459070327</v>
+      </c>
+      <c r="I145">
+        <v>1.000495649276026</v>
+      </c>
+      <c r="J145" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D146">
         <v>1.2</v>
@@ -5064,24 +5554,27 @@
         <v>14896</v>
       </c>
       <c r="G146">
-        <v>0.8520068647129123</v>
+        <v>0.85200686471291232</v>
       </c>
       <c r="H146">
-        <v>0.9711501165684299</v>
-      </c>
-      <c r="I146" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.97115011656842987</v>
+      </c>
+      <c r="I146">
+        <v>1.000052881919659</v>
+      </c>
+      <c r="J146" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -5093,24 +5586,27 @@
         <v>15257</v>
       </c>
       <c r="G147">
-        <v>0.9588100669616961</v>
+        <v>0.95881006696169613</v>
       </c>
       <c r="H147">
-        <v>0.9685572996748554</v>
-      </c>
-      <c r="I147" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.96855729967485538</v>
+      </c>
+      <c r="I147">
+        <v>1.000015694514123</v>
+      </c>
+      <c r="J147" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -5122,24 +5618,27 @@
         <v>26913</v>
       </c>
       <c r="G148">
-        <v>0.9372650546825931</v>
+        <v>0.93726505468259314</v>
       </c>
       <c r="H148">
-        <v>0.9843858934887276</v>
-      </c>
-      <c r="I148" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.98438589348872763</v>
+      </c>
+      <c r="I148">
+        <v>1.000001753381585</v>
+      </c>
+      <c r="J148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D149">
         <v>0.85</v>
@@ -5151,24 +5650,27 @@
         <v>2934</v>
       </c>
       <c r="G149">
-        <v>0.9313885041954857</v>
+        <v>0.93138850419548569</v>
       </c>
       <c r="H149">
-        <v>0.9689454261427006</v>
-      </c>
-      <c r="I149" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.96894542614270063</v>
+      </c>
+      <c r="I149">
+        <v>1.0000893334837899</v>
+      </c>
+      <c r="J149" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B150" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C150" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D150">
         <v>0.85</v>
@@ -5180,24 +5682,27 @@
         <v>14975</v>
       </c>
       <c r="G150">
-        <v>0.8787184943549651</v>
+        <v>0.87871849435496507</v>
       </c>
       <c r="H150">
-        <v>0.7549258092626289</v>
-      </c>
-      <c r="I150" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.75492580926262887</v>
+      </c>
+      <c r="I150">
+        <v>1.021288193189374</v>
+      </c>
+      <c r="J150" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C151" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -5209,24 +5714,27 @@
         <v>14912</v>
       </c>
       <c r="G151">
-        <v>0.9724835137346572</v>
+        <v>0.97248351373465725</v>
       </c>
       <c r="H151">
-        <v>0.9357372454860451</v>
-      </c>
-      <c r="I151" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.93573724548604509</v>
+      </c>
+      <c r="I151">
+        <v>1.00134957905943</v>
+      </c>
+      <c r="J151" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C152" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -5238,24 +5746,27 @@
         <v>27117</v>
       </c>
       <c r="G152">
-        <v>0.9584764301764628</v>
+        <v>0.95847643017646278</v>
       </c>
       <c r="H152">
-        <v>0.9124684125218959</v>
-      </c>
-      <c r="I152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.91246841252189592</v>
+      </c>
+      <c r="I152">
+        <v>1.004272303746121</v>
+      </c>
+      <c r="J152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C153" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D153">
         <v>1.2</v>
@@ -5267,24 +5778,27 @@
         <v>2996</v>
       </c>
       <c r="G153">
-        <v>0.908497372738631</v>
+        <v>0.90849737273863096</v>
       </c>
       <c r="H153">
-        <v>0.7918852533678526</v>
-      </c>
-      <c r="I153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.79188525336785265</v>
+      </c>
+      <c r="I153">
+        <v>1.034135881816115</v>
+      </c>
+      <c r="J153" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B154" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C154" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -5296,24 +5810,27 @@
         <v>14945</v>
       </c>
       <c r="G154">
-        <v>0.9950076307782367</v>
+        <v>0.99500763077823673</v>
       </c>
       <c r="H154">
-        <v>0.7389500207414068</v>
-      </c>
-      <c r="I154" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.73895002074140681</v>
+      </c>
+      <c r="I154">
+        <v>1.2043832972843</v>
+      </c>
+      <c r="J154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C155" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -5325,24 +5842,27 @@
         <v>14977</v>
       </c>
       <c r="G155">
-        <v>0.9982011860051933</v>
+        <v>0.99820118600519325</v>
       </c>
       <c r="H155">
-        <v>0.9741494861954407</v>
-      </c>
-      <c r="I155" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.97414948619544073</v>
+      </c>
+      <c r="I155">
+        <v>1.0001939382249529</v>
+      </c>
+      <c r="J155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C156" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -5354,24 +5874,27 @@
         <v>27032</v>
       </c>
       <c r="G156">
-        <v>0.9939388901047327</v>
+        <v>0.99393889010473269</v>
       </c>
       <c r="H156">
-        <v>0.7647704790289211</v>
-      </c>
-      <c r="I156" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.76477047902892115</v>
+      </c>
+      <c r="I156">
+        <v>1.039631813255407</v>
+      </c>
+      <c r="J156" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C157" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -5383,24 +5906,27 @@
         <v>3046</v>
       </c>
       <c r="G157">
-        <v>0.9996443810668514</v>
+        <v>0.99964438106685138</v>
       </c>
       <c r="H157">
         <v>0.9636233267493246</v>
       </c>
-      <c r="I157" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+      <c r="I157">
+        <v>1.0000004551574291</v>
+      </c>
+      <c r="J157" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C158" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D158">
         <v>1.2</v>
@@ -5412,24 +5938,27 @@
         <v>15087</v>
       </c>
       <c r="G158">
-        <v>0.775094989778647</v>
+        <v>0.77509498977864699</v>
       </c>
       <c r="H158">
-        <v>0.9635598764449868</v>
-      </c>
-      <c r="I158" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.96355987644498675</v>
+      </c>
+      <c r="I158">
+        <v>0.99999892329350859</v>
+      </c>
+      <c r="J158" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -5444,21 +5973,24 @@
         <v>0.9831276599920139</v>
       </c>
       <c r="H159">
-        <v>0.9643160482141827</v>
-      </c>
-      <c r="I159" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.96431604821418271</v>
+      </c>
+      <c r="I159">
+        <v>1.0003157593245151</v>
+      </c>
+      <c r="J159" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C160" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D160">
         <v>0.85</v>
@@ -5470,24 +6002,27 @@
         <v>27019</v>
       </c>
       <c r="G160">
-        <v>0.7860105696483801</v>
+        <v>0.78601056964838012</v>
       </c>
       <c r="H160">
-        <v>0.9729223683269969</v>
-      </c>
-      <c r="I160" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.97292236832699686</v>
+      </c>
+      <c r="I160">
+        <v>1.0001979549519671</v>
+      </c>
+      <c r="J160" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C161" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -5499,24 +6034,27 @@
         <v>2982</v>
       </c>
       <c r="G161">
-        <v>0.9926409047635242</v>
+        <v>0.99264090476352418</v>
       </c>
       <c r="H161">
-        <v>0.9636428851906079</v>
-      </c>
-      <c r="I161" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.96364288519060792</v>
+      </c>
+      <c r="I161">
+        <v>1.000055434386824</v>
+      </c>
+      <c r="J161" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C162" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D162">
         <v>0.85</v>
@@ -5528,24 +6066,27 @@
         <v>14926</v>
       </c>
       <c r="G162">
-        <v>0.8118052600168829</v>
+        <v>0.81180526001688291</v>
       </c>
       <c r="H162">
-        <v>0.6791065994431333</v>
-      </c>
-      <c r="I162" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.67910659944313334</v>
+      </c>
+      <c r="I162">
+        <v>1.0535571422590679</v>
+      </c>
+      <c r="J162" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C163" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -5557,24 +6098,27 @@
         <v>14976</v>
       </c>
       <c r="G163">
-        <v>0.9515984792355578</v>
+        <v>0.95159847923555785</v>
       </c>
       <c r="H163">
-        <v>0.9320561303346427</v>
-      </c>
-      <c r="I163" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.93205613033464274</v>
+      </c>
+      <c r="I163">
+        <v>1.001863232977465</v>
+      </c>
+      <c r="J163" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D164">
         <v>1.2</v>
@@ -5586,24 +6130,27 @@
         <v>27029</v>
       </c>
       <c r="G164">
-        <v>0.7870450955069371</v>
+        <v>0.78704509550693713</v>
       </c>
       <c r="H164">
-        <v>0.7372303963511312</v>
-      </c>
-      <c r="I164" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.73723039635113119</v>
+      </c>
+      <c r="I164">
+        <v>1.658330571390273</v>
+      </c>
+      <c r="J164" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C165" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -5615,24 +6162,27 @@
         <v>3069</v>
       </c>
       <c r="G165">
-        <v>0.9834298054416656</v>
+        <v>0.98342980544166558</v>
       </c>
       <c r="H165">
         <v>0.935647870597345</v>
       </c>
-      <c r="I165" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="I165">
+        <v>1.000100608413903</v>
+      </c>
+      <c r="J165" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C166" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -5647,21 +6197,24 @@
         <v>0.991446463766958</v>
       </c>
       <c r="H166">
-        <v>0.8590578643596009</v>
-      </c>
-      <c r="I166" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.85905786435960085</v>
+      </c>
+      <c r="I166">
+        <v>1.0153640993063471</v>
+      </c>
+      <c r="J166" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B167" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C167" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -5673,24 +6226,27 @@
         <v>15109</v>
       </c>
       <c r="G167">
-        <v>0.9974870449015922</v>
+        <v>0.99748704490159223</v>
       </c>
       <c r="H167">
-        <v>0.9134817601048661</v>
-      </c>
-      <c r="I167" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.91348176010486615</v>
+      </c>
+      <c r="I167">
+        <v>1.0023438563820271</v>
+      </c>
+      <c r="J167" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C168" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -5702,24 +6258,27 @@
         <v>26764</v>
       </c>
       <c r="G168">
-        <v>0.991627607515951</v>
+        <v>0.99162760751595103</v>
       </c>
       <c r="H168">
-        <v>0.887815103170878</v>
-      </c>
-      <c r="I168" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.88781510317087797</v>
+      </c>
+      <c r="I168">
+        <v>1.008023370129052</v>
+      </c>
+      <c r="J168" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C169" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -5731,24 +6290,27 @@
         <v>2990</v>
       </c>
       <c r="G169">
-        <v>0.9970404915032113</v>
+        <v>0.99704049150321128</v>
       </c>
       <c r="H169">
-        <v>0.7458572805157744</v>
-      </c>
-      <c r="I169" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.74585728051577438</v>
+      </c>
+      <c r="I169">
+        <v>1.07658606856766</v>
+      </c>
+      <c r="J169" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B170" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C170" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D170">
         <v>1.2</v>
@@ -5760,24 +6322,27 @@
         <v>15020</v>
       </c>
       <c r="G170">
-        <v>0.8808649356459416</v>
+        <v>0.88086493564594159</v>
       </c>
       <c r="H170">
-        <v>0.9870358726323132</v>
-      </c>
-      <c r="I170" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.98703587263231318</v>
+      </c>
+      <c r="I170">
+        <v>1.0000552499625259</v>
+      </c>
+      <c r="J170" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B171" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C171" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -5789,24 +6354,27 @@
         <v>14934</v>
       </c>
       <c r="G171">
-        <v>0.9418286706267032</v>
+        <v>0.94182867062670317</v>
       </c>
       <c r="H171">
-        <v>0.9840355120877872</v>
-      </c>
-      <c r="I171" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.98403551208778717</v>
+      </c>
+      <c r="I171">
+        <v>1.000053125890719</v>
+      </c>
+      <c r="J171" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B172" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C172" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -5821,21 +6389,24 @@
         <v>0.8934450404995552</v>
       </c>
       <c r="H172">
-        <v>0.9831061554945355</v>
-      </c>
-      <c r="I172" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.98310615549453551</v>
+      </c>
+      <c r="I172">
+        <v>1.000277759757493</v>
+      </c>
+      <c r="J172" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C173" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D173">
         <v>1.4</v>
@@ -5847,53 +6418,59 @@
         <v>3029</v>
       </c>
       <c r="G173">
-        <v>0.8787092093949633</v>
+        <v>0.87870920939496333</v>
       </c>
       <c r="H173">
-        <v>0.9569366114055823</v>
-      </c>
-      <c r="I173" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.95693661140558228</v>
+      </c>
+      <c r="I173">
+        <v>1.000032144058407</v>
+      </c>
+      <c r="J173" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C174" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D174">
         <v>1.4</v>
       </c>
       <c r="E174">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F174">
         <v>15073</v>
       </c>
       <c r="G174">
-        <v>0.7445931991825419</v>
+        <v>0.74459319918254185</v>
       </c>
       <c r="H174">
-        <v>0.7631387495973054</v>
-      </c>
-      <c r="I174" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.76313874959730543</v>
+      </c>
+      <c r="I174">
+        <v>1.032314027336463</v>
+      </c>
+      <c r="J174" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C175" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -5908,21 +6485,24 @@
         <v>0.9069207257395997</v>
       </c>
       <c r="H175">
-        <v>0.9342522674261848</v>
-      </c>
-      <c r="I175" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.93425226742618483</v>
+      </c>
+      <c r="I175">
+        <v>1.0038783706933501</v>
+      </c>
+      <c r="J175" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B176" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -5934,24 +6514,27 @@
         <v>27032</v>
       </c>
       <c r="G176">
-        <v>0.8437503145826556</v>
+        <v>0.84375031458265559</v>
       </c>
       <c r="H176">
-        <v>0.9209892414830793</v>
-      </c>
-      <c r="I176" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.92098924148307926</v>
+      </c>
+      <c r="I176">
+        <v>1.0062814045186459</v>
+      </c>
+      <c r="J176" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B177" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C177" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D177">
         <v>1.2</v>
@@ -5963,24 +6546,27 @@
         <v>3056</v>
       </c>
       <c r="G177">
-        <v>0.9675813227310222</v>
+        <v>0.96758132273102215</v>
       </c>
       <c r="H177">
-        <v>0.7977072673018475</v>
-      </c>
-      <c r="I177" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.79770726730184749</v>
+      </c>
+      <c r="I177">
+        <v>1.0365547534985979</v>
+      </c>
+      <c r="J177" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B178" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C178" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -5992,24 +6578,27 @@
         <v>14894</v>
       </c>
       <c r="G178">
-        <v>0.9983364795342519</v>
+        <v>0.99833647953425186</v>
       </c>
       <c r="H178">
-        <v>0.9700903986168752</v>
-      </c>
-      <c r="I178" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.97009039861687518</v>
+      </c>
+      <c r="I178">
+        <v>1.0000012702901611</v>
+      </c>
+      <c r="J178" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B179" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C179" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -6021,24 +6610,27 @@
         <v>15035</v>
       </c>
       <c r="G179">
-        <v>0.9998679512516586</v>
+        <v>0.99986795125165862</v>
       </c>
       <c r="H179">
-        <v>0.7542749069121295</v>
-      </c>
-      <c r="I179" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.75427490691212951</v>
+      </c>
+      <c r="I179">
+        <v>1.026008015536763</v>
+      </c>
+      <c r="J179" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C180" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -6050,24 +6642,27 @@
         <v>26965</v>
       </c>
       <c r="G180">
-        <v>0.9966165064001895</v>
+        <v>0.99661650640018951</v>
       </c>
       <c r="H180">
-        <v>0.7789379146710161</v>
-      </c>
-      <c r="I180" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.77893791467101614</v>
+      </c>
+      <c r="I180">
+        <v>1.1097419142314759</v>
+      </c>
+      <c r="J180" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C181" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -6079,24 +6674,27 @@
         <v>3106</v>
       </c>
       <c r="G181">
-        <v>0.9959052110424342</v>
+        <v>0.99590521104243424</v>
       </c>
       <c r="H181">
-        <v>0.7938857075656648</v>
-      </c>
-      <c r="I181" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.79388570756566479</v>
+      </c>
+      <c r="I181">
+        <v>1.002796793213754</v>
+      </c>
+      <c r="J181" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C182" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D182">
         <v>1.2</v>
@@ -6111,21 +6709,24 @@
         <v>0.9752113390101409</v>
       </c>
       <c r="H182">
-        <v>0.9786999752888373</v>
-      </c>
-      <c r="I182" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.97869997528883734</v>
+      </c>
+      <c r="I182">
+        <v>1.000030927732233</v>
+      </c>
+      <c r="J182" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B183" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C183" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -6137,24 +6738,27 @@
         <v>15028</v>
       </c>
       <c r="G183">
-        <v>0.8154093383786796</v>
+        <v>0.81540933837867957</v>
       </c>
       <c r="H183">
-        <v>0.9722675214155024</v>
-      </c>
-      <c r="I183" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.97226752141550243</v>
+      </c>
+      <c r="I183">
+        <v>1.0000299403558179</v>
+      </c>
+      <c r="J183" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B184" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C184" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D184">
         <v>1.4</v>
@@ -6166,24 +6770,27 @@
         <v>27015</v>
       </c>
       <c r="G184">
-        <v>0.7827757984763379</v>
+        <v>0.78277579847633794</v>
       </c>
       <c r="H184">
-        <v>0.9685363357989935</v>
-      </c>
-      <c r="I184" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.96853633579899345</v>
+      </c>
+      <c r="I184">
+        <v>1.00003782198905</v>
+      </c>
+      <c r="J184" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C185" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -6195,53 +6802,59 @@
         <v>3030</v>
       </c>
       <c r="G185">
-        <v>0.9206436122962138</v>
+        <v>0.92064361229621383</v>
       </c>
       <c r="H185">
-        <v>0.9716579647478164</v>
-      </c>
-      <c r="I185" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.97165796474781641</v>
+      </c>
+      <c r="I185">
+        <v>1.000038819618968</v>
+      </c>
+      <c r="J185" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B186" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C186" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D186">
         <v>1.4</v>
       </c>
       <c r="E186">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F186">
         <v>14954</v>
       </c>
       <c r="G186">
-        <v>0.8203451576992755</v>
+        <v>0.82034515769927552</v>
       </c>
       <c r="H186">
-        <v>0.6983880070495745</v>
-      </c>
-      <c r="I186" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.69838800704957449</v>
+      </c>
+      <c r="I186">
+        <v>1.0550035799086801</v>
+      </c>
+      <c r="J186" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B187" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C187" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -6253,24 +6866,27 @@
         <v>15109</v>
       </c>
       <c r="G187">
-        <v>0.83984835187712</v>
+        <v>0.83984835187712004</v>
       </c>
       <c r="H187">
-        <v>0.960325526501445</v>
-      </c>
-      <c r="I187" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.96032552650144498</v>
+      </c>
+      <c r="I187">
+        <v>1.0002012561084641</v>
+      </c>
+      <c r="J187" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C188" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D188">
         <v>1.2</v>
@@ -6282,24 +6898,27 @@
         <v>26933</v>
       </c>
       <c r="G188">
-        <v>0.9920735799095919</v>
+        <v>0.99207357990959188</v>
       </c>
       <c r="H188">
-        <v>0.7560204295510535</v>
-      </c>
-      <c r="I188" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.75602042955105353</v>
+      </c>
+      <c r="I188">
+        <v>1.323849224889672</v>
+      </c>
+      <c r="J188" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C189" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -6311,24 +6930,27 @@
         <v>3004</v>
       </c>
       <c r="G189">
-        <v>0.9443296690178875</v>
+        <v>0.94432966901788751</v>
       </c>
       <c r="H189">
-        <v>0.9331001985739599</v>
-      </c>
-      <c r="I189" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.93310019857395987</v>
+      </c>
+      <c r="I189">
+        <v>0.99997933041343889</v>
+      </c>
+      <c r="J189" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B190" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C190" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -6340,24 +6962,27 @@
         <v>15077</v>
       </c>
       <c r="G190">
-        <v>0.9993842383759599</v>
+        <v>0.99938423837595991</v>
       </c>
       <c r="H190">
         <v>0.8996250792121685</v>
       </c>
-      <c r="I190" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="I190">
+        <v>1.003355153510983</v>
+      </c>
+      <c r="J190" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C191" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -6369,24 +6994,27 @@
         <v>15168</v>
       </c>
       <c r="G191">
-        <v>0.9981914687584422</v>
+        <v>0.99819146875844222</v>
       </c>
       <c r="H191">
-        <v>0.8978870099731929</v>
-      </c>
-      <c r="I191" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.89788700997319293</v>
+      </c>
+      <c r="I191">
+        <v>1.003624249201696</v>
+      </c>
+      <c r="J191" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C192" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -6398,24 +7026,27 @@
         <v>26796</v>
       </c>
       <c r="G192">
-        <v>0.9971880108154531</v>
+        <v>0.99718801081545305</v>
       </c>
       <c r="H192">
-        <v>0.8201878603927185</v>
-      </c>
-      <c r="I192" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.82018786039271852</v>
+      </c>
+      <c r="I192">
+        <v>1.0512095559154799</v>
+      </c>
+      <c r="J192" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C193" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -6427,24 +7058,27 @@
         <v>2959</v>
       </c>
       <c r="G193">
-        <v>0.99840738247945</v>
+        <v>0.99840738247945005</v>
       </c>
       <c r="H193">
-        <v>0.7844704039023194</v>
-      </c>
-      <c r="I193" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.78447040390231937</v>
+      </c>
+      <c r="I193">
+        <v>1.001486115748855</v>
+      </c>
+      <c r="J193" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C194" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -6456,24 +7090,27 @@
         <v>15039</v>
       </c>
       <c r="G194">
-        <v>0.9234817035902609</v>
+        <v>0.92348170359026094</v>
       </c>
       <c r="H194">
-        <v>0.9805078287232517</v>
-      </c>
-      <c r="I194" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.98050782872325171</v>
+      </c>
+      <c r="I194">
+        <v>1.0000108446291911</v>
+      </c>
+      <c r="J194" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C195" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -6485,24 +7122,27 @@
         <v>14991</v>
       </c>
       <c r="G195">
-        <v>0.9264652382370632</v>
+        <v>0.92646523823706317</v>
       </c>
       <c r="H195">
-        <v>0.9785212058397303</v>
-      </c>
-      <c r="I195" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.97852120583973035</v>
+      </c>
+      <c r="I195">
+        <v>1.000005729518991</v>
+      </c>
+      <c r="J195" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B196" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C196" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D196">
         <v>1.2</v>
@@ -6514,24 +7154,27 @@
         <v>26978</v>
       </c>
       <c r="G196">
-        <v>0.8323007226684576</v>
+        <v>0.83230072266845756</v>
       </c>
       <c r="H196">
-        <v>0.9754977444720755</v>
-      </c>
-      <c r="I196" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.97549774447207549</v>
+      </c>
+      <c r="I196">
+        <v>1.000022751094358</v>
+      </c>
+      <c r="J196" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B197" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C197" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D197">
         <v>0.85</v>
@@ -6543,24 +7186,27 @@
         <v>2992</v>
       </c>
       <c r="G197">
-        <v>0.9153488904123108</v>
+        <v>0.91534889041231082</v>
       </c>
       <c r="H197">
-        <v>0.9645407907974176</v>
-      </c>
-      <c r="I197" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.96454079079741761</v>
+      </c>
+      <c r="I197">
+        <v>1.000149650479554</v>
+      </c>
+      <c r="J197" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C198" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -6572,24 +7218,27 @@
         <v>14957</v>
       </c>
       <c r="G198">
-        <v>0.9376686793418776</v>
+        <v>0.93766867934187759</v>
       </c>
       <c r="H198">
-        <v>0.8818378781608877</v>
-      </c>
-      <c r="I198" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.88183787816088766</v>
+      </c>
+      <c r="I198">
+        <v>1.006721394800197</v>
+      </c>
+      <c r="J198" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C199" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -6601,24 +7250,27 @@
         <v>15033</v>
       </c>
       <c r="G199">
-        <v>0.9403178591072467</v>
+        <v>0.94031785910724675</v>
       </c>
       <c r="H199">
-        <v>0.8712239047412625</v>
-      </c>
-      <c r="I199" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>0.87122390474126254</v>
+      </c>
+      <c r="I199">
+        <v>1.0106641120692621</v>
+      </c>
+      <c r="J199" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B200" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C200" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D200">
         <v>0.85</v>
@@ -6633,21 +7285,24 @@
         <v>0.8493065555296968</v>
       </c>
       <c r="H200">
-        <v>0.7501678740010093</v>
-      </c>
-      <c r="I200" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>0.75016787400100926</v>
+      </c>
+      <c r="I200">
+        <v>1.0470503610997099</v>
+      </c>
+      <c r="J200" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B201" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C201" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D201">
         <v>1.2</v>
@@ -6659,24 +7314,27 @@
         <v>2966</v>
       </c>
       <c r="G201">
-        <v>0.8978018235700828</v>
+        <v>0.89780182357008276</v>
       </c>
       <c r="H201">
-        <v>0.7267308398400704</v>
-      </c>
-      <c r="I201" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>0.72673083984007036</v>
+      </c>
+      <c r="I201">
+        <v>1.0988872751980161</v>
+      </c>
+      <c r="J201" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B202" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C202" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -6688,24 +7346,27 @@
         <v>15017</v>
       </c>
       <c r="G202">
-        <v>0.9962761245025499</v>
+        <v>0.99627612450254988</v>
       </c>
       <c r="H202">
-        <v>0.8653456031914327</v>
-      </c>
-      <c r="I202" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>0.86534560319143272</v>
+      </c>
+      <c r="I202">
+        <v>1.0070038607435929</v>
+      </c>
+      <c r="J202" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B203" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C203" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -6717,24 +7378,27 @@
         <v>14712</v>
       </c>
       <c r="G203">
-        <v>0.999518450307025</v>
+        <v>0.99951845030702502</v>
       </c>
       <c r="H203">
-        <v>0.8659075744527791</v>
-      </c>
-      <c r="I203" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>0.86590757445277911</v>
+      </c>
+      <c r="I203">
+        <v>1.005594917680068</v>
+      </c>
+      <c r="J203" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B204" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C204" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -6746,24 +7410,27 @@
         <v>27224</v>
       </c>
       <c r="G204">
-        <v>0.9985290391432483</v>
+        <v>0.99852903914324831</v>
       </c>
       <c r="H204">
-        <v>0.8628681291150788</v>
-      </c>
-      <c r="I204" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>0.86286812911507882</v>
+      </c>
+      <c r="I204">
+        <v>1.0229932693079249</v>
+      </c>
+      <c r="J204" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C205" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -6775,24 +7442,27 @@
         <v>3047</v>
       </c>
       <c r="G205">
-        <v>0.9950448191078829</v>
+        <v>0.99504481910788289</v>
       </c>
       <c r="H205">
-        <v>0.7609229751067977</v>
-      </c>
-      <c r="I205" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>0.76092297510679774</v>
+      </c>
+      <c r="I205">
+        <v>1.050363173705652</v>
+      </c>
+      <c r="J205" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C206" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -6804,24 +7474,27 @@
         <v>15014</v>
       </c>
       <c r="G206">
-        <v>0.9118992534801212</v>
+        <v>0.91189925348012124</v>
       </c>
       <c r="H206">
-        <v>0.9774185979359233</v>
-      </c>
-      <c r="I206" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>0.97741859793592334</v>
+      </c>
+      <c r="I206">
+        <v>1.000105121601645</v>
+      </c>
+      <c r="J206" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C207" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -6833,24 +7506,27 @@
         <v>14998</v>
       </c>
       <c r="G207">
-        <v>0.9031383693661144</v>
+        <v>0.90313836936611436</v>
       </c>
       <c r="H207">
-        <v>0.9760696607407501</v>
-      </c>
-      <c r="I207" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>0.97606966074075008</v>
+      </c>
+      <c r="I207">
+        <v>1.0000167460335361</v>
+      </c>
+      <c r="J207" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C208" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D208">
         <v>1.2</v>
@@ -6862,24 +7538,27 @@
         <v>26897</v>
       </c>
       <c r="G208">
-        <v>0.8837426361881914</v>
+        <v>0.88374263618819138</v>
       </c>
       <c r="H208">
-        <v>0.9884370446082527</v>
-      </c>
-      <c r="I208" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>0.98843704460825266</v>
+      </c>
+      <c r="I208">
+        <v>1.0001078114959641</v>
+      </c>
+      <c r="J208" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C209" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D209">
         <v>1.4</v>
@@ -6891,24 +7570,27 @@
         <v>3091</v>
       </c>
       <c r="G209">
-        <v>0.8991891195435781</v>
+        <v>0.89918911954357805</v>
       </c>
       <c r="H209">
-        <v>0.9516506059089516</v>
-      </c>
-      <c r="I209" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>0.95165060590895156</v>
+      </c>
+      <c r="I209">
+        <v>1.0000742224045851</v>
+      </c>
+      <c r="J209" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B210" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C210" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -6920,24 +7602,27 @@
         <v>14963</v>
       </c>
       <c r="G210">
-        <v>0.8373295256415905</v>
+        <v>0.83732952564159047</v>
       </c>
       <c r="H210">
-        <v>0.8867338745382983</v>
-      </c>
-      <c r="I210" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>0.88673387453829833</v>
+      </c>
+      <c r="I210">
+        <v>1.0125928185521429</v>
+      </c>
+      <c r="J210" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C211" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -6949,53 +7634,59 @@
         <v>15080</v>
       </c>
       <c r="G211">
-        <v>0.8394800559446727</v>
+        <v>0.83948005594467268</v>
       </c>
       <c r="H211">
-        <v>0.8760193910684572</v>
-      </c>
-      <c r="I211" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>0.87601939106845716</v>
+      </c>
+      <c r="I211">
+        <v>1.014858064660543</v>
+      </c>
+      <c r="J211" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C212" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D212">
         <v>1.4</v>
       </c>
       <c r="E212">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F212">
         <v>27048</v>
       </c>
       <c r="G212">
-        <v>0.7207981513550941</v>
+        <v>0.72079815135509406</v>
       </c>
       <c r="H212">
-        <v>0.7509898100351491</v>
-      </c>
-      <c r="I212" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>0.75098981003514909</v>
+      </c>
+      <c r="I212">
+        <v>1.0729747081566989</v>
+      </c>
+      <c r="J212" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C213" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D213">
         <v>1.2</v>
@@ -7007,24 +7698,27 @@
         <v>2909</v>
       </c>
       <c r="G213">
-        <v>0.9949380064289529</v>
+        <v>0.99493800642895291</v>
       </c>
       <c r="H213">
-        <v>0.7385554197658294</v>
-      </c>
-      <c r="I213" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>0.73855541976582939</v>
+      </c>
+      <c r="I213">
+        <v>1.1272952636991169</v>
+      </c>
+      <c r="J213" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B214" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C214" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -7036,24 +7730,27 @@
         <v>15123</v>
       </c>
       <c r="G214">
-        <v>0.99874251494382</v>
+        <v>0.99874251494382005</v>
       </c>
       <c r="H214">
-        <v>0.7966314231149476</v>
-      </c>
-      <c r="I214" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>0.79663142311494761</v>
+      </c>
+      <c r="I214">
+        <v>1.0530992919126549</v>
+      </c>
+      <c r="J214" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B215" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C215" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -7065,24 +7762,27 @@
         <v>14876</v>
       </c>
       <c r="G215">
-        <v>0.9999939936346462</v>
+        <v>0.99999399363464625</v>
       </c>
       <c r="H215">
-        <v>0.7941640425376925</v>
-      </c>
-      <c r="I215" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>0.79416404253769246</v>
+      </c>
+      <c r="I215">
+        <v>1.015685225570679</v>
+      </c>
+      <c r="J215" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B216" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C216" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -7094,24 +7794,27 @@
         <v>27073</v>
       </c>
       <c r="G216">
-        <v>0.9997062058859064</v>
+        <v>0.99970620588590642</v>
       </c>
       <c r="H216">
-        <v>0.9815001250976906</v>
-      </c>
-      <c r="I216" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>0.98150012509769058</v>
+      </c>
+      <c r="I216">
+        <v>1.000132514284916</v>
+      </c>
+      <c r="J216" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C217" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -7123,24 +7826,27 @@
         <v>2928</v>
       </c>
       <c r="G217">
-        <v>0.9967752234420563</v>
+        <v>0.99677522344205627</v>
       </c>
       <c r="H217">
-        <v>0.9647605660568694</v>
-      </c>
-      <c r="I217" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>0.96476056605686944</v>
+      </c>
+      <c r="I217">
+        <v>0.9999889184446491</v>
+      </c>
+      <c r="J217" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D218">
         <v>1.2</v>
@@ -7152,24 +7858,27 @@
         <v>14846</v>
       </c>
       <c r="G218">
-        <v>0.8150352012446088</v>
+        <v>0.81503520124460882</v>
       </c>
       <c r="H218">
-        <v>0.964323239783653</v>
-      </c>
-      <c r="I218" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>0.96432323978365297</v>
+      </c>
+      <c r="I218">
+        <v>1.000062477417887</v>
+      </c>
+      <c r="J218" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D219">
         <v>0.85</v>
@@ -7181,24 +7890,27 @@
         <v>14971</v>
       </c>
       <c r="G219">
-        <v>0.8412631171216707</v>
+        <v>0.84126311712167068</v>
       </c>
       <c r="H219">
-        <v>0.9782762126468391</v>
-      </c>
-      <c r="I219" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>0.97827621264683906</v>
+      </c>
+      <c r="I219">
+        <v>1.0000125398278099</v>
+      </c>
+      <c r="J219" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B220" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -7210,24 +7922,27 @@
         <v>27199</v>
       </c>
       <c r="G220">
-        <v>0.9764714314489411</v>
+        <v>0.97647143144894111</v>
       </c>
       <c r="H220">
-        <v>0.9795171715709926</v>
-      </c>
-      <c r="I220" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>0.97951717157099261</v>
+      </c>
+      <c r="I220">
+        <v>1.0000002769233329</v>
+      </c>
+      <c r="J220" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -7239,24 +7954,27 @@
         <v>2984</v>
       </c>
       <c r="G221">
-        <v>0.9972975404396601</v>
+        <v>0.99729754043966012</v>
       </c>
       <c r="H221">
-        <v>0.9619666190084838</v>
-      </c>
-      <c r="I221" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>0.96196661900848379</v>
+      </c>
+      <c r="I221">
+        <v>1.0000076179235571</v>
+      </c>
+      <c r="J221" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C222" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D222">
         <v>0.85</v>
@@ -7268,24 +7986,27 @@
         <v>15027</v>
       </c>
       <c r="G222">
-        <v>0.8420350779163761</v>
+        <v>0.84203507791637611</v>
       </c>
       <c r="H222">
-        <v>0.7222884267758101</v>
-      </c>
-      <c r="I222" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>0.72228842677581007</v>
+      </c>
+      <c r="I222">
+        <v>1.0355427431636279</v>
+      </c>
+      <c r="J222" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C223" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D223">
         <v>1.2</v>
@@ -7300,21 +8021,24 @@
         <v>0.8243309687210536</v>
       </c>
       <c r="H223">
-        <v>0.7601017305129597</v>
-      </c>
-      <c r="I223" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>0.76010173051295971</v>
+      </c>
+      <c r="I223">
+        <v>1.152252318775467</v>
+      </c>
+      <c r="J223" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C224" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -7326,24 +8050,27 @@
         <v>27083</v>
       </c>
       <c r="G224">
-        <v>0.9885338261962229</v>
+        <v>0.98853382619622288</v>
       </c>
       <c r="H224">
-        <v>0.9497313969211382</v>
-      </c>
-      <c r="I224" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>0.94973139692113817</v>
+      </c>
+      <c r="I224">
+        <v>1.0004117201103251</v>
+      </c>
+      <c r="J224" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B225" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C225" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -7358,21 +8085,24 @@
         <v>0.9921331702570001</v>
       </c>
       <c r="H225">
-        <v>0.9566501941716773</v>
-      </c>
-      <c r="I225" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>0.95665019417167729</v>
+      </c>
+      <c r="I225">
+        <v>1.0000229704545121</v>
+      </c>
+      <c r="J225" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B226" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C226" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -7384,24 +8114,27 @@
         <v>15075</v>
       </c>
       <c r="G226">
-        <v>0.9957391593448292</v>
+        <v>0.99573915934482915</v>
       </c>
       <c r="H226">
-        <v>0.9439908619539022</v>
-      </c>
-      <c r="I226" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>0.94399086195390225</v>
+      </c>
+      <c r="I226">
+        <v>1.001666405224513</v>
+      </c>
+      <c r="J226" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C227" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -7413,24 +8146,27 @@
         <v>14906</v>
       </c>
       <c r="G227">
-        <v>0.9987228872934886</v>
+        <v>0.99872288729348857</v>
       </c>
       <c r="H227">
-        <v>0.7563694260021234</v>
-      </c>
-      <c r="I227" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>0.75636942600212342</v>
+      </c>
+      <c r="I227">
+        <v>1.1298459068551521</v>
+      </c>
+      <c r="J227" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B228" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C228" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -7442,24 +8178,27 @@
         <v>27041</v>
       </c>
       <c r="G228">
-        <v>0.9936533611026828</v>
+        <v>0.99365336110268276</v>
       </c>
       <c r="H228">
-        <v>0.7817129395760201</v>
-      </c>
-      <c r="I228" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>0.78171293957602006</v>
+      </c>
+      <c r="I228">
+        <v>1.0332373027069801</v>
+      </c>
+      <c r="J228" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B229" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C229" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -7471,24 +8210,27 @@
         <v>2978</v>
       </c>
       <c r="G229">
-        <v>0.9965101982540157</v>
+        <v>0.99651019825401566</v>
       </c>
       <c r="H229">
-        <v>0.856225400031276</v>
-      </c>
-      <c r="I229" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>0.85622540003127601</v>
+      </c>
+      <c r="I229">
+        <v>1.000834872442707</v>
+      </c>
+      <c r="J229" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B230" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C230" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D230">
         <v>1.2</v>
@@ -7500,24 +8242,27 @@
         <v>14923</v>
       </c>
       <c r="G230">
-        <v>0.9542430436264352</v>
+        <v>0.95424304362643519</v>
       </c>
       <c r="H230">
-        <v>0.9777608257629655</v>
-      </c>
-      <c r="I230" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>0.97776082576296552</v>
+      </c>
+      <c r="I230">
+        <v>1.000033591364837</v>
+      </c>
+      <c r="J230" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B231" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C231" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D231">
         <v>1.4</v>
@@ -7532,21 +8277,24 @@
         <v>0.7952900961715339</v>
       </c>
       <c r="H231">
-        <v>0.9684826236415378</v>
-      </c>
-      <c r="I231" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>0.96848262364153781</v>
+      </c>
+      <c r="I231">
+        <v>1.0000416099705951</v>
+      </c>
+      <c r="J231" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C232" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -7558,24 +8306,27 @@
         <v>27012</v>
       </c>
       <c r="G232">
-        <v>0.8022415151561292</v>
+        <v>0.80224151515612918</v>
       </c>
       <c r="H232">
-        <v>0.9735239568766763</v>
-      </c>
-      <c r="I232" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>0.97352395687667626</v>
+      </c>
+      <c r="I232">
+        <v>1.000064241094389</v>
+      </c>
+      <c r="J232" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B233" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C233" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -7587,53 +8338,59 @@
         <v>3036</v>
       </c>
       <c r="G233">
-        <v>0.9539610483809182</v>
+        <v>0.95396104838091822</v>
       </c>
       <c r="H233">
-        <v>0.9556081373668107</v>
-      </c>
-      <c r="I233" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+        <v>0.95560813736681072</v>
+      </c>
+      <c r="I233">
+        <v>1.000026037807676</v>
+      </c>
+      <c r="J233" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B234" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C234" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D234">
         <v>1.4</v>
       </c>
       <c r="E234">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F234">
         <v>14963</v>
       </c>
       <c r="G234">
-        <v>0.7884416630307571</v>
+        <v>0.78844166303075713</v>
       </c>
       <c r="H234">
         <v>0.7253299790077431</v>
       </c>
-      <c r="I234" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="I234">
+        <v>1.047130420129277</v>
+      </c>
+      <c r="J234" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B235" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C235" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D235">
         <v>1.2</v>
@@ -7645,24 +8402,27 @@
         <v>14874</v>
       </c>
       <c r="G235">
-        <v>0.9486060845569558</v>
+        <v>0.94860608455695583</v>
       </c>
       <c r="H235">
         <v>0.7768270901662464</v>
       </c>
-      <c r="I235" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="I235">
+        <v>1.114653053224834</v>
+      </c>
+      <c r="J235" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B236" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C236" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -7674,24 +8434,27 @@
         <v>27106</v>
       </c>
       <c r="G236">
-        <v>0.7978810857657423</v>
+        <v>0.79788108576574235</v>
       </c>
       <c r="H236">
         <v>0.9760486007390089</v>
       </c>
-      <c r="I236" t="s">
+      <c r="I236">
+        <v>1.000595729693897</v>
+      </c>
+      <c r="J236" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
+        <v>42</v>
+      </c>
+      <c r="C237" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
-      <c r="A237" t="s">
-        <v>13</v>
-      </c>
-      <c r="B237" t="s">
-        <v>41</v>
-      </c>
-      <c r="C237" t="s">
-        <v>150</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -7703,16 +8466,29 @@
         <v>3057</v>
       </c>
       <c r="G237">
-        <v>0.9402652111785816</v>
+        <v>0.94026521117858164</v>
       </c>
       <c r="H237">
-        <v>0.9496210437295953</v>
-      </c>
-      <c r="I237" t="s">
-        <v>151</v>
+        <v>0.94962104372959533</v>
+      </c>
+      <c r="I237">
+        <v>1.000286383251354</v>
+      </c>
+      <c r="J237" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>1.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/regression_simulations.xlsx
+++ b/results/regression_simulations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arushi Jain\MIT Dropbox\Arushi Jain\FairAI\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7377885C-8DE2-4D1D-AE8E-16C6F0EF3460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE46F37-ED09-4111-B87F-E6E44411BDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -885,13 +885,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.26953125" customWidth="1"/>
+    <col min="1" max="1" width="54.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -943,16 +944,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1983</v>
+        <v>2077</v>
       </c>
       <c r="G2">
-        <v>0.98785454849840304</v>
+        <v>0.99787593774871075</v>
       </c>
       <c r="H2">
-        <v>0.99340132852093777</v>
+        <v>0.98975952449631177</v>
       </c>
       <c r="I2">
-        <v>1.000122561880596</v>
+        <v>1.000063693536128</v>
       </c>
       <c r="J2" t="s">
         <v>152</v>
@@ -975,16 +976,16 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2014</v>
+        <v>1976</v>
       </c>
       <c r="G3">
-        <v>0.97905953952548552</v>
+        <v>0.99023186998086676</v>
       </c>
       <c r="H3">
-        <v>0.99211145736487816</v>
+        <v>0.98858120378636238</v>
       </c>
       <c r="I3">
-        <v>1.000141175602089</v>
+        <v>0.99999769202066058</v>
       </c>
       <c r="J3" t="s">
         <v>152</v>
@@ -1007,16 +1008,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2003</v>
+        <v>1947</v>
       </c>
       <c r="G4">
-        <v>0.99114589158267308</v>
+        <v>0.99235301849020896</v>
       </c>
       <c r="H4">
-        <v>0.98993755893227486</v>
+        <v>0.98776384739304335</v>
       </c>
       <c r="I4">
-        <v>1.000001049715429</v>
+        <v>1.0000949126133021</v>
       </c>
       <c r="J4" t="s">
         <v>152</v>
@@ -1039,16 +1040,16 @@
         <v>1.2</v>
       </c>
       <c r="F5">
-        <v>2008</v>
+        <v>1966</v>
       </c>
       <c r="G5">
-        <v>0.97767778795126803</v>
+        <v>0.99609713168556036</v>
       </c>
       <c r="H5">
-        <v>0.83278381327338713</v>
+        <v>0.83105441503766198</v>
       </c>
       <c r="I5">
-        <v>5.8485635369015823</v>
+        <v>6.6469110076818341</v>
       </c>
       <c r="J5" t="s">
         <v>152</v>
@@ -1071,16 +1072,16 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1972</v>
+        <v>2028</v>
       </c>
       <c r="G6">
-        <v>0.99468054681388884</v>
+        <v>0.98817762145827348</v>
       </c>
       <c r="H6">
-        <v>0.91089937533143173</v>
+        <v>0.91107307125226344</v>
       </c>
       <c r="I6">
-        <v>1.188692303419782</v>
+        <v>1.178695382425663</v>
       </c>
       <c r="J6" t="s">
         <v>152</v>
@@ -1103,16 +1104,16 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="G7">
-        <v>0.98299813458791052</v>
+        <v>0.98426269323451976</v>
       </c>
       <c r="H7">
-        <v>0.90610801536960306</v>
+        <v>0.90645271966211494</v>
       </c>
       <c r="I7">
-        <v>1.208329961407923</v>
+        <v>1.2062813257522</v>
       </c>
       <c r="J7" t="s">
         <v>152</v>
@@ -1135,16 +1136,16 @@
         <v>1.2</v>
       </c>
       <c r="F8">
-        <v>1897</v>
+        <v>2004</v>
       </c>
       <c r="G8">
-        <v>0.62961323399490721</v>
+        <v>0.64053145824377589</v>
       </c>
       <c r="H8">
-        <v>0.97569616273900095</v>
+        <v>0.98288322498250724</v>
       </c>
       <c r="I8">
-        <v>1.0039258774378681</v>
+        <v>1.0006465449667321</v>
       </c>
       <c r="J8" t="s">
         <v>152</v>
@@ -1167,16 +1168,16 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2101</v>
+        <v>1986</v>
       </c>
       <c r="G9">
-        <v>0.80930334543309446</v>
+        <v>0.82469838505408033</v>
       </c>
       <c r="H9">
-        <v>0.98525479287520135</v>
+        <v>0.99258841690504929</v>
       </c>
       <c r="I9">
-        <v>1.001655911555287</v>
+        <v>1.000096894464237</v>
       </c>
       <c r="J9" t="s">
         <v>152</v>
@@ -1199,16 +1200,16 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G10">
-        <v>0.82767407492162737</v>
+        <v>0.81557378280461179</v>
       </c>
       <c r="H10">
-        <v>0.99100854753994094</v>
+        <v>0.99071115707542245</v>
       </c>
       <c r="I10">
-        <v>1.0004491711881141</v>
+        <v>1.0005570976246989</v>
       </c>
       <c r="J10" t="s">
         <v>152</v>
@@ -1231,16 +1232,16 @@
         <v>0.75</v>
       </c>
       <c r="F11">
-        <v>1929</v>
+        <v>1965</v>
       </c>
       <c r="G11">
-        <v>0.6790907298075437</v>
+        <v>0.64709836469105897</v>
       </c>
       <c r="H11">
-        <v>0.87705682940370988</v>
+        <v>0.87332345390573696</v>
       </c>
       <c r="I11">
-        <v>1.2792920207371909</v>
+        <v>1.3025974037592829</v>
       </c>
       <c r="J11" t="s">
         <v>152</v>
@@ -1263,16 +1264,16 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>2081</v>
+        <v>1974</v>
       </c>
       <c r="G12">
-        <v>0.82961834540864132</v>
+        <v>0.8295787879299743</v>
       </c>
       <c r="H12">
-        <v>0.94031615926539336</v>
+        <v>0.94824006030635144</v>
       </c>
       <c r="I12">
-        <v>1.075287039506533</v>
+        <v>1.052139519007979</v>
       </c>
       <c r="J12" t="s">
         <v>152</v>
@@ -1295,16 +1296,16 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1990</v>
+        <v>2061</v>
       </c>
       <c r="G13">
-        <v>0.8538988672054999</v>
+        <v>0.81985885287915994</v>
       </c>
       <c r="H13">
-        <v>0.95566006838523321</v>
+        <v>0.9475175034667106</v>
       </c>
       <c r="I13">
-        <v>1.0343869975633899</v>
+        <v>1.0602347041620519</v>
       </c>
       <c r="J13" t="s">
         <v>152</v>
@@ -1327,16 +1328,16 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1983</v>
+        <v>2077</v>
       </c>
       <c r="G14">
-        <v>0.98514643196229346</v>
+        <v>0.99654082486263551</v>
       </c>
       <c r="H14">
-        <v>0.98876000070370273</v>
+        <v>0.99035377228843946</v>
       </c>
       <c r="I14">
-        <v>1.000070057287952</v>
+        <v>1.0000768421088211</v>
       </c>
       <c r="J14" t="s">
         <v>152</v>
@@ -1359,16 +1360,16 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2014</v>
+        <v>1976</v>
       </c>
       <c r="G15">
-        <v>0.98020634375293181</v>
+        <v>0.99034360290163692</v>
       </c>
       <c r="H15">
-        <v>0.98765465996829749</v>
+        <v>0.9893709253300339</v>
       </c>
       <c r="I15">
-        <v>1.0001196172951901</v>
+        <v>1.0000045348675739</v>
       </c>
       <c r="J15" t="s">
         <v>152</v>
@@ -1391,16 +1392,16 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>2003</v>
+        <v>1947</v>
       </c>
       <c r="G16">
-        <v>0.99499555239396587</v>
+        <v>0.99382184668442897</v>
       </c>
       <c r="H16">
-        <v>0.99090240749902969</v>
+        <v>0.98473810613568025</v>
       </c>
       <c r="I16">
-        <v>1.0000101794438621</v>
+        <v>1.000039821097815</v>
       </c>
       <c r="J16" t="s">
         <v>152</v>
@@ -1423,16 +1424,16 @@
         <v>1.3</v>
       </c>
       <c r="F17">
-        <v>2008</v>
+        <v>1966</v>
       </c>
       <c r="G17">
-        <v>0.97867058469264534</v>
+        <v>0.99436854009454112</v>
       </c>
       <c r="H17">
-        <v>0.77106020177413803</v>
+        <v>0.7659176943509306</v>
       </c>
       <c r="I17">
-        <v>26.2188459516492</v>
+        <v>35.234594257371008</v>
       </c>
       <c r="J17" t="s">
         <v>153</v>
@@ -1455,16 +1456,16 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1972</v>
+        <v>2028</v>
       </c>
       <c r="G18">
-        <v>0.99368447053306053</v>
+        <v>0.99204360508583433</v>
       </c>
       <c r="H18">
-        <v>0.87220400859989022</v>
+        <v>0.87056002128491305</v>
       </c>
       <c r="I18">
-        <v>1.2725943314605801</v>
+        <v>1.2515235032473111</v>
       </c>
       <c r="J18" t="s">
         <v>152</v>
@@ -1487,16 +1488,16 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="G19">
-        <v>0.98497955660790382</v>
+        <v>0.98641927947579644</v>
       </c>
       <c r="H19">
-        <v>0.86881546742283733</v>
+        <v>0.86724423348408808</v>
       </c>
       <c r="I19">
-        <v>1.285954668107165</v>
+        <v>1.2815447900491459</v>
       </c>
       <c r="J19" t="s">
         <v>152</v>
@@ -1519,16 +1520,16 @@
         <v>1.3</v>
       </c>
       <c r="F20">
-        <v>1897</v>
+        <v>2004</v>
       </c>
       <c r="G20">
-        <v>0.53637548376564448</v>
+        <v>0.54445939578848246</v>
       </c>
       <c r="H20">
-        <v>0.93909785535346835</v>
+        <v>0.9514669727669951</v>
       </c>
       <c r="I20">
-        <v>1.027009426886627</v>
+        <v>1.0177425456448861</v>
       </c>
       <c r="J20" t="s">
         <v>152</v>
@@ -1551,16 +1552,16 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>2101</v>
+        <v>1986</v>
       </c>
       <c r="G21">
-        <v>0.76426814855040104</v>
+        <v>0.77529267061465224</v>
       </c>
       <c r="H21">
-        <v>0.96711153893327695</v>
+        <v>0.97852898130957899</v>
       </c>
       <c r="I21">
-        <v>1.007427050455272</v>
+        <v>1.002843186862433</v>
       </c>
       <c r="J21" t="s">
         <v>152</v>
@@ -1583,16 +1584,16 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="G22">
-        <v>0.78129068388201073</v>
+        <v>0.76883046560524959</v>
       </c>
       <c r="H22">
-        <v>0.98062053228651269</v>
+        <v>0.97827299287018843</v>
       </c>
       <c r="I22">
-        <v>1.0032477346436881</v>
+        <v>1.004527639368521</v>
       </c>
       <c r="J22" t="s">
         <v>152</v>
@@ -1615,16 +1616,16 @@
         <v>0.6</v>
       </c>
       <c r="F23">
-        <v>1929</v>
+        <v>1965</v>
       </c>
       <c r="G23">
-        <v>0.52947551106080115</v>
+        <v>0.50393573527777158</v>
       </c>
       <c r="H23">
-        <v>0.79932686307702172</v>
+        <v>0.78193125267610697</v>
       </c>
       <c r="I23">
-        <v>1.637904653254912</v>
+        <v>1.7261250248408539</v>
       </c>
       <c r="J23" t="s">
         <v>154</v>
@@ -1647,16 +1648,16 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <v>2081</v>
+        <v>1974</v>
       </c>
       <c r="G24">
-        <v>0.75525554170130837</v>
+        <v>0.76008787153017843</v>
       </c>
       <c r="H24">
-        <v>0.92329743739816017</v>
+        <v>0.92893338207315268</v>
       </c>
       <c r="I24">
-        <v>1.10380537693667</v>
+        <v>1.0759099961773071</v>
       </c>
       <c r="J24" t="s">
         <v>152</v>
@@ -1679,16 +1680,16 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1990</v>
+        <v>2061</v>
       </c>
       <c r="G25">
-        <v>0.78065468578210018</v>
+        <v>0.74713235622842999</v>
       </c>
       <c r="H25">
-        <v>0.93678960611388451</v>
+        <v>0.92749475497751965</v>
       </c>
       <c r="I25">
-        <v>1.054751687222057</v>
+        <v>1.0882068724510949</v>
       </c>
       <c r="J25" t="s">
         <v>152</v>
@@ -1711,16 +1712,16 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>2400</v>
+        <v>2436</v>
       </c>
       <c r="G26">
-        <v>0.99525020690052191</v>
+        <v>0.99947679603880146</v>
       </c>
       <c r="H26">
-        <v>0.99276239709755221</v>
+        <v>0.98261365914679433</v>
       </c>
       <c r="I26">
-        <v>1.0000719804994289</v>
+        <v>1.0003434377729259</v>
       </c>
       <c r="J26" t="s">
         <v>152</v>
@@ -1743,16 +1744,16 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>2377</v>
+        <v>2391</v>
       </c>
       <c r="G27">
-        <v>0.99119346129904973</v>
+        <v>0.99792242102140627</v>
       </c>
       <c r="H27">
-        <v>0.98737544446726333</v>
+        <v>0.98643340938147084</v>
       </c>
       <c r="I27">
-        <v>1.0005069440887131</v>
+        <v>1.000409045042884</v>
       </c>
       <c r="J27" t="s">
         <v>152</v>
@@ -1775,16 +1776,16 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1223</v>
+        <v>1173</v>
       </c>
       <c r="G28">
-        <v>0.99508407638048424</v>
+        <v>0.99678732784090751</v>
       </c>
       <c r="H28">
-        <v>0.98125080971792455</v>
+        <v>0.97875399370889393</v>
       </c>
       <c r="I28">
-        <v>1.0002033835272131</v>
+        <v>0.99998054217689181</v>
       </c>
       <c r="J28" t="s">
         <v>152</v>
@@ -1807,16 +1808,16 @@
         <v>1.3</v>
       </c>
       <c r="F29">
-        <v>2383</v>
+        <v>2393</v>
       </c>
       <c r="G29">
-        <v>0.98902686662755812</v>
+        <v>0.99465204699022303</v>
       </c>
       <c r="H29">
-        <v>0.77297367558340646</v>
+        <v>0.76407120173236986</v>
       </c>
       <c r="I29">
-        <v>25.975201338966912</v>
+        <v>51.382553833981383</v>
       </c>
       <c r="J29" t="s">
         <v>153</v>
@@ -1839,16 +1840,16 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>2417</v>
+        <v>2434</v>
       </c>
       <c r="G30">
-        <v>0.98881495724333845</v>
+        <v>0.997557881021787</v>
       </c>
       <c r="H30">
-        <v>0.83529329534184227</v>
+        <v>0.83135376964424723</v>
       </c>
       <c r="I30">
-        <v>1.652745591568491</v>
+        <v>1.6516174686607381</v>
       </c>
       <c r="J30" t="s">
         <v>152</v>
@@ -1871,16 +1872,16 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1200</v>
+        <v>1173</v>
       </c>
       <c r="G31">
-        <v>0.99970843098225426</v>
+        <v>0.99037331336104628</v>
       </c>
       <c r="H31">
-        <v>0.87528379710459847</v>
+        <v>0.86198106903253935</v>
       </c>
       <c r="I31">
-        <v>1.169872043690183</v>
+        <v>1.202465809857028</v>
       </c>
       <c r="J31" t="s">
         <v>152</v>
@@ -1903,16 +1904,16 @@
         <v>1.3</v>
       </c>
       <c r="F32">
-        <v>2309</v>
+        <v>2373</v>
       </c>
       <c r="G32">
-        <v>0.53420230733632057</v>
+        <v>0.53855616313691645</v>
       </c>
       <c r="H32">
-        <v>0.94022405337248838</v>
+        <v>0.9483833728000387</v>
       </c>
       <c r="I32">
-        <v>1.0364685615899649</v>
+        <v>1.025782316326588</v>
       </c>
       <c r="J32" t="s">
         <v>152</v>
@@ -1935,16 +1936,16 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <v>2499</v>
+        <v>2417</v>
       </c>
       <c r="G33">
-        <v>0.69933726499014282</v>
+        <v>0.69881592714726382</v>
       </c>
       <c r="H33">
-        <v>0.96462104673374938</v>
+        <v>0.96808904390511386</v>
       </c>
       <c r="I33">
-        <v>1.015063396300611</v>
+        <v>1.006511549802398</v>
       </c>
       <c r="J33" t="s">
         <v>152</v>
@@ -1967,16 +1968,16 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="G34">
-        <v>0.8034660428215723</v>
+        <v>0.80584039750115188</v>
       </c>
       <c r="H34">
-        <v>0.97508524572161925</v>
+        <v>0.97172503781119868</v>
       </c>
       <c r="I34">
-        <v>1.0023760931226371</v>
+        <v>1.0041950612225261</v>
       </c>
       <c r="J34" t="s">
         <v>152</v>
@@ -1999,19 +2000,19 @@
         <v>0.6</v>
       </c>
       <c r="F35">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="G35">
-        <v>0.51133631002527347</v>
+        <v>0.48623760622390011</v>
       </c>
       <c r="H35">
-        <v>0.8001362402258102</v>
+        <v>0.78299680824240381</v>
       </c>
       <c r="I35">
-        <v>1.753910767215147</v>
+        <v>1.820285444262133</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -2031,16 +2032,16 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>2479</v>
+        <v>2435</v>
       </c>
       <c r="G36">
-        <v>0.67876893896333312</v>
+        <v>0.6706420740351462</v>
       </c>
       <c r="H36">
-        <v>0.8939768856783612</v>
+        <v>0.90592733224995803</v>
       </c>
       <c r="I36">
-        <v>1.264346342760196</v>
+        <v>1.196941882465643</v>
       </c>
       <c r="J36" t="s">
         <v>152</v>
@@ -2063,16 +2064,16 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>1177</v>
+        <v>1218</v>
       </c>
       <c r="G37">
-        <v>0.79792290569333246</v>
+        <v>0.77875995908599194</v>
       </c>
       <c r="H37">
-        <v>0.9352308850543497</v>
+        <v>0.92295301189760948</v>
       </c>
       <c r="I37">
-        <v>1.0350133048594881</v>
+        <v>1.060442012472272</v>
       </c>
       <c r="J37" t="s">
         <v>152</v>
@@ -2095,16 +2096,16 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>14914</v>
+        <v>15019</v>
       </c>
       <c r="G38">
-        <v>0.99630904070212567</v>
+        <v>0.99298080784141596</v>
       </c>
       <c r="H38">
-        <v>0.99090483263141305</v>
+        <v>0.98399215387056327</v>
       </c>
       <c r="I38">
-        <v>1.000065698803422</v>
+        <v>1.0001348189132699</v>
       </c>
       <c r="J38" t="s">
         <v>152</v>
@@ -2127,16 +2128,16 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>15060</v>
+        <v>14829</v>
       </c>
       <c r="G39">
-        <v>0.9999414477723968</v>
+        <v>0.99450722558178506</v>
       </c>
       <c r="H39">
-        <v>0.98379065191549264</v>
+        <v>0.9885456201358076</v>
       </c>
       <c r="I39">
-        <v>1.0000208745633259</v>
+        <v>0.99995581839620673</v>
       </c>
       <c r="J39" t="s">
         <v>152</v>
@@ -2159,16 +2160,16 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>26984</v>
+        <v>27152</v>
       </c>
       <c r="G40">
-        <v>0.99952766306942498</v>
+        <v>0.99722496426802076</v>
       </c>
       <c r="H40">
-        <v>0.9861489493722807</v>
+        <v>0.9902256438408108</v>
       </c>
       <c r="I40">
-        <v>1.0000025734548881</v>
+        <v>1.000012567286084</v>
       </c>
       <c r="J40" t="s">
         <v>152</v>
@@ -2191,16 +2192,16 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <v>3042</v>
+        <v>3000</v>
       </c>
       <c r="G41">
-        <v>0.99391567178720497</v>
+        <v>0.99674273793868073</v>
       </c>
       <c r="H41">
-        <v>0.98013478078823735</v>
+        <v>0.97336385438167872</v>
       </c>
       <c r="I41">
-        <v>1.000010063825449</v>
+        <v>1.0000237845647839</v>
       </c>
       <c r="J41" t="s">
         <v>152</v>
@@ -2223,16 +2224,16 @@
         <v>1.2</v>
       </c>
       <c r="F42">
-        <v>15086</v>
+        <v>14889</v>
       </c>
       <c r="G42">
-        <v>0.99429627125826292</v>
+        <v>0.99483300438132582</v>
       </c>
       <c r="H42">
-        <v>0.82717376777580953</v>
+        <v>0.8231300238193674</v>
       </c>
       <c r="I42">
-        <v>1.052379499980808</v>
+        <v>1.058890296633997</v>
       </c>
       <c r="J42" t="s">
         <v>152</v>
@@ -2255,16 +2256,16 @@
         <v>1</v>
       </c>
       <c r="F43">
-        <v>15091</v>
+        <v>15007</v>
       </c>
       <c r="G43">
-        <v>0.99468643970895942</v>
+        <v>0.9981405028398963</v>
       </c>
       <c r="H43">
-        <v>0.94394750431482388</v>
+        <v>0.94911053946363888</v>
       </c>
       <c r="I43">
-        <v>1.0018655068936311</v>
+        <v>1.001258427295693</v>
       </c>
       <c r="J43" t="s">
         <v>152</v>
@@ -2287,16 +2288,16 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>26836</v>
+        <v>27060</v>
       </c>
       <c r="G44">
-        <v>0.99995572260618115</v>
+        <v>0.99641620649994744</v>
       </c>
       <c r="H44">
-        <v>0.93443955529918199</v>
+        <v>0.92701384641269013</v>
       </c>
       <c r="I44">
-        <v>1.0040863908177551</v>
+        <v>1.0049215682505339</v>
       </c>
       <c r="J44" t="s">
         <v>152</v>
@@ -2319,16 +2320,16 @@
         <v>0.85</v>
       </c>
       <c r="F45">
-        <v>2987</v>
+        <v>3044</v>
       </c>
       <c r="G45">
-        <v>0.99912168394296297</v>
+        <v>0.99837434711173989</v>
       </c>
       <c r="H45">
-        <v>0.79142891801223181</v>
+        <v>0.79997435909662495</v>
       </c>
       <c r="I45">
-        <v>1.0004368582401979</v>
+        <v>1.002847315804446</v>
       </c>
       <c r="J45" t="s">
         <v>154</v>
@@ -2351,16 +2352,16 @@
         <v>1.2</v>
       </c>
       <c r="F46">
-        <v>14896</v>
+        <v>15146</v>
       </c>
       <c r="G46">
-        <v>0.85200686471291232</v>
+        <v>0.85450128249580792</v>
       </c>
       <c r="H46">
-        <v>0.97726803959859598</v>
+        <v>0.97310829032411905</v>
       </c>
       <c r="I46">
-        <v>1.0000204923276139</v>
+        <v>1.0001420659575939</v>
       </c>
       <c r="J46" t="s">
         <v>152</v>
@@ -2383,16 +2384,16 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>15257</v>
+        <v>14955</v>
       </c>
       <c r="G47">
-        <v>0.95881006696169613</v>
+        <v>0.96039518416879466</v>
       </c>
       <c r="H47">
-        <v>0.97399650233441082</v>
+        <v>0.98584894903379505</v>
       </c>
       <c r="I47">
-        <v>1.0000290084772001</v>
+        <v>1.0000212557351</v>
       </c>
       <c r="J47" t="s">
         <v>152</v>
@@ -2415,16 +2416,16 @@
         <v>1</v>
       </c>
       <c r="F48">
-        <v>26913</v>
+        <v>26950</v>
       </c>
       <c r="G48">
-        <v>0.93726505468259314</v>
+        <v>0.93632222303386092</v>
       </c>
       <c r="H48">
-        <v>0.98760943136310242</v>
+        <v>0.98905562765113508</v>
       </c>
       <c r="I48">
-        <v>1.0000046344977409</v>
+        <v>1.000008740296751</v>
       </c>
       <c r="J48" t="s">
         <v>152</v>
@@ -2447,16 +2448,16 @@
         <v>0.85</v>
       </c>
       <c r="F49">
-        <v>2934</v>
+        <v>2949</v>
       </c>
       <c r="G49">
-        <v>0.93138850419548569</v>
+        <v>0.93339030217648056</v>
       </c>
       <c r="H49">
-        <v>0.97715874827274984</v>
+        <v>0.98193752281495539</v>
       </c>
       <c r="I49">
-        <v>1.0000794258672681</v>
+        <v>1.0000071331815521</v>
       </c>
       <c r="J49" t="s">
         <v>152</v>
@@ -2479,16 +2480,16 @@
         <v>0.65</v>
       </c>
       <c r="F50">
-        <v>14975</v>
+        <v>15025</v>
       </c>
       <c r="G50">
-        <v>0.87871849435496507</v>
+        <v>0.87636404242348132</v>
       </c>
       <c r="H50">
-        <v>0.75557996283515527</v>
+        <v>0.76061077163064905</v>
       </c>
       <c r="I50">
-        <v>1.0330529714843319</v>
+        <v>1.0333517990796011</v>
       </c>
       <c r="J50" t="s">
         <v>154</v>
@@ -2511,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>14912</v>
+        <v>14969</v>
       </c>
       <c r="G51">
-        <v>0.97248351373465725</v>
+        <v>0.97015836855240012</v>
       </c>
       <c r="H51">
-        <v>0.93321592280098997</v>
+        <v>0.93541206857628423</v>
       </c>
       <c r="I51">
-        <v>1.0023336284578681</v>
+        <v>1.0025803100313739</v>
       </c>
       <c r="J51" t="s">
         <v>152</v>
@@ -2543,16 +2544,16 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>27117</v>
+        <v>26930</v>
       </c>
       <c r="G52">
-        <v>0.95847643017646278</v>
+        <v>0.95798903669569524</v>
       </c>
       <c r="H52">
-        <v>0.91419502058196978</v>
+        <v>0.92416286914925683</v>
       </c>
       <c r="I52">
-        <v>1.00732826609751</v>
+        <v>1.0050258091102979</v>
       </c>
       <c r="J52" t="s">
         <v>152</v>
@@ -2575,16 +2576,16 @@
         <v>1.45</v>
       </c>
       <c r="F53">
-        <v>2996</v>
+        <v>3076</v>
       </c>
       <c r="G53">
-        <v>0.90849737273863096</v>
+        <v>0.91041330813296339</v>
       </c>
       <c r="H53">
-        <v>0.79124505785548194</v>
+        <v>0.77190817499509989</v>
       </c>
       <c r="I53">
-        <v>1.0689133821395</v>
+        <v>1.1243033144209249</v>
       </c>
       <c r="J53" t="s">
         <v>153</v>
@@ -2607,16 +2608,16 @@
         <v>1.2</v>
       </c>
       <c r="F54">
-        <v>14945</v>
+        <v>15084</v>
       </c>
       <c r="G54">
-        <v>0.99500763077823673</v>
+        <v>0.99992833546409809</v>
       </c>
       <c r="H54">
-        <v>0.74448549405023123</v>
+        <v>0.75280479112567267</v>
       </c>
       <c r="I54">
-        <v>1.3952228891188021</v>
+        <v>1.5096821782454961</v>
       </c>
       <c r="J54" t="s">
         <v>153</v>
@@ -2639,16 +2640,16 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>14977</v>
+        <v>15155</v>
       </c>
       <c r="G55">
-        <v>0.99820118600519325</v>
+        <v>0.99758535155743178</v>
       </c>
       <c r="H55">
-        <v>0.97792739743569124</v>
+        <v>0.97886118713321724</v>
       </c>
       <c r="I55">
-        <v>1.00024262309073</v>
+        <v>1.0001224276660221</v>
       </c>
       <c r="J55" t="s">
         <v>152</v>
@@ -2671,16 +2672,16 @@
         <v>0.85</v>
       </c>
       <c r="F56">
-        <v>27032</v>
+        <v>26823</v>
       </c>
       <c r="G56">
-        <v>0.99393889010473269</v>
+        <v>0.99705934943714636</v>
       </c>
       <c r="H56">
-        <v>0.77156254947357017</v>
+        <v>0.77862231700275819</v>
       </c>
       <c r="I56">
-        <v>1.0619935295272129</v>
+        <v>1.056375975909106</v>
       </c>
       <c r="J56" t="s">
         <v>154</v>
@@ -2703,16 +2704,16 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>3046</v>
+        <v>2938</v>
       </c>
       <c r="G57">
-        <v>0.99964438106685138</v>
+        <v>0.9979425397445878</v>
       </c>
       <c r="H57">
-        <v>0.97444121091201152</v>
+        <v>0.9695190907243193</v>
       </c>
       <c r="I57">
-        <v>1.000000656270509</v>
+        <v>1.0001239145339551</v>
       </c>
       <c r="J57" t="s">
         <v>152</v>
@@ -2735,16 +2736,16 @@
         <v>1.2</v>
       </c>
       <c r="F58">
-        <v>15087</v>
+        <v>14914</v>
       </c>
       <c r="G58">
-        <v>0.77509498977864699</v>
+        <v>0.78256757931582444</v>
       </c>
       <c r="H58">
-        <v>0.96791361168419476</v>
+        <v>0.96508998477255326</v>
       </c>
       <c r="I58">
-        <v>1.000019343383215</v>
+        <v>1.0001282556770159</v>
       </c>
       <c r="J58" t="s">
         <v>152</v>
@@ -2767,16 +2768,16 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>14912</v>
+        <v>15032</v>
       </c>
       <c r="G59">
-        <v>0.9831276599920139</v>
+        <v>0.97708594371488111</v>
       </c>
       <c r="H59">
-        <v>0.97345716666627269</v>
+        <v>0.98967211209583728</v>
       </c>
       <c r="I59">
-        <v>1.0002773572874659</v>
+        <v>1.0000160854322659</v>
       </c>
       <c r="J59" t="s">
         <v>152</v>
@@ -2799,16 +2800,16 @@
         <v>0.85</v>
       </c>
       <c r="F60">
-        <v>27019</v>
+        <v>27041</v>
       </c>
       <c r="G60">
-        <v>0.78601056964838012</v>
+        <v>0.79085101067776853</v>
       </c>
       <c r="H60">
-        <v>0.97433194692686964</v>
+        <v>0.97495172118890827</v>
       </c>
       <c r="I60">
-        <v>1.000248561047749</v>
+        <v>1.0000439981723881</v>
       </c>
       <c r="J60" t="s">
         <v>152</v>
@@ -2831,16 +2832,16 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>2982</v>
+        <v>3013</v>
       </c>
       <c r="G61">
-        <v>0.99264090476352418</v>
+        <v>0.99924414643432347</v>
       </c>
       <c r="H61">
-        <v>0.96966288158852443</v>
+        <v>0.97241620744579504</v>
       </c>
       <c r="I61">
-        <v>1.000100794280699</v>
+        <v>1.000090281130807</v>
       </c>
       <c r="J61" t="s">
         <v>152</v>
@@ -2863,16 +2864,16 @@
         <v>0.65</v>
       </c>
       <c r="F62">
-        <v>14926</v>
+        <v>14885</v>
       </c>
       <c r="G62">
-        <v>0.81180526001688291</v>
+        <v>0.81098001426058142</v>
       </c>
       <c r="H62">
-        <v>0.68012993122192944</v>
+        <v>0.67545392495332757</v>
       </c>
       <c r="I62">
-        <v>1.0822025268747619</v>
+        <v>1.093117986273169</v>
       </c>
       <c r="J62" t="s">
         <v>154</v>
@@ -2895,16 +2896,16 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>14976</v>
+        <v>15115</v>
       </c>
       <c r="G63">
-        <v>0.95159847923555785</v>
+        <v>0.95359761840360291</v>
       </c>
       <c r="H63">
-        <v>0.92877945078024293</v>
+        <v>0.93603096420797505</v>
       </c>
       <c r="I63">
-        <v>1.003299222768786</v>
+        <v>1.0030860692300501</v>
       </c>
       <c r="J63" t="s">
         <v>152</v>
@@ -2927,16 +2928,16 @@
         <v>1.45</v>
       </c>
       <c r="F64">
-        <v>27029</v>
+        <v>27010</v>
       </c>
       <c r="G64">
-        <v>0.78704509550693713</v>
+        <v>0.78640666317891339</v>
       </c>
       <c r="H64">
-        <v>0.73459497061225809</v>
+        <v>0.73094167050258396</v>
       </c>
       <c r="I64">
-        <v>3.3772242226201001</v>
+        <v>14.959088552540759</v>
       </c>
       <c r="J64" t="s">
         <v>153</v>
@@ -2959,16 +2960,16 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>3069</v>
+        <v>2990</v>
       </c>
       <c r="G65">
-        <v>0.98342980544166558</v>
+        <v>0.97939714009664924</v>
       </c>
       <c r="H65">
-        <v>0.95126037772587246</v>
+        <v>0.95905526562671817</v>
       </c>
       <c r="I65">
-        <v>1.0001450222009809</v>
+        <v>1.0005122876132411</v>
       </c>
       <c r="J65" t="s">
         <v>152</v>
@@ -2991,16 +2992,16 @@
         <v>1.2</v>
       </c>
       <c r="F66">
-        <v>15137</v>
+        <v>15065</v>
       </c>
       <c r="G66">
-        <v>0.991446463766958</v>
+        <v>0.99936248158530261</v>
       </c>
       <c r="H66">
-        <v>0.85510443203709297</v>
+        <v>0.8454058780481849</v>
       </c>
       <c r="I66">
-        <v>1.0290149515664351</v>
+        <v>1.0373969816551469</v>
       </c>
       <c r="J66" t="s">
         <v>152</v>
@@ -3023,16 +3024,16 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>15109</v>
+        <v>14975</v>
       </c>
       <c r="G67">
-        <v>0.99748704490159223</v>
+        <v>0.99928771381908443</v>
       </c>
       <c r="H67">
-        <v>0.91352088111194929</v>
+        <v>0.90469683392094735</v>
       </c>
       <c r="I67">
-        <v>1.0037162348978019</v>
+        <v>1.005029547473256</v>
       </c>
       <c r="J67" t="s">
         <v>152</v>
@@ -3055,16 +3056,16 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>26764</v>
+        <v>27072</v>
       </c>
       <c r="G68">
-        <v>0.99162760751595103</v>
+        <v>0.99931154564514801</v>
       </c>
       <c r="H68">
-        <v>0.88471012329305387</v>
+        <v>0.88845691727628739</v>
       </c>
       <c r="I68">
-        <v>1.0128544316353021</v>
+        <v>1.0121680742960251</v>
       </c>
       <c r="J68" t="s">
         <v>152</v>
@@ -3087,16 +3088,16 @@
         <v>1.4</v>
       </c>
       <c r="F69">
-        <v>2990</v>
+        <v>2888</v>
       </c>
       <c r="G69">
-        <v>0.99704049150321128</v>
+        <v>0.99854809394576916</v>
       </c>
       <c r="H69">
-        <v>0.74570683734576837</v>
+        <v>0.75795981629877862</v>
       </c>
       <c r="I69">
-        <v>1.142305043158333</v>
+        <v>1.2170200913540361</v>
       </c>
       <c r="J69" t="s">
         <v>153</v>
@@ -3119,16 +3120,16 @@
         <v>1.2</v>
       </c>
       <c r="F70">
-        <v>15020</v>
+        <v>15166</v>
       </c>
       <c r="G70">
-        <v>0.88086493564594159</v>
+        <v>0.87886723453612214</v>
       </c>
       <c r="H70">
-        <v>0.99050278977357209</v>
+        <v>0.98537933220433571</v>
       </c>
       <c r="I70">
-        <v>1.000076520941761</v>
+        <v>1.000002676702388</v>
       </c>
       <c r="J70" t="s">
         <v>152</v>
@@ -3151,16 +3152,16 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>14934</v>
+        <v>14922</v>
       </c>
       <c r="G71">
-        <v>0.94182867062670317</v>
+        <v>0.93685856126075018</v>
       </c>
       <c r="H71">
-        <v>0.9855851803692206</v>
+        <v>0.98545648879344427</v>
       </c>
       <c r="I71">
-        <v>1.000011000586795</v>
+        <v>1.00000026298329</v>
       </c>
       <c r="J71" t="s">
         <v>152</v>
@@ -3183,16 +3184,16 @@
         <v>1</v>
       </c>
       <c r="F72">
-        <v>27017</v>
+        <v>26882</v>
       </c>
       <c r="G72">
-        <v>0.8934450404995552</v>
+        <v>0.89412805497921088</v>
       </c>
       <c r="H72">
-        <v>0.98992040752769317</v>
+        <v>0.98747272880579862</v>
       </c>
       <c r="I72">
-        <v>1.000200083953767</v>
+        <v>1.000000220569297</v>
       </c>
       <c r="J72" t="s">
         <v>152</v>
@@ -3215,16 +3216,16 @@
         <v>1.4</v>
       </c>
       <c r="F73">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="G73">
-        <v>0.87870920939496333</v>
+        <v>0.87533386573606298</v>
       </c>
       <c r="H73">
-        <v>0.95283106712399102</v>
+        <v>0.95668373673908802</v>
       </c>
       <c r="I73">
-        <v>1.0000733766567611</v>
+        <v>1.000008747127282</v>
       </c>
       <c r="J73" t="s">
         <v>152</v>
@@ -3247,16 +3248,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F74">
-        <v>15073</v>
+        <v>14985</v>
       </c>
       <c r="G74">
-        <v>0.74459319918254185</v>
+        <v>0.73935854945453949</v>
       </c>
       <c r="H74">
-        <v>0.76313092760971324</v>
+        <v>0.75893100489406584</v>
       </c>
       <c r="I74">
-        <v>1.0553809024770759</v>
+        <v>1.062232165347897</v>
       </c>
       <c r="J74" t="s">
         <v>154</v>
@@ -3279,16 +3280,16 @@
         <v>1</v>
       </c>
       <c r="F75">
-        <v>14839</v>
+        <v>15155</v>
       </c>
       <c r="G75">
-        <v>0.9069207257395997</v>
+        <v>0.89881556643881744</v>
       </c>
       <c r="H75">
-        <v>0.93954130271494796</v>
+        <v>0.94120804850528805</v>
       </c>
       <c r="I75">
-        <v>1.0050284517492061</v>
+        <v>1.00472545892228</v>
       </c>
       <c r="J75" t="s">
         <v>152</v>
@@ -3311,16 +3312,16 @@
         <v>1</v>
       </c>
       <c r="F76">
-        <v>27032</v>
+        <v>26883</v>
       </c>
       <c r="G76">
-        <v>0.84375031458265559</v>
+        <v>0.84886169220299168</v>
       </c>
       <c r="H76">
-        <v>0.91715321005634576</v>
+        <v>0.91657687524472387</v>
       </c>
       <c r="I76">
-        <v>1.011756631754799</v>
+        <v>1.0158296845380379</v>
       </c>
       <c r="J76" t="s">
         <v>152</v>
@@ -3343,16 +3344,16 @@
         <v>1.45</v>
       </c>
       <c r="F77">
-        <v>3056</v>
+        <v>2977</v>
       </c>
       <c r="G77">
-        <v>0.96758132273102215</v>
+        <v>0.97098449536739218</v>
       </c>
       <c r="H77">
-        <v>0.79813346672882068</v>
+        <v>0.79352102647568423</v>
       </c>
       <c r="I77">
-        <v>1.0773945423339299</v>
+        <v>1.1043857818588141</v>
       </c>
       <c r="J77" t="s">
         <v>153</v>
@@ -3375,16 +3376,16 @@
         <v>1.2</v>
       </c>
       <c r="F78">
-        <v>14894</v>
+        <v>14876</v>
       </c>
       <c r="G78">
-        <v>0.99833647953425186</v>
+        <v>0.99439412902267976</v>
       </c>
       <c r="H78">
-        <v>0.97206872487059937</v>
+        <v>0.96605281916337804</v>
       </c>
       <c r="I78">
-        <v>1.0000406196838989</v>
+        <v>1.000676242992262</v>
       </c>
       <c r="J78" t="s">
         <v>152</v>
@@ -3407,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="F79">
-        <v>15035</v>
+        <v>15052</v>
       </c>
       <c r="G79">
-        <v>0.99986795125165862</v>
+        <v>0.99952764001180483</v>
       </c>
       <c r="H79">
-        <v>0.7598616291162319</v>
+        <v>0.76269975916036237</v>
       </c>
       <c r="I79">
-        <v>1.037924567861285</v>
+        <v>1.0328777619517111</v>
       </c>
       <c r="J79" t="s">
         <v>154</v>
@@ -3439,16 +3440,16 @@
         <v>1.4</v>
       </c>
       <c r="F80">
-        <v>26965</v>
+        <v>27062</v>
       </c>
       <c r="G80">
-        <v>0.99661650640018951</v>
+        <v>0.99227529932100833</v>
       </c>
       <c r="H80">
-        <v>0.78020602281017892</v>
+        <v>0.77644798012059058</v>
       </c>
       <c r="I80">
-        <v>1.2137233081402099</v>
+        <v>1.361909170473864</v>
       </c>
       <c r="J80" t="s">
         <v>153</v>
@@ -3471,19 +3472,19 @@
         <v>1</v>
       </c>
       <c r="F81">
-        <v>3106</v>
+        <v>3010</v>
       </c>
       <c r="G81">
-        <v>0.99590521104243424</v>
+        <v>0.99441875576309313</v>
       </c>
       <c r="H81">
-        <v>0.7930823594975821</v>
+        <v>0.80650882247616251</v>
       </c>
       <c r="I81">
-        <v>1.003388855493158</v>
+        <v>1.0019369101850051</v>
       </c>
       <c r="J81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
@@ -3503,16 +3504,16 @@
         <v>1.2</v>
       </c>
       <c r="F82">
-        <v>14927</v>
+        <v>15113</v>
       </c>
       <c r="G82">
-        <v>0.9752113390101409</v>
+        <v>0.97653726415462871</v>
       </c>
       <c r="H82">
-        <v>0.985430965683466</v>
+        <v>0.98208225276553807</v>
       </c>
       <c r="I82">
-        <v>1.000006595669154</v>
+        <v>1.000009195064228</v>
       </c>
       <c r="J82" t="s">
         <v>152</v>
@@ -3535,16 +3536,16 @@
         <v>1</v>
       </c>
       <c r="F83">
-        <v>15028</v>
+        <v>14969</v>
       </c>
       <c r="G83">
-        <v>0.81540933837867957</v>
+        <v>0.81858048255481075</v>
       </c>
       <c r="H83">
-        <v>0.97238212638174071</v>
+        <v>0.98264093118558304</v>
       </c>
       <c r="I83">
-        <v>1.0000334700299971</v>
+        <v>1.000023724980297</v>
       </c>
       <c r="J83" t="s">
         <v>152</v>
@@ -3567,16 +3568,16 @@
         <v>1.4</v>
       </c>
       <c r="F84">
-        <v>27015</v>
+        <v>27036</v>
       </c>
       <c r="G84">
-        <v>0.78277579847633794</v>
+        <v>0.7907162530021381</v>
       </c>
       <c r="H84">
-        <v>0.96903740885716194</v>
+        <v>0.97522029346873251</v>
       </c>
       <c r="I84">
-        <v>1.0001511470363169</v>
+        <v>1.0002777910339931</v>
       </c>
       <c r="J84" t="s">
         <v>152</v>
@@ -3599,16 +3600,16 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>3030</v>
+        <v>2882</v>
       </c>
       <c r="G85">
-        <v>0.92064361229621383</v>
+        <v>0.92778562798627062</v>
       </c>
       <c r="H85">
-        <v>0.96849351010648177</v>
+        <v>0.95826510797537989</v>
       </c>
       <c r="I85">
-        <v>1.0000098030470139</v>
+        <v>0.99998586922791388</v>
       </c>
       <c r="J85" t="s">
         <v>152</v>
@@ -3631,16 +3632,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F86">
-        <v>14954</v>
+        <v>15002</v>
       </c>
       <c r="G86">
-        <v>0.82034515769927552</v>
+        <v>0.82482915311575633</v>
       </c>
       <c r="H86">
-        <v>0.69709497348405081</v>
+        <v>0.69150161837625723</v>
       </c>
       <c r="I86">
-        <v>1.099717482015766</v>
+        <v>1.1068619863681839</v>
       </c>
       <c r="J86" t="s">
         <v>154</v>
@@ -3663,16 +3664,16 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>15109</v>
+        <v>14883</v>
       </c>
       <c r="G87">
-        <v>0.83984835187712004</v>
+        <v>0.84341374765232802</v>
       </c>
       <c r="H87">
-        <v>0.95840338579320394</v>
+        <v>0.94321952629903794</v>
       </c>
       <c r="I87">
-        <v>1.000474925532381</v>
+        <v>1.0009402010133459</v>
       </c>
       <c r="J87" t="s">
         <v>152</v>
@@ -3695,16 +3696,16 @@
         <v>1.45</v>
       </c>
       <c r="F88">
-        <v>26933</v>
+        <v>27086</v>
       </c>
       <c r="G88">
-        <v>0.99207357990959188</v>
+        <v>0.986996213617645</v>
       </c>
       <c r="H88">
-        <v>0.75561445479919875</v>
+        <v>0.74511769684259621</v>
       </c>
       <c r="I88">
-        <v>1.8358158806876539</v>
+        <v>4.605371146419869</v>
       </c>
       <c r="J88" t="s">
         <v>153</v>
@@ -3727,16 +3728,16 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>3004</v>
+        <v>3029</v>
       </c>
       <c r="G89">
-        <v>0.94432966901788751</v>
+        <v>0.93286248711496988</v>
       </c>
       <c r="H89">
-        <v>0.94947212860360375</v>
+        <v>0.96317879188185096</v>
       </c>
       <c r="I89">
-        <v>1.0000184479676371</v>
+        <v>1.000152516263225</v>
       </c>
       <c r="J89" t="s">
         <v>152</v>
@@ -3759,16 +3760,16 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>15077</v>
+        <v>14980</v>
       </c>
       <c r="G90">
-        <v>0.99938423837595991</v>
+        <v>0.99748241778589108</v>
       </c>
       <c r="H90">
-        <v>0.90341839134398561</v>
+        <v>0.89888521405710375</v>
       </c>
       <c r="I90">
-        <v>1.005103163619365</v>
+        <v>1.0050466954876911</v>
       </c>
       <c r="J90" t="s">
         <v>152</v>
@@ -3791,16 +3792,16 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>15168</v>
+        <v>14837</v>
       </c>
       <c r="G91">
-        <v>0.99819146875844222</v>
+        <v>0.99629555162320782</v>
       </c>
       <c r="H91">
-        <v>0.89982849318611235</v>
+        <v>0.90673628228917746</v>
       </c>
       <c r="I91">
-        <v>1.0050140648443711</v>
+        <v>1.00430195444499</v>
       </c>
       <c r="J91" t="s">
         <v>152</v>
@@ -3823,16 +3824,16 @@
         <v>1.2</v>
       </c>
       <c r="F92">
-        <v>26796</v>
+        <v>27016</v>
       </c>
       <c r="G92">
-        <v>0.99718801081545305</v>
+        <v>0.99923697363898656</v>
       </c>
       <c r="H92">
-        <v>0.82365349106334806</v>
+        <v>0.82251492403805715</v>
       </c>
       <c r="I92">
-        <v>1.085676605860707</v>
+        <v>1.098075183774077</v>
       </c>
       <c r="J92" t="s">
         <v>152</v>
@@ -3855,16 +3856,16 @@
         <v>0.85</v>
       </c>
       <c r="F93">
-        <v>2959</v>
+        <v>3167</v>
       </c>
       <c r="G93">
-        <v>0.99840738247945005</v>
+        <v>0.99602782146013069</v>
       </c>
       <c r="H93">
-        <v>0.78348727924145967</v>
+        <v>0.77376735961658971</v>
       </c>
       <c r="I93">
-        <v>1.002700026780196</v>
+        <v>1.003292083890607</v>
       </c>
       <c r="J93" t="s">
         <v>154</v>
@@ -3887,16 +3888,16 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>15039</v>
+        <v>14889</v>
       </c>
       <c r="G94">
-        <v>0.92348170359026094</v>
+        <v>0.92096000407256751</v>
       </c>
       <c r="H94">
-        <v>0.98671705654930753</v>
+        <v>0.98154137984685319</v>
       </c>
       <c r="I94">
-        <v>1.0000309247755019</v>
+        <v>1.000048403740218</v>
       </c>
       <c r="J94" t="s">
         <v>152</v>
@@ -3919,16 +3920,16 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>14991</v>
+        <v>15216</v>
       </c>
       <c r="G95">
-        <v>0.92646523823706317</v>
+        <v>0.92230836954384243</v>
       </c>
       <c r="H95">
-        <v>0.97898958968076055</v>
+        <v>0.9877048861984038</v>
       </c>
       <c r="I95">
-        <v>1.000008209253316</v>
+        <v>1.000019397943692</v>
       </c>
       <c r="J95" t="s">
         <v>152</v>
@@ -3951,16 +3952,16 @@
         <v>1.2</v>
       </c>
       <c r="F96">
-        <v>26978</v>
+        <v>26926</v>
       </c>
       <c r="G96">
-        <v>0.83230072266845756</v>
+        <v>0.82791187730842242</v>
       </c>
       <c r="H96">
-        <v>0.98433944748330882</v>
+        <v>0.97670309228842533</v>
       </c>
       <c r="I96">
-        <v>1.0000643224576631</v>
+        <v>1.000280591920935</v>
       </c>
       <c r="J96" t="s">
         <v>152</v>
@@ -3983,16 +3984,16 @@
         <v>0.85</v>
       </c>
       <c r="F97">
-        <v>2992</v>
+        <v>2969</v>
       </c>
       <c r="G97">
-        <v>0.91534889041231082</v>
+        <v>0.91861999757208324</v>
       </c>
       <c r="H97">
-        <v>0.96406682598775606</v>
+        <v>0.96975172372517471</v>
       </c>
       <c r="I97">
-        <v>1.0001575468818891</v>
+        <v>0.99998945795849525</v>
       </c>
       <c r="J97" t="s">
         <v>152</v>
@@ -4015,16 +4016,16 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>14957</v>
+        <v>14972</v>
       </c>
       <c r="G98">
-        <v>0.93766867934187759</v>
+        <v>0.93619299193987915</v>
       </c>
       <c r="H98">
-        <v>0.87835215903552499</v>
+        <v>0.87693156607597778</v>
       </c>
       <c r="I98">
-        <v>1.0130927658135249</v>
+        <v>1.015727420420462</v>
       </c>
       <c r="J98" t="s">
         <v>152</v>
@@ -4047,16 +4048,16 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>15033</v>
+        <v>15087</v>
       </c>
       <c r="G99">
-        <v>0.94031785910724675</v>
+        <v>0.94372900718498387</v>
       </c>
       <c r="H99">
-        <v>0.87472161960074923</v>
+        <v>0.88206241229729021</v>
       </c>
       <c r="I99">
-        <v>1.016124278830602</v>
+        <v>1.013276123978647</v>
       </c>
       <c r="J99" t="s">
         <v>152</v>
@@ -4079,16 +4080,16 @@
         <v>0.65</v>
       </c>
       <c r="F100">
-        <v>27044</v>
+        <v>26955</v>
       </c>
       <c r="G100">
-        <v>0.8493065555296968</v>
+        <v>0.84680839435634869</v>
       </c>
       <c r="H100">
-        <v>0.75118253473290697</v>
+        <v>0.75065134453263405</v>
       </c>
       <c r="I100">
-        <v>1.0761629664146579</v>
+        <v>1.0757002506692079</v>
       </c>
       <c r="J100" t="s">
         <v>154</v>
@@ -4111,16 +4112,16 @@
         <v>1.45</v>
       </c>
       <c r="F101">
-        <v>2966</v>
+        <v>2986</v>
       </c>
       <c r="G101">
-        <v>0.89780182357008276</v>
+        <v>0.88883043038221943</v>
       </c>
       <c r="H101">
-        <v>0.73063803162265339</v>
+        <v>0.72158566279853753</v>
       </c>
       <c r="I101">
-        <v>1.231178230155819</v>
+        <v>1.5254391621523471</v>
       </c>
       <c r="J101" t="s">
         <v>153</v>
@@ -4143,16 +4144,16 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>15017</v>
+        <v>14987</v>
       </c>
       <c r="G102">
-        <v>0.99627612450254988</v>
+        <v>0.99860352675834263</v>
       </c>
       <c r="H102">
-        <v>0.86712373941231879</v>
+        <v>0.87028551281102495</v>
       </c>
       <c r="I102">
-        <v>1.0102764265602071</v>
+        <v>1.007808701480025</v>
       </c>
       <c r="J102" t="s">
         <v>152</v>
@@ -4175,16 +4176,16 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>14712</v>
+        <v>15093</v>
       </c>
       <c r="G103">
-        <v>0.99951845030702502</v>
+        <v>0.99620197818285539</v>
       </c>
       <c r="H103">
-        <v>0.86960536922533715</v>
+        <v>0.86763633002953366</v>
       </c>
       <c r="I103">
-        <v>1.0081743223013679</v>
+        <v>1.008276469692732</v>
       </c>
       <c r="J103" t="s">
         <v>152</v>
@@ -4207,16 +4208,16 @@
         <v>1.2</v>
       </c>
       <c r="F104">
-        <v>27224</v>
+        <v>26912</v>
       </c>
       <c r="G104">
-        <v>0.99852903914324831</v>
+        <v>0.99877219323645583</v>
       </c>
       <c r="H104">
-        <v>0.86505330361115162</v>
+        <v>0.86106009866221678</v>
       </c>
       <c r="I104">
-        <v>1.0354262141205399</v>
+        <v>1.032571511673221</v>
       </c>
       <c r="J104" t="s">
         <v>152</v>
@@ -4239,16 +4240,16 @@
         <v>1.4</v>
       </c>
       <c r="F105">
-        <v>3047</v>
+        <v>3008</v>
       </c>
       <c r="G105">
-        <v>0.99504481910788289</v>
+        <v>0.99801659755129424</v>
       </c>
       <c r="H105">
-        <v>0.76562895074243587</v>
+        <v>0.77569837525014462</v>
       </c>
       <c r="I105">
-        <v>1.099389774037316</v>
+        <v>1.124295604907676</v>
       </c>
       <c r="J105" t="s">
         <v>153</v>
@@ -4271,16 +4272,16 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>15014</v>
+        <v>15027</v>
       </c>
       <c r="G106">
-        <v>0.91189925348012124</v>
+        <v>0.89559828812891085</v>
       </c>
       <c r="H106">
-        <v>0.98249236198876988</v>
+        <v>0.98933699207444048</v>
       </c>
       <c r="I106">
-        <v>1.000106143910253</v>
+        <v>1.000019340719478</v>
       </c>
       <c r="J106" t="s">
         <v>152</v>
@@ -4303,16 +4304,16 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>14998</v>
+        <v>15063</v>
       </c>
       <c r="G107">
-        <v>0.90313836936611436</v>
+        <v>0.89948376851707257</v>
       </c>
       <c r="H107">
-        <v>0.97812835239088591</v>
+        <v>0.97739506207572235</v>
       </c>
       <c r="I107">
-        <v>1.000017532589571</v>
+        <v>1.0000204915927049</v>
       </c>
       <c r="J107" t="s">
         <v>152</v>
@@ -4335,16 +4336,16 @@
         <v>1.2</v>
       </c>
       <c r="F108">
-        <v>26897</v>
+        <v>26915</v>
       </c>
       <c r="G108">
-        <v>0.88374263618819138</v>
+        <v>0.86943026451469896</v>
       </c>
       <c r="H108">
-        <v>0.99004445557201037</v>
+        <v>0.98261362542298036</v>
       </c>
       <c r="I108">
-        <v>1.0001546077981951</v>
+        <v>1.0000003263308339</v>
       </c>
       <c r="J108" t="s">
         <v>152</v>
@@ -4367,16 +4368,16 @@
         <v>1.4</v>
       </c>
       <c r="F109">
-        <v>3091</v>
+        <v>2995</v>
       </c>
       <c r="G109">
-        <v>0.89918911954357805</v>
+        <v>0.89033909759046292</v>
       </c>
       <c r="H109">
-        <v>0.95333791687269032</v>
+        <v>0.96034776453581527</v>
       </c>
       <c r="I109">
-        <v>1.000077457861541</v>
+        <v>1.000004691628944</v>
       </c>
       <c r="J109" t="s">
         <v>152</v>
@@ -4399,16 +4400,16 @@
         <v>1</v>
       </c>
       <c r="F110">
-        <v>14963</v>
+        <v>14910</v>
       </c>
       <c r="G110">
-        <v>0.83732952564159047</v>
+        <v>0.84107700358467774</v>
       </c>
       <c r="H110">
-        <v>0.88593978540549301</v>
+        <v>0.87802378355959698</v>
       </c>
       <c r="I110">
-        <v>1.021519804720445</v>
+        <v>1.0280827797986201</v>
       </c>
       <c r="J110" t="s">
         <v>152</v>
@@ -4431,16 +4432,16 @@
         <v>1</v>
       </c>
       <c r="F111">
-        <v>15080</v>
+        <v>15009</v>
       </c>
       <c r="G111">
-        <v>0.83948005594467268</v>
+        <v>0.8426863278287553</v>
       </c>
       <c r="H111">
-        <v>0.88164133802214284</v>
+        <v>0.87835719935175627</v>
       </c>
       <c r="I111">
-        <v>1.022314320407417</v>
+        <v>1.025024620282968</v>
       </c>
       <c r="J111" t="s">
         <v>152</v>
@@ -4463,16 +4464,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F112">
-        <v>27048</v>
+        <v>27116</v>
       </c>
       <c r="G112">
-        <v>0.72079815135509406</v>
+        <v>0.725910110888214</v>
       </c>
       <c r="H112">
-        <v>0.75333768323099159</v>
+        <v>0.74673544918071177</v>
       </c>
       <c r="I112">
-        <v>1.1249316661880251</v>
+        <v>1.132218143910785</v>
       </c>
       <c r="J112" t="s">
         <v>154</v>
@@ -4495,16 +4496,16 @@
         <v>1.45</v>
       </c>
       <c r="F113">
-        <v>2909</v>
+        <v>2965</v>
       </c>
       <c r="G113">
-        <v>0.99493800642895291</v>
+        <v>0.99815576206458601</v>
       </c>
       <c r="H113">
-        <v>0.73306008729316285</v>
+        <v>0.74261278080504245</v>
       </c>
       <c r="I113">
-        <v>1.258148300820376</v>
+        <v>1.4588893075197931</v>
       </c>
       <c r="J113" t="s">
         <v>153</v>
@@ -4527,16 +4528,16 @@
         <v>1.2</v>
       </c>
       <c r="F114">
-        <v>15123</v>
+        <v>14938</v>
       </c>
       <c r="G114">
-        <v>0.99874251494382005</v>
+        <v>0.99763566585981345</v>
       </c>
       <c r="H114">
-        <v>0.7959197419325158</v>
+        <v>0.78964874771047122</v>
       </c>
       <c r="I114">
-        <v>1.1068381347262</v>
+        <v>1.1470632415053921</v>
       </c>
       <c r="J114" t="s">
         <v>153</v>
@@ -4559,16 +4560,16 @@
         <v>0.85</v>
       </c>
       <c r="F115">
-        <v>14876</v>
+        <v>15174</v>
       </c>
       <c r="G115">
-        <v>0.99999399363464625</v>
+        <v>0.99829369357594699</v>
       </c>
       <c r="H115">
-        <v>0.79631745429375511</v>
+        <v>0.79869832968917276</v>
       </c>
       <c r="I115">
-        <v>1.0248848826974299</v>
+        <v>1.0235170385528309</v>
       </c>
       <c r="J115" t="s">
         <v>154</v>
@@ -4591,16 +4592,16 @@
         <v>1</v>
       </c>
       <c r="F116">
-        <v>27073</v>
+        <v>26903</v>
       </c>
       <c r="G116">
-        <v>0.99970620588590642</v>
+        <v>0.99792459651540677</v>
       </c>
       <c r="H116">
-        <v>0.97969285820152996</v>
+        <v>0.97809880404932592</v>
       </c>
       <c r="I116">
-        <v>1.000312181368143</v>
+        <v>1.0003368019659491</v>
       </c>
       <c r="J116" t="s">
         <v>152</v>
@@ -4623,16 +4624,16 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>2928</v>
+        <v>2985</v>
       </c>
       <c r="G117">
-        <v>0.99677522344205627</v>
+        <v>0.99663381891493674</v>
       </c>
       <c r="H117">
-        <v>0.9755239208850357</v>
+        <v>0.96498636550949024</v>
       </c>
       <c r="I117">
-        <v>1.0000284431454141</v>
+        <v>0.99999329884693611</v>
       </c>
       <c r="J117" t="s">
         <v>152</v>
@@ -4655,16 +4656,16 @@
         <v>1.2</v>
       </c>
       <c r="F118">
-        <v>14846</v>
+        <v>14748</v>
       </c>
       <c r="G118">
-        <v>0.81503520124460882</v>
+        <v>0.8256634609904443</v>
       </c>
       <c r="H118">
-        <v>0.96939788424587581</v>
+        <v>0.97599959431729832</v>
       </c>
       <c r="I118">
-        <v>1.000016214168852</v>
+        <v>1.000112774492119</v>
       </c>
       <c r="J118" t="s">
         <v>152</v>
@@ -4687,16 +4688,16 @@
         <v>0.85</v>
       </c>
       <c r="F119">
-        <v>14971</v>
+        <v>15248</v>
       </c>
       <c r="G119">
-        <v>0.84126311712167068</v>
+        <v>0.84024440839027981</v>
       </c>
       <c r="H119">
-        <v>0.97818846727603326</v>
+        <v>0.97875152294887025</v>
       </c>
       <c r="I119">
-        <v>1.0000002117116249</v>
+        <v>1.000015796045689</v>
       </c>
       <c r="J119" t="s">
         <v>152</v>
@@ -4719,16 +4720,16 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>27199</v>
+        <v>27022</v>
       </c>
       <c r="G120">
-        <v>0.97647143144894111</v>
+        <v>0.99091814356786656</v>
       </c>
       <c r="H120">
-        <v>0.98726231803149311</v>
+        <v>0.98575961803719037</v>
       </c>
       <c r="I120">
-        <v>1.0000158622513291</v>
+        <v>1.000078678939051</v>
       </c>
       <c r="J120" t="s">
         <v>152</v>
@@ -4751,16 +4752,16 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="G121">
-        <v>0.99729754043966012</v>
+        <v>0.99544150783745577</v>
       </c>
       <c r="H121">
-        <v>0.96311133083958478</v>
+        <v>0.96331740307313374</v>
       </c>
       <c r="I121">
-        <v>1.0000051069175231</v>
+        <v>1.0000934449584891</v>
       </c>
       <c r="J121" t="s">
         <v>152</v>
@@ -4783,16 +4784,16 @@
         <v>0.65</v>
       </c>
       <c r="F122">
-        <v>15027</v>
+        <v>15212</v>
       </c>
       <c r="G122">
-        <v>0.84203507791637611</v>
+        <v>0.84132932147462858</v>
       </c>
       <c r="H122">
-        <v>0.72235524735301815</v>
+        <v>0.71505702899532253</v>
       </c>
       <c r="I122">
-        <v>1.0549894512600231</v>
+        <v>1.061036400584437</v>
       </c>
       <c r="J122" t="s">
         <v>154</v>
@@ -4815,16 +4816,16 @@
         <v>1.45</v>
       </c>
       <c r="F123">
-        <v>14881</v>
+        <v>14845</v>
       </c>
       <c r="G123">
-        <v>0.8243309687210536</v>
+        <v>0.81370601509664775</v>
       </c>
       <c r="H123">
-        <v>0.75950135801475782</v>
+        <v>0.75586659904915443</v>
       </c>
       <c r="I123">
-        <v>1.36660496758838</v>
+        <v>1.7401877975246069</v>
       </c>
       <c r="J123" t="s">
         <v>153</v>
@@ -4847,16 +4848,16 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <v>27083</v>
+        <v>26962</v>
       </c>
       <c r="G124">
-        <v>0.98853382619622288</v>
+        <v>0.98280586233604139</v>
       </c>
       <c r="H124">
-        <v>0.94812030379086654</v>
+        <v>0.94842395148569525</v>
       </c>
       <c r="I124">
-        <v>1.000619815942251</v>
+        <v>1.00042548703943</v>
       </c>
       <c r="J124" t="s">
         <v>152</v>
@@ -4879,16 +4880,16 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>3009</v>
+        <v>2981</v>
       </c>
       <c r="G125">
-        <v>0.9921331702570001</v>
+        <v>0.98707742743061788</v>
       </c>
       <c r="H125">
-        <v>0.9610368094627727</v>
+        <v>0.95963012275752979</v>
       </c>
       <c r="I125">
-        <v>1.0000026295443409</v>
+        <v>1.0000018224187739</v>
       </c>
       <c r="J125" t="s">
         <v>152</v>
@@ -4911,16 +4912,16 @@
         <v>1.2</v>
       </c>
       <c r="F126">
-        <v>15075</v>
+        <v>14920</v>
       </c>
       <c r="G126">
-        <v>0.99573915934482915</v>
+        <v>0.99530847479840745</v>
       </c>
       <c r="H126">
-        <v>0.94281787073042889</v>
+        <v>0.94084676868821004</v>
       </c>
       <c r="I126">
-        <v>1.0025722958056531</v>
+        <v>1.0024037887681021</v>
       </c>
       <c r="J126" t="s">
         <v>152</v>
@@ -4943,16 +4944,16 @@
         <v>1.4</v>
       </c>
       <c r="F127">
-        <v>14906</v>
+        <v>15154</v>
       </c>
       <c r="G127">
-        <v>0.99872288729348857</v>
+        <v>0.99631312194615673</v>
       </c>
       <c r="H127">
-        <v>0.75848934450542882</v>
+        <v>0.76756381702357268</v>
       </c>
       <c r="I127">
-        <v>1.2624121418171399</v>
+        <v>1.3311312802328661</v>
       </c>
       <c r="J127" t="s">
         <v>153</v>
@@ -4975,16 +4976,16 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>27041</v>
+        <v>26929</v>
       </c>
       <c r="G128">
-        <v>0.99365336110268276</v>
+        <v>0.99965455290835203</v>
       </c>
       <c r="H128">
-        <v>0.78140130124724427</v>
+        <v>0.78922309175033223</v>
       </c>
       <c r="I128">
-        <v>1.053745131094203</v>
+        <v>1.0500878345350519</v>
       </c>
       <c r="J128" t="s">
         <v>154</v>
@@ -5007,16 +5008,16 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>2978</v>
+        <v>2997</v>
       </c>
       <c r="G129">
-        <v>0.99651019825401566</v>
+        <v>0.99725584852834126</v>
       </c>
       <c r="H129">
-        <v>0.86589388671039269</v>
+        <v>0.85028861449515791</v>
       </c>
       <c r="I129">
-        <v>1.001233132350688</v>
+        <v>1.000412139434933</v>
       </c>
       <c r="J129" t="s">
         <v>152</v>
@@ -5039,16 +5040,16 @@
         <v>1.2</v>
       </c>
       <c r="F130">
-        <v>14923</v>
+        <v>14941</v>
       </c>
       <c r="G130">
-        <v>0.95424304362643519</v>
+        <v>0.96329537556846856</v>
       </c>
       <c r="H130">
-        <v>0.98094575557781238</v>
+        <v>0.98891957202725522</v>
       </c>
       <c r="I130">
-        <v>1.0000398003558859</v>
+        <v>1.0000079146448591</v>
       </c>
       <c r="J130" t="s">
         <v>152</v>
@@ -5071,16 +5072,16 @@
         <v>1.4</v>
       </c>
       <c r="F131">
-        <v>15029</v>
+        <v>14774</v>
       </c>
       <c r="G131">
-        <v>0.7952900961715339</v>
+        <v>0.78053366797916179</v>
       </c>
       <c r="H131">
-        <v>0.97390177566149705</v>
+        <v>0.97066583280797158</v>
       </c>
       <c r="I131">
-        <v>1.0001218141128181</v>
+        <v>1.0000667311949309</v>
       </c>
       <c r="J131" t="s">
         <v>152</v>
@@ -5103,16 +5104,16 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>27012</v>
+        <v>27232</v>
       </c>
       <c r="G132">
-        <v>0.80224151515612918</v>
+        <v>0.80221520860192186</v>
       </c>
       <c r="H132">
-        <v>0.9776478144887597</v>
+        <v>0.97753510578434988</v>
       </c>
       <c r="I132">
-        <v>1.0001342329120451</v>
+        <v>1.0000681248550389</v>
       </c>
       <c r="J132" t="s">
         <v>152</v>
@@ -5135,16 +5136,16 @@
         <v>1</v>
       </c>
       <c r="F133">
-        <v>3036</v>
+        <v>3053</v>
       </c>
       <c r="G133">
-        <v>0.95396104838091822</v>
+        <v>0.94561443301094605</v>
       </c>
       <c r="H133">
-        <v>0.96650737553780031</v>
+        <v>0.98214546612923126</v>
       </c>
       <c r="I133">
-        <v>1.0000434679539689</v>
+        <v>1.000012051114922</v>
       </c>
       <c r="J133" t="s">
         <v>152</v>
@@ -5167,16 +5168,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F134">
-        <v>14963</v>
+        <v>15178</v>
       </c>
       <c r="G134">
-        <v>0.78844166303075713</v>
+        <v>0.78865800324519209</v>
       </c>
       <c r="H134">
-        <v>0.72272901024728753</v>
+        <v>0.72589534150266621</v>
       </c>
       <c r="I134">
-        <v>1.084062256301787</v>
+        <v>1.0777963008608229</v>
       </c>
       <c r="J134" t="s">
         <v>154</v>
@@ -5199,16 +5200,16 @@
         <v>1.45</v>
       </c>
       <c r="F135">
-        <v>14874</v>
+        <v>14871</v>
       </c>
       <c r="G135">
-        <v>0.94860608455695583</v>
+        <v>0.9585764308137007</v>
       </c>
       <c r="H135">
-        <v>0.77529022696523098</v>
+        <v>0.77904291069039255</v>
       </c>
       <c r="I135">
-        <v>1.25967596599847</v>
+        <v>1.393015933298875</v>
       </c>
       <c r="J135" t="s">
         <v>153</v>
@@ -5231,16 +5232,16 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>27106</v>
+        <v>26905</v>
       </c>
       <c r="G136">
-        <v>0.79788108576574235</v>
+        <v>0.80252785781415548</v>
       </c>
       <c r="H136">
-        <v>0.9792797740178244</v>
+        <v>0.98065633647051353</v>
       </c>
       <c r="I136">
-        <v>1.00092592240921</v>
+        <v>1.0009492543556771</v>
       </c>
       <c r="J136" t="s">
         <v>152</v>
@@ -5263,16 +5264,16 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>3057</v>
+        <v>3046</v>
       </c>
       <c r="G137">
-        <v>0.94026521117858164</v>
+        <v>0.94739043505268994</v>
       </c>
       <c r="H137">
-        <v>0.95927310343319894</v>
+        <v>0.9850460274280044</v>
       </c>
       <c r="I137">
-        <v>1.0002626722942149</v>
+        <v>1.000087326498408</v>
       </c>
       <c r="J137" t="s">
         <v>152</v>
@@ -5295,16 +5296,16 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>14914</v>
+        <v>15019</v>
       </c>
       <c r="G138">
-        <v>0.99630904070212567</v>
+        <v>0.99298080784141596</v>
       </c>
       <c r="H138">
-        <v>0.98965282744931526</v>
+        <v>0.98253033044647109</v>
       </c>
       <c r="I138">
-        <v>1.000000133921864</v>
+        <v>0.99998407523086197</v>
       </c>
       <c r="J138" t="s">
         <v>152</v>
@@ -5327,16 +5328,16 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>15060</v>
+        <v>14829</v>
       </c>
       <c r="G139">
-        <v>0.9999414477723968</v>
+        <v>0.99450722558178506</v>
       </c>
       <c r="H139">
-        <v>0.98227084864501335</v>
+        <v>0.97777627662642197</v>
       </c>
       <c r="I139">
-        <v>1.000001962101519</v>
+        <v>1.000012105271209</v>
       </c>
       <c r="J139" t="s">
         <v>152</v>
@@ -5359,16 +5360,16 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>26984</v>
+        <v>27152</v>
       </c>
       <c r="G140">
-        <v>0.99952766306942498</v>
+        <v>0.99722496426802076</v>
       </c>
       <c r="H140">
-        <v>0.98241313155915266</v>
+        <v>0.98851174127441699</v>
       </c>
       <c r="I140">
-        <v>1.0000031583250371</v>
+        <v>1.000000032475769</v>
       </c>
       <c r="J140" t="s">
         <v>152</v>
@@ -5391,16 +5392,16 @@
         <v>1</v>
       </c>
       <c r="F141">
-        <v>3042</v>
+        <v>3000</v>
       </c>
       <c r="G141">
-        <v>0.99391567178720497</v>
+        <v>0.99674273793868073</v>
       </c>
       <c r="H141">
-        <v>0.97891130889329236</v>
+        <v>0.97190428371637794</v>
       </c>
       <c r="I141">
-        <v>1.000009787905114</v>
+        <v>1.000001239633298</v>
       </c>
       <c r="J141" t="s">
         <v>152</v>
@@ -5423,16 +5424,16 @@
         <v>1.2</v>
       </c>
       <c r="F142">
-        <v>15086</v>
+        <v>14889</v>
       </c>
       <c r="G142">
-        <v>0.99429627125826292</v>
+        <v>0.99483300438132582</v>
       </c>
       <c r="H142">
-        <v>0.82814804372234929</v>
+        <v>0.82398851986183763</v>
       </c>
       <c r="I142">
-        <v>1.02926559442972</v>
+        <v>1.0275188798187149</v>
       </c>
       <c r="J142" t="s">
         <v>152</v>
@@ -5455,16 +5456,16 @@
         <v>1</v>
       </c>
       <c r="F143">
-        <v>15091</v>
+        <v>15007</v>
       </c>
       <c r="G143">
-        <v>0.99468643970895942</v>
+        <v>0.9981405028398963</v>
       </c>
       <c r="H143">
-        <v>0.9436652692256744</v>
+        <v>0.94799938787384586</v>
       </c>
       <c r="I143">
-        <v>1.0011572939144919</v>
+        <v>1.0008864213523161</v>
       </c>
       <c r="J143" t="s">
         <v>152</v>
@@ -5487,16 +5488,16 @@
         <v>1</v>
       </c>
       <c r="F144">
-        <v>26836</v>
+        <v>27060</v>
       </c>
       <c r="G144">
-        <v>0.99995572260618115</v>
+        <v>0.99641620649994744</v>
       </c>
       <c r="H144">
-        <v>0.93579110481485184</v>
+        <v>0.92880040601626368</v>
       </c>
       <c r="I144">
-        <v>1.0027375669744021</v>
+        <v>1.0029681003363979</v>
       </c>
       <c r="J144" t="s">
         <v>152</v>
@@ -5519,16 +5520,16 @@
         <v>0.85</v>
       </c>
       <c r="F145">
-        <v>2987</v>
+        <v>3044</v>
       </c>
       <c r="G145">
-        <v>0.99912168394296297</v>
+        <v>0.99837434711173989</v>
       </c>
       <c r="H145">
-        <v>0.78934576459070327</v>
+        <v>0.79853381880572238</v>
       </c>
       <c r="I145">
-        <v>1.000495649276026</v>
+        <v>1.002009214881689</v>
       </c>
       <c r="J145" t="s">
         <v>154</v>
@@ -5551,16 +5552,16 @@
         <v>1.2</v>
       </c>
       <c r="F146">
-        <v>14896</v>
+        <v>15146</v>
       </c>
       <c r="G146">
-        <v>0.85200686471291232</v>
+        <v>0.85450128249580792</v>
       </c>
       <c r="H146">
-        <v>0.97115011656842987</v>
+        <v>0.96990027724104921</v>
       </c>
       <c r="I146">
-        <v>1.000052881919659</v>
+        <v>1.0001410858145099</v>
       </c>
       <c r="J146" t="s">
         <v>152</v>
@@ -5583,16 +5584,16 @@
         <v>1</v>
       </c>
       <c r="F147">
-        <v>15257</v>
+        <v>14955</v>
       </c>
       <c r="G147">
-        <v>0.95881006696169613</v>
+        <v>0.96039518416879466</v>
       </c>
       <c r="H147">
-        <v>0.96855729967485538</v>
+        <v>0.98471050639079116</v>
       </c>
       <c r="I147">
-        <v>1.000015694514123</v>
+        <v>1.000020993284872</v>
       </c>
       <c r="J147" t="s">
         <v>152</v>
@@ -5615,16 +5616,16 @@
         <v>1</v>
       </c>
       <c r="F148">
-        <v>26913</v>
+        <v>26950</v>
       </c>
       <c r="G148">
-        <v>0.93726505468259314</v>
+        <v>0.93632222303386092</v>
       </c>
       <c r="H148">
-        <v>0.98438589348872763</v>
+        <v>0.98677161143595948</v>
       </c>
       <c r="I148">
-        <v>1.000001753381585</v>
+        <v>1.000010718240709</v>
       </c>
       <c r="J148" t="s">
         <v>152</v>
@@ -5647,16 +5648,16 @@
         <v>0.85</v>
       </c>
       <c r="F149">
-        <v>2934</v>
+        <v>2949</v>
       </c>
       <c r="G149">
-        <v>0.93138850419548569</v>
+        <v>0.93339030217648056</v>
       </c>
       <c r="H149">
-        <v>0.96894542614270063</v>
+        <v>0.97266714422105804</v>
       </c>
       <c r="I149">
-        <v>1.0000893334837899</v>
+        <v>1.0000497561255519</v>
       </c>
       <c r="J149" t="s">
         <v>152</v>
@@ -5679,16 +5680,16 @@
         <v>0.65</v>
       </c>
       <c r="F150">
-        <v>14975</v>
+        <v>15025</v>
       </c>
       <c r="G150">
-        <v>0.87871849435496507</v>
+        <v>0.87636404242348132</v>
       </c>
       <c r="H150">
-        <v>0.75492580926262887</v>
+        <v>0.76251892923897546</v>
       </c>
       <c r="I150">
-        <v>1.021288193189374</v>
+        <v>1.0212736630058381</v>
       </c>
       <c r="J150" t="s">
         <v>154</v>
@@ -5711,16 +5712,16 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>14912</v>
+        <v>14969</v>
       </c>
       <c r="G151">
-        <v>0.97248351373465725</v>
+        <v>0.97015836855240012</v>
       </c>
       <c r="H151">
-        <v>0.93573724548604509</v>
+        <v>0.93623155143723513</v>
       </c>
       <c r="I151">
-        <v>1.00134957905943</v>
+        <v>1.001805448086327</v>
       </c>
       <c r="J151" t="s">
         <v>152</v>
@@ -5743,16 +5744,16 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>27117</v>
+        <v>26930</v>
       </c>
       <c r="G152">
-        <v>0.95847643017646278</v>
+        <v>0.95798903669569524</v>
       </c>
       <c r="H152">
-        <v>0.91246841252189592</v>
+        <v>0.9249798039424405</v>
       </c>
       <c r="I152">
-        <v>1.004272303746121</v>
+        <v>1.0026568187878411</v>
       </c>
       <c r="J152" t="s">
         <v>152</v>
@@ -5775,16 +5776,16 @@
         <v>1.45</v>
       </c>
       <c r="F153">
-        <v>2996</v>
+        <v>3076</v>
       </c>
       <c r="G153">
-        <v>0.90849737273863096</v>
+        <v>0.91041330813296339</v>
       </c>
       <c r="H153">
-        <v>0.79188525336785265</v>
+        <v>0.77432878579175712</v>
       </c>
       <c r="I153">
-        <v>1.034135881816115</v>
+        <v>1.0325474110484221</v>
       </c>
       <c r="J153" t="s">
         <v>153</v>
@@ -5807,16 +5808,16 @@
         <v>1.2</v>
       </c>
       <c r="F154">
-        <v>14945</v>
+        <v>15084</v>
       </c>
       <c r="G154">
-        <v>0.99500763077823673</v>
+        <v>0.99992833546409809</v>
       </c>
       <c r="H154">
-        <v>0.73895002074140681</v>
+        <v>0.7531276394965436</v>
       </c>
       <c r="I154">
-        <v>1.2043832972843</v>
+        <v>1.110730372645887</v>
       </c>
       <c r="J154" t="s">
         <v>153</v>
@@ -5839,16 +5840,16 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>14977</v>
+        <v>15155</v>
       </c>
       <c r="G155">
-        <v>0.99820118600519325</v>
+        <v>0.99758535155743178</v>
       </c>
       <c r="H155">
-        <v>0.97414948619544073</v>
+        <v>0.98069925704209449</v>
       </c>
       <c r="I155">
-        <v>1.0001939382249529</v>
+        <v>1.0000618909362651</v>
       </c>
       <c r="J155" t="s">
         <v>152</v>
@@ -5871,16 +5872,16 @@
         <v>0.85</v>
       </c>
       <c r="F156">
-        <v>27032</v>
+        <v>26823</v>
       </c>
       <c r="G156">
-        <v>0.99393889010473269</v>
+        <v>0.99705934943714636</v>
       </c>
       <c r="H156">
-        <v>0.76477047902892115</v>
+        <v>0.77987122616124427</v>
       </c>
       <c r="I156">
-        <v>1.039631813255407</v>
+        <v>1.033702739871047</v>
       </c>
       <c r="J156" t="s">
         <v>154</v>
@@ -5903,16 +5904,16 @@
         <v>1</v>
       </c>
       <c r="F157">
-        <v>3046</v>
+        <v>2938</v>
       </c>
       <c r="G157">
-        <v>0.99964438106685138</v>
+        <v>0.9979425397445878</v>
       </c>
       <c r="H157">
-        <v>0.9636233267493246</v>
+        <v>0.95171536075635188</v>
       </c>
       <c r="I157">
-        <v>1.0000004551574291</v>
+        <v>1.000045119668008</v>
       </c>
       <c r="J157" t="s">
         <v>152</v>
@@ -5935,16 +5936,16 @@
         <v>1.2</v>
       </c>
       <c r="F158">
-        <v>15087</v>
+        <v>14914</v>
       </c>
       <c r="G158">
-        <v>0.77509498977864699</v>
+        <v>0.78256757931582444</v>
       </c>
       <c r="H158">
-        <v>0.96355987644498675</v>
+        <v>0.96330461746777085</v>
       </c>
       <c r="I158">
-        <v>0.99999892329350859</v>
+        <v>1.000146147798656</v>
       </c>
       <c r="J158" t="s">
         <v>152</v>
@@ -5967,16 +5968,16 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>14912</v>
+        <v>15032</v>
       </c>
       <c r="G159">
-        <v>0.9831276599920139</v>
+        <v>0.97708594371488111</v>
       </c>
       <c r="H159">
-        <v>0.96431604821418271</v>
+        <v>0.98135632482502033</v>
       </c>
       <c r="I159">
-        <v>1.0003157593245151</v>
+        <v>1.000064391019406</v>
       </c>
       <c r="J159" t="s">
         <v>152</v>
@@ -5999,16 +6000,16 @@
         <v>0.85</v>
       </c>
       <c r="F160">
-        <v>27019</v>
+        <v>27041</v>
       </c>
       <c r="G160">
-        <v>0.78601056964838012</v>
+        <v>0.79085101067776853</v>
       </c>
       <c r="H160">
-        <v>0.97292236832699686</v>
+        <v>0.9770372924879368</v>
       </c>
       <c r="I160">
-        <v>1.0001979549519671</v>
+        <v>1.0000217441612991</v>
       </c>
       <c r="J160" t="s">
         <v>152</v>
@@ -6031,16 +6032,16 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>2982</v>
+        <v>3013</v>
       </c>
       <c r="G161">
-        <v>0.99264090476352418</v>
+        <v>0.99924414643432347</v>
       </c>
       <c r="H161">
-        <v>0.96364288519060792</v>
+        <v>0.96032769460435485</v>
       </c>
       <c r="I161">
-        <v>1.000055434386824</v>
+        <v>1.0001159806134969</v>
       </c>
       <c r="J161" t="s">
         <v>152</v>
@@ -6063,16 +6064,16 @@
         <v>0.65</v>
       </c>
       <c r="F162">
-        <v>14926</v>
+        <v>14885</v>
       </c>
       <c r="G162">
-        <v>0.81180526001688291</v>
+        <v>0.81098001426058142</v>
       </c>
       <c r="H162">
-        <v>0.67910659944313334</v>
+        <v>0.6785044515733949</v>
       </c>
       <c r="I162">
-        <v>1.0535571422590679</v>
+        <v>1.0573495109794839</v>
       </c>
       <c r="J162" t="s">
         <v>154</v>
@@ -6095,16 +6096,16 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <v>14976</v>
+        <v>15115</v>
       </c>
       <c r="G163">
-        <v>0.95159847923555785</v>
+        <v>0.95359761840360291</v>
       </c>
       <c r="H163">
-        <v>0.93205613033464274</v>
+        <v>0.93797307663562612</v>
       </c>
       <c r="I163">
-        <v>1.001863232977465</v>
+        <v>1.001891439811214</v>
       </c>
       <c r="J163" t="s">
         <v>152</v>
@@ -6127,16 +6128,16 @@
         <v>1.45</v>
       </c>
       <c r="F164">
-        <v>27029</v>
+        <v>27010</v>
       </c>
       <c r="G164">
-        <v>0.78704509550693713</v>
+        <v>0.78640666317891339</v>
       </c>
       <c r="H164">
-        <v>0.73723039635113119</v>
+        <v>0.7322715199637434</v>
       </c>
       <c r="I164">
-        <v>1.658330571390273</v>
+        <v>1.567106231162563</v>
       </c>
       <c r="J164" t="s">
         <v>153</v>
@@ -6159,16 +6160,16 @@
         <v>1</v>
       </c>
       <c r="F165">
-        <v>3069</v>
+        <v>2990</v>
       </c>
       <c r="G165">
-        <v>0.98342980544166558</v>
+        <v>0.97939714009664924</v>
       </c>
       <c r="H165">
-        <v>0.935647870597345</v>
+        <v>0.93655578831274466</v>
       </c>
       <c r="I165">
-        <v>1.000100608413903</v>
+        <v>1.0004005256536579</v>
       </c>
       <c r="J165" t="s">
         <v>152</v>
@@ -6191,16 +6192,16 @@
         <v>1.2</v>
       </c>
       <c r="F166">
-        <v>15137</v>
+        <v>15065</v>
       </c>
       <c r="G166">
-        <v>0.991446463766958</v>
+        <v>0.99936248158530261</v>
       </c>
       <c r="H166">
-        <v>0.85905786435960085</v>
+        <v>0.84809082534884273</v>
       </c>
       <c r="I166">
-        <v>1.0153640993063471</v>
+        <v>1.017212970975599</v>
       </c>
       <c r="J166" t="s">
         <v>152</v>
@@ -6223,16 +6224,16 @@
         <v>1</v>
       </c>
       <c r="F167">
-        <v>15109</v>
+        <v>14975</v>
       </c>
       <c r="G167">
-        <v>0.99748704490159223</v>
+        <v>0.99928771381908443</v>
       </c>
       <c r="H167">
-        <v>0.91348176010486615</v>
+        <v>0.90261586168805075</v>
       </c>
       <c r="I167">
-        <v>1.0023438563820271</v>
+        <v>1.0033457301852331</v>
       </c>
       <c r="J167" t="s">
         <v>152</v>
@@ -6255,16 +6256,16 @@
         <v>1</v>
       </c>
       <c r="F168">
-        <v>26764</v>
+        <v>27072</v>
       </c>
       <c r="G168">
-        <v>0.99162760751595103</v>
+        <v>0.99931154564514801</v>
       </c>
       <c r="H168">
-        <v>0.88781510317087797</v>
+        <v>0.89340008254721204</v>
       </c>
       <c r="I168">
-        <v>1.008023370129052</v>
+        <v>1.0071992931502489</v>
       </c>
       <c r="J168" t="s">
         <v>152</v>
@@ -6287,16 +6288,16 @@
         <v>1.4</v>
       </c>
       <c r="F169">
-        <v>2990</v>
+        <v>2888</v>
       </c>
       <c r="G169">
-        <v>0.99704049150321128</v>
+        <v>0.99854809394576916</v>
       </c>
       <c r="H169">
-        <v>0.74585728051577438</v>
+        <v>0.76239698485910035</v>
       </c>
       <c r="I169">
-        <v>1.07658606856766</v>
+        <v>1.056643513720817</v>
       </c>
       <c r="J169" t="s">
         <v>153</v>
@@ -6319,16 +6320,16 @@
         <v>1.2</v>
       </c>
       <c r="F170">
-        <v>15020</v>
+        <v>15166</v>
       </c>
       <c r="G170">
-        <v>0.88086493564594159</v>
+        <v>0.87886723453612214</v>
       </c>
       <c r="H170">
-        <v>0.98703587263231318</v>
+        <v>0.98442096780036781</v>
       </c>
       <c r="I170">
-        <v>1.0000552499625259</v>
+        <v>1.00000134159939</v>
       </c>
       <c r="J170" t="s">
         <v>152</v>
@@ -6351,16 +6352,16 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <v>14934</v>
+        <v>14922</v>
       </c>
       <c r="G171">
-        <v>0.94182867062670317</v>
+        <v>0.93685856126075018</v>
       </c>
       <c r="H171">
-        <v>0.98403551208778717</v>
+        <v>0.98110164397390776</v>
       </c>
       <c r="I171">
-        <v>1.000053125890719</v>
+        <v>1.0000002730980899</v>
       </c>
       <c r="J171" t="s">
         <v>152</v>
@@ -6383,16 +6384,16 @@
         <v>1</v>
       </c>
       <c r="F172">
-        <v>27017</v>
+        <v>26882</v>
       </c>
       <c r="G172">
-        <v>0.8934450404995552</v>
+        <v>0.89412805497921088</v>
       </c>
       <c r="H172">
-        <v>0.98310615549453551</v>
+        <v>0.98738801882204441</v>
       </c>
       <c r="I172">
-        <v>1.000277759757493</v>
+        <v>1.0000013984975631</v>
       </c>
       <c r="J172" t="s">
         <v>152</v>
@@ -6415,16 +6416,16 @@
         <v>1.4</v>
       </c>
       <c r="F173">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="G173">
-        <v>0.87870920939496333</v>
+        <v>0.87533386573606298</v>
       </c>
       <c r="H173">
-        <v>0.95693661140558228</v>
+        <v>0.94479476238526783</v>
       </c>
       <c r="I173">
-        <v>1.000032144058407</v>
+        <v>1.0000226631460341</v>
       </c>
       <c r="J173" t="s">
         <v>152</v>
@@ -6447,16 +6448,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F174">
-        <v>15073</v>
+        <v>14985</v>
       </c>
       <c r="G174">
-        <v>0.74459319918254185</v>
+        <v>0.73935854945453949</v>
       </c>
       <c r="H174">
-        <v>0.76313874959730543</v>
+        <v>0.76215894299261333</v>
       </c>
       <c r="I174">
-        <v>1.032314027336463</v>
+        <v>1.0350990278352239</v>
       </c>
       <c r="J174" t="s">
         <v>154</v>
@@ -6479,16 +6480,16 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>14839</v>
+        <v>15155</v>
       </c>
       <c r="G175">
-        <v>0.9069207257395997</v>
+        <v>0.89881556643881744</v>
       </c>
       <c r="H175">
-        <v>0.93425226742618483</v>
+        <v>0.94250331601625825</v>
       </c>
       <c r="I175">
-        <v>1.0038783706933501</v>
+        <v>1.003073175852552</v>
       </c>
       <c r="J175" t="s">
         <v>152</v>
@@ -6511,16 +6512,16 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>27032</v>
+        <v>26883</v>
       </c>
       <c r="G176">
-        <v>0.84375031458265559</v>
+        <v>0.84886169220299168</v>
       </c>
       <c r="H176">
-        <v>0.92098924148307926</v>
+        <v>0.91820589458802526</v>
       </c>
       <c r="I176">
-        <v>1.0062814045186459</v>
+        <v>1.0087449482900499</v>
       </c>
       <c r="J176" t="s">
         <v>152</v>
@@ -6543,16 +6544,16 @@
         <v>1.45</v>
       </c>
       <c r="F177">
-        <v>3056</v>
+        <v>2977</v>
       </c>
       <c r="G177">
-        <v>0.96758132273102215</v>
+        <v>0.97098449536739218</v>
       </c>
       <c r="H177">
-        <v>0.79770726730184749</v>
+        <v>0.79351932743398379</v>
       </c>
       <c r="I177">
-        <v>1.0365547534985979</v>
+        <v>1.0299870311125321</v>
       </c>
       <c r="J177" t="s">
         <v>153</v>
@@ -6575,16 +6576,16 @@
         <v>1.2</v>
       </c>
       <c r="F178">
-        <v>14894</v>
+        <v>14876</v>
       </c>
       <c r="G178">
-        <v>0.99833647953425186</v>
+        <v>0.99439412902267976</v>
       </c>
       <c r="H178">
-        <v>0.97009039861687518</v>
+        <v>0.96577362617570595</v>
       </c>
       <c r="I178">
-        <v>1.0000012702901611</v>
+        <v>1.0002539614551711</v>
       </c>
       <c r="J178" t="s">
         <v>152</v>
@@ -6607,16 +6608,16 @@
         <v>1</v>
       </c>
       <c r="F179">
-        <v>15035</v>
+        <v>15052</v>
       </c>
       <c r="G179">
-        <v>0.99986795125165862</v>
+        <v>0.99952764001180483</v>
       </c>
       <c r="H179">
-        <v>0.75427490691212951</v>
+        <v>0.76536068118145684</v>
       </c>
       <c r="I179">
-        <v>1.026008015536763</v>
+        <v>1.019924667725127</v>
       </c>
       <c r="J179" t="s">
         <v>154</v>
@@ -6639,16 +6640,16 @@
         <v>1.4</v>
       </c>
       <c r="F180">
-        <v>26965</v>
+        <v>27062</v>
       </c>
       <c r="G180">
-        <v>0.99661650640018951</v>
+        <v>0.99227529932100833</v>
       </c>
       <c r="H180">
-        <v>0.77893791467101614</v>
+        <v>0.78116174889891532</v>
       </c>
       <c r="I180">
-        <v>1.1097419142314759</v>
+        <v>1.096436698822181</v>
       </c>
       <c r="J180" t="s">
         <v>153</v>
@@ -6671,19 +6672,19 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>3106</v>
+        <v>3010</v>
       </c>
       <c r="G181">
-        <v>0.99590521104243424</v>
+        <v>0.99441875576309313</v>
       </c>
       <c r="H181">
-        <v>0.79388570756566479</v>
+        <v>0.81510990746762757</v>
       </c>
       <c r="I181">
-        <v>1.002796793213754</v>
+        <v>1.0011770017029431</v>
       </c>
       <c r="J181" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.35">
@@ -6703,16 +6704,16 @@
         <v>1.2</v>
       </c>
       <c r="F182">
-        <v>14927</v>
+        <v>15113</v>
       </c>
       <c r="G182">
-        <v>0.9752113390101409</v>
+        <v>0.97653726415462871</v>
       </c>
       <c r="H182">
-        <v>0.97869997528883734</v>
+        <v>0.97764530652028214</v>
       </c>
       <c r="I182">
-        <v>1.000030927732233</v>
+        <v>1.000018134165487</v>
       </c>
       <c r="J182" t="s">
         <v>152</v>
@@ -6735,16 +6736,16 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <v>15028</v>
+        <v>14969</v>
       </c>
       <c r="G183">
-        <v>0.81540933837867957</v>
+        <v>0.81858048255481075</v>
       </c>
       <c r="H183">
-        <v>0.97226752141550243</v>
+        <v>0.97645033311808005</v>
       </c>
       <c r="I183">
-        <v>1.0000299403558179</v>
+        <v>1.000063766065181</v>
       </c>
       <c r="J183" t="s">
         <v>152</v>
@@ -6767,16 +6768,16 @@
         <v>1.4</v>
       </c>
       <c r="F184">
-        <v>27015</v>
+        <v>27036</v>
       </c>
       <c r="G184">
-        <v>0.78277579847633794</v>
+        <v>0.7907162530021381</v>
       </c>
       <c r="H184">
-        <v>0.96853633579899345</v>
+        <v>0.97324316483724693</v>
       </c>
       <c r="I184">
-        <v>1.00003782198905</v>
+        <v>1.0002664047916039</v>
       </c>
       <c r="J184" t="s">
         <v>152</v>
@@ -6799,16 +6800,16 @@
         <v>1</v>
       </c>
       <c r="F185">
-        <v>3030</v>
+        <v>2882</v>
       </c>
       <c r="G185">
-        <v>0.92064361229621383</v>
+        <v>0.92778562798627062</v>
       </c>
       <c r="H185">
-        <v>0.97165796474781641</v>
+        <v>0.95877298194354454</v>
       </c>
       <c r="I185">
-        <v>1.000038819618968</v>
+        <v>1.000001158037745</v>
       </c>
       <c r="J185" t="s">
         <v>152</v>
@@ -6831,16 +6832,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F186">
-        <v>14954</v>
+        <v>15002</v>
       </c>
       <c r="G186">
-        <v>0.82034515769927552</v>
+        <v>0.82482915311575633</v>
       </c>
       <c r="H186">
-        <v>0.69838800704957449</v>
+        <v>0.69302460574991209</v>
       </c>
       <c r="I186">
-        <v>1.0550035799086801</v>
+        <v>1.0584611071197449</v>
       </c>
       <c r="J186" t="s">
         <v>154</v>
@@ -6863,16 +6864,16 @@
         <v>1</v>
       </c>
       <c r="F187">
-        <v>15109</v>
+        <v>14883</v>
       </c>
       <c r="G187">
-        <v>0.83984835187712004</v>
+        <v>0.84341374765232802</v>
       </c>
       <c r="H187">
-        <v>0.96032552650144498</v>
+        <v>0.93796885358782933</v>
       </c>
       <c r="I187">
-        <v>1.0002012561084641</v>
+        <v>1.0006326670022669</v>
       </c>
       <c r="J187" t="s">
         <v>152</v>
@@ -6895,16 +6896,16 @@
         <v>1.45</v>
       </c>
       <c r="F188">
-        <v>26933</v>
+        <v>27086</v>
       </c>
       <c r="G188">
-        <v>0.99207357990959188</v>
+        <v>0.986996213617645</v>
       </c>
       <c r="H188">
-        <v>0.75602042955105353</v>
+        <v>0.74344327157647272</v>
       </c>
       <c r="I188">
-        <v>1.323849224889672</v>
+        <v>1.3424432393562149</v>
       </c>
       <c r="J188" t="s">
         <v>153</v>
@@ -6927,16 +6928,16 @@
         <v>1</v>
       </c>
       <c r="F189">
-        <v>3004</v>
+        <v>3029</v>
       </c>
       <c r="G189">
-        <v>0.94432966901788751</v>
+        <v>0.93286248711496988</v>
       </c>
       <c r="H189">
-        <v>0.93310019857395987</v>
+        <v>0.9610424418247614</v>
       </c>
       <c r="I189">
-        <v>0.99997933041343889</v>
+        <v>1.0000974008023731</v>
       </c>
       <c r="J189" t="s">
         <v>152</v>
@@ -6959,16 +6960,16 @@
         <v>1</v>
       </c>
       <c r="F190">
-        <v>15077</v>
+        <v>14980</v>
       </c>
       <c r="G190">
-        <v>0.99938423837595991</v>
+        <v>0.99748241778589108</v>
       </c>
       <c r="H190">
-        <v>0.8996250792121685</v>
+        <v>0.89570360924368508</v>
       </c>
       <c r="I190">
-        <v>1.003355153510983</v>
+        <v>1.0031994342663999</v>
       </c>
       <c r="J190" t="s">
         <v>152</v>
@@ -6991,16 +6992,16 @@
         <v>1</v>
       </c>
       <c r="F191">
-        <v>15168</v>
+        <v>14837</v>
       </c>
       <c r="G191">
-        <v>0.99819146875844222</v>
+        <v>0.99629555162320782</v>
       </c>
       <c r="H191">
-        <v>0.89788700997319293</v>
+        <v>0.90293009853603434</v>
       </c>
       <c r="I191">
-        <v>1.003624249201696</v>
+        <v>1.0032494038570099</v>
       </c>
       <c r="J191" t="s">
         <v>152</v>
@@ -7023,16 +7024,16 @@
         <v>1.2</v>
       </c>
       <c r="F192">
-        <v>26796</v>
+        <v>27016</v>
       </c>
       <c r="G192">
-        <v>0.99718801081545305</v>
+        <v>0.99923697363898656</v>
       </c>
       <c r="H192">
-        <v>0.82018786039271852</v>
+        <v>0.81718941402255241</v>
       </c>
       <c r="I192">
-        <v>1.0512095559154799</v>
+        <v>1.04876228794757</v>
       </c>
       <c r="J192" t="s">
         <v>152</v>
@@ -7055,16 +7056,16 @@
         <v>0.85</v>
       </c>
       <c r="F193">
-        <v>2959</v>
+        <v>3167</v>
       </c>
       <c r="G193">
-        <v>0.99840738247945005</v>
+        <v>0.99602782146013069</v>
       </c>
       <c r="H193">
-        <v>0.78447040390231937</v>
+        <v>0.76875081351591912</v>
       </c>
       <c r="I193">
-        <v>1.001486115748855</v>
+        <v>1.002263640085614</v>
       </c>
       <c r="J193" t="s">
         <v>154</v>
@@ -7087,16 +7088,16 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>15039</v>
+        <v>14889</v>
       </c>
       <c r="G194">
-        <v>0.92348170359026094</v>
+        <v>0.92096000407256751</v>
       </c>
       <c r="H194">
-        <v>0.98050782872325171</v>
+        <v>0.97695042628394102</v>
       </c>
       <c r="I194">
-        <v>1.0000108446291911</v>
+        <v>1.000030616817845</v>
       </c>
       <c r="J194" t="s">
         <v>152</v>
@@ -7119,16 +7120,16 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>14991</v>
+        <v>15216</v>
       </c>
       <c r="G195">
-        <v>0.92646523823706317</v>
+        <v>0.92230836954384243</v>
       </c>
       <c r="H195">
-        <v>0.97852120583973035</v>
+        <v>0.98453741150309004</v>
       </c>
       <c r="I195">
-        <v>1.000005729518991</v>
+        <v>1.0000039462264001</v>
       </c>
       <c r="J195" t="s">
         <v>152</v>
@@ -7151,16 +7152,16 @@
         <v>1.2</v>
       </c>
       <c r="F196">
-        <v>26978</v>
+        <v>26926</v>
       </c>
       <c r="G196">
-        <v>0.83230072266845756</v>
+        <v>0.82791187730842242</v>
       </c>
       <c r="H196">
-        <v>0.97549774447207549</v>
+        <v>0.97544485108868839</v>
       </c>
       <c r="I196">
-        <v>1.000022751094358</v>
+        <v>1.000114700422857</v>
       </c>
       <c r="J196" t="s">
         <v>152</v>
@@ -7183,16 +7184,16 @@
         <v>0.85</v>
       </c>
       <c r="F197">
-        <v>2992</v>
+        <v>2969</v>
       </c>
       <c r="G197">
-        <v>0.91534889041231082</v>
+        <v>0.91861999757208324</v>
       </c>
       <c r="H197">
-        <v>0.96454079079741761</v>
+        <v>0.97216429079805267</v>
       </c>
       <c r="I197">
-        <v>1.000149650479554</v>
+        <v>0.99999718895531864</v>
       </c>
       <c r="J197" t="s">
         <v>152</v>
@@ -7215,16 +7216,16 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>14957</v>
+        <v>14972</v>
       </c>
       <c r="G198">
-        <v>0.93766867934187759</v>
+        <v>0.93619299193987915</v>
       </c>
       <c r="H198">
-        <v>0.88183787816088766</v>
+        <v>0.87320778359448803</v>
       </c>
       <c r="I198">
-        <v>1.006721394800197</v>
+        <v>1.0095008556318401</v>
       </c>
       <c r="J198" t="s">
         <v>152</v>
@@ -7247,16 +7248,16 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>15033</v>
+        <v>15087</v>
       </c>
       <c r="G199">
-        <v>0.94031785910724675</v>
+        <v>0.94372900718498387</v>
       </c>
       <c r="H199">
-        <v>0.87122390474126254</v>
+        <v>0.88037532470062874</v>
       </c>
       <c r="I199">
-        <v>1.0106641120692621</v>
+        <v>1.0077068804362661</v>
       </c>
       <c r="J199" t="s">
         <v>152</v>
@@ -7279,16 +7280,16 @@
         <v>0.65</v>
       </c>
       <c r="F200">
-        <v>27044</v>
+        <v>26955</v>
       </c>
       <c r="G200">
-        <v>0.8493065555296968</v>
+        <v>0.84680839435634869</v>
       </c>
       <c r="H200">
-        <v>0.75016787400100926</v>
+        <v>0.74635793218001378</v>
       </c>
       <c r="I200">
-        <v>1.0470503610997099</v>
+        <v>1.0483285657713159</v>
       </c>
       <c r="J200" t="s">
         <v>154</v>
@@ -7311,16 +7312,16 @@
         <v>1.45</v>
       </c>
       <c r="F201">
-        <v>2966</v>
+        <v>2986</v>
       </c>
       <c r="G201">
-        <v>0.89780182357008276</v>
+        <v>0.88883043038221943</v>
       </c>
       <c r="H201">
-        <v>0.72673083984007036</v>
+        <v>0.7201682977677939</v>
       </c>
       <c r="I201">
-        <v>1.0988872751980161</v>
+        <v>1.093197010620965</v>
       </c>
       <c r="J201" t="s">
         <v>153</v>
@@ -7343,16 +7344,16 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>15017</v>
+        <v>14987</v>
       </c>
       <c r="G202">
-        <v>0.99627612450254988</v>
+        <v>0.99860352675834263</v>
       </c>
       <c r="H202">
-        <v>0.86534560319143272</v>
+        <v>0.87327753812515196</v>
       </c>
       <c r="I202">
-        <v>1.0070038607435929</v>
+        <v>1.0046637078635059</v>
       </c>
       <c r="J202" t="s">
         <v>152</v>
@@ -7375,16 +7376,16 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>14712</v>
+        <v>15093</v>
       </c>
       <c r="G203">
-        <v>0.99951845030702502</v>
+        <v>0.99620197818285539</v>
       </c>
       <c r="H203">
-        <v>0.86590757445277911</v>
+        <v>0.86441825505274883</v>
       </c>
       <c r="I203">
-        <v>1.005594917680068</v>
+        <v>1.0059847029202249</v>
       </c>
       <c r="J203" t="s">
         <v>152</v>
@@ -7407,16 +7408,16 @@
         <v>1.2</v>
       </c>
       <c r="F204">
-        <v>27224</v>
+        <v>26912</v>
       </c>
       <c r="G204">
-        <v>0.99852903914324831</v>
+        <v>0.99877219323645583</v>
       </c>
       <c r="H204">
-        <v>0.86286812911507882</v>
+        <v>0.85981774371588759</v>
       </c>
       <c r="I204">
-        <v>1.0229932693079249</v>
+        <v>1.018309251567117</v>
       </c>
       <c r="J204" t="s">
         <v>152</v>
@@ -7439,16 +7440,16 @@
         <v>1.4</v>
       </c>
       <c r="F205">
-        <v>3047</v>
+        <v>3008</v>
       </c>
       <c r="G205">
-        <v>0.99504481910788289</v>
+        <v>0.99801659755129424</v>
       </c>
       <c r="H205">
-        <v>0.76092297510679774</v>
+        <v>0.78054163181952296</v>
       </c>
       <c r="I205">
-        <v>1.050363173705652</v>
+        <v>1.039382022153913</v>
       </c>
       <c r="J205" t="s">
         <v>153</v>
@@ -7471,16 +7472,16 @@
         <v>1</v>
       </c>
       <c r="F206">
-        <v>15014</v>
+        <v>15027</v>
       </c>
       <c r="G206">
-        <v>0.91189925348012124</v>
+        <v>0.89559828812891085</v>
       </c>
       <c r="H206">
-        <v>0.97741859793592334</v>
+        <v>0.98070049467065867</v>
       </c>
       <c r="I206">
-        <v>1.000105121601645</v>
+        <v>1.0000256696340299</v>
       </c>
       <c r="J206" t="s">
         <v>152</v>
@@ -7503,16 +7504,16 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>14998</v>
+        <v>15063</v>
       </c>
       <c r="G207">
-        <v>0.90313836936611436</v>
+        <v>0.89948376851707257</v>
       </c>
       <c r="H207">
-        <v>0.97606966074075008</v>
+        <v>0.9798018580027017</v>
       </c>
       <c r="I207">
-        <v>1.0000167460335361</v>
+        <v>1.000024667201741</v>
       </c>
       <c r="J207" t="s">
         <v>152</v>
@@ -7535,16 +7536,16 @@
         <v>1.2</v>
       </c>
       <c r="F208">
-        <v>26897</v>
+        <v>26915</v>
       </c>
       <c r="G208">
-        <v>0.88374263618819138</v>
+        <v>0.86943026451469896</v>
       </c>
       <c r="H208">
-        <v>0.98843704460825266</v>
+        <v>0.98073812124179038</v>
       </c>
       <c r="I208">
-        <v>1.0001078114959641</v>
+        <v>1.000006927734121</v>
       </c>
       <c r="J208" t="s">
         <v>152</v>
@@ -7567,16 +7568,16 @@
         <v>1.4</v>
       </c>
       <c r="F209">
-        <v>3091</v>
+        <v>2995</v>
       </c>
       <c r="G209">
-        <v>0.89918911954357805</v>
+        <v>0.89033909759046292</v>
       </c>
       <c r="H209">
-        <v>0.95165060590895156</v>
+        <v>0.94687673253644844</v>
       </c>
       <c r="I209">
-        <v>1.0000742224045851</v>
+        <v>1.0000105358342399</v>
       </c>
       <c r="J209" t="s">
         <v>152</v>
@@ -7599,16 +7600,16 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>14963</v>
+        <v>14910</v>
       </c>
       <c r="G210">
-        <v>0.83732952564159047</v>
+        <v>0.84107700358467774</v>
       </c>
       <c r="H210">
-        <v>0.88673387453829833</v>
+        <v>0.877995565334174</v>
       </c>
       <c r="I210">
-        <v>1.0125928185521429</v>
+        <v>1.014962866154808</v>
       </c>
       <c r="J210" t="s">
         <v>152</v>
@@ -7631,16 +7632,16 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>15080</v>
+        <v>15009</v>
       </c>
       <c r="G211">
-        <v>0.83948005594467268</v>
+        <v>0.8426863278287553</v>
       </c>
       <c r="H211">
-        <v>0.87601939106845716</v>
+        <v>0.88233845705423686</v>
       </c>
       <c r="I211">
-        <v>1.014858064660543</v>
+        <v>1.012157748724225</v>
       </c>
       <c r="J211" t="s">
         <v>152</v>
@@ -7663,16 +7664,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F212">
-        <v>27048</v>
+        <v>27116</v>
       </c>
       <c r="G212">
-        <v>0.72079815135509406</v>
+        <v>0.725910110888214</v>
       </c>
       <c r="H212">
-        <v>0.75098981003514909</v>
+        <v>0.74722771633800222</v>
       </c>
       <c r="I212">
-        <v>1.0729747081566989</v>
+        <v>1.0744381983888509</v>
       </c>
       <c r="J212" t="s">
         <v>154</v>
@@ -7695,16 +7696,16 @@
         <v>1.45</v>
       </c>
       <c r="F213">
-        <v>2909</v>
+        <v>2965</v>
       </c>
       <c r="G213">
-        <v>0.99493800642895291</v>
+        <v>0.99815576206458601</v>
       </c>
       <c r="H213">
-        <v>0.73855541976582939</v>
+        <v>0.73566399235276891</v>
       </c>
       <c r="I213">
-        <v>1.1272952636991169</v>
+        <v>1.099529118197512</v>
       </c>
       <c r="J213" t="s">
         <v>153</v>
@@ -7727,16 +7728,16 @@
         <v>1.2</v>
       </c>
       <c r="F214">
-        <v>15123</v>
+        <v>14938</v>
       </c>
       <c r="G214">
-        <v>0.99874251494382005</v>
+        <v>0.99763566585981345</v>
       </c>
       <c r="H214">
-        <v>0.79663142311494761</v>
+        <v>0.79307869019839161</v>
       </c>
       <c r="I214">
-        <v>1.0530992919126549</v>
+        <v>1.049748881343499</v>
       </c>
       <c r="J214" t="s">
         <v>153</v>
@@ -7759,19 +7760,19 @@
         <v>0.85</v>
       </c>
       <c r="F215">
-        <v>14876</v>
+        <v>15174</v>
       </c>
       <c r="G215">
-        <v>0.99999399363464625</v>
+        <v>0.99829369357594699</v>
       </c>
       <c r="H215">
-        <v>0.79416404253769246</v>
+        <v>0.80091323944008952</v>
       </c>
       <c r="I215">
-        <v>1.015685225570679</v>
+        <v>1.014959839937106</v>
       </c>
       <c r="J215" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.35">
@@ -7791,16 +7792,16 @@
         <v>1</v>
       </c>
       <c r="F216">
-        <v>27073</v>
+        <v>26903</v>
       </c>
       <c r="G216">
-        <v>0.99970620588590642</v>
+        <v>0.99792459651540677</v>
       </c>
       <c r="H216">
-        <v>0.98150012509769058</v>
+        <v>0.97894791553160099</v>
       </c>
       <c r="I216">
-        <v>1.000132514284916</v>
+        <v>1.0001656503422349</v>
       </c>
       <c r="J216" t="s">
         <v>152</v>
@@ -7823,16 +7824,16 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>2928</v>
+        <v>2985</v>
       </c>
       <c r="G217">
-        <v>0.99677522344205627</v>
+        <v>0.99663381891493674</v>
       </c>
       <c r="H217">
-        <v>0.96476056605686944</v>
+        <v>0.95304250476848396</v>
       </c>
       <c r="I217">
-        <v>0.9999889184446491</v>
+        <v>1.0000175818503609</v>
       </c>
       <c r="J217" t="s">
         <v>152</v>
@@ -7855,16 +7856,16 @@
         <v>1.2</v>
       </c>
       <c r="F218">
-        <v>14846</v>
+        <v>14748</v>
       </c>
       <c r="G218">
-        <v>0.81503520124460882</v>
+        <v>0.8256634609904443</v>
       </c>
       <c r="H218">
-        <v>0.96432323978365297</v>
+        <v>0.97177676169941973</v>
       </c>
       <c r="I218">
-        <v>1.000062477417887</v>
+        <v>1.0000166566609849</v>
       </c>
       <c r="J218" t="s">
         <v>152</v>
@@ -7887,16 +7888,16 @@
         <v>0.85</v>
       </c>
       <c r="F219">
-        <v>14971</v>
+        <v>15248</v>
       </c>
       <c r="G219">
-        <v>0.84126311712167068</v>
+        <v>0.84024440839027981</v>
       </c>
       <c r="H219">
-        <v>0.97827621264683906</v>
+        <v>0.97152064030753649</v>
       </c>
       <c r="I219">
-        <v>1.0000125398278099</v>
+        <v>1.000001135236481</v>
       </c>
       <c r="J219" t="s">
         <v>152</v>
@@ -7919,16 +7920,16 @@
         <v>1</v>
       </c>
       <c r="F220">
-        <v>27199</v>
+        <v>27022</v>
       </c>
       <c r="G220">
-        <v>0.97647143144894111</v>
+        <v>0.99091814356786656</v>
       </c>
       <c r="H220">
-        <v>0.97951717157099261</v>
+        <v>0.98153503065531666</v>
       </c>
       <c r="I220">
-        <v>1.0000002769233329</v>
+        <v>1.0000466320426571</v>
       </c>
       <c r="J220" t="s">
         <v>152</v>
@@ -7951,16 +7952,16 @@
         <v>1</v>
       </c>
       <c r="F221">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="G221">
-        <v>0.99729754043966012</v>
+        <v>0.99544150783745577</v>
       </c>
       <c r="H221">
-        <v>0.96196661900848379</v>
+        <v>0.94954606581651102</v>
       </c>
       <c r="I221">
-        <v>1.0000076179235571</v>
+        <v>1.000150057147545</v>
       </c>
       <c r="J221" t="s">
         <v>152</v>
@@ -7983,16 +7984,16 @@
         <v>0.65</v>
       </c>
       <c r="F222">
-        <v>15027</v>
+        <v>15212</v>
       </c>
       <c r="G222">
-        <v>0.84203507791637611</v>
+        <v>0.84132932147462858</v>
       </c>
       <c r="H222">
-        <v>0.72228842677581007</v>
+        <v>0.71290735451176679</v>
       </c>
       <c r="I222">
-        <v>1.0355427431636279</v>
+        <v>1.0379533229413711</v>
       </c>
       <c r="J222" t="s">
         <v>154</v>
@@ -8015,16 +8016,16 @@
         <v>1.45</v>
       </c>
       <c r="F223">
-        <v>14881</v>
+        <v>14845</v>
       </c>
       <c r="G223">
-        <v>0.8243309687210536</v>
+        <v>0.81370601509664775</v>
       </c>
       <c r="H223">
-        <v>0.76010173051295971</v>
+        <v>0.75958547564311574</v>
       </c>
       <c r="I223">
-        <v>1.152252318775467</v>
+        <v>1.1250368187344271</v>
       </c>
       <c r="J223" t="s">
         <v>153</v>
@@ -8047,16 +8048,16 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>27083</v>
+        <v>26962</v>
       </c>
       <c r="G224">
-        <v>0.98853382619622288</v>
+        <v>0.98280586233604139</v>
       </c>
       <c r="H224">
-        <v>0.94973139692113817</v>
+        <v>0.94814644615547761</v>
       </c>
       <c r="I224">
-        <v>1.0004117201103251</v>
+        <v>1.0001617656951149</v>
       </c>
       <c r="J224" t="s">
         <v>152</v>
@@ -8079,16 +8080,16 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>3009</v>
+        <v>2981</v>
       </c>
       <c r="G225">
-        <v>0.9921331702570001</v>
+        <v>0.98707742743061788</v>
       </c>
       <c r="H225">
-        <v>0.95665019417167729</v>
+        <v>0.95955206785524316</v>
       </c>
       <c r="I225">
-        <v>1.0000229704545121</v>
+        <v>1.000000274107649</v>
       </c>
       <c r="J225" t="s">
         <v>152</v>
@@ -8111,16 +8112,16 @@
         <v>1.2</v>
       </c>
       <c r="F226">
-        <v>15075</v>
+        <v>14920</v>
       </c>
       <c r="G226">
-        <v>0.99573915934482915</v>
+        <v>0.99530847479840745</v>
       </c>
       <c r="H226">
-        <v>0.94399086195390225</v>
+        <v>0.93585662974404238</v>
       </c>
       <c r="I226">
-        <v>1.001666405224513</v>
+        <v>1.0017168989663741</v>
       </c>
       <c r="J226" t="s">
         <v>152</v>
@@ -8143,16 +8144,16 @@
         <v>1.4</v>
       </c>
       <c r="F227">
-        <v>14906</v>
+        <v>15154</v>
       </c>
       <c r="G227">
-        <v>0.99872288729348857</v>
+        <v>0.99631312194615673</v>
       </c>
       <c r="H227">
-        <v>0.75636942600212342</v>
+        <v>0.76867873866734338</v>
       </c>
       <c r="I227">
-        <v>1.1298459068551521</v>
+        <v>1.0868592028465569</v>
       </c>
       <c r="J227" t="s">
         <v>153</v>
@@ -8175,16 +8176,16 @@
         <v>1</v>
       </c>
       <c r="F228">
-        <v>27041</v>
+        <v>26929</v>
       </c>
       <c r="G228">
-        <v>0.99365336110268276</v>
+        <v>0.99965455290835203</v>
       </c>
       <c r="H228">
-        <v>0.78171293957602006</v>
+        <v>0.78905908714213846</v>
       </c>
       <c r="I228">
-        <v>1.0332373027069801</v>
+        <v>1.031202195682914</v>
       </c>
       <c r="J228" t="s">
         <v>154</v>
@@ -8207,16 +8208,16 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>2978</v>
+        <v>2997</v>
       </c>
       <c r="G229">
-        <v>0.99651019825401566</v>
+        <v>0.99725584852834126</v>
       </c>
       <c r="H229">
-        <v>0.85622540003127601</v>
+        <v>0.84289864661506753</v>
       </c>
       <c r="I229">
-        <v>1.000834872442707</v>
+        <v>1.0010303482386249</v>
       </c>
       <c r="J229" t="s">
         <v>152</v>
@@ -8239,16 +8240,16 @@
         <v>1.2</v>
       </c>
       <c r="F230">
-        <v>14923</v>
+        <v>14941</v>
       </c>
       <c r="G230">
-        <v>0.95424304362643519</v>
+        <v>0.96329537556846856</v>
       </c>
       <c r="H230">
-        <v>0.97776082576296552</v>
+        <v>0.98615341535401535</v>
       </c>
       <c r="I230">
-        <v>1.000033591364837</v>
+        <v>1.0000000284756041</v>
       </c>
       <c r="J230" t="s">
         <v>152</v>
@@ -8271,16 +8272,16 @@
         <v>1.4</v>
       </c>
       <c r="F231">
-        <v>15029</v>
+        <v>14774</v>
       </c>
       <c r="G231">
-        <v>0.7952900961715339</v>
+        <v>0.78053366797916179</v>
       </c>
       <c r="H231">
-        <v>0.96848262364153781</v>
+        <v>0.96463401223192347</v>
       </c>
       <c r="I231">
-        <v>1.0000416099705951</v>
+        <v>1.000124065729119</v>
       </c>
       <c r="J231" t="s">
         <v>152</v>
@@ -8303,16 +8304,16 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>27012</v>
+        <v>27232</v>
       </c>
       <c r="G232">
-        <v>0.80224151515612918</v>
+        <v>0.80221520860192186</v>
       </c>
       <c r="H232">
-        <v>0.97352395687667626</v>
+        <v>0.97648816131165816</v>
       </c>
       <c r="I232">
-        <v>1.000064241094389</v>
+        <v>1.0001013403817369</v>
       </c>
       <c r="J232" t="s">
         <v>152</v>
@@ -8335,16 +8336,16 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>3036</v>
+        <v>3053</v>
       </c>
       <c r="G233">
-        <v>0.95396104838091822</v>
+        <v>0.94561443301094605</v>
       </c>
       <c r="H233">
-        <v>0.95560813736681072</v>
+        <v>0.97181795588118502</v>
       </c>
       <c r="I233">
-        <v>1.000026037807676</v>
+        <v>1.000038673208073</v>
       </c>
       <c r="J233" t="s">
         <v>152</v>
@@ -8367,16 +8368,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F234">
-        <v>14963</v>
+        <v>15178</v>
       </c>
       <c r="G234">
-        <v>0.78844166303075713</v>
+        <v>0.78865800324519209</v>
       </c>
       <c r="H234">
-        <v>0.7253299790077431</v>
+        <v>0.72805860488730767</v>
       </c>
       <c r="I234">
-        <v>1.047130420129277</v>
+        <v>1.042101226406599</v>
       </c>
       <c r="J234" t="s">
         <v>154</v>
@@ -8399,16 +8400,16 @@
         <v>1.45</v>
       </c>
       <c r="F235">
-        <v>14874</v>
+        <v>14871</v>
       </c>
       <c r="G235">
-        <v>0.94860608455695583</v>
+        <v>0.9585764308137007</v>
       </c>
       <c r="H235">
-        <v>0.7768270901662464</v>
+        <v>0.77642672993092898</v>
       </c>
       <c r="I235">
-        <v>1.114653053224834</v>
+        <v>1.103429878561681</v>
       </c>
       <c r="J235" t="s">
         <v>153</v>
@@ -8431,16 +8432,16 @@
         <v>1</v>
       </c>
       <c r="F236">
-        <v>27106</v>
+        <v>26905</v>
       </c>
       <c r="G236">
-        <v>0.79788108576574235</v>
+        <v>0.80252785781415548</v>
       </c>
       <c r="H236">
-        <v>0.9760486007390089</v>
+        <v>0.982304152969394</v>
       </c>
       <c r="I236">
-        <v>1.000595729693897</v>
+        <v>1.0003652909149989</v>
       </c>
       <c r="J236" t="s">
         <v>152</v>
@@ -8463,30 +8464,30 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>3057</v>
+        <v>3046</v>
       </c>
       <c r="G237">
-        <v>0.94026521117858164</v>
+        <v>0.94739043505268994</v>
       </c>
       <c r="H237">
-        <v>0.94962104372959533</v>
+        <v>0.98285470170948808</v>
       </c>
       <c r="I237">
-        <v>1.000286383251354</v>
+        <v>1.0001242646844171</v>
       </c>
       <c r="J237" t="s">
         <v>152</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>1.25</formula>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0.8</formula>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1.25</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
